--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>Software</t>
   </si>
@@ -41,6 +41,9 @@
     <t>libspace.o</t>
   </si>
   <si>
+    <t>i2c.o</t>
+  </si>
+  <si>
     <t>tx_initialize_high_level.o</t>
   </si>
   <si>
@@ -56,6 +59,15 @@
     <t>stm32l4xx_hal_rcc.o</t>
   </si>
   <si>
+    <t>stm32l4xx_hal_i2c.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_rcc_ex.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_gpio.o</t>
+  </si>
+  <si>
     <t>txe_thread_create.o</t>
   </si>
   <si>
@@ -89,15 +101,18 @@
     <t>tx_initialize_low_level.o</t>
   </si>
   <si>
+    <t>main.o</t>
+  </si>
+  <si>
     <t>tx_thread_sleep.o</t>
   </si>
   <si>
+    <t>stm32l4xx_hal_i2c_ex.o</t>
+  </si>
+  <si>
     <t>tx_byte_pool_create.o</t>
   </si>
   <si>
-    <t>main.o</t>
-  </si>
-  <si>
     <t>tx_thread_time_slice.o</t>
   </si>
   <si>
@@ -108,6 +123,12 @@
   </si>
   <si>
     <t>tx_thread_shell_entry.o</t>
+  </si>
+  <si>
+    <t>rx8900_callout.o</t>
+  </si>
+  <si>
+    <t>rx8900.o</t>
   </si>
   <si>
     <t>rt_memclr_w.o</t>
@@ -320,9 +341,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$64</c:f>
+              <c:f>ram_percent!$A$3:$A$71</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
@@ -345,18 +366,21 @@
                   <c:v>libspace.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="68">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -364,44 +388,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$64</c:f>
+              <c:f>ram_percent!$B$3:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>33.3622932434082</c:v>
+                  <c:v>32.76450347900391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.06429100036621</c:v>
+                  <c:v>25.59726905822754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.85317039489746</c:v>
+                  <c:v>18.51535797119141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.25021743774414</c:v>
+                  <c:v>12.03071689605713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.735881805419922</c:v>
+                  <c:v>3.668941974639893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.085143327713013</c:v>
+                  <c:v>2.047781467437744</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.085143327713013</c:v>
+                  <c:v>2.047781467437744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.129452705383301</c:v>
+                  <c:v>1.791808843612671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2606429159641266</c:v>
+                  <c:v>1.109215021133423</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.08688097447156906</c:v>
+                  <c:v>0.255972683429718</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.08688097447156906</c:v>
-                </c:pt>
-                <c:pt idx="61">
+                  <c:v>0.0853242352604866</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0853242352604866</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -469,193 +496,214 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$64</c:f>
+              <c:f>flash_percent!$A$3:$A$71</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>stm32l4xx_hal_rcc.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>stm32l4xx_hal_i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>c_w.l</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>stm32l4xx_hal_gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>txe_thread_create.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>tx_thread_system_suspend.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>txe_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>tx_timer_thread_entry.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>tx_thread_create.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>tx_thread_system_resume.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>tx_thread_schedule.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>tx_timer_interrupt.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>tx_timer_initialize.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>tx_initialize_low_level.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>tx_thread_sleep.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
+                  <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>tx_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>tx_thread_time_slice.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>appmain.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>tx_timer_system_activate.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>tx_thread_shell_entry.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
+                  <c:v>rx8900_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
+                  <c:v>rx8900.o</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>app_azure_rtos.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="34">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="35">
                   <c:v>tx_initialize_kernel_enter.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="36">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>stm32l4xx_hal_pwr.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>tx_thread_stack_build.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>tx_timer_system_deactivate.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="41">
                   <c:v>tx_thread_initialize.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="42">
                   <c:v>tx_thread_timeout.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="44">
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
                   <c:v>tx_timer_expiration_process.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="47">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="48">
                   <c:v>app_threadx.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="49">
                   <c:v>fz_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="50">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
                   <c:v>__scatter_copy.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="52">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="53">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="54">
                   <c:v>sys_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="55">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="56">
                   <c:v>stm32l4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="57">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="58">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="59">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="60">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="61">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="62">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="63">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="64">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="65">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="66">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="67">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="68">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -663,194 +711,215 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$64</c:f>
+              <c:f>flash_percent!$B$3:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>26.84550285339356</c:v>
+                  <c:v>18.93583679199219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.511496543884277</c:v>
+                  <c:v>15.26532936096191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.840661525726318</c:v>
+                  <c:v>6.928439140319824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.638967514038086</c:v>
+                  <c:v>6.003698825836182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.013715267181397</c:v>
+                  <c:v>3.414425849914551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.83219051361084</c:v>
+                  <c:v>3.272158145904541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.590157270431519</c:v>
+                  <c:v>3.129890441894531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.287616014480591</c:v>
+                  <c:v>2.831128120422363</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.20693826675415</c:v>
+                  <c:v>2.703087091445923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.106091260910034</c:v>
+                  <c:v>2.532365798950195</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.783380508422852</c:v>
+                  <c:v>2.318964242935181</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.218636512756348</c:v>
+                  <c:v>2.262057304382324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.855586886405945</c:v>
+                  <c:v>2.19092321395874</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.633723258972168</c:v>
+                  <c:v>1.963294863700867</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.613553881645203</c:v>
+                  <c:v>1.721439719200134</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.532876133918762</c:v>
+                  <c:v>1.564945220947266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.472367882728577</c:v>
+                  <c:v>1.308863282203674</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.411859631538391</c:v>
+                  <c:v>1.152368783950806</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.351351380348206</c:v>
+                  <c:v>1.138141989707947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.270673632621765</c:v>
+                  <c:v>1.081234931945801</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.129487752914429</c:v>
+                  <c:v>1.052781343460083</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.008471131324768</c:v>
+                  <c:v>1.038554549217224</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9479628801345825</c:v>
+                  <c:v>1.038554549217224</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9076240658760071</c:v>
+                  <c:v>0.9958742260932922</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9076240658760071</c:v>
+                  <c:v>0.8962867856025696</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8672851920127869</c:v>
+                  <c:v>0.7966994047164917</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8471157550811768</c:v>
+                  <c:v>0.7397922873497009</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7866075038909912</c:v>
+                  <c:v>0.668658435344696</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7866075038909912</c:v>
+                  <c:v>0.6402048468589783</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.746268630027771</c:v>
+                  <c:v>0.6402048468589783</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.746268630027771</c:v>
+                  <c:v>0.6402048468589783</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6857603788375855</c:v>
+                  <c:v>0.6117513179779053</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.64542156457901</c:v>
+                  <c:v>0.6117513179779053</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5849132537841797</c:v>
+                  <c:v>0.5975245237350464</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5849132537841797</c:v>
+                  <c:v>0.5548442006111145</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5445744395256043</c:v>
+                  <c:v>0.5548442006111145</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.504235565662384</c:v>
+                  <c:v>0.5263906717300415</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4638967216014862</c:v>
+                  <c:v>0.5263906717300415</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3630496263504028</c:v>
+                  <c:v>0.4837103486061096</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.322710782289505</c:v>
+                  <c:v>0.4552567899227142</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2823719382286072</c:v>
+                  <c:v>0.4125764667987824</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2823719382286072</c:v>
+                  <c:v>0.4125764667987824</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2622025012969971</c:v>
+                  <c:v>0.384122908115387</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2622025012969971</c:v>
+                  <c:v>0.355669379234314</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2622025012969971</c:v>
+                  <c:v>0.3272158205509186</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1815248131752014</c:v>
+                  <c:v>0.2560819387435913</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1613553911447525</c:v>
+                  <c:v>0.2276283949613571</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1210165396332741</c:v>
+                  <c:v>0.1991748511791229</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1210165396332741</c:v>
+                  <c:v>0.1991748511791229</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1210165396332741</c:v>
+                  <c:v>0.1849480718374252</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1008471176028252</c:v>
+                  <c:v>0.1849480718374252</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.08067769557237625</c:v>
+                  <c:v>0.1849480718374252</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.08067769557237625</c:v>
+                  <c:v>0.1280409693717957</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.06050826981663704</c:v>
+                  <c:v>0.1138141974806786</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.06050826981663704</c:v>
+                  <c:v>0.08536064624786377</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.06050826981663704</c:v>
+                  <c:v>0.08536064624786377</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.02016942389309406</c:v>
+                  <c:v>0.08536064624786377</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.02016942389309406</c:v>
+                  <c:v>0.07113387435674667</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.02016942389309406</c:v>
+                  <c:v>0.05690709874033928</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.02016942389309406</c:v>
+                  <c:v>0.05690709874033928</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.02016942389309406</c:v>
+                  <c:v>0.04268032312393189</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>0.04268032312393189</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.04268032312393189</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.01422677468508482</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.01422677468508482</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.01422677468508482</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.01422677468508482</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.01422677468508482</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -955,8 +1024,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H64" totalsRowCount="1">
-  <autoFilter ref="A2:H63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H71" totalsRowCount="1">
+  <autoFilter ref="A2:H70"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -972,8 +1041,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H64" totalsRowCount="1">
-  <autoFilter ref="A2:H63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H71" totalsRowCount="1">
+  <autoFilter ref="A2:H70"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1273,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1289,28 +1358,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1318,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>33.3622932434082</v>
+        <v>32.76450347900391</v>
       </c>
       <c r="C3" s="1">
         <v>1536</v>
@@ -1344,16 +1413,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>26.06429100036621</v>
+        <v>25.59726905822754</v>
       </c>
       <c r="C4" s="1">
         <v>1200</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1370,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18.85317039489746</v>
+        <v>18.51535797119141</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
@@ -1396,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>12.25021743774414</v>
+        <v>12.03071689605713</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
@@ -1422,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3.735881805419922</v>
+        <v>3.668941974639893</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
@@ -1448,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.085143327713013</v>
+        <v>2.047781467437744</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1474,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.085143327713013</v>
+        <v>2.047781467437744</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1500,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.129452705383301</v>
+        <v>1.791808843612671</v>
       </c>
       <c r="C10" s="1">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="E10" s="1">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1518,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1526,25 +1595,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2606429159641266</v>
+        <v>1.109215021133423</v>
       </c>
       <c r="C11" s="1">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1552,22 +1621,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.08688097447156906</v>
+        <v>0.255972683429718</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
-        <v>844</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1">
-        <v>844</v>
+        <v>118</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
         <v>4</v>
@@ -1578,56 +1647,82 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.08688097447156906</v>
+        <v>0.0853242352604866</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
       </c>
       <c r="D13" s="1">
+        <v>844</v>
+      </c>
+      <c r="E13" s="1">
+        <v>844</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.0853242352604866</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
         <v>86</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>18</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>64</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C64">
+      <c r="C71">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D64">
+      <c r="D71">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E71">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F71">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="G71">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H64">
+      <c r="H71">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1643,7 +1738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1659,36 +1754,36 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>26.84550285339356</v>
+        <v>18.93583679199219</v>
       </c>
       <c r="C3" s="1">
         <v>2662</v>
@@ -1711,19 +1806,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>8.511496543884277</v>
+        <v>15.26532936096191</v>
       </c>
       <c r="C4" s="1">
-        <v>844</v>
+        <v>2146</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>844</v>
+        <v>2146</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1732,24 +1827,24 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>4.840661525726318</v>
+        <v>6.928439140319824</v>
       </c>
       <c r="C5" s="1">
-        <v>480</v>
+        <v>974</v>
       </c>
       <c r="D5" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>480</v>
+        <v>974</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1758,50 +1853,50 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>4.638967514038086</v>
+        <v>6.003698825836182</v>
       </c>
       <c r="C6" s="1">
-        <v>460</v>
+        <v>844</v>
       </c>
       <c r="D6" s="1">
-        <v>1536</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>64</v>
+        <v>844</v>
       </c>
       <c r="F6" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1536</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>4.013715267181397</v>
+        <v>3.414425849914551</v>
       </c>
       <c r="C7" s="1">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1810,50 +1905,50 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>3.83219051361084</v>
+        <v>3.272158145904541</v>
       </c>
       <c r="C8" s="1">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="E8" s="1">
-        <v>380</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>3.590157270431519</v>
+        <v>3.129890441894531</v>
       </c>
       <c r="C9" s="1">
-        <v>356</v>
+        <v>440</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>356</v>
+        <v>440</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1867,19 +1962,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>3.287616014480591</v>
+        <v>2.831128120422363</v>
       </c>
       <c r="C10" s="1">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1893,19 +1988,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>3.20693826675415</v>
+        <v>2.703087091445923</v>
       </c>
       <c r="C11" s="1">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1919,19 +2014,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>3.106091260910034</v>
+        <v>2.532365798950195</v>
       </c>
       <c r="C12" s="1">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1945,19 +2040,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>2.783380508422852</v>
+        <v>2.318964242935181</v>
       </c>
       <c r="C13" s="1">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1971,19 +2066,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>2.218636512756348</v>
+        <v>2.262057304382324</v>
       </c>
       <c r="C14" s="1">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1997,19 +2092,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>1.855586886405945</v>
+        <v>2.19092321395874</v>
       </c>
       <c r="C15" s="1">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2023,19 +2118,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>1.633723258972168</v>
+        <v>1.963294863700867</v>
       </c>
       <c r="C16" s="1">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2049,19 +2144,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>1.613553881645203</v>
+        <v>1.721439719200134</v>
       </c>
       <c r="C17" s="1">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="D17" s="1">
-        <v>868</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2070,24 +2165,24 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>868</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>1.532876133918762</v>
+        <v>1.564945220947266</v>
       </c>
       <c r="C18" s="1">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2101,19 +2196,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.472367882728577</v>
+        <v>1.308863282203674</v>
       </c>
       <c r="C19" s="1">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2127,19 +2222,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.411859631538391</v>
+        <v>1.152368783950806</v>
       </c>
       <c r="C20" s="1">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2153,19 +2248,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2">
-        <v>1.351351380348206</v>
+        <v>1.138141989707947</v>
       </c>
       <c r="C21" s="1">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="E21" s="1">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2174,50 +2269,50 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>1.270673632621765</v>
+        <v>1.081234931945801</v>
       </c>
       <c r="C22" s="1">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D22" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>1.129487752914429</v>
+        <v>1.052781343460083</v>
       </c>
       <c r="C23" s="1">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2231,19 +2326,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>1.008471131324768</v>
+        <v>1.038554549217224</v>
       </c>
       <c r="C24" s="1">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2252,24 +2347,24 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9479628801345825</v>
+        <v>1.038554549217224</v>
       </c>
       <c r="C25" s="1">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2283,19 +2378,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9076240658760071</v>
+        <v>0.9958742260932922</v>
       </c>
       <c r="C26" s="1">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2309,51 +2404,51 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>0.9076240658760071</v>
+        <v>0.8962867856025696</v>
       </c>
       <c r="C27" s="1">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8672851920127869</v>
+        <v>0.7966994047164917</v>
       </c>
       <c r="C28" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D28" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="F28" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2361,19 +2456,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8471157550811768</v>
+        <v>0.7397922873497009</v>
       </c>
       <c r="C29" s="1">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1">
-        <v>564</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="1">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2382,24 +2477,24 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>564</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7866075038909912</v>
+        <v>0.668658435344696</v>
       </c>
       <c r="C30" s="1">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2413,19 +2508,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7866075038909912</v>
+        <v>0.6402048468589783</v>
       </c>
       <c r="C31" s="1">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2439,19 +2534,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.746268630027771</v>
+        <v>0.6402048468589783</v>
       </c>
       <c r="C32" s="1">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2465,19 +2560,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.746268630027771</v>
+        <v>0.6402048468589783</v>
       </c>
       <c r="C33" s="1">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2491,25 +2586,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6857603788375855</v>
+        <v>0.6117513179779053</v>
       </c>
       <c r="C34" s="1">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2517,19 +2612,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.64542156457901</v>
+        <v>0.6117513179779053</v>
       </c>
       <c r="C35" s="1">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2543,19 +2638,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5849132537841797</v>
+        <v>0.5975245237350464</v>
       </c>
       <c r="C36" s="1">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E36" s="1">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2564,50 +2659,50 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5849132537841797</v>
+        <v>0.5548442006111145</v>
       </c>
       <c r="C37" s="1">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5445744395256043</v>
+        <v>0.5548442006111145</v>
       </c>
       <c r="C38" s="1">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2621,19 +2716,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.504235565662384</v>
+        <v>0.5263906717300415</v>
       </c>
       <c r="C39" s="1">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2647,19 +2742,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4638967216014862</v>
+        <v>0.5263906717300415</v>
       </c>
       <c r="C40" s="1">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D40" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2668,24 +2763,24 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3630496263504028</v>
+        <v>0.4837103486061096</v>
       </c>
       <c r="C41" s="1">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2699,19 +2794,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.322710782289505</v>
+        <v>0.4552567899227142</v>
       </c>
       <c r="C42" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2725,19 +2820,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.2823719382286072</v>
+        <v>0.4125764667987824</v>
       </c>
       <c r="C43" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2751,45 +2846,45 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2823719382286072</v>
+        <v>0.4125764667987824</v>
       </c>
       <c r="C44" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E44" s="1">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2622025012969971</v>
+        <v>0.384122908115387</v>
       </c>
       <c r="C45" s="1">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2803,19 +2898,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.2622025012969971</v>
+        <v>0.355669379234314</v>
       </c>
       <c r="C46" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -2829,19 +2924,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.3272158205509186</v>
+      </c>
+      <c r="C47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
-        <v>0.2622025012969971</v>
-      </c>
-      <c r="C47" s="1">
-        <v>26</v>
-      </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2850,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2858,16 +2953,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1815248131752014</v>
+        <v>0.2560819387435913</v>
       </c>
       <c r="C48" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2884,16 +2979,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1613553911447525</v>
+        <v>0.2276283949613571</v>
       </c>
       <c r="C49" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -2910,16 +3005,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1210165396332741</v>
+        <v>0.1991748511791229</v>
       </c>
       <c r="C50" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2936,16 +3031,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1210165396332741</v>
+        <v>0.1991748511791229</v>
       </c>
       <c r="C51" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -2962,16 +3057,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.1210165396332741</v>
+        <v>0.1849480718374252</v>
       </c>
       <c r="C52" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -2988,16 +3083,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.1008471176028252</v>
+        <v>0.1849480718374252</v>
       </c>
       <c r="C53" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3011,19 +3106,19 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.08067769557237625</v>
+        <v>0.1849480718374252</v>
       </c>
       <c r="C54" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D54" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3032,24 +3127,24 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.08067769557237625</v>
+        <v>0.1280409693717957</v>
       </c>
       <c r="C55" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3063,19 +3158,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.06050826981663704</v>
+        <v>0.1138141974806786</v>
       </c>
       <c r="C56" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3089,19 +3184,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.06050826981663704</v>
+        <v>0.08536064624786377</v>
       </c>
       <c r="C57" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3115,19 +3210,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.06050826981663704</v>
+        <v>0.08536064624786377</v>
       </c>
       <c r="C58" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3141,19 +3236,19 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.02016942389309406</v>
+        <v>0.08536064624786377</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3167,19 +3262,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.02016942389309406</v>
+        <v>0.07113387435674667</v>
       </c>
       <c r="C60" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3193,19 +3288,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B61" s="2">
-        <v>0.02016942389309406</v>
+        <v>0.05690709874033928</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3214,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3222,16 +3317,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>0.02016942389309406</v>
+        <v>0.05690709874033928</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3248,56 +3343,238 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>0.02016942389309406</v>
+        <v>0.04268032312393189</v>
       </c>
       <c r="C63" s="1">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>6</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.04268032312393189</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>6</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.04268032312393189</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>6</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.01422677468508482</v>
+      </c>
+      <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
         <v>2</v>
       </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.01422677468508482</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.01422677468508482</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.01422677468508482</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.01422677468508482</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C64">
+      <c r="C71">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D64">
+      <c r="D71">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E71">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F71">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="G71">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H64">
+      <c r="H71">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Software</t>
   </si>
@@ -47,6 +47,9 @@
     <t>tx_initialize_high_level.o</t>
   </si>
   <si>
+    <t>rx8900.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal.o</t>
   </si>
   <si>
@@ -126,9 +129,6 @@
   </si>
   <si>
     <t>rx8900_callout.o</t>
-  </si>
-  <si>
-    <t>rx8900.o</t>
   </si>
   <si>
     <t>rt_memclr_w.o</t>
@@ -372,12 +372,15 @@
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>rx8900.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
                 <c:pt idx="68">
@@ -393,40 +396,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>32.76450347900391</c:v>
+                  <c:v>32.60454177856445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.59726905822754</c:v>
+                  <c:v>25.47229957580566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.51535797119141</c:v>
+                  <c:v>18.42496299743652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.03071689605713</c:v>
+                  <c:v>11.97198009490967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.668941974639893</c:v>
+                  <c:v>3.651029586791992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.047781467437744</c:v>
+                  <c:v>2.037783861160278</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.047781467437744</c:v>
+                  <c:v>2.037783861160278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.791808843612671</c:v>
+                  <c:v>1.783060908317566</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.109215021133423</c:v>
+                  <c:v>1.10379958152771</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.255972683429718</c:v>
+                  <c:v>0.4882190525531769</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0853242352604866</c:v>
+                  <c:v>0.2547229826450348</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0853242352604866</c:v>
+                  <c:v>0.084907665848732</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.084907665848732</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0</c:v>
@@ -578,25 +584,25 @@
                   <c:v>tx_thread_time_slice.o</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>rx8900.o</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>appmain.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>tx_timer_system_activate.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>tx_thread_shell_entry.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>rx8900_callout.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>system_stm32l4xx.o</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>rx8900.o</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>app_azure_rtos.o</c:v>
@@ -716,208 +722,208 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>18.93583679199219</c:v>
+                  <c:v>18.9102783203125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.26532936096191</c:v>
+                  <c:v>15.24472522735596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.928439140319824</c:v>
+                  <c:v>6.919087886810303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.003698825836182</c:v>
+                  <c:v>5.995595455169678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.414425849914551</c:v>
+                  <c:v>3.409817457199097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.272158145904541</c:v>
+                  <c:v>3.267741680145264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.129890441894531</c:v>
+                  <c:v>3.125665903091431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.831128120422363</c:v>
+                  <c:v>2.827306985855103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.703087091445923</c:v>
+                  <c:v>2.699438810348511</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.532365798950195</c:v>
+                  <c:v>2.528947830200195</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.318964242935181</c:v>
+                  <c:v>2.315834283828735</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.262057304382324</c:v>
+                  <c:v>2.25900411605835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.19092321395874</c:v>
+                  <c:v>2.187966108322144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.963294863700867</c:v>
+                  <c:v>1.960645079612732</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.721439719200134</c:v>
+                  <c:v>1.71911633014679</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.564945220947266</c:v>
+                  <c:v>1.562832951545715</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.308863282203674</c:v>
+                  <c:v>1.307096719741821</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.152368783950806</c:v>
+                  <c:v>1.150813341140747</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.138141989707947</c:v>
+                  <c:v>1.136605858802795</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.081234931945801</c:v>
+                  <c:v>1.07977557182312</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.052781343460083</c:v>
+                  <c:v>1.051360368728638</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.038554549217224</c:v>
+                  <c:v>1.037152767181397</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.038554549217224</c:v>
+                  <c:v>1.037152767181397</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9958742260932922</c:v>
+                  <c:v>0.9945300817489624</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8962867856025696</c:v>
+                  <c:v>0.8950770497322083</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7966994047164917</c:v>
+                  <c:v>0.7956240773200989</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7397922873497009</c:v>
+                  <c:v>0.7458975911140442</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.668658435344696</c:v>
+                  <c:v>0.7387937903404236</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6402048468589783</c:v>
+                  <c:v>0.6677559018135071</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6402048468589783</c:v>
+                  <c:v>0.6393407583236694</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6402048468589783</c:v>
+                  <c:v>0.6393407583236694</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6117513179779053</c:v>
+                  <c:v>0.6393407583236694</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6117513179779053</c:v>
+                  <c:v>0.6109256148338318</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5975245237350464</c:v>
+                  <c:v>0.5967180728912354</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5548442006111145</c:v>
+                  <c:v>0.5540953278541565</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5548442006111145</c:v>
+                  <c:v>0.5540953278541565</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5263906717300415</c:v>
+                  <c:v>0.5256801843643189</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5263906717300415</c:v>
+                  <c:v>0.5256801843643189</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4837103486061096</c:v>
+                  <c:v>0.4830574691295624</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4552567899227142</c:v>
+                  <c:v>0.4546423256397247</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4125764667987824</c:v>
+                  <c:v>0.4120196104049683</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4125764667987824</c:v>
+                  <c:v>0.4120196104049683</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.384122908115387</c:v>
+                  <c:v>0.3836044669151306</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.355669379234314</c:v>
+                  <c:v>0.355189323425293</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3272158205509186</c:v>
+                  <c:v>0.3267741799354553</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2560819387435913</c:v>
+                  <c:v>0.2557363212108612</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2276283949613571</c:v>
+                  <c:v>0.2273211628198624</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1991748511791229</c:v>
+                  <c:v>0.1989060193300247</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1991748511791229</c:v>
+                  <c:v>0.1989060193300247</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1849480718374252</c:v>
+                  <c:v>0.1846984475851059</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1849480718374252</c:v>
+                  <c:v>0.1846984475851059</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1849480718374252</c:v>
+                  <c:v>0.1846984475851059</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1280409693717957</c:v>
+                  <c:v>0.1278681606054306</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1138141974806786</c:v>
+                  <c:v>0.1136605814099312</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.08536064624786377</c:v>
+                  <c:v>0.08524543792009354</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.08536064624786377</c:v>
+                  <c:v>0.08524543792009354</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.08536064624786377</c:v>
+                  <c:v>0.08524543792009354</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.07113387435674667</c:v>
+                  <c:v>0.07103786617517471</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.05690709874033928</c:v>
+                  <c:v>0.05683029070496559</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.05690709874033928</c:v>
+                  <c:v>0.05683029070496559</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.04268032312393189</c:v>
+                  <c:v>0.04262271896004677</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.04268032312393189</c:v>
+                  <c:v>0.04262271896004677</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.04268032312393189</c:v>
+                  <c:v>0.04262271896004677</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.01422677468508482</c:v>
+                  <c:v>0.0142075726762414</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.01422677468508482</c:v>
+                  <c:v>0.0142075726762414</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.01422677468508482</c:v>
+                  <c:v>0.0142075726762414</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.01422677468508482</c:v>
+                  <c:v>0.0142075726762414</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.01422677468508482</c:v>
+                  <c:v>0.0142075726762414</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0</c:v>
@@ -1387,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>32.76450347900391</v>
+        <v>32.60454177856445</v>
       </c>
       <c r="C3" s="1">
         <v>1536</v>
@@ -1413,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.59726905822754</v>
+        <v>25.47229957580566</v>
       </c>
       <c r="C4" s="1">
         <v>1200</v>
@@ -1439,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18.51535797119141</v>
+        <v>18.42496299743652</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
@@ -1465,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>12.03071689605713</v>
+        <v>11.97198009490967</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
@@ -1491,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3.668941974639893</v>
+        <v>3.651029586791992</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
@@ -1517,7 +1523,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.047781467437744</v>
+        <v>2.037783861160278</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1543,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.047781467437744</v>
+        <v>2.037783861160278</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1569,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.791808843612671</v>
+        <v>1.783060908317566</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
@@ -1595,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.109215021133423</v>
+        <v>1.10379958152771</v>
       </c>
       <c r="C11" s="1">
         <v>52</v>
@@ -1621,25 +1627,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.255972683429718</v>
+        <v>0.4882190525531769</v>
       </c>
       <c r="C12" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1647,22 +1653,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.0853242352604866</v>
+        <v>0.2547229826450348</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
-        <v>844</v>
+        <v>126</v>
       </c>
       <c r="E13" s="1">
-        <v>844</v>
+        <v>118</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
         <v>4</v>
@@ -1673,24 +1679,50 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.0853242352604866</v>
+        <v>0.084907665848732</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
       <c r="D14" s="1">
+        <v>844</v>
+      </c>
+      <c r="E14" s="1">
+        <v>844</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.084907665848732</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
         <v>86</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>18</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <v>64</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <v>4</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1780,10 +1812,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>18.93583679199219</v>
+        <v>18.9102783203125</v>
       </c>
       <c r="C3" s="1">
         <v>2662</v>
@@ -1806,10 +1838,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>15.26532936096191</v>
+        <v>15.24472522735596</v>
       </c>
       <c r="C4" s="1">
         <v>2146</v>
@@ -1832,10 +1864,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>6.928439140319824</v>
+        <v>6.919087886810303</v>
       </c>
       <c r="C5" s="1">
         <v>974</v>
@@ -1858,10 +1890,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>6.003698825836182</v>
+        <v>5.995595455169678</v>
       </c>
       <c r="C6" s="1">
         <v>844</v>
@@ -1887,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>3.414425849914551</v>
+        <v>3.409817457199097</v>
       </c>
       <c r="C7" s="1">
         <v>480</v>
@@ -1913,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>3.272158145904541</v>
+        <v>3.267741680145264</v>
       </c>
       <c r="C8" s="1">
         <v>460</v>
@@ -1936,10 +1968,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>3.129890441894531</v>
+        <v>3.125665903091431</v>
       </c>
       <c r="C9" s="1">
         <v>440</v>
@@ -1962,10 +1994,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
-        <v>2.831128120422363</v>
+        <v>2.827306985855103</v>
       </c>
       <c r="C10" s="1">
         <v>398</v>
@@ -1988,10 +2020,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>2.703087091445923</v>
+        <v>2.699438810348511</v>
       </c>
       <c r="C11" s="1">
         <v>380</v>
@@ -2014,10 +2046,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>2.532365798950195</v>
+        <v>2.528947830200195</v>
       </c>
       <c r="C12" s="1">
         <v>356</v>
@@ -2040,10 +2072,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>2.318964242935181</v>
+        <v>2.315834283828735</v>
       </c>
       <c r="C13" s="1">
         <v>326</v>
@@ -2066,10 +2098,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>2.262057304382324</v>
+        <v>2.25900411605835</v>
       </c>
       <c r="C14" s="1">
         <v>318</v>
@@ -2092,10 +2124,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>2.19092321395874</v>
+        <v>2.187966108322144</v>
       </c>
       <c r="C15" s="1">
         <v>308</v>
@@ -2118,10 +2150,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.963294863700867</v>
+        <v>1.960645079612732</v>
       </c>
       <c r="C16" s="1">
         <v>276</v>
@@ -2147,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>1.721439719200134</v>
+        <v>1.71911633014679</v>
       </c>
       <c r="C17" s="1">
         <v>242</v>
@@ -2170,10 +2202,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.564945220947266</v>
+        <v>1.562832951545715</v>
       </c>
       <c r="C18" s="1">
         <v>220</v>
@@ -2196,10 +2228,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.308863282203674</v>
+        <v>1.307096719741821</v>
       </c>
       <c r="C19" s="1">
         <v>184</v>
@@ -2222,10 +2254,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.152368783950806</v>
+        <v>1.150813341140747</v>
       </c>
       <c r="C20" s="1">
         <v>162</v>
@@ -2251,7 +2283,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="2">
-        <v>1.138141989707947</v>
+        <v>1.136605858802795</v>
       </c>
       <c r="C21" s="1">
         <v>160</v>
@@ -2274,10 +2306,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.081234931945801</v>
+        <v>1.07977557182312</v>
       </c>
       <c r="C22" s="1">
         <v>152</v>
@@ -2300,10 +2332,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.052781343460083</v>
+        <v>1.051360368728638</v>
       </c>
       <c r="C23" s="1">
         <v>148</v>
@@ -2326,10 +2358,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>1.038554549217224</v>
+        <v>1.037152767181397</v>
       </c>
       <c r="C24" s="1">
         <v>146</v>
@@ -2352,10 +2384,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>1.038554549217224</v>
+        <v>1.037152767181397</v>
       </c>
       <c r="C25" s="1">
         <v>146</v>
@@ -2378,10 +2410,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9958742260932922</v>
+        <v>0.9945300817489624</v>
       </c>
       <c r="C26" s="1">
         <v>140</v>
@@ -2404,10 +2436,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8962867856025696</v>
+        <v>0.8950770497322083</v>
       </c>
       <c r="C27" s="1">
         <v>126</v>
@@ -2430,10 +2462,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7966994047164917</v>
+        <v>0.7956240773200989</v>
       </c>
       <c r="C28" s="1">
         <v>112</v>
@@ -2456,16 +2488,16 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7397922873497009</v>
+        <v>0.7458975911140442</v>
       </c>
       <c r="C29" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D29" s="1">
-        <v>1200</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1">
         <v>104</v>
@@ -2474,27 +2506,27 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>1200</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2">
-        <v>0.668658435344696</v>
+        <v>0.7387937903404236</v>
       </c>
       <c r="C30" s="1">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E30" s="1">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2503,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2511,16 +2543,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6402048468589783</v>
+        <v>0.6677559018135071</v>
       </c>
       <c r="C31" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2537,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6402048468589783</v>
+        <v>0.6393407583236694</v>
       </c>
       <c r="C32" s="1">
         <v>90</v>
@@ -2563,7 +2595,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6402048468589783</v>
+        <v>0.6393407583236694</v>
       </c>
       <c r="C33" s="1">
         <v>90</v>
@@ -2586,25 +2618,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6117513179779053</v>
+        <v>0.6393407583236694</v>
       </c>
       <c r="C34" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F34" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2612,25 +2644,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6117513179779053</v>
+        <v>0.6109256148338318</v>
       </c>
       <c r="C35" s="1">
         <v>86</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2641,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5975245237350464</v>
+        <v>0.5967180728912354</v>
       </c>
       <c r="C36" s="1">
         <v>84</v>
@@ -2667,7 +2699,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5548442006111145</v>
+        <v>0.5540953278541565</v>
       </c>
       <c r="C37" s="1">
         <v>78</v>
@@ -2693,7 +2725,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5548442006111145</v>
+        <v>0.5540953278541565</v>
       </c>
       <c r="C38" s="1">
         <v>78</v>
@@ -2719,7 +2751,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5263906717300415</v>
+        <v>0.5256801843643189</v>
       </c>
       <c r="C39" s="1">
         <v>74</v>
@@ -2745,7 +2777,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5263906717300415</v>
+        <v>0.5256801843643189</v>
       </c>
       <c r="C40" s="1">
         <v>74</v>
@@ -2771,7 +2803,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4837103486061096</v>
+        <v>0.4830574691295624</v>
       </c>
       <c r="C41" s="1">
         <v>68</v>
@@ -2797,7 +2829,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4552567899227142</v>
+        <v>0.4546423256397247</v>
       </c>
       <c r="C42" s="1">
         <v>64</v>
@@ -2823,7 +2855,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4125764667987824</v>
+        <v>0.4120196104049683</v>
       </c>
       <c r="C43" s="1">
         <v>58</v>
@@ -2849,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4125764667987824</v>
+        <v>0.4120196104049683</v>
       </c>
       <c r="C44" s="1">
         <v>58</v>
@@ -2875,7 +2907,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.384122908115387</v>
+        <v>0.3836044669151306</v>
       </c>
       <c r="C45" s="1">
         <v>54</v>
@@ -2901,7 +2933,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.355669379234314</v>
+        <v>0.355189323425293</v>
       </c>
       <c r="C46" s="1">
         <v>50</v>
@@ -2927,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3272158205509186</v>
+        <v>0.3267741799354553</v>
       </c>
       <c r="C47" s="1">
         <v>46</v>
@@ -2953,7 +2985,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2560819387435913</v>
+        <v>0.2557363212108612</v>
       </c>
       <c r="C48" s="1">
         <v>36</v>
@@ -2979,7 +3011,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2276283949613571</v>
+        <v>0.2273211628198624</v>
       </c>
       <c r="C49" s="1">
         <v>32</v>
@@ -3005,7 +3037,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1991748511791229</v>
+        <v>0.1989060193300247</v>
       </c>
       <c r="C50" s="1">
         <v>28</v>
@@ -3031,7 +3063,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1991748511791229</v>
+        <v>0.1989060193300247</v>
       </c>
       <c r="C51" s="1">
         <v>28</v>
@@ -3057,7 +3089,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.1849480718374252</v>
+        <v>0.1846984475851059</v>
       </c>
       <c r="C52" s="1">
         <v>26</v>
@@ -3083,7 +3115,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.1849480718374252</v>
+        <v>0.1846984475851059</v>
       </c>
       <c r="C53" s="1">
         <v>26</v>
@@ -3109,7 +3141,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.1849480718374252</v>
+        <v>0.1846984475851059</v>
       </c>
       <c r="C54" s="1">
         <v>26</v>
@@ -3135,7 +3167,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.1280409693717957</v>
+        <v>0.1278681606054306</v>
       </c>
       <c r="C55" s="1">
         <v>18</v>
@@ -3161,7 +3193,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.1138141974806786</v>
+        <v>0.1136605814099312</v>
       </c>
       <c r="C56" s="1">
         <v>16</v>
@@ -3187,7 +3219,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.08536064624786377</v>
+        <v>0.08524543792009354</v>
       </c>
       <c r="C57" s="1">
         <v>12</v>
@@ -3213,7 +3245,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.08536064624786377</v>
+        <v>0.08524543792009354</v>
       </c>
       <c r="C58" s="1">
         <v>12</v>
@@ -3239,7 +3271,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.08536064624786377</v>
+        <v>0.08524543792009354</v>
       </c>
       <c r="C59" s="1">
         <v>12</v>
@@ -3265,7 +3297,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.07113387435674667</v>
+        <v>0.07103786617517471</v>
       </c>
       <c r="C60" s="1">
         <v>10</v>
@@ -3291,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="2">
-        <v>0.05690709874033928</v>
+        <v>0.05683029070496559</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3317,7 +3349,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>0.05690709874033928</v>
+        <v>0.05683029070496559</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -3343,7 +3375,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>0.04268032312393189</v>
+        <v>0.04262271896004677</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
@@ -3369,7 +3401,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>0.04268032312393189</v>
+        <v>0.04262271896004677</v>
       </c>
       <c r="C64" s="1">
         <v>6</v>
@@ -3395,7 +3427,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>0.04268032312393189</v>
+        <v>0.04262271896004677</v>
       </c>
       <c r="C65" s="1">
         <v>6</v>
@@ -3421,7 +3453,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>0.01422677468508482</v>
+        <v>0.0142075726762414</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
@@ -3447,7 +3479,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>0.01422677468508482</v>
+        <v>0.0142075726762414</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
@@ -3473,7 +3505,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>0.01422677468508482</v>
+        <v>0.0142075726762414</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
@@ -3499,7 +3531,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>0.01422677468508482</v>
+        <v>0.0142075726762414</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
@@ -3525,7 +3557,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>0.01422677468508482</v>
+        <v>0.0142075726762414</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -396,43 +396,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>32.60454177856445</c:v>
+                  <c:v>32.55616760253906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.47229957580566</c:v>
+                  <c:v>25.5828742980957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.42496299743652</c:v>
+                  <c:v>18.39762687683106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.97198009490967</c:v>
+                  <c:v>11.9542179107666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.651029586791992</c:v>
+                  <c:v>3.645612478256226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.037783861160278</c:v>
+                  <c:v>2.034760475158691</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.037783861160278</c:v>
+                  <c:v>2.034760475158691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.783060908317566</c:v>
+                  <c:v>1.780415415763855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.10379958152771</c:v>
+                  <c:v>1.102161884307861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4882190525531769</c:v>
+                  <c:v>0.487494707107544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2547229826450348</c:v>
+                  <c:v>0.2543450593948364</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.084907665848732</c:v>
+                  <c:v>0.08478168398141861</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.084907665848732</c:v>
+                  <c:v>0.08478168398141861</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0</c:v>
@@ -518,76 +518,76 @@
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>rx8900.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>c_w.l</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>txe_thread_create.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>tx_thread_system_suspend.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>txe_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>tx_timer_thread_entry.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>tx_thread_create.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>tx_thread_system_resume.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>tx_thread_schedule.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>tx_timer_interrupt.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>tx_timer_initialize.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>tx_initialize_low_level.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>appmain.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>tx_thread_sleep.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>tx_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>tx_thread_time_slice.o</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>rx8900.o</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>appmain.o</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>__scatter.o</c:v>
@@ -722,208 +722,208 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>18.9102783203125</c:v>
+                  <c:v>18.06583023071289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.24472522735596</c:v>
+                  <c:v>14.56396293640137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.919087886810303</c:v>
+                  <c:v>6.610112190246582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.995595455169678</c:v>
+                  <c:v>5.727859020233154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.409817457199097</c:v>
+                  <c:v>4.865965366363525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.267741680145264</c:v>
+                  <c:v>3.257550001144409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.125665903091431</c:v>
+                  <c:v>3.121818780899048</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.827306985855103</c:v>
+                  <c:v>2.986087560653687</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.699438810348511</c:v>
+                  <c:v>2.701051950454712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.528947830200195</c:v>
+                  <c:v>2.578893899917603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.315834283828735</c:v>
+                  <c:v>2.416016340255737</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.25900411605835</c:v>
+                  <c:v>2.212419509887695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.187966108322144</c:v>
+                  <c:v>2.158126831054688</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.960645079612732</c:v>
+                  <c:v>2.090261220932007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.71911633014679</c:v>
+                  <c:v>1.873091220855713</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.562832951545715</c:v>
+                  <c:v>1.642348170280457</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.307096719741821</c:v>
+                  <c:v>1.493043780326843</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.150813341140747</c:v>
+                  <c:v>1.248727560043335</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.136605858802795</c:v>
+                  <c:v>1.099423170089722</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.07977557182312</c:v>
+                  <c:v>1.08585000038147</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.051360368728638</c:v>
+                  <c:v>1.031557559967041</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.037152767181397</c:v>
+                  <c:v>1.017984390258789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.037152767181397</c:v>
+                  <c:v>1.004411220550537</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9945300817489624</c:v>
+                  <c:v>0.9908381700515747</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8950770497322083</c:v>
+                  <c:v>0.9908381700515747</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7956240773200989</c:v>
+                  <c:v>0.9501187801361084</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7458975911140442</c:v>
+                  <c:v>0.8551068902015686</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7387937903404236</c:v>
+                  <c:v>0.7600950002670288</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6677559018135071</c:v>
+                  <c:v>0.6379368901252747</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6393407583236694</c:v>
+                  <c:v>0.6107906103134155</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6393407583236694</c:v>
+                  <c:v>0.6107906103134155</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6393407583236694</c:v>
+                  <c:v>0.6107906103134155</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6109256148338318</c:v>
+                  <c:v>0.5836443901062012</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5967180728912354</c:v>
+                  <c:v>0.570071280002594</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5540953278541565</c:v>
+                  <c:v>0.5293518900871277</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5540953278541565</c:v>
+                  <c:v>0.5293518900871277</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5256801843643189</c:v>
+                  <c:v>0.5022056102752686</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5256801843643189</c:v>
+                  <c:v>0.5022056102752686</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4830574691295624</c:v>
+                  <c:v>0.4614862501621246</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4546423256397247</c:v>
+                  <c:v>0.4343400001525879</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4120196104049683</c:v>
+                  <c:v>0.393620640039444</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4120196104049683</c:v>
+                  <c:v>0.393620640039444</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3836044669151306</c:v>
+                  <c:v>0.3664743900299072</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.355189323425293</c:v>
+                  <c:v>0.3393281400203705</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3267741799354553</c:v>
+                  <c:v>0.3121818900108337</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2557363212108612</c:v>
+                  <c:v>0.2443162500858307</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2273211628198624</c:v>
+                  <c:v>0.217170000076294</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1989060193300247</c:v>
+                  <c:v>0.1900237500667572</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1989060193300247</c:v>
+                  <c:v>0.1900237500667572</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1846984475851059</c:v>
+                  <c:v>0.1764506250619888</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1846984475851059</c:v>
+                  <c:v>0.1764506250619888</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1846984475851059</c:v>
+                  <c:v>0.1764506250619888</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1278681606054306</c:v>
+                  <c:v>0.1221581250429153</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1136605814099312</c:v>
+                  <c:v>0.108585000038147</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.08524543792009354</c:v>
+                  <c:v>0.08143875002861023</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.08524543792009354</c:v>
+                  <c:v>0.08143875002861023</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.08524543792009354</c:v>
+                  <c:v>0.08143875002861023</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.07103786617517471</c:v>
+                  <c:v>0.06786562502384186</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.05683029070496559</c:v>
+                  <c:v>0.05429250001907349</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.05683029070496559</c:v>
+                  <c:v>0.05429250001907349</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.04262271896004677</c:v>
+                  <c:v>0.04071937501430512</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.04262271896004677</c:v>
+                  <c:v>0.04071937501430512</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.04262271896004677</c:v>
+                  <c:v>0.04071937501430512</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0142075726762414</c:v>
+                  <c:v>0.01357312500476837</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0142075726762414</c:v>
+                  <c:v>0.01357312500476837</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0142075726762414</c:v>
+                  <c:v>0.01357312500476837</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0142075726762414</c:v>
+                  <c:v>0.01357312500476837</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0142075726762414</c:v>
+                  <c:v>0.01357312500476837</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0</c:v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>32.60454177856445</v>
+        <v>32.55616760253906</v>
       </c>
       <c r="C3" s="1">
         <v>1536</v>
@@ -1419,16 +1419,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.47229957580566</v>
+        <v>25.5828742980957</v>
       </c>
       <c r="C4" s="1">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="D4" s="1">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1200</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18.42496299743652</v>
+        <v>18.39762687683106</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
@@ -1471,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>11.97198009490967</v>
+        <v>11.9542179107666</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
@@ -1497,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3.651029586791992</v>
+        <v>3.645612478256226</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
@@ -1523,7 +1523,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.037783861160278</v>
+        <v>2.034760475158691</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1549,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.037783861160278</v>
+        <v>2.034760475158691</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1575,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.783060908317566</v>
+        <v>1.780415415763855</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
@@ -1601,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.10379958152771</v>
+        <v>1.102161884307861</v>
       </c>
       <c r="C11" s="1">
         <v>52</v>
@@ -1627,16 +1627,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.4882190525531769</v>
+        <v>0.487494707107544</v>
       </c>
       <c r="C12" s="1">
         <v>23</v>
       </c>
       <c r="D12" s="1">
-        <v>105</v>
+        <v>717</v>
       </c>
       <c r="E12" s="1">
-        <v>104</v>
+        <v>716</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.2547229826450348</v>
+        <v>0.2543450593948364</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1679,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.084907665848732</v>
+        <v>0.08478168398141861</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -1705,7 +1705,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.084907665848732</v>
+        <v>0.08478168398141861</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -1815,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>18.9102783203125</v>
+        <v>18.06583023071289</v>
       </c>
       <c r="C3" s="1">
         <v>2662</v>
@@ -1841,7 +1841,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>15.24472522735596</v>
+        <v>14.56396293640137</v>
       </c>
       <c r="C4" s="1">
         <v>2146</v>
@@ -1867,7 +1867,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>6.919087886810303</v>
+        <v>6.610112190246582</v>
       </c>
       <c r="C5" s="1">
         <v>974</v>
@@ -1893,7 +1893,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>5.995595455169678</v>
+        <v>5.727859020233154</v>
       </c>
       <c r="C6" s="1">
         <v>844</v>
@@ -1916,97 +1916,97 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>3.409817457199097</v>
+        <v>4.865965366363525</v>
       </c>
       <c r="C7" s="1">
-        <v>480</v>
+        <v>717</v>
       </c>
       <c r="D7" s="1">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
-        <v>480</v>
+        <v>716</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>3.267741680145264</v>
+        <v>3.257550001144409</v>
       </c>
       <c r="C8" s="1">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="D8" s="1">
-        <v>1536</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1">
-        <v>64</v>
+        <v>480</v>
       </c>
       <c r="F8" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1536</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>3.125665903091431</v>
+        <v>3.121818780899048</v>
       </c>
       <c r="C9" s="1">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="E9" s="1">
-        <v>440</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>2.827306985855103</v>
+        <v>2.986087560653687</v>
       </c>
       <c r="C10" s="1">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2020,19 +2020,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>2.699438810348511</v>
+        <v>2.701051950454712</v>
       </c>
       <c r="C11" s="1">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2046,19 +2046,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>2.528947830200195</v>
+        <v>2.578893899917603</v>
       </c>
       <c r="C12" s="1">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2072,19 +2072,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>2.315834283828735</v>
+        <v>2.416016340255737</v>
       </c>
       <c r="C13" s="1">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2098,19 +2098,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>2.25900411605835</v>
+        <v>2.212419509887695</v>
       </c>
       <c r="C14" s="1">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2124,19 +2124,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>2.187966108322144</v>
+        <v>2.158126831054688</v>
       </c>
       <c r="C15" s="1">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2150,19 +2150,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>1.960645079612732</v>
+        <v>2.090261220932007</v>
       </c>
       <c r="C16" s="1">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2176,19 +2176,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>1.71911633014679</v>
+        <v>1.873091220855713</v>
       </c>
       <c r="C17" s="1">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="D17" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2197,24 +2197,24 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
-        <v>1.562832951545715</v>
+        <v>1.642348170280457</v>
       </c>
       <c r="C18" s="1">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2223,24 +2223,24 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.307096719741821</v>
+        <v>1.493043780326843</v>
       </c>
       <c r="C19" s="1">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2254,19 +2254,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.150813341140747</v>
+        <v>1.248727560043335</v>
       </c>
       <c r="C20" s="1">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2280,19 +2280,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.136605858802795</v>
+        <v>1.099423170089722</v>
       </c>
       <c r="C21" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2301,24 +2301,24 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2">
-        <v>1.07977557182312</v>
+        <v>1.08585000038147</v>
       </c>
       <c r="C22" s="1">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="E22" s="1">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2327,24 +2327,24 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>1.051360368728638</v>
+        <v>1.031557559967041</v>
       </c>
       <c r="C23" s="1">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2358,19 +2358,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2">
-        <v>1.037152767181397</v>
+        <v>1.017984390258789</v>
       </c>
       <c r="C24" s="1">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="E24" s="1">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2379,24 +2379,24 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1.037152767181397</v>
+        <v>1.004411220550537</v>
       </c>
       <c r="C25" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2410,19 +2410,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9945300817489624</v>
+        <v>0.9908381700515747</v>
       </c>
       <c r="C26" s="1">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2436,45 +2436,45 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8950770497322083</v>
+        <v>0.9908381700515747</v>
       </c>
       <c r="C27" s="1">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D27" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7956240773200989</v>
+        <v>0.9501187801361084</v>
       </c>
       <c r="C28" s="1">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2488,45 +2488,45 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7458975911140442</v>
+        <v>0.8551068902015686</v>
       </c>
       <c r="C29" s="1">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7387937903404236</v>
+        <v>0.7600950002670288</v>
       </c>
       <c r="C30" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2543,7 +2543,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6677559018135071</v>
+        <v>0.6379368901252747</v>
       </c>
       <c r="C31" s="1">
         <v>94</v>
@@ -2569,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6393407583236694</v>
+        <v>0.6107906103134155</v>
       </c>
       <c r="C32" s="1">
         <v>90</v>
@@ -2595,7 +2595,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6393407583236694</v>
+        <v>0.6107906103134155</v>
       </c>
       <c r="C33" s="1">
         <v>90</v>
@@ -2621,7 +2621,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6393407583236694</v>
+        <v>0.6107906103134155</v>
       </c>
       <c r="C34" s="1">
         <v>90</v>
@@ -2647,7 +2647,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6109256148338318</v>
+        <v>0.5836443901062012</v>
       </c>
       <c r="C35" s="1">
         <v>86</v>
@@ -2673,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5967180728912354</v>
+        <v>0.570071280002594</v>
       </c>
       <c r="C36" s="1">
         <v>84</v>
@@ -2699,7 +2699,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5540953278541565</v>
+        <v>0.5293518900871277</v>
       </c>
       <c r="C37" s="1">
         <v>78</v>
@@ -2725,7 +2725,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5540953278541565</v>
+        <v>0.5293518900871277</v>
       </c>
       <c r="C38" s="1">
         <v>78</v>
@@ -2751,7 +2751,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5256801843643189</v>
+        <v>0.5022056102752686</v>
       </c>
       <c r="C39" s="1">
         <v>74</v>
@@ -2777,7 +2777,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5256801843643189</v>
+        <v>0.5022056102752686</v>
       </c>
       <c r="C40" s="1">
         <v>74</v>
@@ -2803,7 +2803,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4830574691295624</v>
+        <v>0.4614862501621246</v>
       </c>
       <c r="C41" s="1">
         <v>68</v>
@@ -2829,7 +2829,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4546423256397247</v>
+        <v>0.4343400001525879</v>
       </c>
       <c r="C42" s="1">
         <v>64</v>
@@ -2855,7 +2855,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4120196104049683</v>
+        <v>0.393620640039444</v>
       </c>
       <c r="C43" s="1">
         <v>58</v>
@@ -2881,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4120196104049683</v>
+        <v>0.393620640039444</v>
       </c>
       <c r="C44" s="1">
         <v>58</v>
@@ -2907,7 +2907,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3836044669151306</v>
+        <v>0.3664743900299072</v>
       </c>
       <c r="C45" s="1">
         <v>54</v>
@@ -2933,7 +2933,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.355189323425293</v>
+        <v>0.3393281400203705</v>
       </c>
       <c r="C46" s="1">
         <v>50</v>
@@ -2959,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3267741799354553</v>
+        <v>0.3121818900108337</v>
       </c>
       <c r="C47" s="1">
         <v>46</v>
@@ -2985,7 +2985,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2557363212108612</v>
+        <v>0.2443162500858307</v>
       </c>
       <c r="C48" s="1">
         <v>36</v>
@@ -3011,7 +3011,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2273211628198624</v>
+        <v>0.217170000076294</v>
       </c>
       <c r="C49" s="1">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1989060193300247</v>
+        <v>0.1900237500667572</v>
       </c>
       <c r="C50" s="1">
         <v>28</v>
@@ -3063,7 +3063,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1989060193300247</v>
+        <v>0.1900237500667572</v>
       </c>
       <c r="C51" s="1">
         <v>28</v>
@@ -3089,7 +3089,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.1846984475851059</v>
+        <v>0.1764506250619888</v>
       </c>
       <c r="C52" s="1">
         <v>26</v>
@@ -3115,7 +3115,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.1846984475851059</v>
+        <v>0.1764506250619888</v>
       </c>
       <c r="C53" s="1">
         <v>26</v>
@@ -3141,7 +3141,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.1846984475851059</v>
+        <v>0.1764506250619888</v>
       </c>
       <c r="C54" s="1">
         <v>26</v>
@@ -3167,7 +3167,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.1278681606054306</v>
+        <v>0.1221581250429153</v>
       </c>
       <c r="C55" s="1">
         <v>18</v>
@@ -3193,7 +3193,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.1136605814099312</v>
+        <v>0.108585000038147</v>
       </c>
       <c r="C56" s="1">
         <v>16</v>
@@ -3219,7 +3219,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.08524543792009354</v>
+        <v>0.08143875002861023</v>
       </c>
       <c r="C57" s="1">
         <v>12</v>
@@ -3245,7 +3245,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.08524543792009354</v>
+        <v>0.08143875002861023</v>
       </c>
       <c r="C58" s="1">
         <v>12</v>
@@ -3271,7 +3271,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.08524543792009354</v>
+        <v>0.08143875002861023</v>
       </c>
       <c r="C59" s="1">
         <v>12</v>
@@ -3297,7 +3297,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.07103786617517471</v>
+        <v>0.06786562502384186</v>
       </c>
       <c r="C60" s="1">
         <v>10</v>
@@ -3323,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="2">
-        <v>0.05683029070496559</v>
+        <v>0.05429250001907349</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3349,7 +3349,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>0.05683029070496559</v>
+        <v>0.05429250001907349</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -3375,7 +3375,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>0.04262271896004677</v>
+        <v>0.04071937501430512</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
@@ -3401,7 +3401,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>0.04262271896004677</v>
+        <v>0.04071937501430512</v>
       </c>
       <c r="C64" s="1">
         <v>6</v>
@@ -3427,7 +3427,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>0.04262271896004677</v>
+        <v>0.04071937501430512</v>
       </c>
       <c r="C65" s="1">
         <v>6</v>
@@ -3453,7 +3453,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>0.0142075726762414</v>
+        <v>0.01357312500476837</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
@@ -3479,7 +3479,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>0.0142075726762414</v>
+        <v>0.01357312500476837</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
@@ -3505,7 +3505,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>0.0142075726762414</v>
+        <v>0.01357312500476837</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
@@ -3531,7 +3531,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>0.0142075726762414</v>
+        <v>0.01357312500476837</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
@@ -3557,7 +3557,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>0.0142075726762414</v>
+        <v>0.01357312500476837</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>Software</t>
   </si>
@@ -47,12 +47,12 @@
     <t>tx_initialize_high_level.o</t>
   </si>
   <si>
+    <t>stm32l4xx_hal.o</t>
+  </si>
+  <si>
     <t>rx8900.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal.o</t>
-  </si>
-  <si>
     <t>tx_low_power.o</t>
   </si>
   <si>
@@ -74,6 +74,9 @@
     <t>txe_thread_create.o</t>
   </si>
   <si>
+    <t>stm32l4xx_hal_pwr_ex.o</t>
+  </si>
+  <si>
     <t>tx_thread_system_suspend.o</t>
   </si>
   <si>
@@ -89,27 +92,21 @@
     <t>tx_thread_system_resume.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_pwr_ex.o</t>
-  </si>
-  <si>
     <t>tx_thread_schedule.o</t>
   </si>
   <si>
+    <t>stm32l4xx_hal_cortex.o</t>
+  </si>
+  <si>
     <t>tx_timer_interrupt.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_cortex.o</t>
-  </si>
-  <si>
     <t>tx_initialize_low_level.o</t>
   </si>
   <si>
     <t>main.o</t>
   </si>
   <si>
-    <t>tx_thread_sleep.o</t>
-  </si>
-  <si>
     <t>stm32l4xx_hal_i2c_ex.o</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
     <t>tx_thread_time_slice.o</t>
   </si>
   <si>
+    <t>gpio.o</t>
+  </si>
+  <si>
     <t>__scatter.o</t>
   </si>
   <si>
@@ -128,6 +128,9 @@
     <t>tx_thread_shell_entry.o</t>
   </si>
   <si>
+    <t>stm32l4xx_hal_pwr.o</t>
+  </si>
+  <si>
     <t>rx8900_callout.o</t>
   </si>
   <si>
@@ -140,9 +143,6 @@
     <t>sys_stackheap_outer.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_pwr.o</t>
-  </si>
-  <si>
     <t>rt_memclr.o</t>
   </si>
   <si>
@@ -161,9 +161,6 @@
     <t>tx_timer_expiration_process.o</t>
   </si>
   <si>
-    <t>gpio.o</t>
-  </si>
-  <si>
     <t>__scatter_zi.o</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
     <t>exit.o</t>
   </si>
   <si>
+    <t>stm32l4xx_it.o</t>
+  </si>
+  <si>
     <t>aeabi_memset.o</t>
   </si>
   <si>
@@ -191,12 +191,12 @@
     <t>__rtentry2.o</t>
   </si>
   <si>
-    <t>stm32l4xx_it.o</t>
-  </si>
-  <si>
     <t>rtexit2.o</t>
   </si>
   <si>
+    <t>appirqcallout.o</t>
+  </si>
+  <si>
     <t>__main.o</t>
   </si>
   <si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>__rtentry4.o</t>
+  </si>
+  <si>
+    <t>rx8900_lcfg.o</t>
   </si>
   <si>
     <t>use_no_semi.o</t>
@@ -341,9 +344,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$71</c:f>
+              <c:f>ram_percent!$A$3:$A$72</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
@@ -372,10 +375,10 @@
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>rx8900.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>tx_low_power.o</c:v>
@@ -383,7 +386,7 @@
                 <c:pt idx="12">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -391,50 +394,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$71</c:f>
+              <c:f>ram_percent!$B$3:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>32.55616760253906</c:v>
+                  <c:v>32.70868682861328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.5828742980957</c:v>
+                  <c:v>25.55366325378418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.39762687683106</c:v>
+                  <c:v>18.48381614685059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.9542179107666</c:v>
+                  <c:v>12.01022148132324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.645612478256226</c:v>
+                  <c:v>3.662691593170166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.034760475158691</c:v>
+                  <c:v>2.04429292678833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.034760475158691</c:v>
+                  <c:v>2.04429292678833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.780415415763855</c:v>
+                  <c:v>1.788756370544434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.102161884307861</c:v>
+                  <c:v>1.107325434684753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.487494707107544</c:v>
+                  <c:v>0.2555366158485413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2543450593948364</c:v>
+                  <c:v>0.1703577488660812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.08478168398141861</c:v>
+                  <c:v>0.08517887443304062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08478168398141861</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                  <c:v>0.08517887443304062</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -502,9 +505,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$71</c:f>
+              <c:f>flash_percent!$A$3:$A$72</c:f>
               <c:strCache>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>stm32l4xx_hal_rcc.o</c:v>
                 </c:pt>
@@ -512,43 +515,43 @@
                   <c:v>stm32l4xx_hal_i2c.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>rx8900.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>tx_low_power.o</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>rx8900.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>c_w.l</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>stm32l4xx_hal_gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>startup_stm32l432xx.o</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>txe_thread_create.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>tx_thread_system_suspend.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>txe_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>tx_timer_thread_entry.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>tx_thread_create.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>tx_thread_system_resume.o</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>i2c.o</c:v>
@@ -557,37 +560,37 @@
                   <c:v>tx_thread_schedule.o</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>stm32l4xx_hal_cortex.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>tx_timer_interrupt.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>stm32l4xx_hal_cortex.o</c:v>
-                </c:pt>
                 <c:pt idx="19">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>tx_timer_initialize.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>tx_initialize_low_level.o</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>appmain.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>tx_thread_sleep.o</c:v>
+                  <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
+                  <c:v>tx_byte_pool_create.o</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>tx_byte_pool_create.o</c:v>
+                  <c:v>appmain.o</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>stm32l4xx_hal.o</c:v>
+                  <c:v>tx_thread_time_slice.o</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>tx_thread_time_slice.o</c:v>
+                  <c:v>gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>__scatter.o</c:v>
@@ -599,25 +602,25 @@
                   <c:v>tx_thread_shell_entry.o</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>stm32l4xx_hal_pwr.o</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>rx8900_callout.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>app_azure_rtos.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>tx_initialize_kernel_enter.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>sys_stackheap_outer.o</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>stm32l4xx_hal_pwr.o</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>rt_memclr.o</c:v>
@@ -644,25 +647,25 @@
                   <c:v>tx_timer_expiration_process.o</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>gpio.o</c:v>
+                  <c:v>__scatter_zi.o</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>__scatter_zi.o</c:v>
+                  <c:v>app_threadx.o</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>app_threadx.o</c:v>
+                  <c:v>fz_wm.l</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>fz_wm.l</c:v>
+                  <c:v>fpinit.o</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>fpinit.o</c:v>
+                  <c:v>__scatter_copy.o</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>__scatter_copy.o</c:v>
+                  <c:v>exit.o</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>exit.o</c:v>
+                  <c:v>stm32l4xx_it.o</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>aeabi_memset.o</c:v>
@@ -674,10 +677,10 @@
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>stm32l4xx_it.o</c:v>
+                  <c:v>rtexit2.o</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>rtexit2.o</c:v>
+                  <c:v>appirqcallout.o</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>libspace.o</c:v>
@@ -695,21 +698,24 @@
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>rx8900_lcfg.o</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -717,215 +723,218 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$71</c:f>
+              <c:f>flash_percent!$B$3:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>18.06583023071289</c:v>
+                  <c:v>17.51776695251465</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.56396293640137</c:v>
+                  <c:v>14.12213706970215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.610112190246582</c:v>
+                  <c:v>6.7386155128479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.727859020233154</c:v>
+                  <c:v>6.409581661224365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.865965366363525</c:v>
+                  <c:v>5.554093360900879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.257550001144409</c:v>
+                  <c:v>3.15872597694397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.121818780899048</c:v>
+                  <c:v>3.040273666381836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.986087560653687</c:v>
+                  <c:v>3.027112483978272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.701051950454712</c:v>
+                  <c:v>2.619110345840454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.578893899917603</c:v>
+                  <c:v>2.566464900970459</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.416016340255737</c:v>
+                  <c:v>2.50065803527832</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.212419509887695</c:v>
+                  <c:v>2.342721700668335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.158126831054688</c:v>
+                  <c:v>2.145301342010498</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.090261220932007</c:v>
+                  <c:v>2.092655897140503</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.873091220855713</c:v>
+                  <c:v>2.026849269866943</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.642348170280457</c:v>
+                  <c:v>1.592524290084839</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.493043780326843</c:v>
+                  <c:v>1.447749376296997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.248727560043335</c:v>
+                  <c:v>1.289813160896301</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.099423170089722</c:v>
+                  <c:v>1.210844993591309</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.08585000038147</c:v>
+                  <c:v>1.066069960594177</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.031557559967041</c:v>
+                  <c:v>1.052908658981323</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.017984390258789</c:v>
+                  <c:v>1.000263214111328</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.004411220550537</c:v>
+                  <c:v>0.9739404916763306</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9908381700515747</c:v>
+                  <c:v>0.9607791304588318</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9908381700515747</c:v>
+                  <c:v>0.9212951064109802</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9501187801361084</c:v>
+                  <c:v>0.9081337451934815</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8551068902015686</c:v>
+                  <c:v>0.7370360493659973</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7600950002670288</c:v>
+                  <c:v>0.6712292432785034</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6379368901252747</c:v>
+                  <c:v>0.6185838580131531</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6107906103134155</c:v>
+                  <c:v>0.5922611355781555</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6107906103134155</c:v>
+                  <c:v>0.5922611355781555</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6107906103134155</c:v>
+                  <c:v>0.5922611355781555</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5836443901062012</c:v>
+                  <c:v>0.5922611355781555</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.570071280002594</c:v>
+                  <c:v>0.565938413143158</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5293518900871277</c:v>
+                  <c:v>0.5527770519256592</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5293518900871277</c:v>
+                  <c:v>0.5132929682731628</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5022056102752686</c:v>
+                  <c:v>0.5132929682731628</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5022056102752686</c:v>
+                  <c:v>0.4869702458381653</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4614862501621246</c:v>
+                  <c:v>0.4474861919879913</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4343400001525879</c:v>
+                  <c:v>0.4211634695529938</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.393620640039444</c:v>
+                  <c:v>0.3816793859004974</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.393620640039444</c:v>
+                  <c:v>0.3816793859004974</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3664743900299072</c:v>
+                  <c:v>0.3553566634654999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3393281400203705</c:v>
+                  <c:v>0.3290339708328247</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3121818900108337</c:v>
+                  <c:v>0.3027112483978272</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2443162500858307</c:v>
+                  <c:v>0.2369044423103333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.217170000076294</c:v>
+                  <c:v>0.1842590123414993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1900237500667572</c:v>
+                  <c:v>0.1842590123414993</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1900237500667572</c:v>
+                  <c:v>0.1710976511240006</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1764506250619888</c:v>
+                  <c:v>0.1710976511240006</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1764506250619888</c:v>
+                  <c:v>0.1710976511240006</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1764506250619888</c:v>
+                  <c:v>0.1184522211551666</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1221581250429153</c:v>
+                  <c:v>0.1184522211551666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.108585000038147</c:v>
+                  <c:v>0.1052908673882484</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.08143875002861023</c:v>
+                  <c:v>0.07896815240383148</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.08143875002861023</c:v>
+                  <c:v>0.07896815240383148</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.08143875002861023</c:v>
+                  <c:v>0.0658067911863327</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.06786562502384186</c:v>
+                  <c:v>0.0658067911863327</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.05429250001907349</c:v>
+                  <c:v>0.05264543369412422</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.05429250001907349</c:v>
+                  <c:v>0.05264543369412422</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.04071937501430512</c:v>
+                  <c:v>0.03948407620191574</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.04071937501430512</c:v>
+                  <c:v>0.03948407620191574</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.04071937501430512</c:v>
+                  <c:v>0.03948407620191574</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.01357312500476837</c:v>
+                  <c:v>0.02632271684706211</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.01357312500476837</c:v>
+                  <c:v>0.01316135842353106</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.01357312500476837</c:v>
+                  <c:v>0.01316135842353106</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.01357312500476837</c:v>
+                  <c:v>0.01316135842353106</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.01357312500476837</c:v>
+                  <c:v>0.01316135842353106</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>0.01316135842353106</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1030,8 +1039,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H71" totalsRowCount="1">
-  <autoFilter ref="A2:H70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H72" totalsRowCount="1">
+  <autoFilter ref="A2:H71"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1047,8 +1056,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H71" totalsRowCount="1">
-  <autoFilter ref="A2:H70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H72" totalsRowCount="1">
+  <autoFilter ref="A2:H71"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1348,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1364,28 +1373,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1393,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>32.55616760253906</v>
+        <v>32.70868682861328</v>
       </c>
       <c r="C3" s="1">
         <v>1536</v>
@@ -1419,16 +1428,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.5828742980957</v>
+        <v>25.55366325378418</v>
       </c>
       <c r="C4" s="1">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="D4" s="1">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E4" s="1">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1437,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1207</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1445,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18.39762687683106</v>
+        <v>18.48381614685059</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
@@ -1471,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>11.9542179107666</v>
+        <v>12.01022148132324</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
@@ -1497,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3.645612478256226</v>
+        <v>3.662691593170166</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
@@ -1523,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.034760475158691</v>
+        <v>2.04429292678833</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1549,7 +1558,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.034760475158691</v>
+        <v>2.04429292678833</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1575,7 +1584,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.780415415763855</v>
+        <v>1.788756370544434</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
@@ -1601,7 +1610,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.102161884307861</v>
+        <v>1.107325434684753</v>
       </c>
       <c r="C11" s="1">
         <v>52</v>
@@ -1627,25 +1636,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.487494707107544</v>
+        <v>0.2555366158485413</v>
       </c>
       <c r="C12" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
-        <v>717</v>
+        <v>162</v>
       </c>
       <c r="E12" s="1">
-        <v>716</v>
+        <v>154</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1653,25 +1662,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.2543450593948364</v>
+        <v>0.1703577488660812</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>126</v>
+        <v>1024</v>
       </c>
       <c r="E13" s="1">
-        <v>118</v>
+        <v>1024</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>8</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1679,7 +1688,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.08478168398141861</v>
+        <v>0.08517887443304062</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -1705,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08478168398141861</v>
+        <v>0.08517887443304062</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -1726,35 +1735,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71">
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1770,7 +1779,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1786,28 +1795,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1815,7 +1824,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>18.06583023071289</v>
+        <v>17.51776695251465</v>
       </c>
       <c r="C3" s="1">
         <v>2662</v>
@@ -1841,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>14.56396293640137</v>
+        <v>14.12213706970215</v>
       </c>
       <c r="C4" s="1">
         <v>2146</v>
@@ -1864,19 +1873,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>6.610112190246582</v>
+        <v>6.7386155128479</v>
       </c>
       <c r="C5" s="1">
-        <v>974</v>
+        <v>1024</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>974</v>
+        <v>1024</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1885,24 +1894,24 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>5.727859020233154</v>
+        <v>6.409581661224365</v>
       </c>
       <c r="C6" s="1">
-        <v>844</v>
+        <v>974</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>844</v>
+        <v>974</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1911,33 +1920,33 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>4.865965366363525</v>
+        <v>5.554093360900879</v>
       </c>
       <c r="C7" s="1">
-        <v>717</v>
+        <v>844</v>
       </c>
       <c r="D7" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>716</v>
+        <v>844</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1945,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>3.257550001144409</v>
+        <v>3.15872597694397</v>
       </c>
       <c r="C8" s="1">
         <v>480</v>
@@ -1968,54 +1977,54 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>3.121818780899048</v>
+        <v>3.040273666381836</v>
       </c>
       <c r="C9" s="1">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D9" s="1">
-        <v>1536</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>64</v>
+        <v>462</v>
       </c>
       <c r="F9" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>1536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>2.986087560653687</v>
+        <v>3.027112483978272</v>
       </c>
       <c r="C10" s="1">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="E10" s="1">
-        <v>440</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2023,7 +2032,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>2.701051950454712</v>
+        <v>2.619110345840454</v>
       </c>
       <c r="C11" s="1">
         <v>398</v>
@@ -2049,16 +2058,16 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>2.578893899917603</v>
+        <v>2.566464900970459</v>
       </c>
       <c r="C12" s="1">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2075,16 +2084,16 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>2.416016340255737</v>
+        <v>2.50065803527832</v>
       </c>
       <c r="C13" s="1">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2101,16 +2110,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>2.212419509887695</v>
+        <v>2.342721700668335</v>
       </c>
       <c r="C14" s="1">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2127,16 +2136,16 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>2.158126831054688</v>
+        <v>2.145301342010498</v>
       </c>
       <c r="C15" s="1">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2153,16 +2162,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>2.090261220932007</v>
+        <v>2.092655897140503</v>
       </c>
       <c r="C16" s="1">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2179,16 +2188,16 @@
         <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>1.873091220855713</v>
+        <v>2.026849269866943</v>
       </c>
       <c r="C17" s="1">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2205,7 +2214,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="2">
-        <v>1.642348170280457</v>
+        <v>1.592524290084839</v>
       </c>
       <c r="C18" s="1">
         <v>242</v>
@@ -2231,7 +2240,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.493043780326843</v>
+        <v>1.447749376296997</v>
       </c>
       <c r="C19" s="1">
         <v>220</v>
@@ -2257,16 +2266,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.248727560043335</v>
+        <v>1.289813160896301</v>
       </c>
       <c r="C20" s="1">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2283,16 +2292,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.099423170089722</v>
+        <v>1.210844993591309</v>
       </c>
       <c r="C21" s="1">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2306,45 +2315,45 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>1.08585000038147</v>
+        <v>1.066069960594177</v>
       </c>
       <c r="C22" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1">
-        <v>868</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H22" s="1">
-        <v>868</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2">
-        <v>1.031557559967041</v>
+        <v>1.052908658981323</v>
       </c>
       <c r="C23" s="1">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="E23" s="1">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2353,24 +2362,24 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>1.017984390258789</v>
+        <v>1.000263214111328</v>
       </c>
       <c r="C24" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D24" s="1">
-        <v>1207</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2379,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>1207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2387,7 +2396,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1.004411220550537</v>
+        <v>0.9739404916763306</v>
       </c>
       <c r="C25" s="1">
         <v>148</v>
@@ -2413,7 +2422,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9908381700515747</v>
+        <v>0.9607791304588318</v>
       </c>
       <c r="C26" s="1">
         <v>146</v>
@@ -2439,16 +2448,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>0.9908381700515747</v>
+        <v>0.9212951064109802</v>
       </c>
       <c r="C27" s="1">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2462,19 +2471,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>0.9501187801361084</v>
+        <v>0.9081337451934815</v>
       </c>
       <c r="C28" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E28" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2483,33 +2492,33 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8551068902015686</v>
+        <v>0.7370360493659973</v>
       </c>
       <c r="C29" s="1">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D29" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2517,16 +2526,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7600950002670288</v>
+        <v>0.6712292432785034</v>
       </c>
       <c r="C30" s="1">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2543,7 +2552,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6379368901252747</v>
+        <v>0.6185838580131531</v>
       </c>
       <c r="C31" s="1">
         <v>94</v>
@@ -2569,7 +2578,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6107906103134155</v>
+        <v>0.5922611355781555</v>
       </c>
       <c r="C32" s="1">
         <v>90</v>
@@ -2595,7 +2604,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6107906103134155</v>
+        <v>0.5922611355781555</v>
       </c>
       <c r="C33" s="1">
         <v>90</v>
@@ -2621,7 +2630,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6107906103134155</v>
+        <v>0.5922611355781555</v>
       </c>
       <c r="C34" s="1">
         <v>90</v>
@@ -2644,25 +2653,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5836443901062012</v>
+        <v>0.5922611355781555</v>
       </c>
       <c r="C35" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2670,45 +2679,45 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.565938413143158</v>
+      </c>
+      <c r="C36" s="1">
+        <v>86</v>
+      </c>
+      <c r="D36" s="1">
         <v>4</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.570071280002594</v>
-      </c>
-      <c r="C36" s="1">
-        <v>84</v>
-      </c>
-      <c r="D36" s="1">
-        <v>564</v>
-      </c>
       <c r="E36" s="1">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5293518900871277</v>
+        <v>0.5527770519256592</v>
       </c>
       <c r="C37" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E37" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2717,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2725,7 +2734,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5293518900871277</v>
+        <v>0.5132929682731628</v>
       </c>
       <c r="C38" s="1">
         <v>78</v>
@@ -2751,16 +2760,16 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5022056102752686</v>
+        <v>0.5132929682731628</v>
       </c>
       <c r="C39" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2777,7 +2786,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5022056102752686</v>
+        <v>0.4869702458381653</v>
       </c>
       <c r="C40" s="1">
         <v>74</v>
@@ -2803,7 +2812,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4614862501621246</v>
+        <v>0.4474861919879913</v>
       </c>
       <c r="C41" s="1">
         <v>68</v>
@@ -2829,7 +2838,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4343400001525879</v>
+        <v>0.4211634695529938</v>
       </c>
       <c r="C42" s="1">
         <v>64</v>
@@ -2855,7 +2864,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.393620640039444</v>
+        <v>0.3816793859004974</v>
       </c>
       <c r="C43" s="1">
         <v>58</v>
@@ -2881,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="2">
-        <v>0.393620640039444</v>
+        <v>0.3816793859004974</v>
       </c>
       <c r="C44" s="1">
         <v>58</v>
@@ -2907,7 +2916,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3664743900299072</v>
+        <v>0.3553566634654999</v>
       </c>
       <c r="C45" s="1">
         <v>54</v>
@@ -2933,7 +2942,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3393281400203705</v>
+        <v>0.3290339708328247</v>
       </c>
       <c r="C46" s="1">
         <v>50</v>
@@ -2959,7 +2968,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3121818900108337</v>
+        <v>0.3027112483978272</v>
       </c>
       <c r="C47" s="1">
         <v>46</v>
@@ -2985,7 +2994,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2443162500858307</v>
+        <v>0.2369044423103333</v>
       </c>
       <c r="C48" s="1">
         <v>36</v>
@@ -3011,16 +3020,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>0.217170000076294</v>
+        <v>0.1842590123414993</v>
       </c>
       <c r="C49" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3037,7 +3046,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1900237500667572</v>
+        <v>0.1842590123414993</v>
       </c>
       <c r="C50" s="1">
         <v>28</v>
@@ -3063,16 +3072,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1900237500667572</v>
+        <v>0.1710976511240006</v>
       </c>
       <c r="C51" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3089,7 +3098,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.1764506250619888</v>
+        <v>0.1710976511240006</v>
       </c>
       <c r="C52" s="1">
         <v>26</v>
@@ -3115,7 +3124,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.1764506250619888</v>
+        <v>0.1710976511240006</v>
       </c>
       <c r="C53" s="1">
         <v>26</v>
@@ -3141,16 +3150,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.1764506250619888</v>
+        <v>0.1184522211551666</v>
       </c>
       <c r="C54" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3167,7 +3176,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.1221581250429153</v>
+        <v>0.1184522211551666</v>
       </c>
       <c r="C55" s="1">
         <v>18</v>
@@ -3193,7 +3202,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.108585000038147</v>
+        <v>0.1052908673882484</v>
       </c>
       <c r="C56" s="1">
         <v>16</v>
@@ -3219,7 +3228,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.08143875002861023</v>
+        <v>0.07896815240383148</v>
       </c>
       <c r="C57" s="1">
         <v>12</v>
@@ -3245,7 +3254,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.08143875002861023</v>
+        <v>0.07896815240383148</v>
       </c>
       <c r="C58" s="1">
         <v>12</v>
@@ -3271,16 +3280,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.08143875002861023</v>
+        <v>0.0658067911863327</v>
       </c>
       <c r="C59" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3297,7 +3306,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.06786562502384186</v>
+        <v>0.0658067911863327</v>
       </c>
       <c r="C60" s="1">
         <v>10</v>
@@ -3323,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="2">
-        <v>0.05429250001907349</v>
+        <v>0.05264543369412422</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3349,7 +3358,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>0.05429250001907349</v>
+        <v>0.05264543369412422</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -3375,7 +3384,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>0.04071937501430512</v>
+        <v>0.03948407620191574</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
@@ -3401,7 +3410,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>0.04071937501430512</v>
+        <v>0.03948407620191574</v>
       </c>
       <c r="C64" s="1">
         <v>6</v>
@@ -3427,7 +3436,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>0.04071937501430512</v>
+        <v>0.03948407620191574</v>
       </c>
       <c r="C65" s="1">
         <v>6</v>
@@ -3453,19 +3462,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>0.01357312500476837</v>
+        <v>0.02632271684706211</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -3479,7 +3488,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>0.01357312500476837</v>
+        <v>0.01316135842353106</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
@@ -3505,7 +3514,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>0.01357312500476837</v>
+        <v>0.01316135842353106</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
@@ -3531,7 +3540,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>0.01357312500476837</v>
+        <v>0.01316135842353106</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
@@ -3557,7 +3566,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>0.01357312500476837</v>
+        <v>0.01316135842353106</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
@@ -3579,34 +3588,60 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.01316135842353106</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Software</t>
   </si>
@@ -47,12 +47,12 @@
     <t>tx_initialize_high_level.o</t>
   </si>
   <si>
+    <t>rx8900.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal.o</t>
   </si>
   <si>
-    <t>rx8900.o</t>
-  </si>
-  <si>
     <t>tx_low_power.o</t>
   </si>
   <si>
@@ -74,24 +74,24 @@
     <t>txe_thread_create.o</t>
   </si>
   <si>
+    <t>tx_thread_system_suspend.o</t>
+  </si>
+  <si>
+    <t>txe_byte_pool_create.o</t>
+  </si>
+  <si>
+    <t>tx_timer_thread_entry.o</t>
+  </si>
+  <si>
+    <t>tx_thread_create.o</t>
+  </si>
+  <si>
+    <t>tx_thread_system_resume.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_pwr_ex.o</t>
   </si>
   <si>
-    <t>tx_thread_system_suspend.o</t>
-  </si>
-  <si>
-    <t>txe_byte_pool_create.o</t>
-  </si>
-  <si>
-    <t>tx_timer_thread_entry.o</t>
-  </si>
-  <si>
-    <t>tx_thread_create.o</t>
-  </si>
-  <si>
-    <t>tx_thread_system_resume.o</t>
-  </si>
-  <si>
     <t>tx_thread_schedule.o</t>
   </si>
   <si>
@@ -107,6 +107,9 @@
     <t>main.o</t>
   </si>
   <si>
+    <t>tx_thread_sleep.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_i2c_ex.o</t>
   </si>
   <si>
@@ -128,19 +131,19 @@
     <t>tx_thread_shell_entry.o</t>
   </si>
   <si>
+    <t>rx8900_callout.o</t>
+  </si>
+  <si>
+    <t>rt_memclr_w.o</t>
+  </si>
+  <si>
+    <t>tx_initialize_kernel_enter.o</t>
+  </si>
+  <si>
+    <t>sys_stackheap_outer.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_pwr.o</t>
-  </si>
-  <si>
-    <t>rx8900_callout.o</t>
-  </si>
-  <si>
-    <t>rt_memclr_w.o</t>
-  </si>
-  <si>
-    <t>tx_initialize_kernel_enter.o</t>
-  </si>
-  <si>
-    <t>sys_stackheap_outer.o</t>
   </si>
   <si>
     <t>rt_memclr.o</t>
@@ -344,9 +347,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$72</c:f>
+              <c:f>ram_percent!$A$3:$A$73</c:f>
               <c:strCache>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
@@ -375,10 +378,10 @@
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>rx8900.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>stm32l4xx_hal.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>rx8900.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>tx_low_power.o</c:v>
@@ -386,7 +389,7 @@
                 <c:pt idx="12">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -394,50 +397,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$72</c:f>
+              <c:f>ram_percent!$B$3:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>32.70868682861328</c:v>
+                  <c:v>32.54237365722656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.55366325378418</c:v>
+                  <c:v>25.48728752136231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.48381614685059</c:v>
+                  <c:v>18.38982963562012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.01022148132324</c:v>
+                  <c:v>11.94915294647217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.662691593170166</c:v>
+                  <c:v>3.644067764282227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.04429292678833</c:v>
+                  <c:v>2.03389835357666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.04429292678833</c:v>
+                  <c:v>2.03389835357666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.788756370544434</c:v>
+                  <c:v>1.779661059379578</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.107325434684753</c:v>
+                  <c:v>1.101694941520691</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2555366158485413</c:v>
+                  <c:v>0.6144067645072937</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1703577488660812</c:v>
+                  <c:v>0.2542372941970825</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.08517887443304062</c:v>
+                  <c:v>0.08474576473236084</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08517887443304062</c:v>
-                </c:pt>
-                <c:pt idx="69">
+                  <c:v>0.08474576473236084</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -505,9 +508,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$72</c:f>
+              <c:f>flash_percent!$A$3:$A$73</c:f>
               <c:strCache>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>stm32l4xx_hal_rcc.o</c:v>
                 </c:pt>
@@ -536,22 +539,22 @@
                   <c:v>txe_thread_create.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>tx_thread_system_suspend.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>txe_byte_pool_create.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>tx_timer_thread_entry.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>tx_thread_create.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>tx_thread_system_resume.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>tx_thread_system_suspend.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>txe_byte_pool_create.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>tx_timer_thread_entry.o</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tx_thread_create.o</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>tx_thread_system_resume.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>i2c.o</c:v>
@@ -566,10 +569,10 @@
                   <c:v>tx_timer_interrupt.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>stm32l4xx_hal.o</c:v>
+                  <c:v>tx_timer_initialize.o</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>tx_timer_initialize.o</c:v>
+                  <c:v>appmain.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>tx_initialize_low_level.o</c:v>
@@ -578,31 +581,31 @@
                   <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>tx_thread_sleep.o</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>tx_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>appmain.o</c:v>
-                </c:pt>
                 <c:pt idx="26">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>tx_thread_time_slice.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>tx_timer_system_activate.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>tx_thread_shell_entry.o</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>stm32l4xx_hal_pwr.o</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>rx8900_callout.o</c:v>
@@ -623,99 +626,102 @@
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>stm32l4xx_hal_pwr.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>tx_thread_stack_build.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>tx_timer_system_deactivate.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>tx_thread_initialize.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>tx_thread_timeout.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>tx_timer_expiration_process.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>app_threadx.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>fz_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>__scatter_copy.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>stm32l4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>sys_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>appirqcallout.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>rx8900_lcfg.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -723,218 +729,221 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$72</c:f>
+              <c:f>flash_percent!$B$3:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>17.51776695251465</c:v>
+                  <c:v>16.9673023223877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.12213706970215</c:v>
+                  <c:v>13.67837333679199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7386155128479</c:v>
+                  <c:v>9.656447410583496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.409581661224365</c:v>
+                  <c:v>6.208171367645264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.554093360900879</c:v>
+                  <c:v>5.379565238952637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.15872597694397</c:v>
+                  <c:v>3.059468507766724</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.040273666381836</c:v>
+                  <c:v>2.944738388061523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.027112483978272</c:v>
+                  <c:v>2.931990623474121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.619110345840454</c:v>
+                  <c:v>2.536809206008911</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.566464900970459</c:v>
+                  <c:v>2.422079086303711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.50065803527832</c:v>
+                  <c:v>2.269105672836304</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.342721700668335</c:v>
+                  <c:v>2.07788896560669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.145301342010498</c:v>
+                  <c:v>2.02689790725708</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.092655897140503</c:v>
+                  <c:v>1.963158845901489</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.026849269866943</c:v>
+                  <c:v>1.759194374084473</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.592524290084839</c:v>
+                  <c:v>1.542482018470764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.447749376296997</c:v>
+                  <c:v>1.402256369590759</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.289813160896301</c:v>
+                  <c:v>1.249282956123352</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.210844993591309</c:v>
+                  <c:v>1.172796249389648</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.066069960594177</c:v>
+                  <c:v>1.019822835922241</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.052908658981323</c:v>
+                  <c:v>1.019822835922241</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.000263214111328</c:v>
+                  <c:v>0.9688316583633423</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9739404916763306</c:v>
+                  <c:v>0.9433360695838928</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9607791304588318</c:v>
+                  <c:v>0.9305883049964905</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9212951064109802</c:v>
+                  <c:v>0.9305883049964905</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9081337451934815</c:v>
+                  <c:v>0.8923449516296387</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7370360493659973</c:v>
+                  <c:v>0.8031104803085327</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6712292432785034</c:v>
+                  <c:v>0.713875949382782</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6185838580131531</c:v>
+                  <c:v>0.6501370668411255</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5922611355781555</c:v>
+                  <c:v>0.5991458892822266</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5922611355781555</c:v>
+                  <c:v>0.5736503005027771</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5922611355781555</c:v>
+                  <c:v>0.5736503005027771</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5922611355781555</c:v>
+                  <c:v>0.5736503005027771</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.565938413143158</c:v>
+                  <c:v>0.5481547713279724</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5527770519256592</c:v>
+                  <c:v>0.5354069471359253</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5132929682731628</c:v>
+                  <c:v>0.4971636235713959</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5132929682731628</c:v>
+                  <c:v>0.4971636235713959</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4869702458381653</c:v>
+                  <c:v>0.4716680347919464</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4474861919879913</c:v>
+                  <c:v>0.4716680347919464</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4211634695529938</c:v>
+                  <c:v>0.4334246814250946</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3816793859004974</c:v>
+                  <c:v>0.4079291224479675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3816793859004974</c:v>
+                  <c:v>0.3696857690811157</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3553566634654999</c:v>
+                  <c:v>0.3696857690811157</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3290339708328247</c:v>
+                  <c:v>0.3441902101039887</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3027112483978272</c:v>
+                  <c:v>0.3186946213245392</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2369044423103333</c:v>
+                  <c:v>0.2931990623474121</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1842590123414993</c:v>
+                  <c:v>0.229460135102272</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1842590123414993</c:v>
+                  <c:v>0.1784689873456955</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1710976511240006</c:v>
+                  <c:v>0.1784689873456955</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1710976511240006</c:v>
+                  <c:v>0.165721207857132</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1710976511240006</c:v>
+                  <c:v>0.165721207857132</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1184522211551666</c:v>
+                  <c:v>0.165721207857132</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1184522211551666</c:v>
+                  <c:v>0.114730067551136</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1052908673882484</c:v>
+                  <c:v>0.114730067551136</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.07896815240383148</c:v>
+                  <c:v>0.1019822806119919</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.07896815240383148</c:v>
+                  <c:v>0.07648670673370361</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0658067911863327</c:v>
+                  <c:v>0.07648670673370361</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0658067911863327</c:v>
+                  <c:v>0.06373892724514008</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.05264543369412422</c:v>
+                  <c:v>0.06373892724514008</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.05264543369412422</c:v>
+                  <c:v>0.05099114030599594</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.03948407620191574</c:v>
+                  <c:v>0.05099114030599594</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.03948407620191574</c:v>
+                  <c:v>0.03824335336685181</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.03948407620191574</c:v>
+                  <c:v>0.03824335336685181</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.02632271684706211</c:v>
+                  <c:v>0.03824335336685181</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.01316135842353106</c:v>
+                  <c:v>0.02549557015299797</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.01316135842353106</c:v>
+                  <c:v>0.01274778507649899</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.01316135842353106</c:v>
+                  <c:v>0.01274778507649899</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.01316135842353106</c:v>
+                  <c:v>0.01274778507649899</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.01316135842353106</c:v>
+                  <c:v>0.01274778507649899</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>0.01274778507649899</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1039,8 +1048,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H72" totalsRowCount="1">
-  <autoFilter ref="A2:H71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H73" totalsRowCount="1">
+  <autoFilter ref="A2:H72"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1056,8 +1065,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H72" totalsRowCount="1">
-  <autoFilter ref="A2:H71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H73" totalsRowCount="1">
+  <autoFilter ref="A2:H72"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1357,7 +1366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1373,28 +1382,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1402,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>32.70868682861328</v>
+        <v>32.54237365722656</v>
       </c>
       <c r="C3" s="1">
         <v>1536</v>
@@ -1428,16 +1437,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.55366325378418</v>
+        <v>25.48728752136231</v>
       </c>
       <c r="C4" s="1">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="D4" s="1">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1446,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1200</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1454,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18.48381614685059</v>
+        <v>18.38982963562012</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
@@ -1480,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>12.01022148132324</v>
+        <v>11.94915294647217</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
@@ -1506,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3.662691593170166</v>
+        <v>3.644067764282227</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
@@ -1532,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.04429292678833</v>
+        <v>2.03389835357666</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1558,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.04429292678833</v>
+        <v>2.03389835357666</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1584,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.788756370544434</v>
+        <v>1.779661059379578</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
@@ -1610,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.107325434684753</v>
+        <v>1.101694941520691</v>
       </c>
       <c r="C11" s="1">
         <v>52</v>
@@ -1636,25 +1645,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2555366158485413</v>
+        <v>0.6144067645072937</v>
       </c>
       <c r="C12" s="1">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
-        <v>162</v>
+        <v>1515</v>
       </c>
       <c r="E12" s="1">
-        <v>154</v>
+        <v>1514</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1662,25 +1671,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1703577488660812</v>
+        <v>0.2542372941970825</v>
       </c>
       <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>126</v>
+      </c>
+      <c r="E13" s="1">
+        <v>118</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
-        <v>1024</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1024</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
       <c r="H13" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1688,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.08517887443304062</v>
+        <v>0.08474576473236084</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -1714,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08517887443304062</v>
+        <v>0.08474576473236084</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -1735,35 +1744,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72">
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H72">
+      <c r="H73">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1779,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1795,28 +1804,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1824,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>17.51776695251465</v>
+        <v>16.9673023223877</v>
       </c>
       <c r="C3" s="1">
         <v>2662</v>
@@ -1850,7 +1859,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>14.12213706970215</v>
+        <v>13.67837333679199</v>
       </c>
       <c r="C4" s="1">
         <v>2146</v>
@@ -1873,28 +1882,28 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>6.7386155128479</v>
+        <v>9.656447410583496</v>
       </c>
       <c r="C5" s="1">
-        <v>1024</v>
+        <v>1515</v>
       </c>
       <c r="D5" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
-        <v>1024</v>
+        <v>1514</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1902,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>6.409581661224365</v>
+        <v>6.208171367645264</v>
       </c>
       <c r="C6" s="1">
         <v>974</v>
@@ -1928,7 +1937,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>5.554093360900879</v>
+        <v>5.379565238952637</v>
       </c>
       <c r="C7" s="1">
         <v>844</v>
@@ -1954,7 +1963,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>3.15872597694397</v>
+        <v>3.059468507766724</v>
       </c>
       <c r="C8" s="1">
         <v>480</v>
@@ -1980,7 +1989,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>3.040273666381836</v>
+        <v>2.944738388061523</v>
       </c>
       <c r="C9" s="1">
         <v>462</v>
@@ -2006,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>3.027112483978272</v>
+        <v>2.931990623474121</v>
       </c>
       <c r="C10" s="1">
         <v>460</v>
@@ -2032,7 +2041,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>2.619110345840454</v>
+        <v>2.536809206008911</v>
       </c>
       <c r="C11" s="1">
         <v>398</v>
@@ -2058,16 +2067,16 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>2.566464900970459</v>
+        <v>2.422079086303711</v>
       </c>
       <c r="C12" s="1">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2084,16 +2093,16 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>2.50065803527832</v>
+        <v>2.269105672836304</v>
       </c>
       <c r="C13" s="1">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2110,16 +2119,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>2.342721700668335</v>
+        <v>2.07788896560669</v>
       </c>
       <c r="C14" s="1">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2136,16 +2145,16 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>2.145301342010498</v>
+        <v>2.02689790725708</v>
       </c>
       <c r="C15" s="1">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2162,16 +2171,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>2.092655897140503</v>
+        <v>1.963158845901489</v>
       </c>
       <c r="C16" s="1">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2188,16 +2197,16 @@
         <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>2.026849269866943</v>
+        <v>1.759194374084473</v>
       </c>
       <c r="C17" s="1">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2214,7 +2223,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="2">
-        <v>1.592524290084839</v>
+        <v>1.542482018470764</v>
       </c>
       <c r="C18" s="1">
         <v>242</v>
@@ -2240,7 +2249,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.447749376296997</v>
+        <v>1.402256369590759</v>
       </c>
       <c r="C19" s="1">
         <v>220</v>
@@ -2266,7 +2275,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.289813160896301</v>
+        <v>1.249282956123352</v>
       </c>
       <c r="C20" s="1">
         <v>196</v>
@@ -2292,7 +2301,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.210844993591309</v>
+        <v>1.172796249389648</v>
       </c>
       <c r="C21" s="1">
         <v>184</v>
@@ -2315,42 +2324,42 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2">
-        <v>1.066069960594177</v>
+        <v>1.019822835922241</v>
       </c>
       <c r="C22" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>12</v>
+        <v>868</v>
       </c>
       <c r="E22" s="1">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>4</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2">
-        <v>1.052908658981323</v>
+        <v>1.019822835922241</v>
       </c>
       <c r="C23" s="1">
         <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>868</v>
+        <v>1203</v>
       </c>
       <c r="E23" s="1">
         <v>160</v>
@@ -2362,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>868</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2370,7 +2379,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>1.000263214111328</v>
+        <v>0.9688316583633423</v>
       </c>
       <c r="C24" s="1">
         <v>152</v>
@@ -2396,7 +2405,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9739404916763306</v>
+        <v>0.9433360695838928</v>
       </c>
       <c r="C25" s="1">
         <v>148</v>
@@ -2422,7 +2431,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9607791304588318</v>
+        <v>0.9305883049964905</v>
       </c>
       <c r="C26" s="1">
         <v>146</v>
@@ -2448,16 +2457,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>0.9212951064109802</v>
+        <v>0.9305883049964905</v>
       </c>
       <c r="C27" s="1">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2471,19 +2480,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>0.9081337451934815</v>
+        <v>0.8923449516296387</v>
       </c>
       <c r="C28" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D28" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2492,33 +2501,33 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7370360493659973</v>
+        <v>0.8031104803085327</v>
       </c>
       <c r="C29" s="1">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2526,16 +2535,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.6712292432785034</v>
+        <v>0.713875949382782</v>
       </c>
       <c r="C30" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2552,16 +2561,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6185838580131531</v>
+        <v>0.6501370668411255</v>
       </c>
       <c r="C31" s="1">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2578,16 +2587,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.5922611355781555</v>
+        <v>0.5991458892822266</v>
       </c>
       <c r="C32" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2604,7 +2613,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.5922611355781555</v>
+        <v>0.5736503005027771</v>
       </c>
       <c r="C33" s="1">
         <v>90</v>
@@ -2630,7 +2639,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5922611355781555</v>
+        <v>0.5736503005027771</v>
       </c>
       <c r="C34" s="1">
         <v>90</v>
@@ -2656,7 +2665,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5922611355781555</v>
+        <v>0.5736503005027771</v>
       </c>
       <c r="C35" s="1">
         <v>90</v>
@@ -2682,7 +2691,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="2">
-        <v>0.565938413143158</v>
+        <v>0.5481547713279724</v>
       </c>
       <c r="C36" s="1">
         <v>86</v>
@@ -2708,7 +2717,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5527770519256592</v>
+        <v>0.5354069471359253</v>
       </c>
       <c r="C37" s="1">
         <v>84</v>
@@ -2734,7 +2743,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5132929682731628</v>
+        <v>0.4971636235713959</v>
       </c>
       <c r="C38" s="1">
         <v>78</v>
@@ -2760,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5132929682731628</v>
+        <v>0.4971636235713959</v>
       </c>
       <c r="C39" s="1">
         <v>78</v>
@@ -2786,7 +2795,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4869702458381653</v>
+        <v>0.4716680347919464</v>
       </c>
       <c r="C40" s="1">
         <v>74</v>
@@ -2812,16 +2821,16 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4474861919879913</v>
+        <v>0.4716680347919464</v>
       </c>
       <c r="C41" s="1">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2838,16 +2847,16 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4211634695529938</v>
+        <v>0.4334246814250946</v>
       </c>
       <c r="C42" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2864,16 +2873,16 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3816793859004974</v>
+        <v>0.4079291224479675</v>
       </c>
       <c r="C43" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2887,42 +2896,42 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3816793859004974</v>
+        <v>0.3696857690811157</v>
       </c>
       <c r="C44" s="1">
         <v>58</v>
       </c>
       <c r="D44" s="1">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3553566634654999</v>
+        <v>0.3696857690811157</v>
       </c>
       <c r="C45" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E45" s="1">
         <v>54</v>
@@ -2931,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2942,16 +2951,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3290339708328247</v>
+        <v>0.3441902101039887</v>
       </c>
       <c r="C46" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -2965,19 +2974,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3027112483978272</v>
+        <v>0.3186946213245392</v>
       </c>
       <c r="C47" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D47" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2986,24 +2995,24 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2369044423103333</v>
+        <v>0.2931990623474121</v>
       </c>
       <c r="C48" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E48" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3012,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3020,16 +3029,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1842590123414993</v>
+        <v>0.229460135102272</v>
       </c>
       <c r="C49" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3046,7 +3055,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1842590123414993</v>
+        <v>0.1784689873456955</v>
       </c>
       <c r="C50" s="1">
         <v>28</v>
@@ -3072,16 +3081,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1710976511240006</v>
+        <v>0.1784689873456955</v>
       </c>
       <c r="C51" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3098,7 +3107,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.1710976511240006</v>
+        <v>0.165721207857132</v>
       </c>
       <c r="C52" s="1">
         <v>26</v>
@@ -3124,7 +3133,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.1710976511240006</v>
+        <v>0.165721207857132</v>
       </c>
       <c r="C53" s="1">
         <v>26</v>
@@ -3150,16 +3159,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.1184522211551666</v>
+        <v>0.165721207857132</v>
       </c>
       <c r="C54" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3176,7 +3185,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.1184522211551666</v>
+        <v>0.114730067551136</v>
       </c>
       <c r="C55" s="1">
         <v>18</v>
@@ -3202,16 +3211,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.1052908673882484</v>
+        <v>0.114730067551136</v>
       </c>
       <c r="C56" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3228,16 +3237,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.07896815240383148</v>
+        <v>0.1019822806119919</v>
       </c>
       <c r="C57" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3254,7 +3263,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.07896815240383148</v>
+        <v>0.07648670673370361</v>
       </c>
       <c r="C58" s="1">
         <v>12</v>
@@ -3280,16 +3289,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.0658067911863327</v>
+        <v>0.07648670673370361</v>
       </c>
       <c r="C59" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3306,7 +3315,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.0658067911863327</v>
+        <v>0.06373892724514008</v>
       </c>
       <c r="C60" s="1">
         <v>10</v>
@@ -3329,19 +3338,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.05264543369412422</v>
+        <v>0.06373892724514008</v>
       </c>
       <c r="C61" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3350,21 +3359,21 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B62" s="2">
-        <v>0.05264543369412422</v>
+        <v>0.05099114030599594</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E62" s="1">
         <v>8</v>
@@ -3376,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3384,16 +3393,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>0.03948407620191574</v>
+        <v>0.05099114030599594</v>
       </c>
       <c r="C63" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -3410,7 +3419,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>0.03948407620191574</v>
+        <v>0.03824335336685181</v>
       </c>
       <c r="C64" s="1">
         <v>6</v>
@@ -3436,7 +3445,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>0.03948407620191574</v>
+        <v>0.03824335336685181</v>
       </c>
       <c r="C65" s="1">
         <v>6</v>
@@ -3462,19 +3471,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>0.02632271684706211</v>
+        <v>0.03824335336685181</v>
       </c>
       <c r="C66" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F66" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -3488,19 +3497,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>0.01316135842353106</v>
+        <v>0.02549557015299797</v>
       </c>
       <c r="C67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -3514,7 +3523,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>0.01316135842353106</v>
+        <v>0.01274778507649899</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
@@ -3540,7 +3549,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>0.01316135842353106</v>
+        <v>0.01274778507649899</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
@@ -3566,7 +3575,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>0.01316135842353106</v>
+        <v>0.01274778507649899</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
@@ -3592,7 +3601,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>0.01316135842353106</v>
+        <v>0.01274778507649899</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
@@ -3614,34 +3623,60 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.01274778507649899</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H72">
+      <c r="H73">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>Software</t>
   </si>
@@ -47,18 +47,21 @@
     <t>tx_initialize_high_level.o</t>
   </si>
   <si>
+    <t>applowpowermgr.o</t>
+  </si>
+  <si>
     <t>rx8900.o</t>
   </si>
   <si>
+    <t>tx_low_power.o</t>
+  </si>
+  <si>
+    <t>system_stm32l4xx.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal.o</t>
   </si>
   <si>
-    <t>tx_low_power.o</t>
-  </si>
-  <si>
-    <t>system_stm32l4xx.o</t>
-  </si>
-  <si>
     <t>stm32l4xx_hal_rcc.o</t>
   </si>
   <si>
@@ -71,103 +74,115 @@
     <t>stm32l4xx_hal_gpio.o</t>
   </si>
   <si>
+    <t>tx_thread_system_suspend.o</t>
+  </si>
+  <si>
     <t>txe_thread_create.o</t>
   </si>
   <si>
-    <t>tx_thread_system_suspend.o</t>
+    <t>tx_thread_create.o</t>
+  </si>
+  <si>
+    <t>tx_timer_thread_entry.o</t>
+  </si>
+  <si>
+    <t>tx_thread_system_resume.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_pwr_ex.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_cortex.o</t>
   </si>
   <si>
     <t>txe_byte_pool_create.o</t>
   </si>
   <si>
-    <t>tx_timer_thread_entry.o</t>
-  </si>
-  <si>
-    <t>tx_thread_create.o</t>
-  </si>
-  <si>
-    <t>tx_thread_system_resume.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_pwr_ex.o</t>
+    <t>stm32l4xx_hal_i2c_ex.o</t>
+  </si>
+  <si>
+    <t>tx_byte_pool_create.o</t>
   </si>
   <si>
     <t>tx_thread_schedule.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_cortex.o</t>
+    <t>tx_thread_sleep.o</t>
+  </si>
+  <si>
+    <t>tx_timer_system_activate.o</t>
   </si>
   <si>
     <t>tx_timer_interrupt.o</t>
   </si>
   <si>
+    <t>main.o</t>
+  </si>
+  <si>
+    <t>gpio.o</t>
+  </si>
+  <si>
+    <t>rx8900_callout.o</t>
+  </si>
+  <si>
     <t>tx_initialize_low_level.o</t>
   </si>
   <si>
-    <t>main.o</t>
-  </si>
-  <si>
-    <t>tx_thread_sleep.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_i2c_ex.o</t>
-  </si>
-  <si>
-    <t>tx_byte_pool_create.o</t>
-  </si>
-  <si>
     <t>tx_thread_time_slice.o</t>
   </si>
   <si>
-    <t>gpio.o</t>
+    <t>tx_thread_shell_entry.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_pwr.o</t>
+  </si>
+  <si>
+    <t>tx_timer_system_deactivate.o</t>
+  </si>
+  <si>
+    <t>tx_initialize_kernel_enter.o</t>
+  </si>
+  <si>
+    <t>tx_thread_timeout.o</t>
   </si>
   <si>
     <t>__scatter.o</t>
   </si>
   <si>
-    <t>tx_timer_system_activate.o</t>
-  </si>
-  <si>
-    <t>tx_thread_shell_entry.o</t>
-  </si>
-  <si>
-    <t>rx8900_callout.o</t>
+    <t>app_threadx.o</t>
   </si>
   <si>
     <t>rt_memclr_w.o</t>
   </si>
   <si>
-    <t>tx_initialize_kernel_enter.o</t>
-  </si>
-  <si>
     <t>sys_stackheap_outer.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_pwr.o</t>
-  </si>
-  <si>
     <t>rt_memclr.o</t>
   </si>
   <si>
+    <t>stm32l4xx_hal_msp.o</t>
+  </si>
+  <si>
     <t>tx_thread_stack_build.o</t>
   </si>
   <si>
-    <t>tx_timer_system_deactivate.o</t>
-  </si>
-  <si>
-    <t>tx_thread_timeout.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_msp.o</t>
-  </si>
-  <si>
     <t>tx_timer_expiration_process.o</t>
   </si>
   <si>
+    <t>tx_thread_system_return.o</t>
+  </si>
+  <si>
+    <t>tx_time_get.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_it.o</t>
+  </si>
+  <si>
     <t>__scatter_zi.o</t>
   </si>
   <si>
-    <t>app_threadx.o</t>
+    <t>appirqcallout.o</t>
   </si>
   <si>
     <t>fz_wm.l</t>
@@ -182,12 +197,12 @@
     <t>exit.o</t>
   </si>
   <si>
-    <t>stm32l4xx_it.o</t>
-  </si>
-  <si>
     <t>aeabi_memset.o</t>
   </si>
   <si>
+    <t>tx_thread_interrupt_disable.o</t>
+  </si>
+  <si>
     <t>sys_exit.o</t>
   </si>
   <si>
@@ -197,9 +212,6 @@
     <t>rtexit2.o</t>
   </si>
   <si>
-    <t>appirqcallout.o</t>
-  </si>
-  <si>
     <t>__main.o</t>
   </si>
   <si>
@@ -210,6 +222,9 @@
   </si>
   <si>
     <t>__rtentry4.o</t>
+  </si>
+  <si>
+    <t>tx_thread_interrupt_restore.o</t>
   </si>
   <si>
     <t>rx8900_lcfg.o</t>
@@ -347,9 +362,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$73</c:f>
+              <c:f>ram_percent!$A$3:$A$78</c:f>
               <c:strCache>
-                <c:ptCount val="71"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
@@ -378,10 +393,10 @@
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>applowpowermgr.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>rx8900.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>tx_low_power.o</c:v>
@@ -389,7 +404,10 @@
                 <c:pt idx="12">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="13">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -397,50 +415,53 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$73</c:f>
+              <c:f>ram_percent!$B$3:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>32.54237365722656</c:v>
+                  <c:v>32.57688140869141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.48728752136231</c:v>
+                  <c:v>25.76882362365723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.38982963562012</c:v>
+                  <c:v>18.40933227539063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.94915294647217</c:v>
+                  <c:v>11.96182441711426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.644067764282227</c:v>
+                  <c:v>3.647932052612305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.03389835357666</c:v>
+                  <c:v>2.036055088043213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.03389835357666</c:v>
+                  <c:v>2.036055088043213</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.779661059379578</c:v>
+                  <c:v>1.781548261642456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.101694941520691</c:v>
+                  <c:v>1.102863192558289</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6144067645072937</c:v>
+                  <c:v>0.2545068860054016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2542372941970825</c:v>
+                  <c:v>0.1696712672710419</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.08474576473236084</c:v>
+                  <c:v>0.08483563363552094</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08474576473236084</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                  <c:v>0.08483563363552094</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08483563363552094</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -508,9 +529,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$73</c:f>
+              <c:f>flash_percent!$A$3:$A$78</c:f>
               <c:strCache>
-                <c:ptCount val="71"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>stm32l4xx_hal_rcc.o</c:v>
                 </c:pt>
@@ -518,210 +539,225 @@
                   <c:v>stm32l4xx_hal_i2c.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>rx8900.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>stm32l4xx_hal_gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tx_thread_system_suspend.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>txe_thread_create.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>tx_thread_create.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>c_w.l</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>stm32l4xx_hal_gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>tx_timer_thread_entry.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>tx_thread_system_resume.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>txe_thread_create.o</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>tx_thread_system_suspend.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>stm32l4xx_hal_cortex.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>appmain.o</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applowpowermgr.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>txe_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>tx_timer_thread_entry.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>tx_thread_create.o</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tx_thread_system_resume.o</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>i2c.o</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>tx_timer_initialize.o</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>tx_byte_pool_create.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>tx_thread_schedule.o</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>stm32l4xx_hal_cortex.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>tx_timer_interrupt.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>tx_timer_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>appmain.o</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>tx_initialize_low_level.o</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>tx_thread_sleep.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
+                  <c:v>tx_timer_system_activate.o</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>tx_byte_pool_create.o</c:v>
+                  <c:v>tx_timer_interrupt.o</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>stm32l4xx_hal.o</c:v>
+                  <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>rx8900_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>tx_initialize_low_level.o</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>tx_thread_time_slice.o</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>__scatter.o</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>tx_timer_system_activate.o</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>tx_thread_shell_entry.o</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>rx8900_callout.o</c:v>
+                  <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>tx_thread_initialize.o</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>stm32l4xx_hal_pwr.o</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>tx_timer_system_deactivate.o</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>app_azure_rtos.o</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>tx_initialize_kernel_enter.o</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>tx_thread_timeout.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>__scatter.o</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>app_threadx.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>app_azure_rtos.o</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="42">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>tx_initialize_kernel_enter.o</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>stm32l4xx_hal_pwr.o</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
+                  <c:v>stm32l4xx_hal_msp.o</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>tx_thread_stack_build.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>tx_timer_system_deactivate.o</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>tx_thread_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>tx_thread_timeout.o</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>stm32l4xx_hal_msp.o</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>tx_initialize_high_level.o</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>tx_timer_expiration_process.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
+                  <c:v>tx_thread_system_return.o</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>tx_time_get.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>stm32l4xx_it.o</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>app_threadx.o</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
+                  <c:v>appirqcallout.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>fz_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>__scatter_copy.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>stm32l4xx_it.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
+                  <c:v>tx_thread_interrupt_disable.o</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>sys_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>appirqcallout.o</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
+                  <c:v>tx_thread_interrupt_restore.o</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>rx8900_lcfg.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -729,221 +765,236 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$73</c:f>
+              <c:f>flash_percent!$B$3:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>16.9673023223877</c:v>
+                  <c:v>18.26149940490723</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.67837333679199</c:v>
+                  <c:v>13.60677337646484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.656447410583496</c:v>
+                  <c:v>7.505424976348877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.208171367645264</c:v>
+                  <c:v>6.799131870269775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.379565238952637</c:v>
+                  <c:v>5.590775489807129</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.059468507766724</c:v>
+                  <c:v>3.165553331375122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.944738388061523</c:v>
+                  <c:v>3.131515026092529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.931990623474121</c:v>
+                  <c:v>2.484789133071899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.536809206008911</c:v>
+                  <c:v>2.152916669845581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.422079086303711</c:v>
+                  <c:v>2.042292356491089</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.269105672836304</c:v>
+                  <c:v>2.016763925552368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.07788896560669</c:v>
+                  <c:v>2.008254289627075</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.02689790725708</c:v>
+                  <c:v>1.957196950912476</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.963158845901489</c:v>
+                  <c:v>1.73594856262207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.759194374084473</c:v>
+                  <c:v>1.633834004402161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.542482018470764</c:v>
+                  <c:v>1.591286182403565</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.402256369590759</c:v>
+                  <c:v>1.557247996330261</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.249282956123352</c:v>
+                  <c:v>1.506190657615662</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.172796249389648</c:v>
+                  <c:v>1.463642954826355</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.019822835922241</c:v>
+                  <c:v>1.335999608039856</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.019822835922241</c:v>
+                  <c:v>1.301961421966553</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9688316583633423</c:v>
+                  <c:v>1.233885049819946</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9433360695838928</c:v>
+                  <c:v>1.072203516960144</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9305883049964905</c:v>
+                  <c:v>0.9615793824195862</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9305883049964905</c:v>
+                  <c:v>0.9020125269889832</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8923449516296387</c:v>
+                  <c:v>0.7828787565231323</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8031104803085327</c:v>
+                  <c:v>0.7488405704498291</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.713875949382782</c:v>
+                  <c:v>0.7233119010925293</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6501370668411255</c:v>
+                  <c:v>0.6977832913398743</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5991458892822266</c:v>
+                  <c:v>0.6467259526252747</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5736503005027771</c:v>
+                  <c:v>0.6382163763046265</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5736503005027771</c:v>
+                  <c:v>0.57014000415802</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5736503005027771</c:v>
+                  <c:v>0.57014000415802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5481547713279724</c:v>
+                  <c:v>0.5531208515167236</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5354069471359253</c:v>
+                  <c:v>0.5190826654434204</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4971636235713959</c:v>
+                  <c:v>0.476534903049469</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4971636235713959</c:v>
+                  <c:v>0.4552610218524933</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4716680347919464</c:v>
+                  <c:v>0.4424967169761658</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4716680347919464</c:v>
+                  <c:v>0.4084585011005402</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4334246814250946</c:v>
+                  <c:v>0.3999489545822144</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4079291224479675</c:v>
+                  <c:v>0.3999489545822144</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3696857690811157</c:v>
+                  <c:v>0.3659107387065888</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3696857690811157</c:v>
+                  <c:v>0.3318725228309631</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3441902101039887</c:v>
+                  <c:v>0.3148534297943115</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3186946213245392</c:v>
+                  <c:v>0.3063438832759857</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2931990623474121</c:v>
+                  <c:v>0.2893247604370117</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.229460135102272</c:v>
+                  <c:v>0.2808152139186859</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1784689873456955</c:v>
+                  <c:v>0.2723056674003601</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1784689873456955</c:v>
+                  <c:v>0.1957196891307831</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.165721207857132</c:v>
+                  <c:v>0.1616814881563187</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.165721207857132</c:v>
+                  <c:v>0.1446623802185059</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.165721207857132</c:v>
+                  <c:v>0.1361528337001801</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.114730067551136</c:v>
+                  <c:v>0.1191337257623673</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.114730067551136</c:v>
+                  <c:v>0.1191337257623673</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1019822806119919</c:v>
+                  <c:v>0.1106241792440414</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.07648670673370361</c:v>
+                  <c:v>0.1106241792440414</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.07648670673370361</c:v>
+                  <c:v>0.1106241792440414</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.06373892724514008</c:v>
+                  <c:v>0.07658597081899643</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.06373892724514008</c:v>
+                  <c:v>0.06807641685009003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.05099114030599594</c:v>
+                  <c:v>0.05956686288118362</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.05099114030599594</c:v>
+                  <c:v>0.05105731263756752</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.03824335336685181</c:v>
+                  <c:v>0.05105731263756752</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.03824335336685181</c:v>
+                  <c:v>0.04254775866866112</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.03824335336685181</c:v>
+                  <c:v>0.03403820842504501</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.02549557015299797</c:v>
+                  <c:v>0.03403820842504501</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.01274778507649899</c:v>
+                  <c:v>0.02552865631878376</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.01274778507649899</c:v>
+                  <c:v>0.02552865631878376</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.01274778507649899</c:v>
+                  <c:v>0.02552865631878376</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.01274778507649899</c:v>
+                  <c:v>0.02552865631878376</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.01274778507649899</c:v>
+                  <c:v>0.01701910421252251</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>0.008509552106261253</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.008509552106261253</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.008509552106261253</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.008509552106261253</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.008509552106261253</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1048,8 +1099,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H73" totalsRowCount="1">
-  <autoFilter ref="A2:H72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H78" totalsRowCount="1">
+  <autoFilter ref="A2:H77"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1065,8 +1116,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H73" totalsRowCount="1">
-  <autoFilter ref="A2:H72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H78" totalsRowCount="1">
+  <autoFilter ref="A2:H77"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1366,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1382,28 +1433,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1411,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>32.54237365722656</v>
+        <v>32.57688140869141</v>
       </c>
       <c r="C3" s="1">
         <v>1536</v>
@@ -1437,25 +1488,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.48728752136231</v>
+        <v>25.76882362365723</v>
       </c>
       <c r="C4" s="1">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="D4" s="1">
-        <v>160</v>
+        <v>374</v>
       </c>
       <c r="E4" s="1">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1203</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1463,19 +1514,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18.38982963562012</v>
+        <v>18.40933227539063</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
       </c>
       <c r="D5" s="1">
-        <v>160</v>
+        <v>306</v>
       </c>
       <c r="E5" s="1">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1489,19 +1540,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>11.94915294647217</v>
+        <v>11.96182441711426</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
       </c>
       <c r="D6" s="1">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1515,16 +1566,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3.644067764282227</v>
+        <v>3.647932052612305</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
       </c>
       <c r="D7" s="1">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1541,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.03389835357666</v>
+        <v>2.036055088043213</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1567,7 +1618,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.03389835357666</v>
+        <v>2.036055088043213</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1593,16 +1644,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.779661059379578</v>
+        <v>1.781548261642456</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
       </c>
       <c r="D10" s="1">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="E10" s="1">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1619,16 +1670,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.101694941520691</v>
+        <v>1.102863192558289</v>
       </c>
       <c r="C11" s="1">
         <v>52</v>
       </c>
       <c r="D11" s="1">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1645,25 +1696,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.6144067645072937</v>
+        <v>0.2545068860054016</v>
       </c>
       <c r="C12" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
-        <v>1515</v>
+        <v>366</v>
       </c>
       <c r="E12" s="1">
-        <v>1514</v>
+        <v>366</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1671,25 +1722,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.2542372941970825</v>
+        <v>0.1696712672710419</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>126</v>
+        <v>1598</v>
       </c>
       <c r="E13" s="1">
-        <v>118</v>
+        <v>1598</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>8</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1697,16 +1748,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.08474576473236084</v>
+        <v>0.08483563363552094</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>844</v>
+        <v>736</v>
       </c>
       <c r="E14" s="1">
-        <v>844</v>
+        <v>736</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1723,7 +1774,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08474576473236084</v>
+        <v>0.08483563363552094</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -1744,35 +1795,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.08483563363552094</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="E16" s="1">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C73">
+      <c r="C78">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D73">
+      <c r="D78">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E73">
+      <c r="E78">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F73">
+      <c r="F78">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G73">
+      <c r="G78">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H73">
+      <c r="H78">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1788,7 +1865,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1804,45 +1881,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>16.9673023223877</v>
+        <v>18.26149940490723</v>
       </c>
       <c r="C3" s="1">
-        <v>2662</v>
+        <v>4292</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>2662</v>
+        <v>4292</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1856,19 +1933,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>13.67837333679199</v>
+        <v>13.60677337646484</v>
       </c>
       <c r="C4" s="1">
-        <v>2146</v>
+        <v>3198</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>2146</v>
+        <v>3198</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1882,45 +1959,45 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>9.656447410583496</v>
+        <v>7.505424976348877</v>
       </c>
       <c r="C5" s="1">
-        <v>1515</v>
+        <v>1764</v>
       </c>
       <c r="D5" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1514</v>
+        <v>1764</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>6.208171367645264</v>
+        <v>6.799131870269775</v>
       </c>
       <c r="C6" s="1">
-        <v>974</v>
+        <v>1598</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>974</v>
+        <v>1598</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1929,24 +2006,24 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>5.379565238952637</v>
+        <v>5.590775489807129</v>
       </c>
       <c r="C7" s="1">
-        <v>844</v>
+        <v>1314</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>844</v>
+        <v>1314</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1955,24 +2032,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>3.059468507766724</v>
+        <v>3.165553331375122</v>
       </c>
       <c r="C8" s="1">
-        <v>480</v>
+        <v>744</v>
       </c>
       <c r="D8" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>480</v>
+        <v>744</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1981,24 +2058,24 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>2.944738388061523</v>
+        <v>3.131515026092529</v>
       </c>
       <c r="C9" s="1">
-        <v>462</v>
+        <v>736</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>462</v>
+        <v>736</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2007,50 +2084,50 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>2.931990623474121</v>
+        <v>2.484789133071899</v>
       </c>
       <c r="C10" s="1">
-        <v>460</v>
+        <v>584</v>
       </c>
       <c r="D10" s="1">
-        <v>1536</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>64</v>
+        <v>584</v>
       </c>
       <c r="F10" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>2.536809206008911</v>
+        <v>2.152916669845581</v>
       </c>
       <c r="C11" s="1">
-        <v>398</v>
+        <v>506</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>398</v>
+        <v>506</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2064,19 +2141,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>2.422079086303711</v>
+        <v>2.042292356491089</v>
       </c>
       <c r="C12" s="1">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2085,24 +2162,24 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>2.269105672836304</v>
+        <v>2.016763925552368</v>
       </c>
       <c r="C13" s="1">
-        <v>356</v>
+        <v>474</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>356</v>
+        <v>474</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2116,19 +2193,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>2.07788896560669</v>
+        <v>2.008254289627075</v>
       </c>
       <c r="C14" s="1">
-        <v>326</v>
+        <v>472</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>326</v>
+        <v>472</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2142,45 +2219,45 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>2.02689790725708</v>
+        <v>1.957196950912476</v>
       </c>
       <c r="C15" s="1">
-        <v>318</v>
+        <v>460</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="E15" s="1">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.963158845901489</v>
+        <v>1.73594856262207</v>
       </c>
       <c r="C16" s="1">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2194,19 +2271,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.759194374084473</v>
+        <v>1.633834004402161</v>
       </c>
       <c r="C17" s="1">
-        <v>276</v>
+        <v>384</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>276</v>
+        <v>384</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2220,45 +2297,45 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>1.542482018470764</v>
+        <v>1.591286182403565</v>
       </c>
       <c r="C18" s="1">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="D18" s="1">
-        <v>84</v>
+        <v>1215</v>
       </c>
       <c r="E18" s="1">
-        <v>242</v>
+        <v>360</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>84</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
-        <v>1.402256369590759</v>
+        <v>1.557247996330261</v>
       </c>
       <c r="C19" s="1">
-        <v>220</v>
+        <v>366</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1">
-        <v>220</v>
+        <v>366</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2267,24 +2344,24 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>1.249282956123352</v>
+        <v>1.506190657615662</v>
       </c>
       <c r="C20" s="1">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2293,24 +2370,24 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>1.172796249389648</v>
+        <v>1.463642954826355</v>
       </c>
       <c r="C21" s="1">
-        <v>184</v>
+        <v>344</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>184</v>
+        <v>344</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2324,19 +2401,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>1.019822835922241</v>
+        <v>1.335999608039856</v>
       </c>
       <c r="C22" s="1">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="D22" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2345,33 +2422,33 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2">
-        <v>1.019822835922241</v>
+        <v>1.301961421966553</v>
       </c>
       <c r="C23" s="1">
-        <v>160</v>
+        <v>306</v>
       </c>
       <c r="D23" s="1">
-        <v>1203</v>
+        <v>868</v>
       </c>
       <c r="E23" s="1">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>1203</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2379,16 +2456,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9688316583633423</v>
+        <v>1.233885049819946</v>
       </c>
       <c r="C24" s="1">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2405,16 +2482,16 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9433360695838928</v>
+        <v>1.072203516960144</v>
       </c>
       <c r="C25" s="1">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2431,16 +2508,16 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9305883049964905</v>
+        <v>0.9615793824195862</v>
       </c>
       <c r="C26" s="1">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2457,16 +2534,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>0.9305883049964905</v>
+        <v>0.9020125269889832</v>
       </c>
       <c r="C27" s="1">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2483,16 +2560,16 @@
         <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8923449516296387</v>
+        <v>0.7828787565231323</v>
       </c>
       <c r="C28" s="1">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2506,45 +2583,45 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8031104803085327</v>
+        <v>0.7488405704498291</v>
       </c>
       <c r="C29" s="1">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>0.713875949382782</v>
+        <v>0.7233119010925293</v>
       </c>
       <c r="C30" s="1">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2558,19 +2635,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6501370668411255</v>
+        <v>0.6977832913398743</v>
       </c>
       <c r="C31" s="1">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2584,19 +2661,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>0.5991458892822266</v>
+        <v>0.6467259526252747</v>
       </c>
       <c r="C32" s="1">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2610,19 +2687,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>0.5736503005027771</v>
+        <v>0.6382163763046265</v>
       </c>
       <c r="C33" s="1">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2636,19 +2713,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5736503005027771</v>
+        <v>0.57014000415802</v>
       </c>
       <c r="C34" s="1">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2662,19 +2739,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5736503005027771</v>
+        <v>0.57014000415802</v>
       </c>
       <c r="C35" s="1">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E35" s="1">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2683,50 +2760,50 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5481547713279724</v>
+        <v>0.5531208515167236</v>
       </c>
       <c r="C36" s="1">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="E36" s="1">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="F36" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>4</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5354069471359253</v>
+        <v>0.5190826654434204</v>
       </c>
       <c r="C37" s="1">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2735,24 +2812,24 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4971636235713959</v>
+        <v>0.476534903049469</v>
       </c>
       <c r="C38" s="1">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2766,28 +2843,28 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4971636235713959</v>
+        <v>0.4552610218524933</v>
       </c>
       <c r="C39" s="1">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E39" s="1">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2795,16 +2872,16 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4716680347919464</v>
+        <v>0.4424967169761658</v>
       </c>
       <c r="C40" s="1">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2821,16 +2898,16 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4716680347919464</v>
+        <v>0.4084585011005402</v>
       </c>
       <c r="C41" s="1">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2847,16 +2924,16 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4334246814250946</v>
+        <v>0.3999489545822144</v>
       </c>
       <c r="C42" s="1">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2873,16 +2950,16 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4079291224479675</v>
+        <v>0.3999489545822144</v>
       </c>
       <c r="C43" s="1">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2896,25 +2973,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3696857690811157</v>
+        <v>0.3659107387065888</v>
       </c>
       <c r="C44" s="1">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -2922,28 +2999,28 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3696857690811157</v>
+        <v>0.3318725228309631</v>
       </c>
       <c r="C45" s="1">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2951,16 +3028,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3441902101039887</v>
+        <v>0.3148534297943115</v>
       </c>
       <c r="C46" s="1">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -2974,25 +3051,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3186946213245392</v>
+        <v>0.3063438832759857</v>
       </c>
       <c r="C47" s="1">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3000,19 +3077,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2931990623474121</v>
+        <v>0.2893247604370117</v>
       </c>
       <c r="C48" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D48" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3021,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3029,16 +3106,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>0.229460135102272</v>
+        <v>0.2808152139186859</v>
       </c>
       <c r="C49" s="1">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3055,16 +3132,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1784689873456955</v>
+        <v>0.2723056674003601</v>
       </c>
       <c r="C50" s="1">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3081,16 +3158,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1784689873456955</v>
+        <v>0.1957196891307831</v>
       </c>
       <c r="C51" s="1">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3107,16 +3184,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.165721207857132</v>
+        <v>0.1616814881563187</v>
       </c>
       <c r="C52" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3133,16 +3210,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.165721207857132</v>
+        <v>0.1446623802185059</v>
       </c>
       <c r="C53" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3159,16 +3236,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.165721207857132</v>
+        <v>0.1361528337001801</v>
       </c>
       <c r="C54" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3185,16 +3262,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.114730067551136</v>
+        <v>0.1191337257623673</v>
       </c>
       <c r="C55" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3211,16 +3288,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.114730067551136</v>
+        <v>0.1191337257623673</v>
       </c>
       <c r="C56" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3237,16 +3314,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1019822806119919</v>
+        <v>0.1106241792440414</v>
       </c>
       <c r="C57" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3263,16 +3340,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.07648670673370361</v>
+        <v>0.1106241792440414</v>
       </c>
       <c r="C58" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3289,16 +3366,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.07648670673370361</v>
+        <v>0.1106241792440414</v>
       </c>
       <c r="C59" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3315,16 +3392,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.06373892724514008</v>
+        <v>0.07658597081899643</v>
       </c>
       <c r="C60" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3341,16 +3418,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.06373892724514008</v>
+        <v>0.06807641685009003</v>
       </c>
       <c r="C61" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3364,19 +3441,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.05099114030599594</v>
+        <v>0.05956686288118362</v>
       </c>
       <c r="C62" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D62" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3385,24 +3462,24 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.05099114030599594</v>
+        <v>0.05105731263756752</v>
       </c>
       <c r="C63" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -3416,19 +3493,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.03824335336685181</v>
+        <v>0.05105731263756752</v>
       </c>
       <c r="C64" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3442,19 +3519,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.03824335336685181</v>
+        <v>0.04254775866866112</v>
       </c>
       <c r="C65" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3468,19 +3545,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B66" s="2">
-        <v>0.03824335336685181</v>
+        <v>0.03403820842504501</v>
       </c>
       <c r="C66" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E66" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3489,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3497,19 +3574,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>0.02549557015299797</v>
+        <v>0.03403820842504501</v>
       </c>
       <c r="C67" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -3523,16 +3600,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>0.01274778507649899</v>
+        <v>0.02552865631878376</v>
       </c>
       <c r="C68" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3549,16 +3626,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>0.01274778507649899</v>
+        <v>0.02552865631878376</v>
       </c>
       <c r="C69" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3575,16 +3652,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>0.01274778507649899</v>
+        <v>0.02552865631878376</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -3601,16 +3678,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>0.01274778507649899</v>
+        <v>0.02552865631878376</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -3627,56 +3704,186 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>0.01274778507649899</v>
+        <v>0.01701910421252251</v>
       </c>
       <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.008509552106261253</v>
+      </c>
+      <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="1">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
         <v>2</v>
       </c>
-      <c r="F72" s="1">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B74" s="2">
+        <v>0.008509552106261253</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.008509552106261253</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.008509552106261253</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.008509552106261253</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C73">
+      <c r="C78">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D73">
+      <c r="D78">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E73">
+      <c r="E78">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F73">
+      <c r="F78">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G73">
+      <c r="G78">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H73">
+      <c r="H78">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>Software</t>
   </si>
@@ -44,12 +44,18 @@
     <t>i2c.o</t>
   </si>
   <si>
+    <t>lptim.o</t>
+  </si>
+  <si>
     <t>tx_initialize_high_level.o</t>
   </si>
   <si>
     <t>applowpowermgr.o</t>
   </si>
   <si>
+    <t>stm32l4xx_hal.o</t>
+  </si>
+  <si>
     <t>rx8900.o</t>
   </si>
   <si>
@@ -59,7 +65,7 @@
     <t>system_stm32l4xx.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal.o</t>
+    <t>appirqcallout.o</t>
   </si>
   <si>
     <t>stm32l4xx_hal_rcc.o</t>
@@ -68,34 +74,49 @@
     <t>stm32l4xx_hal_i2c.o</t>
   </si>
   <si>
+    <t>stm32l4xx_hal_lptim.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_rcc_ex.o</t>
   </si>
   <si>
     <t>stm32l4xx_hal_gpio.o</t>
   </si>
   <si>
+    <t>txe_thread_create.o</t>
+  </si>
+  <si>
     <t>tx_thread_system_suspend.o</t>
   </si>
   <si>
-    <t>txe_thread_create.o</t>
+    <t>txe_byte_pool_create.o</t>
+  </si>
+  <si>
+    <t>tx_timer_thread_entry.o</t>
   </si>
   <si>
     <t>tx_thread_create.o</t>
   </si>
   <si>
-    <t>tx_timer_thread_entry.o</t>
+    <t>stm32l4xx_hal_pwr_ex.o</t>
+  </si>
+  <si>
+    <t>tx_thread_schedule.o</t>
   </si>
   <si>
     <t>tx_thread_system_resume.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_pwr_ex.o</t>
-  </si>
-  <si>
     <t>stm32l4xx_hal_cortex.o</t>
   </si>
   <si>
-    <t>txe_byte_pool_create.o</t>
+    <t>tx_timer_interrupt.o</t>
+  </si>
+  <si>
+    <t>tx_initialize_low_level.o</t>
+  </si>
+  <si>
+    <t>main.o</t>
   </si>
   <si>
     <t>stm32l4xx_hal_i2c_ex.o</t>
@@ -104,94 +125,82 @@
     <t>tx_byte_pool_create.o</t>
   </si>
   <si>
-    <t>tx_thread_schedule.o</t>
+    <t>gpio.o</t>
   </si>
   <si>
     <t>tx_thread_sleep.o</t>
   </si>
   <si>
+    <t>tx_thread_time_slice.o</t>
+  </si>
+  <si>
+    <t>__scatter.o</t>
+  </si>
+  <si>
     <t>tx_timer_system_activate.o</t>
   </si>
   <si>
-    <t>tx_timer_interrupt.o</t>
-  </si>
-  <si>
-    <t>main.o</t>
-  </si>
-  <si>
-    <t>gpio.o</t>
-  </si>
-  <si>
     <t>rx8900_callout.o</t>
   </si>
   <si>
-    <t>tx_initialize_low_level.o</t>
-  </si>
-  <si>
-    <t>tx_thread_time_slice.o</t>
-  </si>
-  <si>
     <t>tx_thread_shell_entry.o</t>
   </si>
   <si>
+    <t>rt_memclr_w.o</t>
+  </si>
+  <si>
+    <t>tx_initialize_kernel_enter.o</t>
+  </si>
+  <si>
+    <t>sys_stackheap_outer.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_pwr.o</t>
   </si>
   <si>
+    <t>tx_thread_timeout.o</t>
+  </si>
+  <si>
+    <t>rt_memclr.o</t>
+  </si>
+  <si>
+    <t>tx_thread_stack_build.o</t>
+  </si>
+  <si>
     <t>tx_timer_system_deactivate.o</t>
   </si>
   <si>
-    <t>tx_initialize_kernel_enter.o</t>
-  </si>
-  <si>
-    <t>tx_thread_timeout.o</t>
-  </si>
-  <si>
-    <t>__scatter.o</t>
+    <t>stm32l4xx_hal_msp.o</t>
   </si>
   <si>
     <t>app_threadx.o</t>
   </si>
   <si>
-    <t>rt_memclr_w.o</t>
-  </si>
-  <si>
-    <t>sys_stackheap_outer.o</t>
-  </si>
-  <si>
-    <t>rt_memclr.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_msp.o</t>
-  </si>
-  <si>
-    <t>tx_thread_stack_build.o</t>
-  </si>
-  <si>
     <t>tx_timer_expiration_process.o</t>
   </si>
   <si>
     <t>tx_thread_system_return.o</t>
   </si>
   <si>
+    <t>stm32l4xx_it.o</t>
+  </si>
+  <si>
+    <t>__scatter_zi.o</t>
+  </si>
+  <si>
+    <t>fz_wm.l</t>
+  </si>
+  <si>
+    <t>fpinit.o</t>
+  </si>
+  <si>
+    <t>__scatter_copy.o</t>
+  </si>
+  <si>
+    <t>tx_time_set.o</t>
+  </si>
+  <si>
     <t>tx_time_get.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_it.o</t>
-  </si>
-  <si>
-    <t>__scatter_zi.o</t>
-  </si>
-  <si>
-    <t>appirqcallout.o</t>
-  </si>
-  <si>
-    <t>fz_wm.l</t>
-  </si>
-  <si>
-    <t>fpinit.o</t>
-  </si>
-  <si>
-    <t>__scatter_copy.o</t>
   </si>
   <si>
     <t>exit.o</t>
@@ -362,9 +371,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$78</c:f>
+              <c:f>ram_percent!$A$3:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
@@ -390,24 +399,30 @@
                   <c:v>i2c.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>lptim.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>applowpowermgr.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>rx8900.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>stm32l4xx_hal.o</c:v>
-                </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="15">
+                  <c:v>appirqcallout.o</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -415,53 +430,59 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$78</c:f>
+              <c:f>ram_percent!$B$3:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>32.57688140869141</c:v>
+                  <c:v>32.15407180786133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.76882362365723</c:v>
+                  <c:v>25.30877113342285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.40933227539063</c:v>
+                  <c:v>18.17040061950684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.96182441711426</c:v>
+                  <c:v>11.80657291412354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.647932052612305</c:v>
+                  <c:v>3.600586175918579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.036055088043213</c:v>
+                  <c:v>2.009629487991333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.036055088043213</c:v>
+                  <c:v>2.009629487991333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.781548261642456</c:v>
+                  <c:v>1.758425831794739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.102863192558289</c:v>
+                  <c:v>1.172283887863159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2545068860054016</c:v>
+                  <c:v>1.088549256324768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1696712672710419</c:v>
+                  <c:v>0.334938257932663</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.08483563363552094</c:v>
+                  <c:v>0.1674691289663315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08483563363552094</c:v>
+                  <c:v>0.1674691289663315</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.08483563363552094</c:v>
-                </c:pt>
-                <c:pt idx="75">
+                  <c:v>0.08373456448316574</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.08373456448316574</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.08373456448316574</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -529,9 +550,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$78</c:f>
+              <c:f>flash_percent!$A$3:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>stm32l4xx_hal_rcc.o</c:v>
                 </c:pt>
@@ -539,225 +560,234 @@
                   <c:v>stm32l4xx_hal_i2c.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
+                  <c:v>stm32l4xx_hal_lptim.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>rx8900.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tx_low_power.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>applowpowermgr.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>c_w.l</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>startup_stm32l432xx.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>appmain.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>txe_thread_create.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>tx_thread_system_suspend.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>tx_low_power.o</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>txe_thread_create.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>txe_byte_pool_create.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>tx_timer_thread_entry.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>tx_thread_create.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>c_w.l</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>tx_timer_thread_entry.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
+                  <c:v>i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>tx_thread_schedule.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>tx_thread_system_resume.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>startup_stm32l432xx.o</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
+                  <c:v>lptim.o</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>appmain.o</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>applowpowermgr.o</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>i2c.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>txe_byte_pool_create.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
+                  <c:v>tx_timer_interrupt.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>tx_timer_initialize.o</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>tx_initialize_low_level.o</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>tx_timer_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>tx_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>tx_thread_schedule.o</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
+                  <c:v>gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>tx_thread_sleep.o</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>tx_timer_system_activate.o</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>tx_timer_interrupt.o</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>rx8900_callout.o</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>tx_initialize_low_level.o</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>tx_thread_time_slice.o</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>__scatter.o</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>tx_timer_system_activate.o</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>rx8900_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>tx_thread_shell_entry.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>tx_initialize_high_level.o</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>tx_thread_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>stm32l4xx_hal_pwr.o</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>tx_timer_system_deactivate.o</c:v>
+                  <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>app_azure_rtos.o</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>appirqcallout.o</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>rt_memclr_w.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>tx_initialize_kernel_enter.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
+                  <c:v>sys_stackheap_outer.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>stm32l4xx_hal_pwr.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>tx_thread_timeout.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>__scatter.o</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
+                  <c:v>rt_memclr.o</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>tx_thread_stack_build.o</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>tx_timer_system_deactivate.o</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>tx_thread_initialize.o</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>stm32l4xx_hal_msp.o</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>tx_initialize_high_level.o</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>app_threadx.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>system_stm32l4xx.o</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>rt_memclr_w.o</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>sys_stackheap_outer.o</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>stm32l4xx_hal.o</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>rt_memclr.o</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>stm32l4xx_hal_msp.o</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>tx_thread_stack_build.o</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>tx_timer_expiration_process.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="52">
                   <c:v>tx_thread_system_return.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="53">
+                  <c:v>stm32l4xx_it.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>__scatter_zi.o</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>fz_wm.l</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>fpinit.o</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>__scatter_copy.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>tx_time_set.o</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>tx_time_get.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>stm32l4xx_it.o</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>__scatter_zi.o</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>appirqcallout.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>fz_wm.l</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>fpinit.o</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>__scatter_copy.o</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="60">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="61">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="62">
                   <c:v>tx_thread_interrupt_disable.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="63">
                   <c:v>sys_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="64">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="65">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="66">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="67">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="68">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="69">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="70">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="71">
                   <c:v>tx_thread_interrupt_restore.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="72">
                   <c:v>rx8900_lcfg.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="73">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="74">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="75">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="76">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="77">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="78">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -765,236 +795,245 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$78</c:f>
+              <c:f>flash_percent!$B$3:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>18.26149940490723</c:v>
+                  <c:v>15.34411430358887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.60677337646484</c:v>
+                  <c:v>11.81969547271729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.505424976348877</c:v>
+                  <c:v>7.177779197692871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.799131870269775</c:v>
+                  <c:v>5.50153112411499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.590775489807129</c:v>
+                  <c:v>5.232901573181152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.165553331375122</c:v>
+                  <c:v>4.598936080932617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.131515026092529</c:v>
+                  <c:v>4.512974739074707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.484789133071899</c:v>
+                  <c:v>4.126148223876953</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.152916669845581</c:v>
+                  <c:v>2.578842639923096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.042292356491089</c:v>
+                  <c:v>2.471390962600708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.016763925552368</c:v>
+                  <c:v>2.294095516204834</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.008254289627075</c:v>
+                  <c:v>2.11680006980896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.957196950912476</c:v>
+                  <c:v>2.041583776473999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.73594856262207</c:v>
+                  <c:v>1.891151309013367</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.633834004402161</c:v>
+                  <c:v>1.78369951248169</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.591286182403565</c:v>
+                  <c:v>1.708483338356018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.557247996330261</c:v>
+                  <c:v>1.633267045021057</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.506190657615662</c:v>
+                  <c:v>1.482834577560425</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.463642954826355</c:v>
+                  <c:v>1.35389244556427</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.335999608039856</c:v>
+                  <c:v>1.332402110099793</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.301961421966553</c:v>
+                  <c:v>1.09600818157196</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.233885049819946</c:v>
+                  <c:v>1.042282223701477</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.072203516960144</c:v>
+                  <c:v>0.9885563850402832</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9615793824195862</c:v>
+                  <c:v>0.8596142530441284</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9020125269889832</c:v>
+                  <c:v>0.8166335225105286</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7828787565231323</c:v>
+                  <c:v>0.8166335225105286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7488405704498291</c:v>
+                  <c:v>0.7843980193138123</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7233119010925293</c:v>
+                  <c:v>0.7306721210479736</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6977832913398743</c:v>
+                  <c:v>0.7199269533157349</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6467259526252747</c:v>
+                  <c:v>0.6662010550498962</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6382163763046265</c:v>
+                  <c:v>0.6232203245162964</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.57014000415802</c:v>
+                  <c:v>0.5050233602523804</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.57014000415802</c:v>
+                  <c:v>0.4835330247879028</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5531208515167236</c:v>
+                  <c:v>0.4835330247879028</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5190826654434204</c:v>
+                  <c:v>0.4727878272533417</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.476534903049469</c:v>
+                  <c:v>0.4620426595211029</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4552610218524933</c:v>
+                  <c:v>0.4512974917888641</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4424967169761658</c:v>
+                  <c:v>0.440552294254303</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4084585011005402</c:v>
+                  <c:v>0.4190619587898254</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3999489545822144</c:v>
+                  <c:v>0.4190619587898254</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3999489545822144</c:v>
+                  <c:v>0.3975715935230255</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3659107387065888</c:v>
+                  <c:v>0.3975715935230255</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3318725228309631</c:v>
+                  <c:v>0.3868264257907867</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3148534297943115</c:v>
+                  <c:v>0.3653360605239868</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3063438832759857</c:v>
+                  <c:v>0.3438456952571869</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2893247604370117</c:v>
+                  <c:v>0.3116101622581482</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2808152139186859</c:v>
+                  <c:v>0.3116101622581482</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2723056674003601</c:v>
+                  <c:v>0.3008649945259094</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1957196891307831</c:v>
+                  <c:v>0.2686294615268707</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1616814881563187</c:v>
+                  <c:v>0.2471390962600708</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1446623802185059</c:v>
+                  <c:v>0.2363939136266708</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1361528337001801</c:v>
+                  <c:v>0.2149035632610321</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1191337257623673</c:v>
+                  <c:v>0.2041583806276321</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1191337257623673</c:v>
+                  <c:v>0.1611776649951935</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1106241792440414</c:v>
+                  <c:v>0.1504324972629547</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1106241792440414</c:v>
+                  <c:v>0.1396873146295548</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1106241792440414</c:v>
+                  <c:v>0.1396873146295548</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.07658597081899643</c:v>
+                  <c:v>0.1396873146295548</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.06807641685009003</c:v>
+                  <c:v>0.1396873146295548</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.05956686288118362</c:v>
+                  <c:v>0.1289421319961548</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.05105731263756752</c:v>
+                  <c:v>0.09670660644769669</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.05105731263756752</c:v>
+                  <c:v>0.08596142381429672</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.04254775866866112</c:v>
+                  <c:v>0.07521624863147736</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.03403820842504501</c:v>
+                  <c:v>0.06447106599807739</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.03403820842504501</c:v>
+                  <c:v>0.06447106599807739</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.02552865631878376</c:v>
+                  <c:v>0.05372589081525803</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.02552865631878376</c:v>
+                  <c:v>0.04298071190714836</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.02552865631878376</c:v>
+                  <c:v>0.04298071190714836</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.02552865631878376</c:v>
+                  <c:v>0.0322355329990387</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.01701910421252251</c:v>
+                  <c:v>0.0322355329990387</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.008509552106261253</c:v>
+                  <c:v>0.0322355329990387</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.008509552106261253</c:v>
+                  <c:v>0.0322355329990387</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.008509552106261253</c:v>
+                  <c:v>0.02149035595357418</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.008509552106261253</c:v>
+                  <c:v>0.01074517797678709</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.008509552106261253</c:v>
+                  <c:v>0.01074517797678709</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>0.01074517797678709</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.01074517797678709</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.01074517797678709</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1099,8 +1138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H78" totalsRowCount="1">
-  <autoFilter ref="A2:H77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H81" totalsRowCount="1">
+  <autoFilter ref="A2:H80"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1116,8 +1155,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H78" totalsRowCount="1">
-  <autoFilter ref="A2:H77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H81" totalsRowCount="1">
+  <autoFilter ref="A2:H80"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1417,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1433,28 +1472,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1462,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>32.57688140869141</v>
+        <v>32.15407180786133</v>
       </c>
       <c r="C3" s="1">
         <v>1536</v>
@@ -1488,25 +1527,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.76882362365723</v>
+        <v>25.30877113342285</v>
       </c>
       <c r="C4" s="1">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="D4" s="1">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="E4" s="1">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="F4" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1514,19 +1553,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18.40933227539063</v>
+        <v>18.17040061950684</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
       </c>
       <c r="D5" s="1">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="F5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1540,19 +1579,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>11.96182441711426</v>
+        <v>11.80657291412354</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
       </c>
       <c r="D6" s="1">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1566,16 +1605,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3.647932052612305</v>
+        <v>3.600586175918579</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
       </c>
       <c r="D7" s="1">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1592,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.036055088043213</v>
+        <v>2.009629487991333</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1618,7 +1657,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.036055088043213</v>
+        <v>2.009629487991333</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1644,16 +1683,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.781548261642456</v>
+        <v>1.758425831794739</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
       </c>
       <c r="D10" s="1">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="E10" s="1">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1670,16 +1709,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.102863192558289</v>
+        <v>1.172283887863159</v>
       </c>
       <c r="C11" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="E11" s="1">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1688,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1696,16 +1735,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2545068860054016</v>
+        <v>1.088549256324768</v>
       </c>
       <c r="C12" s="1">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1">
-        <v>366</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
-        <v>366</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1714,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1722,16 +1761,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1696712672710419</v>
+        <v>0.334938257932663</v>
       </c>
       <c r="C13" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1598</v>
+        <v>840</v>
       </c>
       <c r="E13" s="1">
-        <v>1598</v>
+        <v>840</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1740,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1748,25 +1787,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.08483563363552094</v>
+        <v>0.1674691289663315</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>736</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1">
-        <v>736</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1774,25 +1813,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08483563363552094</v>
+        <v>0.1674691289663315</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1">
-        <v>86</v>
+        <v>1024</v>
       </c>
       <c r="E15" s="1">
-        <v>18</v>
+        <v>1024</v>
       </c>
       <c r="F15" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1800,56 +1839,108 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.08483563363552094</v>
+        <v>0.08373456448316574</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>72</v>
+        <v>856</v>
       </c>
       <c r="E16" s="1">
-        <v>68</v>
+        <v>856</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
         <v>4</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.08373456448316574</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.08373456448316574</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C78">
+      <c r="C81">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D78">
+      <c r="D81">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E78">
+      <c r="E81">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F78">
+      <c r="F81">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="G81">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H78">
+      <c r="H81">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1865,7 +1956,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1881,45 +1972,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>18.26149940490723</v>
+        <v>15.34411430358887</v>
       </c>
       <c r="C3" s="1">
-        <v>4292</v>
+        <v>2856</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>4292</v>
+        <v>2856</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1933,19 +2024,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>13.60677337646484</v>
+        <v>11.81969547271729</v>
       </c>
       <c r="C4" s="1">
-        <v>3198</v>
+        <v>2200</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>3198</v>
+        <v>2200</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1959,19 +2050,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>7.505424976348877</v>
+        <v>7.177779197692871</v>
       </c>
       <c r="C5" s="1">
-        <v>1764</v>
+        <v>1336</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1764</v>
+        <v>1336</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1985,19 +2076,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>6.799131870269775</v>
+        <v>5.50153112411499</v>
       </c>
       <c r="C6" s="1">
-        <v>1598</v>
+        <v>1024</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>1598</v>
+        <v>1024</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2011,19 +2102,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>5.590775489807129</v>
+        <v>5.232901573181152</v>
       </c>
       <c r="C7" s="1">
-        <v>1314</v>
+        <v>974</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1314</v>
+        <v>974</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2037,19 +2128,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>3.165553331375122</v>
+        <v>4.598936080932617</v>
       </c>
       <c r="C8" s="1">
-        <v>744</v>
+        <v>856</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>744</v>
+        <v>856</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2058,24 +2149,24 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>3.131515026092529</v>
+        <v>4.512974739074707</v>
       </c>
       <c r="C9" s="1">
-        <v>736</v>
+        <v>840</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
-        <v>736</v>
+        <v>840</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2084,24 +2175,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>2.484789133071899</v>
+        <v>4.126148223876953</v>
       </c>
       <c r="C10" s="1">
-        <v>584</v>
+        <v>768</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>584</v>
+        <v>768</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2115,19 +2206,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>2.152916669845581</v>
+        <v>2.578842639923096</v>
       </c>
       <c r="C11" s="1">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2136,76 +2227,76 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>2.042292356491089</v>
+        <v>2.471390962600708</v>
       </c>
       <c r="C12" s="1">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="D12" s="1">
-        <v>96</v>
+        <v>1536</v>
       </c>
       <c r="E12" s="1">
-        <v>480</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>96</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>2.016763925552368</v>
+        <v>2.294095516204834</v>
       </c>
       <c r="C13" s="1">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="E13" s="1">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>2.008254289627075</v>
+        <v>2.11680006980896</v>
       </c>
       <c r="C14" s="1">
-        <v>472</v>
+        <v>394</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>472</v>
+        <v>394</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2219,28 +2310,28 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>1.957196950912476</v>
+        <v>2.041583776473999</v>
       </c>
       <c r="C15" s="1">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="D15" s="1">
-        <v>1536</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>64</v>
+        <v>380</v>
       </c>
       <c r="F15" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>1536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2248,16 +2339,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.73594856262207</v>
+        <v>1.891151309013367</v>
       </c>
       <c r="C16" s="1">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2274,16 +2365,16 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.633834004402161</v>
+        <v>1.78369951248169</v>
       </c>
       <c r="C17" s="1">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2297,45 +2388,45 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>1.591286182403565</v>
+        <v>1.708483338356018</v>
       </c>
       <c r="C18" s="1">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="D18" s="1">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="F18" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>1.557247996330261</v>
+        <v>1.633267045021057</v>
       </c>
       <c r="C19" s="1">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="D19" s="1">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2344,24 +2435,24 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.506190657615662</v>
+        <v>1.482834577560425</v>
       </c>
       <c r="C20" s="1">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="D20" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2370,24 +2461,24 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>1.463642954826355</v>
+        <v>1.35389244556427</v>
       </c>
       <c r="C21" s="1">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2401,19 +2492,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>1.335999608039856</v>
+        <v>1.332402110099793</v>
       </c>
       <c r="C22" s="1">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2427,45 +2518,45 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2">
-        <v>1.301961421966553</v>
+        <v>1.09600818157196</v>
       </c>
       <c r="C23" s="1">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="D23" s="1">
-        <v>868</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="F23" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>868</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>1.233885049819946</v>
+        <v>1.042282223701477</v>
       </c>
       <c r="C24" s="1">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2479,19 +2570,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>1.072203516960144</v>
+        <v>0.9885563850402832</v>
       </c>
       <c r="C25" s="1">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2505,19 +2596,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9615793824195862</v>
+        <v>0.8596142530441284</v>
       </c>
       <c r="C26" s="1">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="E26" s="1">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2526,24 +2617,24 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>0.9020125269889832</v>
+        <v>0.8166335225105286</v>
       </c>
       <c r="C27" s="1">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2557,19 +2648,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7828787565231323</v>
+        <v>0.8166335225105286</v>
       </c>
       <c r="C28" s="1">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2583,19 +2674,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7488405704498291</v>
+        <v>0.7843980193138123</v>
       </c>
       <c r="C29" s="1">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2609,19 +2700,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7233119010925293</v>
+        <v>0.7306721210479736</v>
       </c>
       <c r="C30" s="1">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2635,19 +2726,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6977832913398743</v>
+        <v>0.7199269533157349</v>
       </c>
       <c r="C31" s="1">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2661,19 +2752,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6467259526252747</v>
+        <v>0.6662010550498962</v>
       </c>
       <c r="C32" s="1">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2687,19 +2778,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6382163763046265</v>
+        <v>0.6232203245162964</v>
       </c>
       <c r="C33" s="1">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2713,19 +2804,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>0.57014000415802</v>
+        <v>0.5050233602523804</v>
       </c>
       <c r="C34" s="1">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2739,19 +2830,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2">
-        <v>0.57014000415802</v>
+        <v>0.4835330247879028</v>
       </c>
       <c r="C35" s="1">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2760,50 +2851,50 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5531208515167236</v>
+        <v>0.4835330247879028</v>
       </c>
       <c r="C36" s="1">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D36" s="1">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5190826654434204</v>
+        <v>0.4727878272533417</v>
       </c>
       <c r="C37" s="1">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2817,25 +2908,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2">
-        <v>0.476534903049469</v>
+        <v>0.4620426595211029</v>
       </c>
       <c r="C38" s="1">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2846,19 +2937,19 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4552610218524933</v>
+        <v>0.4512974917888641</v>
       </c>
       <c r="C39" s="1">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D39" s="1">
         <v>564</v>
       </c>
       <c r="E39" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F39" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2869,19 +2960,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4424967169761658</v>
+        <v>0.440552294254303</v>
       </c>
       <c r="C40" s="1">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2890,24 +2981,24 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4084585011005402</v>
+        <v>0.4190619587898254</v>
       </c>
       <c r="C41" s="1">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2921,19 +3012,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3999489545822144</v>
+        <v>0.4190619587898254</v>
       </c>
       <c r="C42" s="1">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2947,19 +3038,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3999489545822144</v>
+        <v>0.3975715935230255</v>
       </c>
       <c r="C43" s="1">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2973,25 +3064,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3659107387065888</v>
+        <v>0.3975715935230255</v>
       </c>
       <c r="C44" s="1">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="F44" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -2999,19 +3090,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3318725228309631</v>
+        <v>0.3868264257907867</v>
       </c>
       <c r="C45" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3025,19 +3116,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3148534297943115</v>
+        <v>0.3653360605239868</v>
       </c>
       <c r="C46" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3051,25 +3142,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3063438832759857</v>
+        <v>0.3438456952571869</v>
       </c>
       <c r="C47" s="1">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D47" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3077,19 +3168,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2893247604370117</v>
+        <v>0.3116101622581482</v>
       </c>
       <c r="C48" s="1">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3103,51 +3194,51 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2808152139186859</v>
+        <v>0.3116101622581482</v>
       </c>
       <c r="C49" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E49" s="1">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2723056674003601</v>
+        <v>0.3008649945259094</v>
       </c>
       <c r="C50" s="1">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -3155,19 +3246,19 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.2686294615268707</v>
+      </c>
+      <c r="C51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
-        <v>0.1957196891307831</v>
-      </c>
-      <c r="C51" s="1">
-        <v>46</v>
-      </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3181,19 +3272,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2">
-        <v>0.1616814881563187</v>
+        <v>0.2471390962600708</v>
       </c>
       <c r="C52" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E52" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3202,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3210,16 +3301,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.1446623802185059</v>
+        <v>0.2363939136266708</v>
       </c>
       <c r="C53" s="1">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3236,16 +3327,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.1361528337001801</v>
+        <v>0.2149035632610321</v>
       </c>
       <c r="C54" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3262,16 +3353,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.1191337257623673</v>
+        <v>0.2041583806276321</v>
       </c>
       <c r="C55" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3288,16 +3379,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.1191337257623673</v>
+        <v>0.1611776649951935</v>
       </c>
       <c r="C56" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3314,16 +3405,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1106241792440414</v>
+        <v>0.1504324972629547</v>
       </c>
       <c r="C57" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3340,7 +3431,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1106241792440414</v>
+        <v>0.1396873146295548</v>
       </c>
       <c r="C58" s="1">
         <v>26</v>
@@ -3366,7 +3457,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1106241792440414</v>
+        <v>0.1396873146295548</v>
       </c>
       <c r="C59" s="1">
         <v>26</v>
@@ -3392,16 +3483,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.07658597081899643</v>
+        <v>0.1396873146295548</v>
       </c>
       <c r="C60" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3418,16 +3509,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.06807641685009003</v>
+        <v>0.1396873146295548</v>
       </c>
       <c r="C61" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3444,16 +3535,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.05956686288118362</v>
+        <v>0.1289421319961548</v>
       </c>
       <c r="C62" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3470,16 +3561,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.05105731263756752</v>
+        <v>0.09670660644769669</v>
       </c>
       <c r="C63" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -3496,16 +3587,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.05105731263756752</v>
+        <v>0.08596142381429672</v>
       </c>
       <c r="C64" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3522,16 +3613,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.04254775866866112</v>
+        <v>0.07521624863147736</v>
       </c>
       <c r="C65" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3545,19 +3636,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.03403820842504501</v>
+        <v>0.06447106599807739</v>
       </c>
       <c r="C66" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D66" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3566,24 +3657,24 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.03403820842504501</v>
+        <v>0.06447106599807739</v>
       </c>
       <c r="C67" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -3597,19 +3688,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.02552865631878376</v>
+        <v>0.05372589081525803</v>
       </c>
       <c r="C68" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3623,19 +3714,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B69" s="2">
-        <v>0.02552865631878376</v>
+        <v>0.04298071190714836</v>
       </c>
       <c r="C69" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E69" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3644,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3652,16 +3743,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>0.02552865631878376</v>
+        <v>0.04298071190714836</v>
       </c>
       <c r="C70" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -3678,7 +3769,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>0.02552865631878376</v>
+        <v>0.0322355329990387</v>
       </c>
       <c r="C71" s="1">
         <v>6</v>
@@ -3704,19 +3795,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>0.01701910421252251</v>
+        <v>0.0322355329990387</v>
       </c>
       <c r="C72" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F72" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -3730,16 +3821,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>0.008509552106261253</v>
+        <v>0.0322355329990387</v>
       </c>
       <c r="C73" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -3756,16 +3847,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>0.008509552106261253</v>
+        <v>0.0322355329990387</v>
       </c>
       <c r="C74" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -3782,19 +3873,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>0.008509552106261253</v>
+        <v>0.02149035595357418</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -3808,7 +3899,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>0.008509552106261253</v>
+        <v>0.01074517797678709</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
@@ -3834,7 +3925,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>0.008509552106261253</v>
+        <v>0.01074517797678709</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
@@ -3856,34 +3947,112 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.01074517797678709</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B79" s="2">
+        <v>0.01074517797678709</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.01074517797678709</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C78">
+      <c r="C81">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D78">
+      <c r="D81">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E78">
+      <c r="E81">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F78">
+      <c r="F81">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="G81">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H78">
+      <c r="H81">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -435,52 +435,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>32.15407180786133</c:v>
+                  <c:v>32.14734268188477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.30877113342285</c:v>
+                  <c:v>25.30347442626953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.17040061950684</c:v>
+                  <c:v>18.16659736633301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.80657291412354</c:v>
+                  <c:v>11.80410194396973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.600586175918579</c:v>
+                  <c:v>3.599832534790039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.009629487991333</c:v>
+                  <c:v>2.009208917617798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.009629487991333</c:v>
+                  <c:v>2.009208917617798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.758425831794739</c:v>
+                  <c:v>1.758057713508606</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.172283887863159</c:v>
+                  <c:v>1.172038555145264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.088549256324768</c:v>
+                  <c:v>1.088321447372437</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.334938257932663</c:v>
+                  <c:v>0.3557974100112915</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1674691289663315</c:v>
+                  <c:v>0.1674340665340424</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1674691289663315</c:v>
+                  <c:v>0.1674340665340424</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.08373456448316574</c:v>
+                  <c:v>0.08371703326702118</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.08373456448316574</c:v>
+                  <c:v>0.08371703326702118</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.08373456448316574</c:v>
+                  <c:v>0.08371703326702118</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0</c:v>
@@ -569,10 +569,10 @@
                   <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>applowpowermgr.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>tx_low_power.o</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>applowpowermgr.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>stm32l4xx_hal_gpio.o</c:v>
@@ -662,10 +662,10 @@
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>appirqcallout.o</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>app_azure_rtos.o</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>appirqcallout.o</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>rt_memclr_w.o</c:v>
@@ -680,22 +680,22 @@
                   <c:v>stm32l4xx_hal_pwr.o</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>tx_thread_timeout.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>tx_thread_stack_build.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>tx_timer_system_deactivate.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>tx_thread_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
@@ -800,238 +800,238 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>15.34411430358887</c:v>
+                  <c:v>15.27191066741943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.81969547271729</c:v>
+                  <c:v>11.76407718658447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.177779197692871</c:v>
+                  <c:v>7.144002914428711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.50153112411499</c:v>
+                  <c:v>5.475643157958984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.232901573181152</c:v>
+                  <c:v>5.208277702331543</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.598936080932617</c:v>
+                  <c:v>4.775145530700684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.512974739074707</c:v>
+                  <c:v>4.577295303344727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.126148223876953</c:v>
+                  <c:v>4.106732368469238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.578842639923096</c:v>
+                  <c:v>2.566707611083984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.471390962600708</c:v>
+                  <c:v>2.459761619567871</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.294095516204834</c:v>
+                  <c:v>2.34212064743042</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.11680006980896</c:v>
+                  <c:v>2.106839179992676</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.041583776473999</c:v>
+                  <c:v>2.031976938247681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.891151309013367</c:v>
+                  <c:v>1.882252335548401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.78369951248169</c:v>
+                  <c:v>1.775306105613709</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.708483338356018</c:v>
+                  <c:v>1.700443863868713</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.633267045021057</c:v>
+                  <c:v>1.625581502914429</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.482834577560425</c:v>
+                  <c:v>1.475856900215149</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.35389244556427</c:v>
+                  <c:v>1.347521543502808</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.332402110099793</c:v>
+                  <c:v>1.326132297515869</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.09600818157196</c:v>
+                  <c:v>1.101545333862305</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.042282223701477</c:v>
+                  <c:v>1.037377715110779</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9885563850402832</c:v>
+                  <c:v>0.9839046001434326</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8596142530441284</c:v>
+                  <c:v>0.8555692434310913</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8166335225105286</c:v>
+                  <c:v>0.8127907514572144</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8166335225105286</c:v>
+                  <c:v>0.8127907514572144</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7843980193138123</c:v>
+                  <c:v>0.7807069420814514</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7306721210479736</c:v>
+                  <c:v>0.7272338271141052</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7199269533157349</c:v>
+                  <c:v>0.716539204120636</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6662010550498962</c:v>
+                  <c:v>0.6630661487579346</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6232203245162964</c:v>
+                  <c:v>0.6202876567840576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5050233602523804</c:v>
+                  <c:v>0.5026469230651856</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4835330247879028</c:v>
+                  <c:v>0.4812576770782471</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4835330247879028</c:v>
+                  <c:v>0.4812576770782471</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4727878272533417</c:v>
+                  <c:v>0.4705630838871002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4620426595211029</c:v>
+                  <c:v>0.459868460893631</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4512974917888641</c:v>
+                  <c:v>0.459868460893631</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.440552294254303</c:v>
+                  <c:v>0.4491738379001617</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4190619587898254</c:v>
+                  <c:v>0.4170899987220764</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4190619587898254</c:v>
+                  <c:v>0.4170899987220764</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3975715935230255</c:v>
+                  <c:v>0.3957007527351379</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3975715935230255</c:v>
+                  <c:v>0.3957007527351379</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3868264257907867</c:v>
+                  <c:v>0.3957007527351379</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3653360605239868</c:v>
+                  <c:v>0.3850061595439911</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3438456952571869</c:v>
+                  <c:v>0.3636169135570526</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3116101622581482</c:v>
+                  <c:v>0.3422276973724365</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3116101622581482</c:v>
+                  <c:v>0.3101438283920288</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3008649945259094</c:v>
+                  <c:v>0.3101438283920288</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2686294615268707</c:v>
+                  <c:v>0.2673653960227966</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2471390962600708</c:v>
+                  <c:v>0.2459761500358582</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2363939136266708</c:v>
+                  <c:v>0.2352815419435501</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2149035632610321</c:v>
+                  <c:v>0.2138923108577728</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2041583806276321</c:v>
+                  <c:v>0.2031976878643036</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1611776649951935</c:v>
+                  <c:v>0.160419225692749</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1504324972629547</c:v>
+                  <c:v>0.149724617600441</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1396873146295548</c:v>
+                  <c:v>0.1390299946069717</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1396873146295548</c:v>
+                  <c:v>0.1390299946069717</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1396873146295548</c:v>
+                  <c:v>0.1390299946069717</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1396873146295548</c:v>
+                  <c:v>0.1390299946069717</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1289421319961548</c:v>
+                  <c:v>0.1283353865146637</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.09670660644769669</c:v>
+                  <c:v>0.09625153988599777</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.08596142381429672</c:v>
+                  <c:v>0.08555692434310913</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.07521624863147736</c:v>
+                  <c:v>0.07486230880022049</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.06447106599807739</c:v>
+                  <c:v>0.06416769325733185</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.06447106599807739</c:v>
+                  <c:v>0.06416769325733185</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.05372589081525803</c:v>
+                  <c:v>0.05347307771444321</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.04298071190714836</c:v>
+                  <c:v>0.04277846217155457</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.04298071190714836</c:v>
+                  <c:v>0.04277846217155457</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0322355329990387</c:v>
+                  <c:v>0.03208384662866592</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0322355329990387</c:v>
+                  <c:v>0.03208384662866592</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0322355329990387</c:v>
+                  <c:v>0.03208384662866592</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0322355329990387</c:v>
+                  <c:v>0.03208384662866592</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.02149035595357418</c:v>
+                  <c:v>0.02138923108577728</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.01074517797678709</c:v>
+                  <c:v>0.01069461554288864</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.01074517797678709</c:v>
+                  <c:v>0.01069461554288864</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.01074517797678709</c:v>
+                  <c:v>0.01069461554288864</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.01074517797678709</c:v>
+                  <c:v>0.01069461554288864</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.01074517797678709</c:v>
+                  <c:v>0.01069461554288864</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0</c:v>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>32.15407180786133</v>
+        <v>32.14734268188477</v>
       </c>
       <c r="C3" s="1">
         <v>1536</v>
@@ -1527,25 +1527,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.30877113342285</v>
+        <v>25.30347442626953</v>
       </c>
       <c r="C4" s="1">
         <v>1209</v>
       </c>
       <c r="D4" s="1">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="E4" s="1">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1553,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18.17040061950684</v>
+        <v>18.16659736633301</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
@@ -1579,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>11.80657291412354</v>
+        <v>11.80410194396973</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
@@ -1605,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3.600586175918579</v>
+        <v>3.599832534790039</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
@@ -1631,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.009629487991333</v>
+        <v>2.009208917617798</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1657,7 +1657,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.009629487991333</v>
+        <v>2.009208917617798</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1683,7 +1683,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.758425831794739</v>
+        <v>1.758057713508606</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
@@ -1709,16 +1709,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.172283887863159</v>
+        <v>1.172038555145264</v>
       </c>
       <c r="C11" s="1">
         <v>56</v>
       </c>
       <c r="D11" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1.088549256324768</v>
+        <v>1.088321447372437</v>
       </c>
       <c r="C12" s="1">
         <v>52</v>
@@ -1761,22 +1761,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.334938257932663</v>
+        <v>0.3557974100112915</v>
       </c>
       <c r="C13" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
-        <v>840</v>
+        <v>893</v>
       </c>
       <c r="E13" s="1">
-        <v>840</v>
+        <v>892</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>16</v>
@@ -1787,16 +1787,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1674691289663315</v>
+        <v>0.1674340665340424</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.1674691289663315</v>
+        <v>0.1674340665340424</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
@@ -1839,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.08373456448316574</v>
+        <v>0.08371703326702118</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -1865,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.08373456448316574</v>
+        <v>0.08371703326702118</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -1891,16 +1891,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.08373456448316574</v>
+        <v>0.08371703326702118</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>15.34411430358887</v>
+        <v>15.27191066741943</v>
       </c>
       <c r="C3" s="1">
         <v>2856</v>
@@ -2027,7 +2027,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>11.81969547271729</v>
+        <v>11.76407718658447</v>
       </c>
       <c r="C4" s="1">
         <v>2200</v>
@@ -2053,7 +2053,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>7.177779197692871</v>
+        <v>7.144002914428711</v>
       </c>
       <c r="C5" s="1">
         <v>1336</v>
@@ -2079,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>5.50153112411499</v>
+        <v>5.475643157958984</v>
       </c>
       <c r="C6" s="1">
         <v>1024</v>
@@ -2105,7 +2105,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>5.232901573181152</v>
+        <v>5.208277702331543</v>
       </c>
       <c r="C7" s="1">
         <v>974</v>
@@ -2128,45 +2128,45 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>4.598936080932617</v>
+        <v>4.775145530700684</v>
       </c>
       <c r="C8" s="1">
-        <v>856</v>
+        <v>893</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
-        <v>856</v>
+        <v>892</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>4.512974739074707</v>
+        <v>4.577295303344727</v>
       </c>
       <c r="C9" s="1">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="D9" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2183,7 +2183,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>4.126148223876953</v>
+        <v>4.106732368469238</v>
       </c>
       <c r="C10" s="1">
         <v>768</v>
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>2.578842639923096</v>
+        <v>2.566707611083984</v>
       </c>
       <c r="C11" s="1">
         <v>480</v>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>2.471390962600708</v>
+        <v>2.459761619567871</v>
       </c>
       <c r="C12" s="1">
         <v>460</v>
@@ -2261,25 +2261,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>2.294095516204834</v>
+        <v>2.34212064743042</v>
       </c>
       <c r="C13" s="1">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="D13" s="1">
         <v>1209</v>
       </c>
       <c r="E13" s="1">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2287,7 +2287,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>2.11680006980896</v>
+        <v>2.106839179992676</v>
       </c>
       <c r="C14" s="1">
         <v>394</v>
@@ -2313,7 +2313,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>2.041583776473999</v>
+        <v>2.031976938247681</v>
       </c>
       <c r="C15" s="1">
         <v>380</v>
@@ -2339,7 +2339,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.891151309013367</v>
+        <v>1.882252335548401</v>
       </c>
       <c r="C16" s="1">
         <v>352</v>
@@ -2365,7 +2365,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.78369951248169</v>
+        <v>1.775306105613709</v>
       </c>
       <c r="C17" s="1">
         <v>332</v>
@@ -2391,7 +2391,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>1.708483338356018</v>
+        <v>1.700443863868713</v>
       </c>
       <c r="C18" s="1">
         <v>318</v>
@@ -2417,7 +2417,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>1.633267045021057</v>
+        <v>1.625581502914429</v>
       </c>
       <c r="C19" s="1">
         <v>304</v>
@@ -2443,7 +2443,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.482834577560425</v>
+        <v>1.475856900215149</v>
       </c>
       <c r="C20" s="1">
         <v>276</v>
@@ -2469,7 +2469,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>1.35389244556427</v>
+        <v>1.347521543502808</v>
       </c>
       <c r="C21" s="1">
         <v>252</v>
@@ -2495,7 +2495,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>1.332402110099793</v>
+        <v>1.326132297515869</v>
       </c>
       <c r="C22" s="1">
         <v>248</v>
@@ -2521,16 +2521,16 @@
         <v>9</v>
       </c>
       <c r="B23" s="2">
-        <v>1.09600818157196</v>
+        <v>1.101545333862305</v>
       </c>
       <c r="C23" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D23" s="1">
         <v>56</v>
       </c>
       <c r="E23" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>1.042282223701477</v>
+        <v>1.037377715110779</v>
       </c>
       <c r="C24" s="1">
         <v>194</v>
@@ -2573,7 +2573,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9885563850402832</v>
+        <v>0.9839046001434326</v>
       </c>
       <c r="C25" s="1">
         <v>184</v>
@@ -2599,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8596142530441284</v>
+        <v>0.8555692434310913</v>
       </c>
       <c r="C26" s="1">
         <v>160</v>
@@ -2625,7 +2625,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8166335225105286</v>
+        <v>0.8127907514572144</v>
       </c>
       <c r="C27" s="1">
         <v>152</v>
@@ -2651,7 +2651,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8166335225105286</v>
+        <v>0.8127907514572144</v>
       </c>
       <c r="C28" s="1">
         <v>152</v>
@@ -2677,7 +2677,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7843980193138123</v>
+        <v>0.7807069420814514</v>
       </c>
       <c r="C29" s="1">
         <v>146</v>
@@ -2703,7 +2703,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7306721210479736</v>
+        <v>0.7272338271141052</v>
       </c>
       <c r="C30" s="1">
         <v>136</v>
@@ -2729,7 +2729,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7199269533157349</v>
+        <v>0.716539204120636</v>
       </c>
       <c r="C31" s="1">
         <v>134</v>
@@ -2755,7 +2755,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6662010550498962</v>
+        <v>0.6630661487579346</v>
       </c>
       <c r="C32" s="1">
         <v>124</v>
@@ -2781,7 +2781,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6232203245162964</v>
+        <v>0.6202876567840576</v>
       </c>
       <c r="C33" s="1">
         <v>116</v>
@@ -2807,7 +2807,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5050233602523804</v>
+        <v>0.5026469230651856</v>
       </c>
       <c r="C34" s="1">
         <v>94</v>
@@ -2833,7 +2833,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4835330247879028</v>
+        <v>0.4812576770782471</v>
       </c>
       <c r="C35" s="1">
         <v>90</v>
@@ -2859,7 +2859,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4835330247879028</v>
+        <v>0.4812576770782471</v>
       </c>
       <c r="C36" s="1">
         <v>90</v>
@@ -2885,7 +2885,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4727878272533417</v>
+        <v>0.4705630838871002</v>
       </c>
       <c r="C37" s="1">
         <v>88</v>
@@ -2911,7 +2911,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4620426595211029</v>
+        <v>0.459868460893631</v>
       </c>
       <c r="C38" s="1">
         <v>86</v>
@@ -2934,19 +2934,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.459868460893631</v>
+      </c>
+      <c r="C39" s="1">
+        <v>86</v>
+      </c>
+      <c r="D39" s="1">
         <v>4</v>
       </c>
-      <c r="B39" s="2">
-        <v>0.4512974917888641</v>
-      </c>
-      <c r="C39" s="1">
-        <v>84</v>
-      </c>
-      <c r="D39" s="1">
-        <v>564</v>
-      </c>
       <c r="E39" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2955,24 +2955,24 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>564</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>0.440552294254303</v>
+        <v>0.4491738379001617</v>
       </c>
       <c r="C40" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>564</v>
       </c>
       <c r="E40" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>4</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2989,7 +2989,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4190619587898254</v>
+        <v>0.4170899987220764</v>
       </c>
       <c r="C41" s="1">
         <v>78</v>
@@ -3015,7 +3015,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4190619587898254</v>
+        <v>0.4170899987220764</v>
       </c>
       <c r="C42" s="1">
         <v>78</v>
@@ -3041,7 +3041,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3975715935230255</v>
+        <v>0.3957007527351379</v>
       </c>
       <c r="C43" s="1">
         <v>74</v>
@@ -3067,7 +3067,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3975715935230255</v>
+        <v>0.3957007527351379</v>
       </c>
       <c r="C44" s="1">
         <v>74</v>
@@ -3090,25 +3090,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3868264257907867</v>
+        <v>0.3957007527351379</v>
       </c>
       <c r="C45" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -3116,19 +3116,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3653360605239868</v>
+        <v>0.3850061595439911</v>
       </c>
       <c r="C46" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3142,19 +3142,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3438456952571869</v>
+        <v>0.3636169135570526</v>
       </c>
       <c r="C47" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3168,19 +3168,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3116101622581482</v>
+        <v>0.3422276973724365</v>
       </c>
       <c r="C48" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3194,54 +3194,54 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3116101622581482</v>
+        <v>0.3101438283920288</v>
       </c>
       <c r="C49" s="1">
         <v>58</v>
       </c>
       <c r="D49" s="1">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3008649945259094</v>
+        <v>0.3101438283920288</v>
       </c>
       <c r="C50" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D50" s="1">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="E50" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3249,7 +3249,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2686294615268707</v>
+        <v>0.2673653960227966</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
@@ -3275,7 +3275,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2471390962600708</v>
+        <v>0.2459761500358582</v>
       </c>
       <c r="C52" s="1">
         <v>46</v>
@@ -3301,7 +3301,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2363939136266708</v>
+        <v>0.2352815419435501</v>
       </c>
       <c r="C53" s="1">
         <v>44</v>
@@ -3327,7 +3327,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2149035632610321</v>
+        <v>0.2138923108577728</v>
       </c>
       <c r="C54" s="1">
         <v>40</v>
@@ -3353,7 +3353,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2041583806276321</v>
+        <v>0.2031976878643036</v>
       </c>
       <c r="C55" s="1">
         <v>38</v>
@@ -3379,7 +3379,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.1611776649951935</v>
+        <v>0.160419225692749</v>
       </c>
       <c r="C56" s="1">
         <v>30</v>
@@ -3405,7 +3405,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1504324972629547</v>
+        <v>0.149724617600441</v>
       </c>
       <c r="C57" s="1">
         <v>28</v>
@@ -3431,7 +3431,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1396873146295548</v>
+        <v>0.1390299946069717</v>
       </c>
       <c r="C58" s="1">
         <v>26</v>
@@ -3457,7 +3457,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1396873146295548</v>
+        <v>0.1390299946069717</v>
       </c>
       <c r="C59" s="1">
         <v>26</v>
@@ -3483,7 +3483,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1396873146295548</v>
+        <v>0.1390299946069717</v>
       </c>
       <c r="C60" s="1">
         <v>26</v>
@@ -3509,7 +3509,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1396873146295548</v>
+        <v>0.1390299946069717</v>
       </c>
       <c r="C61" s="1">
         <v>26</v>
@@ -3535,7 +3535,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1289421319961548</v>
+        <v>0.1283353865146637</v>
       </c>
       <c r="C62" s="1">
         <v>24</v>
@@ -3561,7 +3561,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.09670660644769669</v>
+        <v>0.09625153988599777</v>
       </c>
       <c r="C63" s="1">
         <v>18</v>
@@ -3587,7 +3587,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.08596142381429672</v>
+        <v>0.08555692434310913</v>
       </c>
       <c r="C64" s="1">
         <v>16</v>
@@ -3613,7 +3613,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.07521624863147736</v>
+        <v>0.07486230880022049</v>
       </c>
       <c r="C65" s="1">
         <v>14</v>
@@ -3639,7 +3639,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.06447106599807739</v>
+        <v>0.06416769325733185</v>
       </c>
       <c r="C66" s="1">
         <v>12</v>
@@ -3665,7 +3665,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.06447106599807739</v>
+        <v>0.06416769325733185</v>
       </c>
       <c r="C67" s="1">
         <v>12</v>
@@ -3691,7 +3691,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.05372589081525803</v>
+        <v>0.05347307771444321</v>
       </c>
       <c r="C68" s="1">
         <v>10</v>
@@ -3717,7 +3717,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="2">
-        <v>0.04298071190714836</v>
+        <v>0.04277846217155457</v>
       </c>
       <c r="C69" s="1">
         <v>8</v>
@@ -3743,7 +3743,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>0.04298071190714836</v>
+        <v>0.04277846217155457</v>
       </c>
       <c r="C70" s="1">
         <v>8</v>
@@ -3769,7 +3769,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>0.0322355329990387</v>
+        <v>0.03208384662866592</v>
       </c>
       <c r="C71" s="1">
         <v>6</v>
@@ -3795,7 +3795,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>0.0322355329990387</v>
+        <v>0.03208384662866592</v>
       </c>
       <c r="C72" s="1">
         <v>6</v>
@@ -3821,7 +3821,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>0.0322355329990387</v>
+        <v>0.03208384662866592</v>
       </c>
       <c r="C73" s="1">
         <v>6</v>
@@ -3847,7 +3847,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>0.0322355329990387</v>
+        <v>0.03208384662866592</v>
       </c>
       <c r="C74" s="1">
         <v>6</v>
@@ -3873,7 +3873,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>0.02149035595357418</v>
+        <v>0.02138923108577728</v>
       </c>
       <c r="C75" s="1">
         <v>4</v>
@@ -3899,7 +3899,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>0.01074517797678709</v>
+        <v>0.01069461554288864</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
@@ -3925,7 +3925,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>0.01074517797678709</v>
+        <v>0.01069461554288864</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
@@ -3951,7 +3951,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>0.01074517797678709</v>
+        <v>0.01069461554288864</v>
       </c>
       <c r="C78" s="1">
         <v>2</v>
@@ -3977,7 +3977,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>0.01074517797678709</v>
+        <v>0.01069461554288864</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
@@ -4003,7 +4003,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>0.01074517797678709</v>
+        <v>0.01069461554288864</v>
       </c>
       <c r="C80" s="1">
         <v>2</v>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,17 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
   <si>
     <t>Software</t>
   </si>
   <si>
+    <t>appmain.o</t>
+  </si>
+  <si>
     <t>startup_stm32l432xx.o</t>
   </si>
   <si>
-    <t>appmain.o</t>
-  </si>
-  <si>
     <t>tx_timer_initialize.o</t>
   </si>
   <si>
@@ -50,24 +50,27 @@
     <t>tx_initialize_high_level.o</t>
   </si>
   <si>
+    <t>appobj.o</t>
+  </si>
+  <si>
     <t>applowpowermgr.o</t>
   </si>
   <si>
+    <t>rx8900.o</t>
+  </si>
+  <si>
+    <t>appirqcallout.o</t>
+  </si>
+  <si>
+    <t>tx_low_power.o</t>
+  </si>
+  <si>
+    <t>system_stm32l4xx.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal.o</t>
   </si>
   <si>
-    <t>rx8900.o</t>
-  </si>
-  <si>
-    <t>tx_low_power.o</t>
-  </si>
-  <si>
-    <t>system_stm32l4xx.o</t>
-  </si>
-  <si>
-    <t>appirqcallout.o</t>
-  </si>
-  <si>
     <t>stm32l4xx_hal_rcc.o</t>
   </si>
   <si>
@@ -83,106 +86,136 @@
     <t>stm32l4xx_hal_gpio.o</t>
   </si>
   <si>
+    <t>tx_event_flags_set.o</t>
+  </si>
+  <si>
+    <t>tx_thread_system_suspend.o</t>
+  </si>
+  <si>
     <t>txe_thread_create.o</t>
   </si>
   <si>
-    <t>tx_thread_system_suspend.o</t>
+    <t>tx_thread_create.o</t>
+  </si>
+  <si>
+    <t>tx_timer_thread_entry.o</t>
+  </si>
+  <si>
+    <t>tx_thread_system_resume.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_cortex.o</t>
+  </si>
+  <si>
+    <t>tx_event_flags_get.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_pwr_ex.o</t>
   </si>
   <si>
     <t>txe_byte_pool_create.o</t>
   </si>
   <si>
-    <t>tx_timer_thread_entry.o</t>
-  </si>
-  <si>
-    <t>tx_thread_create.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_pwr_ex.o</t>
+    <t>stm32l4xx_hal_i2c_ex.o</t>
+  </si>
+  <si>
+    <t>txe_event_flags_create.o</t>
+  </si>
+  <si>
+    <t>tx_byte_pool_create.o</t>
+  </si>
+  <si>
+    <t>tx_event_flags_cleanup.o</t>
   </si>
   <si>
     <t>tx_thread_schedule.o</t>
   </si>
   <si>
-    <t>tx_thread_system_resume.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_cortex.o</t>
+    <t>tx_thread_sleep.o</t>
+  </si>
+  <si>
+    <t>tx_timer_system_activate.o</t>
+  </si>
+  <si>
+    <t>txe_event_flags_get.o</t>
   </si>
   <si>
     <t>tx_timer_interrupt.o</t>
   </si>
   <si>
+    <t>main.o</t>
+  </si>
+  <si>
+    <t>gpio.o</t>
+  </si>
+  <si>
+    <t>rx8900_callout.o</t>
+  </si>
+  <si>
     <t>tx_initialize_low_level.o</t>
   </si>
   <si>
-    <t>main.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_i2c_ex.o</t>
-  </si>
-  <si>
-    <t>tx_byte_pool_create.o</t>
-  </si>
-  <si>
-    <t>gpio.o</t>
-  </si>
-  <si>
-    <t>tx_thread_sleep.o</t>
-  </si>
-  <si>
     <t>tx_thread_time_slice.o</t>
   </si>
   <si>
+    <t>tx_event_flags_create.o</t>
+  </si>
+  <si>
+    <t>tx_thread_shell_entry.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_pwr.o</t>
+  </si>
+  <si>
+    <t>tx_timer_system_deactivate.o</t>
+  </si>
+  <si>
+    <t>tx_initialize_kernel_enter.o</t>
+  </si>
+  <si>
+    <t>txe_event_flags_set.o</t>
+  </si>
+  <si>
+    <t>tx_thread_timeout.o</t>
+  </si>
+  <si>
     <t>__scatter.o</t>
   </si>
   <si>
-    <t>tx_timer_system_activate.o</t>
-  </si>
-  <si>
-    <t>rx8900_callout.o</t>
-  </si>
-  <si>
-    <t>tx_thread_shell_entry.o</t>
-  </si>
-  <si>
     <t>rt_memclr_w.o</t>
   </si>
   <si>
-    <t>tx_initialize_kernel_enter.o</t>
+    <t>app_threadx.o</t>
   </si>
   <si>
     <t>sys_stackheap_outer.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_pwr.o</t>
-  </si>
-  <si>
-    <t>tx_thread_timeout.o</t>
-  </si>
-  <si>
     <t>rt_memclr.o</t>
   </si>
   <si>
+    <t>stm32l4xx_hal_msp.o</t>
+  </si>
+  <si>
     <t>tx_thread_stack_build.o</t>
   </si>
   <si>
-    <t>tx_timer_system_deactivate.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_msp.o</t>
-  </si>
-  <si>
-    <t>app_threadx.o</t>
+    <t>stm32l4xx_it.o</t>
   </si>
   <si>
     <t>tx_timer_expiration_process.o</t>
   </si>
   <si>
+    <t>appmodectrl.o</t>
+  </si>
+  <si>
     <t>tx_thread_system_return.o</t>
   </si>
   <si>
-    <t>stm32l4xx_it.o</t>
+    <t>tx_time_set.o</t>
+  </si>
+  <si>
+    <t>tx_time_get.o</t>
   </si>
   <si>
     <t>__scatter_zi.o</t>
@@ -195,12 +228,6 @@
   </si>
   <si>
     <t>__scatter_copy.o</t>
-  </si>
-  <si>
-    <t>tx_time_set.o</t>
-  </si>
-  <si>
-    <t>tx_time_get.o</t>
   </si>
   <si>
     <t>exit.o</t>
@@ -371,14 +398,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$81</c:f>
+              <c:f>ram_percent!$A$3:$A$90</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
+                  <c:v>appmain.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>startup_stm32l432xx.o</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>appmain.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>tx_timer_initialize.o</c:v>
@@ -405,24 +432,27 @@
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>appobj.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>applowpowermgr.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>rx8900.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>appirqcallout.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>appirqcallout.o</c:v>
-                </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="16">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -430,59 +460,62 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$81</c:f>
+              <c:f>ram_percent!$B$3:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
-                  <c:v>32.14734268188477</c:v>
+                  <c:v>40.11637496948242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.30347442626953</c:v>
+                  <c:v>25.53615951538086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.16659736633301</c:v>
+                  <c:v>14.43059062957764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.80410194396973</c:v>
+                  <c:v>9.376558303833008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.599832534790039</c:v>
+                  <c:v>2.859517812728882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.009208917617798</c:v>
+                  <c:v>1.596009969711304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.009208917617798</c:v>
+                  <c:v>1.596009969711304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.758057713508606</c:v>
+                  <c:v>1.396508693695068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.172038555145264</c:v>
+                  <c:v>0.9310058355331421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.088321447372437</c:v>
+                  <c:v>0.864505410194397</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3557974100112915</c:v>
+                  <c:v>0.5985037684440613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1674340665340424</c:v>
+                  <c:v>0.2327514588832855</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1674340665340424</c:v>
+                  <c:v>0.133000835776329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.08371703326702118</c:v>
+                  <c:v>0.133000835776329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.08371703326702118</c:v>
+                  <c:v>0.06650041788816452</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.08371703326702118</c:v>
-                </c:pt>
-                <c:pt idx="78">
+                  <c:v>0.06650041788816452</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.06650041788816452</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -550,9 +583,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$81</c:f>
+              <c:f>flash_percent!$A$3:$A$90</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>stm32l4xx_hal_rcc.o</c:v>
                 </c:pt>
@@ -563,231 +596,258 @@
                   <c:v>stm32l4xx_hal_lptim.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>rx8900.o</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>applowpowermgr.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>stm32l4xx_hal_gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>tx_event_flags_set.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>tx_thread_system_suspend.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>stm32l4xx_hal_gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>txe_thread_create.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>appmain.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>tx_thread_create.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>c_w.l</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>startup_stm32l432xx.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>appmain.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>txe_thread_create.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>tx_thread_system_suspend.o</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>txe_byte_pool_create.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>tx_timer_thread_entry.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>tx_thread_create.o</c:v>
+                  <c:v>tx_thread_system_resume.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>stm32l4xx_hal_cortex.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>startup_stm32l432xx.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>tx_event_flags_get.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>tx_thread_schedule.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>tx_thread_system_resume.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>lptim.o</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>stm32l4xx_hal_cortex.o</c:v>
+                  <c:v>txe_byte_pool_create.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>tx_timer_interrupt.o</c:v>
+                  <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>tx_timer_initialize.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>tx_initialize_low_level.o</c:v>
+                  <c:v>txe_event_flags_create.o</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>main.o</c:v>
+                  <c:v>tx_byte_pool_create.o</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
+                  <c:v>tx_event_flags_cleanup.o</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>tx_byte_pool_create.o</c:v>
+                  <c:v>tx_thread_schedule.o</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>gpio.o</c:v>
+                  <c:v>lptim.o</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>tx_thread_sleep.o</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>tx_timer_system_activate.o</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>txe_event_flags_get.o</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>tx_timer_interrupt.o</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>rx8900_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>tx_initialize_low_level.o</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>tx_thread_time_slice.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
+                  <c:v>tx_event_flags_create.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>tx_thread_shell_entry.o</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>tx_initialize_high_level.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>tx_thread_initialize.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>appirqcallout.o</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>stm32l4xx_hal_pwr.o</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>tx_timer_system_deactivate.o</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>app_azure_rtos.o</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>tx_initialize_kernel_enter.o</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>txe_event_flags_set.o</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>tx_thread_timeout.o</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>tx_timer_system_activate.o</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>rx8900_callout.o</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>tx_thread_shell_entry.o</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="50">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>appirqcallout.o</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>app_azure_rtos.o</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="52">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>tx_initialize_kernel_enter.o</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="53">
+                  <c:v>app_threadx.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>stm32l4xx_hal_pwr.o</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>stm32l4xx_hal.o</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>tx_thread_timeout.o</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="55">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="56">
+                  <c:v>stm32l4xx_hal_msp.o</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>appobj.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>tx_thread_stack_build.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>tx_timer_system_deactivate.o</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>tx_thread_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>stm32l4xx_hal_msp.o</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>tx_initialize_high_level.o</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>app_threadx.o</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="59">
+                  <c:v>stm32l4xx_it.o</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>tx_timer_expiration_process.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
+                  <c:v>appmodectrl.o</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>tx_thread_system_return.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>stm32l4xx_it.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="63">
+                  <c:v>tx_time_set.o</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>tx_time_get.o</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="66">
                   <c:v>fz_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="67">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="68">
                   <c:v>__scatter_copy.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>tx_time_set.o</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>tx_time_get.o</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="69">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="70">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="71">
                   <c:v>tx_thread_interrupt_disable.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="72">
                   <c:v>sys_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="73">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="74">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="75">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="76">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="77">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="78">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="79">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="80">
                   <c:v>tx_thread_interrupt_restore.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="81">
                   <c:v>rx8900_lcfg.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="82">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="83">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="84">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="85">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="86">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="87">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -795,245 +855,272 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$81</c:f>
+              <c:f>flash_percent!$B$3:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
-                  <c:v>15.27191066741943</c:v>
+                  <c:v>13.3843994140625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.76407718658447</c:v>
+                  <c:v>10.93595027923584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.144002914428711</c:v>
+                  <c:v>7.017064094543457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.475643157958984</c:v>
+                  <c:v>6.032212734222412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.208277702331543</c:v>
+                  <c:v>5.464555740356445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.775145530700684</c:v>
+                  <c:v>4.544677257537842</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.577295303344727</c:v>
+                  <c:v>4.363437175750732</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.106732368469238</c:v>
+                  <c:v>3.036624193191528</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.566707611083984</c:v>
+                  <c:v>2.544198513031006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.459761619567871</c:v>
+                  <c:v>2.516841650009155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.34212064743042</c:v>
+                  <c:v>1.997059106826782</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.106839179992676</c:v>
+                  <c:v>1.945764780044556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.031976938247681</c:v>
+                  <c:v>1.730328679084778</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.882252335548401</c:v>
+                  <c:v>1.64141845703125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.775306105613709</c:v>
+                  <c:v>1.620900750160217</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.700443863868713</c:v>
+                  <c:v>1.61406147480011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.625581502914429</c:v>
+                  <c:v>1.573026061058044</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.475856900215149</c:v>
+                  <c:v>1.573026061058044</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.347521543502808</c:v>
+                  <c:v>1.55934751033783</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.326132297515869</c:v>
+                  <c:v>1.395205736160278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.101545333862305</c:v>
+                  <c:v>1.210546135902405</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.037377715110779</c:v>
+                  <c:v>1.176349878311157</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9839046001434326</c:v>
+                  <c:v>1.073761224746704</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8555692434310913</c:v>
+                  <c:v>1.046404242515564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8127907514572144</c:v>
+                  <c:v>1.039564967155457</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8127907514572144</c:v>
+                  <c:v>0.9916903376579285</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7807069420814514</c:v>
+                  <c:v>0.9027801752090454</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7272338271141052</c:v>
+                  <c:v>0.8617447018623352</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.716539204120636</c:v>
+                  <c:v>0.8070307374000549</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6630661487579346</c:v>
+                  <c:v>0.7728345394134522</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6202876567840576</c:v>
+                  <c:v>0.7249597907066345</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5026469230651856</c:v>
+                  <c:v>0.7112813591957092</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4812576770782471</c:v>
+                  <c:v>0.6292104125022888</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4812576770782471</c:v>
+                  <c:v>0.6155319213867188</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4705630838871002</c:v>
+                  <c:v>0.581335723400116</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.459868460893631</c:v>
+                  <c:v>0.5608179569244385</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.459868460893631</c:v>
+                  <c:v>0.5197824835777283</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4491738379001617</c:v>
+                  <c:v>0.5129432678222656</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4170899987220764</c:v>
+                  <c:v>0.4992647767066956</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4170899987220764</c:v>
+                  <c:v>0.4582293331623077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3957007527351379</c:v>
+                  <c:v>0.4582293331623077</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3957007527351379</c:v>
+                  <c:v>0.4445508420467377</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3957007527351379</c:v>
+                  <c:v>0.4445508420467377</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3850061595439911</c:v>
+                  <c:v>0.4171938598155975</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3636169135570526</c:v>
+                  <c:v>0.3829976320266724</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3422276973724365</c:v>
+                  <c:v>0.365899533033371</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3101438283920288</c:v>
+                  <c:v>0.3556406795978546</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3101438283920288</c:v>
+                  <c:v>0.3488014340400696</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2673653960227966</c:v>
+                  <c:v>0.3282836973667145</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2459761500358582</c:v>
+                  <c:v>0.3214444518089294</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2352815419435501</c:v>
+                  <c:v>0.3077659606933594</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2138923108577728</c:v>
+                  <c:v>0.2940874695777893</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2031976878643036</c:v>
+                  <c:v>0.2667304873466492</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.160419225692749</c:v>
+                  <c:v>0.2667304873466492</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.149724617600441</c:v>
+                  <c:v>0.2530520260334015</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1390299946069717</c:v>
+                  <c:v>0.2325342744588852</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1390299946069717</c:v>
+                  <c:v>0.2256950438022614</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1390299946069717</c:v>
+                  <c:v>0.2256950438022614</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1390299946069717</c:v>
+                  <c:v>0.2188557982444763</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1283353865146637</c:v>
+                  <c:v>0.1641418486833572</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.09625153988599777</c:v>
+                  <c:v>0.1573026031255722</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.08555692434310913</c:v>
+                  <c:v>0.1436241120100021</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.07486230880022049</c:v>
+                  <c:v>0.1299456208944321</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.06416769325733185</c:v>
+                  <c:v>0.1162671372294426</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.06416769325733185</c:v>
+                  <c:v>0.1162671372294426</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.05347307771444321</c:v>
+                  <c:v>0.09574940800666809</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.04277846217155457</c:v>
+                  <c:v>0.08891016989946365</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.04277846217155457</c:v>
+                  <c:v>0.08891016989946365</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.03208384662866592</c:v>
+                  <c:v>0.08891016989946365</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.03208384662866592</c:v>
+                  <c:v>0.06155319139361382</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.03208384662866592</c:v>
+                  <c:v>0.05471394956111908</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.03208384662866592</c:v>
+                  <c:v>0.04787470400333405</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.02138923108577728</c:v>
+                  <c:v>0.04103546217083931</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.01069461554288864</c:v>
+                  <c:v>0.04103546217083931</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.01069461554288864</c:v>
+                  <c:v>0.03419621661305428</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.01069461554288864</c:v>
+                  <c:v>0.02735697478055954</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.01069461554288864</c:v>
+                  <c:v>0.02735697478055954</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.01069461554288864</c:v>
+                  <c:v>0.02051773108541966</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>0.02051773108541966</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02051773108541966</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.02051773108541966</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.01367848739027977</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.006839243695139885</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.006839243695139885</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.006839243695139885</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.006839243695139885</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.006839243695139885</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1138,8 +1225,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H81" totalsRowCount="1">
-  <autoFilter ref="A2:H80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H90" totalsRowCount="1">
+  <autoFilter ref="A2:H89"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1155,8 +1242,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H81" totalsRowCount="1">
-  <autoFilter ref="A2:H80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H90" totalsRowCount="1">
+  <autoFilter ref="A2:H89"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1456,7 +1543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1472,28 +1559,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1501,25 +1588,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>32.14734268188477</v>
+        <v>40.11637496948242</v>
       </c>
       <c r="C3" s="1">
-        <v>1536</v>
+        <v>2413</v>
       </c>
       <c r="D3" s="1">
-        <v>460</v>
+        <v>569</v>
       </c>
       <c r="E3" s="1">
-        <v>64</v>
+        <v>536</v>
       </c>
       <c r="F3" s="1">
-        <v>396</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1536</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1527,25 +1614,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.30347442626953</v>
+        <v>25.53615951538086</v>
       </c>
       <c r="C4" s="1">
-        <v>1209</v>
+        <v>1536</v>
       </c>
       <c r="D4" s="1">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="E4" s="1">
-        <v>438</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1209</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1553,19 +1640,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18.16659736633301</v>
+        <v>14.43059062957764</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
       </c>
       <c r="D5" s="1">
-        <v>160</v>
+        <v>306</v>
       </c>
       <c r="E5" s="1">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1579,19 +1666,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>11.80410194396973</v>
+        <v>9.376558303833008</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
       </c>
       <c r="D6" s="1">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1605,16 +1692,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3.599832534790039</v>
+        <v>2.859517812728882</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
       </c>
       <c r="D7" s="1">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1631,7 +1718,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.009208917617798</v>
+        <v>1.596009969711304</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1657,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.009208917617798</v>
+        <v>1.596009969711304</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1683,16 +1770,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.758057713508606</v>
+        <v>1.396508693695068</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
       </c>
       <c r="D10" s="1">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="E10" s="1">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1709,16 +1796,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.172038555145264</v>
+        <v>0.9310058355331421</v>
       </c>
       <c r="C11" s="1">
         <v>56</v>
       </c>
       <c r="D11" s="1">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="E11" s="1">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1735,16 +1822,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1.088321447372437</v>
+        <v>0.864505410194397</v>
       </c>
       <c r="C12" s="1">
         <v>52</v>
       </c>
       <c r="D12" s="1">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1761,25 +1848,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.3557974100112915</v>
+        <v>0.5985037684440613</v>
       </c>
       <c r="C13" s="1">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
-        <v>893</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1">
-        <v>892</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1787,25 +1874,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1674340665340424</v>
+        <v>0.2327514588832855</v>
       </c>
       <c r="C14" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>74</v>
+        <v>1329</v>
       </c>
       <c r="E14" s="1">
-        <v>66</v>
+        <v>1328</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1813,16 +1900,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.1674340665340424</v>
+        <v>0.133000835776329</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
       </c>
       <c r="D15" s="1">
-        <v>1024</v>
+        <v>1598</v>
       </c>
       <c r="E15" s="1">
-        <v>1024</v>
+        <v>1598</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1839,16 +1926,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.08371703326702118</v>
+        <v>0.133000835776329</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>856</v>
+        <v>130</v>
       </c>
       <c r="E16" s="1">
-        <v>856</v>
+        <v>130</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1857,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1865,25 +1952,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.08371703326702118</v>
+        <v>0.06650041788816452</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>86</v>
+        <v>736</v>
       </c>
       <c r="E17" s="1">
-        <v>18</v>
+        <v>736</v>
       </c>
       <c r="F17" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>4</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1891,7 +1978,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.08371703326702118</v>
+        <v>0.06650041788816452</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -1900,47 +1987,73 @@
         <v>86</v>
       </c>
       <c r="E18" s="1">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1">
+        <v>64</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.06650041788816452</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1">
         <v>86</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C81">
+      <c r="C90">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D81">
+      <c r="D90">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E81">
+      <c r="E90">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F81">
+      <c r="F90">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="G90">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H81">
+      <c r="H90">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1956,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1972,45 +2085,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>15.27191066741943</v>
+        <v>13.3843994140625</v>
       </c>
       <c r="C3" s="1">
-        <v>2856</v>
+        <v>3914</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>2856</v>
+        <v>3914</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2024,19 +2137,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>11.76407718658447</v>
+        <v>10.93595027923584</v>
       </c>
       <c r="C4" s="1">
-        <v>2200</v>
+        <v>3198</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>2200</v>
+        <v>3198</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2050,19 +2163,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>7.144002914428711</v>
+        <v>7.017064094543457</v>
       </c>
       <c r="C5" s="1">
-        <v>1336</v>
+        <v>2052</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1336</v>
+        <v>2052</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2076,19 +2189,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>5.475643157958984</v>
+        <v>6.032212734222412</v>
       </c>
       <c r="C6" s="1">
-        <v>1024</v>
+        <v>1764</v>
       </c>
       <c r="D6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1024</v>
+        <v>1764</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2097,24 +2210,24 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>5.208277702331543</v>
+        <v>5.464555740356445</v>
       </c>
       <c r="C7" s="1">
-        <v>974</v>
+        <v>1598</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>974</v>
+        <v>1598</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2123,24 +2236,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>4.775145530700684</v>
+        <v>4.544677257537842</v>
       </c>
       <c r="C8" s="1">
-        <v>893</v>
+        <v>1329</v>
       </c>
       <c r="D8" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>892</v>
+        <v>1328</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2149,24 +2262,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>4.577295303344727</v>
+        <v>4.363437175750732</v>
       </c>
       <c r="C9" s="1">
-        <v>856</v>
+        <v>1276</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>856</v>
+        <v>1276</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2175,24 +2288,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>4.106732368469238</v>
+        <v>3.036624193191528</v>
       </c>
       <c r="C10" s="1">
-        <v>768</v>
+        <v>888</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>768</v>
+        <v>888</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2206,19 +2319,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>2.566707611083984</v>
+        <v>2.544198513031006</v>
       </c>
       <c r="C11" s="1">
-        <v>480</v>
+        <v>744</v>
       </c>
       <c r="D11" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>480</v>
+        <v>744</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2227,50 +2340,50 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>2.459761619567871</v>
+        <v>2.516841650009155</v>
       </c>
       <c r="C12" s="1">
-        <v>460</v>
+        <v>736</v>
       </c>
       <c r="D12" s="1">
-        <v>1536</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>64</v>
+        <v>736</v>
       </c>
       <c r="F12" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1536</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>2.34212064743042</v>
+        <v>1.997059106826782</v>
       </c>
       <c r="C13" s="1">
-        <v>438</v>
+        <v>584</v>
       </c>
       <c r="D13" s="1">
-        <v>1209</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>438</v>
+        <v>584</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2279,50 +2392,50 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>2.106839179992676</v>
+        <v>1.945764780044556</v>
       </c>
       <c r="C14" s="1">
-        <v>394</v>
+        <v>569</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="E14" s="1">
-        <v>394</v>
+        <v>536</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>2.031976938247681</v>
+        <v>1.730328679084778</v>
       </c>
       <c r="C15" s="1">
-        <v>380</v>
+        <v>506</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>380</v>
+        <v>506</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2336,19 +2449,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>1.882252335548401</v>
+        <v>1.64141845703125</v>
       </c>
       <c r="C16" s="1">
-        <v>352</v>
+        <v>480</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1">
-        <v>352</v>
+        <v>480</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2357,24 +2470,24 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>1.775306105613709</v>
+        <v>1.620900750160217</v>
       </c>
       <c r="C17" s="1">
-        <v>332</v>
+        <v>474</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>332</v>
+        <v>474</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2388,19 +2501,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>1.700443863868713</v>
+        <v>1.61406147480011</v>
       </c>
       <c r="C18" s="1">
-        <v>318</v>
+        <v>472</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>318</v>
+        <v>472</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2414,19 +2527,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>1.625581502914429</v>
+        <v>1.573026061058044</v>
       </c>
       <c r="C19" s="1">
-        <v>304</v>
+        <v>460</v>
       </c>
       <c r="D19" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>304</v>
+        <v>460</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2435,50 +2548,50 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2">
-        <v>1.475856900215149</v>
+        <v>1.573026061058044</v>
       </c>
       <c r="C20" s="1">
-        <v>276</v>
+        <v>460</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="E20" s="1">
-        <v>276</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
-        <v>1.347521543502808</v>
+        <v>1.55934751033783</v>
       </c>
       <c r="C21" s="1">
-        <v>252</v>
+        <v>456</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>252</v>
+        <v>456</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2492,19 +2605,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>1.326132297515869</v>
+        <v>1.395205736160278</v>
       </c>
       <c r="C22" s="1">
-        <v>248</v>
+        <v>408</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>248</v>
+        <v>408</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2518,19 +2631,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>1.101545333862305</v>
+        <v>1.210546135902405</v>
       </c>
       <c r="C23" s="1">
-        <v>206</v>
+        <v>354</v>
       </c>
       <c r="D23" s="1">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1">
-        <v>206</v>
+        <v>354</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2539,24 +2652,24 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
-        <v>1.037377715110779</v>
+        <v>1.176349878311157</v>
       </c>
       <c r="C24" s="1">
-        <v>194</v>
+        <v>344</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>194</v>
+        <v>344</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2570,19 +2683,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9839046001434326</v>
+        <v>1.073761224746704</v>
       </c>
       <c r="C25" s="1">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2599,19 +2712,19 @@
         <v>3</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8555692434310913</v>
+        <v>1.046404242515564</v>
       </c>
       <c r="C26" s="1">
-        <v>160</v>
+        <v>306</v>
       </c>
       <c r="D26" s="1">
         <v>868</v>
       </c>
       <c r="E26" s="1">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -2622,19 +2735,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8127907514572144</v>
+        <v>1.039564967155457</v>
       </c>
       <c r="C27" s="1">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2648,19 +2761,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8127907514572144</v>
+        <v>0.9916903376579285</v>
       </c>
       <c r="C28" s="1">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2674,19 +2787,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7807069420814514</v>
+        <v>0.9027801752090454</v>
       </c>
       <c r="C29" s="1">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2700,19 +2813,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7272338271141052</v>
+        <v>0.8617447018623352</v>
       </c>
       <c r="C30" s="1">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2726,19 +2839,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>0.716539204120636</v>
+        <v>0.8070307374000549</v>
       </c>
       <c r="C31" s="1">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E31" s="1">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2747,24 +2860,24 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6630661487579346</v>
+        <v>0.7728345394134522</v>
       </c>
       <c r="C32" s="1">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2778,19 +2891,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6202876567840576</v>
+        <v>0.7249597907066345</v>
       </c>
       <c r="C33" s="1">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2804,19 +2917,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5026469230651856</v>
+        <v>0.7112813591957092</v>
       </c>
       <c r="C34" s="1">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2830,19 +2943,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4812576770782471</v>
+        <v>0.6292104125022888</v>
       </c>
       <c r="C35" s="1">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2856,19 +2969,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4812576770782471</v>
+        <v>0.6155319213867188</v>
       </c>
       <c r="C36" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2882,19 +2995,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4705630838871002</v>
+        <v>0.581335723400116</v>
       </c>
       <c r="C37" s="1">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2908,25 +3021,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
-        <v>0.459868460893631</v>
+        <v>0.5608179569244385</v>
       </c>
       <c r="C38" s="1">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F38" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2934,19 +3047,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2">
-        <v>0.459868460893631</v>
+        <v>0.5197824835777283</v>
       </c>
       <c r="C39" s="1">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="D39" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2955,24 +3068,24 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4491738379001617</v>
+        <v>0.5129432678222656</v>
       </c>
       <c r="C40" s="1">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2981,24 +3094,24 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4170899987220764</v>
+        <v>0.4992647767066956</v>
       </c>
       <c r="C41" s="1">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -3012,19 +3125,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4170899987220764</v>
+        <v>0.4582293331623077</v>
       </c>
       <c r="C42" s="1">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3038,19 +3151,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3957007527351379</v>
+        <v>0.4582293331623077</v>
       </c>
       <c r="C43" s="1">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E43" s="1">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3059,76 +3172,76 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3957007527351379</v>
+        <v>0.4445508420467377</v>
       </c>
       <c r="C44" s="1">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E44" s="1">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3957007527351379</v>
+        <v>0.4445508420467377</v>
       </c>
       <c r="C45" s="1">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1">
         <v>8</v>
       </c>
       <c r="E45" s="1">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
         <v>8</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3850061595439911</v>
+        <v>0.4171938598155975</v>
       </c>
       <c r="C46" s="1">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3142,19 +3255,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3636169135570526</v>
+        <v>0.3829976320266724</v>
       </c>
       <c r="C47" s="1">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3168,45 +3281,45 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3422276973724365</v>
+        <v>0.365899533033371</v>
       </c>
       <c r="C48" s="1">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E48" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3101438283920288</v>
+        <v>0.3556406795978546</v>
       </c>
       <c r="C49" s="1">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3220,45 +3333,45 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3101438283920288</v>
+        <v>0.3488014340400696</v>
       </c>
       <c r="C50" s="1">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D50" s="1">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2673653960227966</v>
+        <v>0.3282836973667145</v>
       </c>
       <c r="C51" s="1">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3272,19 +3385,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2459761500358582</v>
+        <v>0.3214444518089294</v>
       </c>
       <c r="C52" s="1">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D52" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3293,30 +3406,30 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2352815419435501</v>
+        <v>0.3077659606933594</v>
       </c>
       <c r="C53" s="1">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -3324,25 +3437,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2138923108577728</v>
+        <v>0.2940874695777893</v>
       </c>
       <c r="C54" s="1">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -3350,19 +3463,19 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2031976878643036</v>
+        <v>0.2667304873466492</v>
       </c>
       <c r="C55" s="1">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3376,19 +3489,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.160419225692749</v>
+        <v>0.2667304873466492</v>
       </c>
       <c r="C56" s="1">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3402,19 +3515,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.149724617600441</v>
+        <v>0.2530520260334015</v>
       </c>
       <c r="C57" s="1">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3428,19 +3541,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1390299946069717</v>
+        <v>0.2325342744588852</v>
       </c>
       <c r="C58" s="1">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3454,19 +3567,19 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1390299946069717</v>
+        <v>0.2256950438022614</v>
       </c>
       <c r="C59" s="1">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3480,28 +3593,28 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1390299946069717</v>
+        <v>0.2256950438022614</v>
       </c>
       <c r="C60" s="1">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E60" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3509,16 +3622,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1390299946069717</v>
+        <v>0.2188557982444763</v>
       </c>
       <c r="C61" s="1">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3535,16 +3648,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1283353865146637</v>
+        <v>0.1641418486833572</v>
       </c>
       <c r="C62" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3561,16 +3674,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.09625153988599777</v>
+        <v>0.1573026031255722</v>
       </c>
       <c r="C63" s="1">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -3587,16 +3700,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.08555692434310913</v>
+        <v>0.1436241120100021</v>
       </c>
       <c r="C64" s="1">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3613,16 +3726,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.07486230880022049</v>
+        <v>0.1299456208944321</v>
       </c>
       <c r="C65" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3639,16 +3752,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.06416769325733185</v>
+        <v>0.1162671372294426</v>
       </c>
       <c r="C66" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3665,16 +3778,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.06416769325733185</v>
+        <v>0.1162671372294426</v>
       </c>
       <c r="C67" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -3691,16 +3804,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.05347307771444321</v>
+        <v>0.09574940800666809</v>
       </c>
       <c r="C68" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3714,19 +3827,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.04277846217155457</v>
+        <v>0.08891016989946365</v>
       </c>
       <c r="C69" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D69" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3735,24 +3848,24 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.04277846217155457</v>
+        <v>0.08891016989946365</v>
       </c>
       <c r="C70" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -3766,19 +3879,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.03208384662866592</v>
+        <v>0.08891016989946365</v>
       </c>
       <c r="C71" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -3792,19 +3905,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.03208384662866592</v>
+        <v>0.06155319139361382</v>
       </c>
       <c r="C72" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -3818,19 +3931,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.03208384662866592</v>
+        <v>0.05471394956111908</v>
       </c>
       <c r="C73" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -3844,19 +3957,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.03208384662866592</v>
+        <v>0.04787470400333405</v>
       </c>
       <c r="C74" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -3870,22 +3983,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.02138923108577728</v>
+        <v>0.04103546217083931</v>
       </c>
       <c r="C75" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -3896,19 +4009,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.01069461554288864</v>
+        <v>0.04103546217083931</v>
       </c>
       <c r="C76" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -3922,19 +4035,19 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.01069461554288864</v>
+        <v>0.03419621661305428</v>
       </c>
       <c r="C77" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -3948,19 +4061,19 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B78" s="2">
-        <v>0.01069461554288864</v>
+        <v>0.02735697478055954</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E78" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -3969,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3977,16 +4090,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>0.01069461554288864</v>
+        <v>0.02735697478055954</v>
       </c>
       <c r="C79" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4003,56 +4116,290 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>0.01069461554288864</v>
+        <v>0.02051773108541966</v>
       </c>
       <c r="C80" s="1">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>6</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.02051773108541966</v>
+      </c>
+      <c r="C81" s="1">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>6</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.02051773108541966</v>
+      </c>
+      <c r="C82" s="1">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>6</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.02051773108541966</v>
+      </c>
+      <c r="C83" s="1">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>6</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.01367848739027977</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>4</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.006839243695139885</v>
+      </c>
+      <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1">
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
         <v>2</v>
       </c>
-      <c r="F80" s="1">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0</v>
-      </c>
-      <c r="H80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81">
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.006839243695139885</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.006839243695139885</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.006839243695139885</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.006839243695139885</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C81">
+      <c r="C90">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D81">
+      <c r="D90">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E81">
+      <c r="E90">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F81">
+      <c r="F90">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="G90">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H81">
+      <c r="H90">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
   <si>
     <t>Software</t>
   </si>
@@ -56,6 +56,12 @@
     <t>applowpowermgr.o</t>
   </si>
   <si>
+    <t>htu21d.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal.o</t>
+  </si>
+  <si>
     <t>rx8900.o</t>
   </si>
   <si>
@@ -68,13 +74,13 @@
     <t>system_stm32l4xx.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal.o</t>
+    <t>stm32l4xx_hal_i2c.o</t>
   </si>
   <si>
     <t>stm32l4xx_hal_rcc.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_i2c.o</t>
+    <t>fz_wm.l</t>
   </si>
   <si>
     <t>stm32l4xx_hal_lptim.o</t>
@@ -83,22 +89,43 @@
     <t>stm32l4xx_hal_rcc_ex.o</t>
   </si>
   <si>
+    <t>daddsub_clz.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_gpio.o</t>
   </si>
   <si>
     <t>tx_event_flags_set.o</t>
   </si>
   <si>
+    <t>txe_thread_create.o</t>
+  </si>
+  <si>
     <t>tx_thread_system_suspend.o</t>
   </si>
   <si>
-    <t>txe_thread_create.o</t>
+    <t>txe_byte_pool_create.o</t>
+  </si>
+  <si>
+    <t>dmul.o</t>
+  </si>
+  <si>
+    <t>tx_timer_thread_entry.o</t>
   </si>
   <si>
     <t>tx_thread_create.o</t>
   </si>
   <si>
-    <t>tx_timer_thread_entry.o</t>
+    <t>txe_event_flags_create.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_pwr_ex.o</t>
+  </si>
+  <si>
+    <t>tx_event_flags_get.o</t>
+  </si>
+  <si>
+    <t>tx_thread_schedule.o</t>
   </si>
   <si>
     <t>tx_thread_system_resume.o</t>
@@ -107,129 +134,123 @@
     <t>stm32l4xx_hal_cortex.o</t>
   </si>
   <si>
-    <t>tx_event_flags_get.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_pwr_ex.o</t>
-  </si>
-  <si>
-    <t>txe_byte_pool_create.o</t>
+    <t>tx_timer_interrupt.o</t>
+  </si>
+  <si>
+    <t>txe_event_flags_get.o</t>
+  </si>
+  <si>
+    <t>dnaninf.o</t>
+  </si>
+  <si>
+    <t>tx_event_flags_cleanup.o</t>
+  </si>
+  <si>
+    <t>tx_initialize_low_level.o</t>
+  </si>
+  <si>
+    <t>main.o</t>
   </si>
   <si>
     <t>stm32l4xx_hal_i2c_ex.o</t>
   </si>
   <si>
-    <t>txe_event_flags_create.o</t>
-  </si>
-  <si>
     <t>tx_byte_pool_create.o</t>
   </si>
   <si>
-    <t>tx_event_flags_cleanup.o</t>
-  </si>
-  <si>
-    <t>tx_thread_schedule.o</t>
+    <t>gpio.o</t>
   </si>
   <si>
     <t>tx_thread_sleep.o</t>
   </si>
   <si>
+    <t>tx_thread_time_slice.o</t>
+  </si>
+  <si>
+    <t>htu21d_callout.o</t>
+  </si>
+  <si>
+    <t>d2f.o</t>
+  </si>
+  <si>
+    <t>__scatter.o</t>
+  </si>
+  <si>
     <t>tx_timer_system_activate.o</t>
   </si>
   <si>
-    <t>txe_event_flags_get.o</t>
-  </si>
-  <si>
-    <t>tx_timer_interrupt.o</t>
-  </si>
-  <si>
-    <t>main.o</t>
-  </si>
-  <si>
-    <t>gpio.o</t>
-  </si>
-  <si>
     <t>rx8900_callout.o</t>
   </si>
   <si>
-    <t>tx_initialize_low_level.o</t>
-  </si>
-  <si>
-    <t>tx_thread_time_slice.o</t>
+    <t>tx_thread_shell_entry.o</t>
   </si>
   <si>
     <t>tx_event_flags_create.o</t>
   </si>
   <si>
-    <t>tx_thread_shell_entry.o</t>
+    <t>rt_memclr_w.o</t>
+  </si>
+  <si>
+    <t>tx_initialize_kernel_enter.o</t>
+  </si>
+  <si>
+    <t>sys_stackheap_outer.o</t>
   </si>
   <si>
     <t>stm32l4xx_hal_pwr.o</t>
   </si>
   <si>
+    <t>tx_thread_timeout.o</t>
+  </si>
+  <si>
+    <t>rt_memclr.o</t>
+  </si>
+  <si>
+    <t>tx_thread_stack_build.o</t>
+  </si>
+  <si>
     <t>tx_timer_system_deactivate.o</t>
   </si>
   <si>
-    <t>tx_initialize_kernel_enter.o</t>
+    <t>stm32l4xx_hal_msp.o</t>
+  </si>
+  <si>
+    <t>app_threadx.o</t>
   </si>
   <si>
     <t>txe_event_flags_set.o</t>
   </si>
   <si>
-    <t>tx_thread_timeout.o</t>
-  </si>
-  <si>
-    <t>__scatter.o</t>
-  </si>
-  <si>
-    <t>rt_memclr_w.o</t>
-  </si>
-  <si>
-    <t>app_threadx.o</t>
-  </si>
-  <si>
-    <t>sys_stackheap_outer.o</t>
-  </si>
-  <si>
-    <t>rt_memclr.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_msp.o</t>
-  </si>
-  <si>
-    <t>tx_thread_stack_build.o</t>
+    <t>tx_timer_expiration_process.o</t>
+  </si>
+  <si>
+    <t>dflt_clz.o</t>
+  </si>
+  <si>
+    <t>tx_thread_system_return.o</t>
   </si>
   <si>
     <t>stm32l4xx_it.o</t>
   </si>
   <si>
-    <t>tx_timer_expiration_process.o</t>
+    <t>__scatter_zi.o</t>
+  </si>
+  <si>
+    <t>fpinit.o</t>
+  </si>
+  <si>
+    <t>__scatter_copy.o</t>
+  </si>
+  <si>
+    <t>tx_time_set.o</t>
+  </si>
+  <si>
+    <t>tx_time_get.o</t>
   </si>
   <si>
     <t>appmodectrl.o</t>
   </si>
   <si>
-    <t>tx_thread_system_return.o</t>
-  </si>
-  <si>
-    <t>tx_time_set.o</t>
-  </si>
-  <si>
-    <t>tx_time_get.o</t>
-  </si>
-  <si>
-    <t>__scatter_zi.o</t>
-  </si>
-  <si>
-    <t>fz_wm.l</t>
-  </si>
-  <si>
-    <t>fpinit.o</t>
-  </si>
-  <si>
-    <t>__scatter_copy.o</t>
-  </si>
-  <si>
     <t>exit.o</t>
   </si>
   <si>
@@ -239,10 +260,16 @@
     <t>tx_thread_interrupt_disable.o</t>
   </si>
   <si>
+    <t>dretinf.o</t>
+  </si>
+  <si>
     <t>sys_exit.o</t>
   </si>
   <si>
     <t>__rtentry2.o</t>
+  </si>
+  <si>
+    <t>fretinf.o</t>
   </si>
   <si>
     <t>rtexit2.o</t>
@@ -398,9 +425,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$90</c:f>
+              <c:f>ram_percent!$A$3:$A$99</c:f>
               <c:strCache>
-                <c:ptCount val="88"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>appmain.o</c:v>
                 </c:pt>
@@ -438,21 +465,24 @@
                   <c:v>applowpowermgr.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>htu21d.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>rx8900.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>appirqcallout.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>stm32l4xx_hal.o</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="96">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -460,62 +490,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$90</c:f>
+              <c:f>ram_percent!$B$3:$B$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
-                  <c:v>40.11637496948242</c:v>
+                  <c:v>39.96356582641602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.53615951538086</c:v>
+                  <c:v>25.43888664245606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.43059062957764</c:v>
+                  <c:v>14.37562084197998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.376558303833008</c:v>
+                  <c:v>9.340841293334961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.859517812728882</c:v>
+                  <c:v>2.848625421524048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.596009969711304</c:v>
+                  <c:v>1.589930415153503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.596009969711304</c:v>
+                  <c:v>1.589930415153503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.396508693695068</c:v>
+                  <c:v>1.391189098358154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9310058355331421</c:v>
+                  <c:v>0.9274594187736511</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.864505410194397</c:v>
+                  <c:v>0.8612123131752014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5985037684440613</c:v>
+                  <c:v>0.5962238907814026</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2327514588832855</c:v>
+                  <c:v>0.2815501689910889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.133000835776329</c:v>
+                  <c:v>0.2649883925914764</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.133000835776329</c:v>
+                  <c:v>0.1324941962957382</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.06650041788816452</c:v>
+                  <c:v>0.1324941962957382</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.06650041788816452</c:v>
+                  <c:v>0.1324941962957382</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.06650041788816452</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                  <c:v>0.06624709814786911</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.06624709814786911</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -583,271 +616,298 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$90</c:f>
+              <c:f>flash_percent!$A$3:$A$99</c:f>
               <c:strCache>
-                <c:ptCount val="88"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
+                  <c:v>stm32l4xx_hal_i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>stm32l4xx_hal_rcc.o</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>stm32l4xx_hal_i2c.o</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>fz_wm.l</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>stm32l4xx_hal_lptim.o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>rx8900.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>applowpowermgr.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>tx_low_power.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>daddsub_clz.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>appmain.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>tx_event_flags_set.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>tx_thread_system_suspend.o</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>tx_low_power.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>txe_thread_create.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>appmain.o</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>tx_thread_create.o</c:v>
+                  <c:v>htu21d.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>c_w.l</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>startup_stm32l432xx.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>txe_thread_create.o</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>tx_thread_system_suspend.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>txe_byte_pool_create.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dmul.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>tx_timer_thread_entry.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
+                  <c:v>tx_thread_create.o</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>txe_event_flags_create.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>tx_event_flags_get.o</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>tx_thread_schedule.o</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>tx_thread_system_resume.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
+                  <c:v>lptim.o</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>startup_stm32l432xx.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>tx_event_flags_get.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>i2c.o</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>txe_byte_pool_create.o</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="29">
+                  <c:v>tx_timer_interrupt.o</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>txe_event_flags_get.o</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>tx_timer_initialize.o</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>dnaninf.o</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>tx_event_flags_cleanup.o</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>tx_initialize_low_level.o</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>tx_timer_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>txe_event_flags_create.o</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="37">
                   <c:v>tx_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>tx_event_flags_cleanup.o</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>tx_thread_schedule.o</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>lptim.o</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="38">
+                  <c:v>gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>tx_thread_sleep.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
+                  <c:v>tx_thread_time_slice.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>htu21d_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>d2f.o</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>appirqcallout.o</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>__scatter.o</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>tx_timer_system_activate.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>txe_event_flags_get.o</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>tx_timer_interrupt.o</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="46">
                   <c:v>rx8900_callout.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>tx_initialize_low_level.o</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>tx_thread_time_slice.o</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="47">
+                  <c:v>tx_thread_shell_entry.o</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>tx_event_flags_create.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>tx_thread_shell_entry.o</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
+                  <c:v>system_stm32l4xx.o</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>app_azure_rtos.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>rt_memclr_w.o</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>tx_initialize_kernel_enter.o</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>sys_stackheap_outer.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>stm32l4xx_hal_pwr.o</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>tx_thread_timeout.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>rt_memclr.o</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>tx_thread_stack_build.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>tx_timer_system_deactivate.o</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>tx_thread_initialize.o</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>stm32l4xx_hal_msp.o</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>tx_thread_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>appirqcallout.o</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>stm32l4xx_hal_pwr.o</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>tx_timer_system_deactivate.o</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>app_azure_rtos.o</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>tx_initialize_kernel_enter.o</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="63">
+                  <c:v>app_threadx.o</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>txe_event_flags_set.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>tx_thread_timeout.o</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>__scatter.o</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>stm32l4xx_hal.o</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>system_stm32l4xx.o</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>rt_memclr_w.o</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>app_threadx.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>sys_stackheap_outer.o</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>rt_memclr.o</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>stm32l4xx_hal_msp.o</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="65">
+                  <c:v>tx_timer_expiration_process.o</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>appobj.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>tx_thread_stack_build.o</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="67">
+                  <c:v>dflt_clz.o</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>tx_thread_system_return.o</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>stm32l4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>tx_timer_expiration_process.o</c:v>
-                </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="70">
+                  <c:v>__scatter_zi.o</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>fpinit.o</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>__scatter_copy.o</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>tx_time_set.o</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>tx_time_get.o</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>appmodectrl.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>tx_thread_system_return.o</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>tx_time_set.o</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>tx_time_get.o</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>__scatter_zi.o</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>fz_wm.l</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>fpinit.o</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>__scatter_copy.o</c:v>
-                </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="76">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="77">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="78">
                   <c:v>tx_thread_interrupt_disable.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="79">
+                  <c:v>dretinf.o</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>sys_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="81">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="82">
+                  <c:v>fretinf.o</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="84">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="85">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="86">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="87">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="88">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="89">
                   <c:v>tx_thread_interrupt_restore.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="90">
                   <c:v>rx8900_lcfg.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="91">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="92">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="93">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="94">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="95">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="96">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -855,272 +915,299 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$90</c:f>
+              <c:f>flash_percent!$B$3:$B$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
-                  <c:v>13.3843994140625</c:v>
+                  <c:v>12.90886688232422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.93595027923584</c:v>
+                  <c:v>11.35090065002441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.017064094543457</c:v>
+                  <c:v>5.929811954498291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.032212734222412</c:v>
+                  <c:v>5.309804916381836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.464555740356445</c:v>
+                  <c:v>4.069790363311768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.544677257537842</c:v>
+                  <c:v>3.871070384979248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.363437175750732</c:v>
+                  <c:v>3.406064987182617</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.036624193191528</c:v>
+                  <c:v>3.402090549468994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.544198513031006</c:v>
+                  <c:v>3.227216720581055</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.516841650009155</c:v>
+                  <c:v>3.052342891693115</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.997059106826782</c:v>
+                  <c:v>2.392591714859009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.945764780044556</c:v>
+                  <c:v>2.313103675842285</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.730328679084778</c:v>
+                  <c:v>2.289257287979126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.64141845703125</c:v>
+                  <c:v>1.907714366912842</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.620900750160217</c:v>
+                  <c:v>1.828226208686829</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.61406147480011</c:v>
+                  <c:v>1.565915465354919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.573026061058044</c:v>
+                  <c:v>1.510273814201355</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.573026061058044</c:v>
+                  <c:v>1.398990511894226</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.55934751033783</c:v>
+                  <c:v>1.351297616958618</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.395205736160278</c:v>
+                  <c:v>1.319502353668213</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.210546135902405</c:v>
+                  <c:v>1.263860702514648</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.176349878311157</c:v>
+                  <c:v>1.247963070869446</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.073761224746704</c:v>
+                  <c:v>1.208219051361084</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.046404242515564</c:v>
+                  <c:v>1.096935749053955</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.039564967155457</c:v>
+                  <c:v>1.06514048576355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9916903376579285</c:v>
+                  <c:v>1.001549959182739</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9027801752090454</c:v>
+                  <c:v>0.9856523871421814</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8617447018623352</c:v>
+                  <c:v>0.8187273740768433</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8070307374000549</c:v>
+                  <c:v>0.7710345387458801</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7728345394134522</c:v>
+                  <c:v>0.7312904596328735</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7249597907066345</c:v>
+                  <c:v>0.6518024206161499</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7112813591957092</c:v>
+                  <c:v>0.6359047889709473</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6292104125022888</c:v>
+                  <c:v>0.6200071573257446</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6155319213867188</c:v>
+                  <c:v>0.6200071573257446</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.581335723400116</c:v>
+                  <c:v>0.604109525680542</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5608179569244385</c:v>
+                  <c:v>0.604109525680542</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5197824835777283</c:v>
+                  <c:v>0.580263078212738</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5129432678222656</c:v>
+                  <c:v>0.5405190587043762</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4992647767066956</c:v>
+                  <c:v>0.5325702428817749</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4582293331623077</c:v>
+                  <c:v>0.4928261935710907</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4582293331623077</c:v>
+                  <c:v>0.4610309600830078</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4445508420467377</c:v>
+                  <c:v>0.4133380949497223</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.4445508420467377</c:v>
+                  <c:v>0.3894916772842407</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.4171938598155975</c:v>
+                  <c:v>0.3894916772842407</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3829976320266724</c:v>
+                  <c:v>0.3735940456390381</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.365899533033371</c:v>
+                  <c:v>0.3576964437961578</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3556406795978546</c:v>
+                  <c:v>0.3576964437961578</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3488014340400696</c:v>
+                  <c:v>0.3497476279735565</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3282836973667145</c:v>
+                  <c:v>0.3497476279735565</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3214444518089294</c:v>
+                  <c:v>0.3417988121509552</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3077659606933594</c:v>
+                  <c:v>0.3338499963283539</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2940874695777893</c:v>
+                  <c:v>0.3100035786628723</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2667304873466492</c:v>
+                  <c:v>0.3100035786628723</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2667304873466492</c:v>
+                  <c:v>0.2941059470176697</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2530520260334015</c:v>
+                  <c:v>0.2941059470176697</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2325342744588852</c:v>
+                  <c:v>0.2861571609973908</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2256950438022614</c:v>
+                  <c:v>0.2702595293521881</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2256950438022614</c:v>
+                  <c:v>0.2543618977069855</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2188557982444763</c:v>
+                  <c:v>0.2305154800415039</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1641418486833572</c:v>
+                  <c:v>0.2305154800415039</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1573026031255722</c:v>
+                  <c:v>0.2225666642189026</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1436241120100021</c:v>
+                  <c:v>0.198720246553421</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1299456208944321</c:v>
+                  <c:v>0.1828226149082184</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1162671372294426</c:v>
+                  <c:v>0.1828226149082184</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1162671372294426</c:v>
+                  <c:v>0.1589761972427368</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.09574940800666809</c:v>
+                  <c:v>0.1589761972427368</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.08891016989946365</c:v>
+                  <c:v>0.1589761972427368</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.08891016989946365</c:v>
+                  <c:v>0.1510273814201355</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.08891016989946365</c:v>
+                  <c:v>0.1510273814201355</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.06155319139361382</c:v>
+                  <c:v>0.1192321479320526</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.05471394956111908</c:v>
+                  <c:v>0.1112833321094513</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.04787470400333405</c:v>
+                  <c:v>0.1033345237374306</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.04103546217083931</c:v>
+                  <c:v>0.1033345237374306</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.04103546217083931</c:v>
+                  <c:v>0.1033345237374306</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.03419621661305428</c:v>
+                  <c:v>0.09538571536540985</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.02735697478055954</c:v>
+                  <c:v>0.09538571536540985</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.02735697478055954</c:v>
+                  <c:v>0.07153929024934769</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.02051773108541966</c:v>
+                  <c:v>0.06359047442674637</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.02051773108541966</c:v>
+                  <c:v>0.05564166605472565</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.02051773108541966</c:v>
+                  <c:v>0.04769285768270493</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.02051773108541966</c:v>
+                  <c:v>0.04769285768270493</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.01367848739027977</c:v>
+                  <c:v>0.04769285768270493</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.006839243695139885</c:v>
+                  <c:v>0.0397440493106842</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.006839243695139885</c:v>
+                  <c:v>0.0397440493106842</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.006839243695139885</c:v>
+                  <c:v>0.03179523721337318</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.006839243695139885</c:v>
+                  <c:v>0.03179523721337318</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.006839243695139885</c:v>
+                  <c:v>0.02384642884135246</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>0.02384642884135246</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.02384642884135246</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.02384642884135246</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.01589761860668659</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.007948809303343296</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.007948809303343296</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.007948809303343296</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.007948809303343296</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.007948809303343296</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1225,8 +1312,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H90" totalsRowCount="1">
-  <autoFilter ref="A2:H89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H99" totalsRowCount="1">
+  <autoFilter ref="A2:H98"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1242,8 +1329,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H90" totalsRowCount="1">
-  <autoFilter ref="A2:H89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H99" totalsRowCount="1">
+  <autoFilter ref="A2:H98"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1543,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1559,28 +1646,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1588,19 +1675,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>40.11637496948242</v>
+        <v>39.96356582641602</v>
       </c>
       <c r="C3" s="1">
         <v>2413</v>
       </c>
       <c r="D3" s="1">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="E3" s="1">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="F3" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1614,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.53615951538086</v>
+        <v>25.43888664245606</v>
       </c>
       <c r="C4" s="1">
         <v>1536</v>
@@ -1640,19 +1727,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>14.43059062957764</v>
+        <v>14.37562084197998</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
       </c>
       <c r="D5" s="1">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="F5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1666,19 +1753,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.376558303833008</v>
+        <v>9.340841293334961</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
       </c>
       <c r="D6" s="1">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1692,16 +1779,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>2.859517812728882</v>
+        <v>2.848625421524048</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
       </c>
       <c r="D7" s="1">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1718,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.596009969711304</v>
+        <v>1.589930415153503</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1744,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.596009969711304</v>
+        <v>1.589930415153503</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1770,16 +1857,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.396508693695068</v>
+        <v>1.391189098358154</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
       </c>
       <c r="D10" s="1">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="E10" s="1">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1796,16 +1883,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.9310058355331421</v>
+        <v>0.9274594187736511</v>
       </c>
       <c r="C11" s="1">
         <v>56</v>
       </c>
       <c r="D11" s="1">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1822,16 +1909,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.864505410194397</v>
+        <v>0.8612123131752014</v>
       </c>
       <c r="C12" s="1">
         <v>52</v>
       </c>
       <c r="D12" s="1">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1848,19 +1935,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.5985037684440613</v>
+        <v>0.5962238907814026</v>
       </c>
       <c r="C13" s="1">
         <v>36</v>
       </c>
       <c r="D13" s="1">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1874,16 +1961,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.2327514588832855</v>
+        <v>0.2815501689910889</v>
       </c>
       <c r="C14" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
-        <v>1329</v>
+        <v>857</v>
       </c>
       <c r="E14" s="1">
-        <v>1328</v>
+        <v>856</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1892,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1900,16 +1987,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.133000835776329</v>
+        <v>0.2649883925914764</v>
       </c>
       <c r="C15" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>1598</v>
+        <v>576</v>
       </c>
       <c r="E15" s="1">
-        <v>1598</v>
+        <v>576</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1918,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1926,25 +2013,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.133000835776329</v>
+        <v>0.1324941962957382</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1952,16 +2039,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.06650041788816452</v>
+        <v>0.1324941962957382</v>
       </c>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>736</v>
+        <v>1024</v>
       </c>
       <c r="E17" s="1">
-        <v>736</v>
+        <v>1024</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1970,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1978,25 +2065,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.06650041788816452</v>
+        <v>0.1324941962957382</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="F18" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2004,56 +2091,82 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.06650041788816452</v>
+        <v>0.06624709814786911</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>90</v>
+        <v>856</v>
       </c>
       <c r="E19" s="1">
+        <v>856</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.06624709814786911</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
         <v>86</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="E20" s="1">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1">
+        <v>64</v>
+      </c>
+      <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C90">
+      <c r="C99">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D90">
+      <c r="D99">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E90">
+      <c r="E99">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F90">
+      <c r="F99">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G90">
+      <c r="G99">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H90">
+      <c r="H99">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2069,7 +2182,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2085,45 +2198,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>13.3843994140625</v>
+        <v>12.90886688232422</v>
       </c>
       <c r="C3" s="1">
-        <v>3914</v>
+        <v>3248</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>3914</v>
+        <v>3248</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2137,19 +2250,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>10.93595027923584</v>
+        <v>11.35090065002441</v>
       </c>
       <c r="C4" s="1">
-        <v>3198</v>
+        <v>2856</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>3198</v>
+        <v>2856</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2163,19 +2276,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>7.017064094543457</v>
+        <v>5.929811954498291</v>
       </c>
       <c r="C5" s="1">
-        <v>2052</v>
+        <v>1492</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>2052</v>
+        <v>1492</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2189,19 +2302,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>6.032212734222412</v>
+        <v>5.309804916381836</v>
       </c>
       <c r="C6" s="1">
-        <v>1764</v>
+        <v>1336</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1764</v>
+        <v>1336</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2215,19 +2328,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>5.464555740356445</v>
+        <v>4.069790363311768</v>
       </c>
       <c r="C7" s="1">
-        <v>1598</v>
+        <v>1024</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>1598</v>
+        <v>1024</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2241,71 +2354,71 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
-        <v>4.544677257537842</v>
+        <v>3.871070384979248</v>
       </c>
       <c r="C8" s="1">
-        <v>1329</v>
+        <v>974</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1328</v>
+        <v>974</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>4.363437175750732</v>
+        <v>3.406064987182617</v>
       </c>
       <c r="C9" s="1">
-        <v>1276</v>
+        <v>857</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
-        <v>1276</v>
+        <v>856</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>3.036624193191528</v>
+        <v>3.402090549468994</v>
       </c>
       <c r="C10" s="1">
-        <v>888</v>
+        <v>856</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>888</v>
+        <v>856</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2314,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2322,16 +2435,16 @@
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>2.544198513031006</v>
+        <v>3.227216720581055</v>
       </c>
       <c r="C11" s="1">
-        <v>744</v>
+        <v>812</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>744</v>
+        <v>812</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2345,19 +2458,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
-        <v>2.516841650009155</v>
+        <v>3.052342891693115</v>
       </c>
       <c r="C12" s="1">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2366,24 +2479,24 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>1.997059106826782</v>
+        <v>2.392591714859009</v>
       </c>
       <c r="C13" s="1">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="E13" s="1">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2392,50 +2505,50 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>1.945764780044556</v>
+        <v>2.313103675842285</v>
       </c>
       <c r="C14" s="1">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="D14" s="1">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="F14" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>2413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1.730328679084778</v>
+        <v>2.289257287979126</v>
       </c>
       <c r="C15" s="1">
-        <v>506</v>
+        <v>576</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1">
-        <v>506</v>
+        <v>576</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2444,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2452,7 +2565,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>1.64141845703125</v>
+        <v>1.907714366912842</v>
       </c>
       <c r="C16" s="1">
         <v>480</v>
@@ -2475,45 +2588,45 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>1.620900750160217</v>
+        <v>1.828226208686829</v>
       </c>
       <c r="C17" s="1">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="E17" s="1">
-        <v>474</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
-        <v>1.61406147480011</v>
+        <v>1.565915465354919</v>
       </c>
       <c r="C18" s="1">
-        <v>472</v>
+        <v>394</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>472</v>
+        <v>394</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2527,19 +2640,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>1.573026061058044</v>
+        <v>1.510273814201355</v>
       </c>
       <c r="C19" s="1">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2553,28 +2666,28 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1.573026061058044</v>
+        <v>1.398990511894226</v>
       </c>
       <c r="C20" s="1">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="D20" s="1">
-        <v>1536</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="F20" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>1536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2582,16 +2695,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="2">
-        <v>1.55934751033783</v>
+        <v>1.351297616958618</v>
       </c>
       <c r="C21" s="1">
-        <v>456</v>
+        <v>340</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>456</v>
+        <v>340</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2608,16 +2721,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>1.395205736160278</v>
+        <v>1.319502353668213</v>
       </c>
       <c r="C22" s="1">
-        <v>408</v>
+        <v>332</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>408</v>
+        <v>332</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2631,19 +2744,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
-        <v>1.210546135902405</v>
+        <v>1.263860702514648</v>
       </c>
       <c r="C23" s="1">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="D23" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2652,24 +2765,24 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
-        <v>1.176349878311157</v>
+        <v>1.247963070869446</v>
       </c>
       <c r="C24" s="1">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2683,19 +2796,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
-        <v>1.073761224746704</v>
+        <v>1.208219051361084</v>
       </c>
       <c r="C25" s="1">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2704,50 +2817,50 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
-        <v>1.046404242515564</v>
+        <v>1.096935749053955</v>
       </c>
       <c r="C26" s="1">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="D26" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F26" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
-        <v>1.039564967155457</v>
+        <v>1.06514048576355</v>
       </c>
       <c r="C27" s="1">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2761,19 +2874,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
-        <v>0.9916903376579285</v>
+        <v>1.001549959182739</v>
       </c>
       <c r="C28" s="1">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2787,19 +2900,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
-        <v>0.9027801752090454</v>
+        <v>0.9856523871421814</v>
       </c>
       <c r="C29" s="1">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2813,19 +2926,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8617447018623352</v>
+        <v>0.8187273740768433</v>
       </c>
       <c r="C30" s="1">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E30" s="1">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2834,24 +2947,24 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8070307374000549</v>
+        <v>0.7710345387458801</v>
       </c>
       <c r="C31" s="1">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D31" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2860,24 +2973,24 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7728345394134522</v>
+        <v>0.7312904596328735</v>
       </c>
       <c r="C32" s="1">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2891,19 +3004,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7249597907066345</v>
+        <v>0.6518024206161499</v>
       </c>
       <c r="C33" s="1">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2917,19 +3030,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7112813591957092</v>
+        <v>0.6359047889709473</v>
       </c>
       <c r="C34" s="1">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="E34" s="1">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2938,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2946,16 +3059,16 @@
         <v>41</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6292104125022888</v>
+        <v>0.6200071573257446</v>
       </c>
       <c r="C35" s="1">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2972,16 +3085,16 @@
         <v>42</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6155319213867188</v>
+        <v>0.6200071573257446</v>
       </c>
       <c r="C36" s="1">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2998,16 +3111,16 @@
         <v>43</v>
       </c>
       <c r="B37" s="2">
-        <v>0.581335723400116</v>
+        <v>0.604109525680542</v>
       </c>
       <c r="C37" s="1">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3024,16 +3137,16 @@
         <v>44</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5608179569244385</v>
+        <v>0.604109525680542</v>
       </c>
       <c r="C38" s="1">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3050,16 +3163,16 @@
         <v>45</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5197824835777283</v>
+        <v>0.580263078212738</v>
       </c>
       <c r="C39" s="1">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3076,16 +3189,16 @@
         <v>46</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5129432678222656</v>
+        <v>0.5405190587043762</v>
       </c>
       <c r="C40" s="1">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3102,16 +3215,16 @@
         <v>47</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4992647767066956</v>
+        <v>0.5325702428817749</v>
       </c>
       <c r="C41" s="1">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -3128,16 +3241,16 @@
         <v>48</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4582293331623077</v>
+        <v>0.4928261935710907</v>
       </c>
       <c r="C42" s="1">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3151,19 +3264,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4582293331623077</v>
+        <v>0.4610309600830078</v>
       </c>
       <c r="C43" s="1">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D43" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3172,50 +3285,50 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4445508420467377</v>
+        <v>0.4133380949497223</v>
       </c>
       <c r="C44" s="1">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D44" s="1">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
-        <v>0.4445508420467377</v>
+        <v>0.3894916772842407</v>
       </c>
       <c r="C45" s="1">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3224,24 +3337,24 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B46" s="2">
-        <v>0.4171938598155975</v>
+        <v>0.3894916772842407</v>
       </c>
       <c r="C46" s="1">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3250,24 +3363,24 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3829976320266724</v>
+        <v>0.3735940456390381</v>
       </c>
       <c r="C47" s="1">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3281,45 +3394,45 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2">
-        <v>0.365899533033371</v>
+        <v>0.3576964437961578</v>
       </c>
       <c r="C48" s="1">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D48" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F48" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3556406795978546</v>
+        <v>0.3576964437961578</v>
       </c>
       <c r="C49" s="1">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3333,19 +3446,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3488014340400696</v>
+        <v>0.3497476279735565</v>
       </c>
       <c r="C50" s="1">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3359,19 +3472,19 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3282836973667145</v>
+        <v>0.3497476279735565</v>
       </c>
       <c r="C51" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3385,25 +3498,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B52" s="2">
-        <v>0.3214444518089294</v>
+        <v>0.3417988121509552</v>
       </c>
       <c r="C52" s="1">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -3411,51 +3524,51 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3077659606933594</v>
+        <v>0.3338499963283539</v>
       </c>
       <c r="C53" s="1">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1">
-        <v>4</v>
+        <v>564</v>
       </c>
       <c r="E53" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2940874695777893</v>
+        <v>0.3100035786628723</v>
       </c>
       <c r="C54" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F54" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -3463,10 +3576,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2667304873466492</v>
+        <v>0.3100035786628723</v>
       </c>
       <c r="C55" s="1">
         <v>78</v>
@@ -3489,19 +3602,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2667304873466492</v>
+        <v>0.2941059470176697</v>
       </c>
       <c r="C56" s="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3515,10 +3628,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2530520260334015</v>
+        <v>0.2941059470176697</v>
       </c>
       <c r="C57" s="1">
         <v>74</v>
@@ -3541,19 +3654,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2325342744588852</v>
+        <v>0.2861571609973908</v>
       </c>
       <c r="C58" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3567,19 +3680,19 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2256950438022614</v>
+        <v>0.2702595293521881</v>
       </c>
       <c r="C59" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3593,45 +3706,45 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2256950438022614</v>
+        <v>0.2543618977069855</v>
       </c>
       <c r="C60" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D60" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F60" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2">
-        <v>0.2188557982444763</v>
+        <v>0.2305154800415039</v>
       </c>
       <c r="C61" s="1">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3645,51 +3758,51 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1641418486833572</v>
+        <v>0.2305154800415039</v>
       </c>
       <c r="C62" s="1">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E62" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1573026031255722</v>
+        <v>0.2225666642189026</v>
       </c>
       <c r="C63" s="1">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E63" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -3697,19 +3810,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1436241120100021</v>
+        <v>0.198720246553421</v>
       </c>
       <c r="C64" s="1">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3723,19 +3836,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1299456208944321</v>
+        <v>0.1828226149082184</v>
       </c>
       <c r="C65" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E65" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3744,24 +3857,24 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1162671372294426</v>
+        <v>0.1828226149082184</v>
       </c>
       <c r="C66" s="1">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3775,19 +3888,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1162671372294426</v>
+        <v>0.1589761972427368</v>
       </c>
       <c r="C67" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -3801,19 +3914,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.09574940800666809</v>
+        <v>0.1589761972427368</v>
       </c>
       <c r="C68" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3827,19 +3940,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B69" s="2">
-        <v>0.08891016989946365</v>
+        <v>0.1589761972427368</v>
       </c>
       <c r="C69" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E69" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3848,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3856,16 +3969,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.08891016989946365</v>
+        <v>0.1510273814201355</v>
       </c>
       <c r="C70" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -3882,16 +3995,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.08891016989946365</v>
+        <v>0.1510273814201355</v>
       </c>
       <c r="C71" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -3908,16 +4021,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.06155319139361382</v>
+        <v>0.1192321479320526</v>
       </c>
       <c r="C72" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -3934,16 +4047,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.05471394956111908</v>
+        <v>0.1112833321094513</v>
       </c>
       <c r="C73" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -3960,16 +4073,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.04787470400333405</v>
+        <v>0.1033345237374306</v>
       </c>
       <c r="C74" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -3986,16 +4099,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.04103546217083931</v>
+        <v>0.1033345237374306</v>
       </c>
       <c r="C75" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4012,16 +4125,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.04103546217083931</v>
+        <v>0.1033345237374306</v>
       </c>
       <c r="C76" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4038,16 +4151,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.03419621661305428</v>
+        <v>0.09538571536540985</v>
       </c>
       <c r="C77" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4061,19 +4174,19 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.02735697478055954</v>
+        <v>0.09538571536540985</v>
       </c>
       <c r="C78" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D78" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4082,24 +4195,24 @@
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.02735697478055954</v>
+        <v>0.07153929024934769</v>
       </c>
       <c r="C79" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4113,19 +4226,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.02051773108541966</v>
+        <v>0.06359047442674637</v>
       </c>
       <c r="C80" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4139,19 +4252,19 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.02051773108541966</v>
+        <v>0.05564166605472565</v>
       </c>
       <c r="C81" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4165,19 +4278,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.02051773108541966</v>
+        <v>0.04769285768270493</v>
       </c>
       <c r="C82" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4191,19 +4304,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.02051773108541966</v>
+        <v>0.04769285768270493</v>
       </c>
       <c r="C83" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4217,22 +4330,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.01367848739027977</v>
+        <v>0.04769285768270493</v>
       </c>
       <c r="C84" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F84" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1">
         <v>0</v>
@@ -4243,19 +4356,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.006839243695139885</v>
+        <v>0.0397440493106842</v>
       </c>
       <c r="C85" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4269,19 +4382,19 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.006839243695139885</v>
+        <v>0.0397440493106842</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4295,19 +4408,19 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B87" s="2">
-        <v>0.006839243695139885</v>
+        <v>0.03179523721337318</v>
       </c>
       <c r="C87" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E87" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -4316,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4324,16 +4437,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>0.006839243695139885</v>
+        <v>0.03179523721337318</v>
       </c>
       <c r="C88" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -4350,56 +4463,290 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>0.006839243695139885</v>
+        <v>0.02384642884135246</v>
       </c>
       <c r="C89" s="1">
+        <v>6</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.02384642884135246</v>
+      </c>
+      <c r="C90" s="1">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>6</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.02384642884135246</v>
+      </c>
+      <c r="C91" s="1">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>6</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.02384642884135246</v>
+      </c>
+      <c r="C92" s="1">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>6</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.01589761860668659</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.007948809303343296</v>
+      </c>
+      <c r="C94" s="1">
         <v>2</v>
       </c>
-      <c r="D89" s="1">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1">
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
         <v>2</v>
       </c>
-      <c r="F89" s="1">
-        <v>0</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0</v>
-      </c>
-      <c r="H89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90">
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.007948809303343296</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.007948809303343296</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.007948809303343296</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.007948809303343296</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C90">
+      <c r="C99">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D90">
+      <c r="D99">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E90">
+      <c r="E99">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F90">
+      <c r="F99">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G90">
+      <c r="G99">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H90">
+      <c r="H99">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -650,13 +650,13 @@
                   <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>htu21d.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>appmain.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>tx_event_flags_set.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>htu21d.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>c_w.l</c:v>
@@ -785,22 +785,22 @@
                   <c:v>stm32l4xx_hal_pwr.o</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>tx_thread_timeout.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>tx_thread_stack_build.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>tx_timer_system_deactivate.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>tx_thread_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
@@ -920,292 +920,292 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
                 <c:pt idx="0">
-                  <c:v>12.90886688232422</c:v>
+                  <c:v>12.84657669067383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.35090065002441</c:v>
+                  <c:v>11.29612827301025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.929811954498291</c:v>
+                  <c:v>5.901198387145996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.309804916381836</c:v>
+                  <c:v>5.284183025360107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.069790363311768</c:v>
+                  <c:v>4.05015230178833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.871070384979248</c:v>
+                  <c:v>3.852391004562378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.406064987182617</c:v>
+                  <c:v>3.389629364013672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.402090549468994</c:v>
+                  <c:v>3.385674238204956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.227216720581055</c:v>
+                  <c:v>3.211644172668457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.052342891693115</c:v>
+                  <c:v>3.037614107131958</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.392591714859009</c:v>
+                  <c:v>2.657912492752075</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.313103675842285</c:v>
+                  <c:v>2.412688255310059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.289257287979126</c:v>
+                  <c:v>2.301942110061646</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.907714366912842</c:v>
+                  <c:v>1.898508906364441</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.828226208686829</c:v>
+                  <c:v>1.819404363632202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.565915465354919</c:v>
+                  <c:v>1.558359384536743</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.510273814201355</c:v>
+                  <c:v>1.502986192703247</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.398990511894226</c:v>
+                  <c:v>1.392239809036255</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.351297616958618</c:v>
+                  <c:v>1.34477710723877</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.319502353668213</c:v>
+                  <c:v>1.313135266304016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.263860702514648</c:v>
+                  <c:v>1.25776207447052</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.247963070869446</c:v>
+                  <c:v>1.241941213607788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.208219051361084</c:v>
+                  <c:v>1.202389001846314</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.096935749053955</c:v>
+                  <c:v>1.091642618179321</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.06514048576355</c:v>
+                  <c:v>1.060000777244568</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.001549959182739</c:v>
+                  <c:v>0.9967171549797058</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9856523871421814</c:v>
+                  <c:v>0.9808962345123291</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8187273740768433</c:v>
+                  <c:v>0.8147767186164856</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7710345387458801</c:v>
+                  <c:v>0.7673140168190002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7312904596328735</c:v>
+                  <c:v>0.7277617454528809</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6518024206161499</c:v>
+                  <c:v>0.6486572027206421</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6359047889709473</c:v>
+                  <c:v>0.6328362822532654</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6200071573257446</c:v>
+                  <c:v>0.6170153617858887</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6200071573257446</c:v>
+                  <c:v>0.6170153617858887</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.604109525680542</c:v>
+                  <c:v>0.6011945009231567</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.604109525680542</c:v>
+                  <c:v>0.6011945009231567</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.580263078212738</c:v>
+                  <c:v>0.5774630904197693</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5405190587043762</c:v>
+                  <c:v>0.5379108786582947</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5325702428817749</c:v>
+                  <c:v>0.5300003886222839</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4928261935710907</c:v>
+                  <c:v>0.4904481172561646</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4610309600830078</c:v>
+                  <c:v>0.4588063061237335</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4133380949497223</c:v>
+                  <c:v>0.4113436043262482</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3894916772842407</c:v>
+                  <c:v>0.3876122236251831</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3894916772842407</c:v>
+                  <c:v>0.3876122236251831</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3735940456390381</c:v>
+                  <c:v>0.3717913329601288</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3576964437961578</c:v>
+                  <c:v>0.3559704124927521</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3576964437961578</c:v>
+                  <c:v>0.3559704124927521</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3497476279735565</c:v>
+                  <c:v>0.3480599522590637</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3497476279735565</c:v>
+                  <c:v>0.3480599522590637</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3417988121509552</c:v>
+                  <c:v>0.3401495218276978</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3338499963283539</c:v>
+                  <c:v>0.3322390615940094</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3100035786628723</c:v>
+                  <c:v>0.3085076808929443</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.3100035786628723</c:v>
+                  <c:v>0.3085076808929443</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2941059470176697</c:v>
+                  <c:v>0.29268679022789</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2941059470176697</c:v>
+                  <c:v>0.29268679022789</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2861571609973908</c:v>
+                  <c:v>0.29268679022789</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2702595293521881</c:v>
+                  <c:v>0.2847763299942017</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2543618977069855</c:v>
+                  <c:v>0.2689554393291473</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2305154800415039</c:v>
+                  <c:v>0.2531345188617706</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2305154800415039</c:v>
+                  <c:v>0.2294031530618668</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2225666642189026</c:v>
+                  <c:v>0.2294031530618668</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.198720246553421</c:v>
+                  <c:v>0.1977613419294357</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1828226149082184</c:v>
+                  <c:v>0.1819404363632202</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1828226149082184</c:v>
+                  <c:v>0.1819404363632202</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1589761972427368</c:v>
+                  <c:v>0.1582090705633164</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1589761972427368</c:v>
+                  <c:v>0.1582090705633164</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1589761972427368</c:v>
+                  <c:v>0.1582090705633164</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1510273814201355</c:v>
+                  <c:v>0.1502986252307892</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1510273814201355</c:v>
+                  <c:v>0.1502986252307892</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1192321479320526</c:v>
+                  <c:v>0.1186568066477776</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1112833321094513</c:v>
+                  <c:v>0.1107463538646698</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1033345237374306</c:v>
+                  <c:v>0.102835901081562</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1033345237374306</c:v>
+                  <c:v>0.102835901081562</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1033345237374306</c:v>
+                  <c:v>0.102835901081562</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09538571536540985</c:v>
+                  <c:v>0.09492544084787369</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09538571536540985</c:v>
+                  <c:v>0.09492544084787369</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.07153929024934769</c:v>
+                  <c:v>0.07119408249855042</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.06359047442674637</c:v>
+                  <c:v>0.06328362971544266</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.05564166605472565</c:v>
+                  <c:v>0.0553731769323349</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.04769285768270493</c:v>
+                  <c:v>0.04746272042393684</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.04769285768270493</c:v>
+                  <c:v>0.04746272042393684</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.04769285768270493</c:v>
+                  <c:v>0.04746272042393684</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0397440493106842</c:v>
+                  <c:v>0.03955226764082909</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0397440493106842</c:v>
+                  <c:v>0.03955226764082909</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.03179523721337318</c:v>
+                  <c:v>0.03164181485772133</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.03179523721337318</c:v>
+                  <c:v>0.03164181485772133</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.02384642884135246</c:v>
+                  <c:v>0.02373136021196842</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.02384642884135246</c:v>
+                  <c:v>0.02373136021196842</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.02384642884135246</c:v>
+                  <c:v>0.02373136021196842</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.02384642884135246</c:v>
+                  <c:v>0.02373136021196842</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.01589761860668659</c:v>
+                  <c:v>0.01582090742886066</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.007948809303343296</c:v>
+                  <c:v>0.007910453714430332</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.007948809303343296</c:v>
+                  <c:v>0.007910453714430332</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.007948809303343296</c:v>
+                  <c:v>0.007910453714430332</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.007948809303343296</c:v>
+                  <c:v>0.007910453714430332</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.007948809303343296</c:v>
+                  <c:v>0.007910453714430332</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0</c:v>
@@ -1681,10 +1681,10 @@
         <v>2413</v>
       </c>
       <c r="D3" s="1">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="E3" s="1">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1993,10 +1993,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="E15" s="1">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>12.90886688232422</v>
+        <v>12.84657669067383</v>
       </c>
       <c r="C3" s="1">
         <v>3248</v>
@@ -2253,7 +2253,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>11.35090065002441</v>
+        <v>11.29612827301025</v>
       </c>
       <c r="C4" s="1">
         <v>2856</v>
@@ -2279,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>5.929811954498291</v>
+        <v>5.901198387145996</v>
       </c>
       <c r="C5" s="1">
         <v>1492</v>
@@ -2305,7 +2305,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>5.309804916381836</v>
+        <v>5.284183025360107</v>
       </c>
       <c r="C6" s="1">
         <v>1336</v>
@@ -2331,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>4.069790363311768</v>
+        <v>4.05015230178833</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -2357,7 +2357,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="2">
-        <v>3.871070384979248</v>
+        <v>3.852391004562378</v>
       </c>
       <c r="C8" s="1">
         <v>974</v>
@@ -2383,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>3.406064987182617</v>
+        <v>3.389629364013672</v>
       </c>
       <c r="C9" s="1">
         <v>857</v>
@@ -2409,7 +2409,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>3.402090549468994</v>
+        <v>3.385674238204956</v>
       </c>
       <c r="C10" s="1">
         <v>856</v>
@@ -2435,7 +2435,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>3.227216720581055</v>
+        <v>3.211644172668457</v>
       </c>
       <c r="C11" s="1">
         <v>812</v>
@@ -2461,7 +2461,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2">
-        <v>3.052342891693115</v>
+        <v>3.037614107131958</v>
       </c>
       <c r="C12" s="1">
         <v>768</v>
@@ -2484,19 +2484,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2.392591714859009</v>
+        <v>2.657912492752075</v>
       </c>
       <c r="C13" s="1">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="D13" s="1">
-        <v>2413</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2505,24 +2505,24 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>2413</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>2.313103675842285</v>
+        <v>2.412688255310059</v>
       </c>
       <c r="C14" s="1">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="E14" s="1">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2531,24 +2531,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>2.289257287979126</v>
+        <v>2.301942110061646</v>
       </c>
       <c r="C15" s="1">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D15" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2565,7 +2565,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>1.907714366912842</v>
+        <v>1.898508906364441</v>
       </c>
       <c r="C16" s="1">
         <v>480</v>
@@ -2591,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>1.828226208686829</v>
+        <v>1.819404363632202</v>
       </c>
       <c r="C17" s="1">
         <v>460</v>
@@ -2617,7 +2617,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="2">
-        <v>1.565915465354919</v>
+        <v>1.558359384536743</v>
       </c>
       <c r="C18" s="1">
         <v>394</v>
@@ -2643,7 +2643,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>1.510273814201355</v>
+        <v>1.502986192703247</v>
       </c>
       <c r="C19" s="1">
         <v>380</v>
@@ -2669,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1.398990511894226</v>
+        <v>1.392239809036255</v>
       </c>
       <c r="C20" s="1">
         <v>352</v>
@@ -2695,7 +2695,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="2">
-        <v>1.351297616958618</v>
+        <v>1.34477710723877</v>
       </c>
       <c r="C21" s="1">
         <v>340</v>
@@ -2721,7 +2721,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>1.319502353668213</v>
+        <v>1.313135266304016</v>
       </c>
       <c r="C22" s="1">
         <v>332</v>
@@ -2747,7 +2747,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="2">
-        <v>1.263860702514648</v>
+        <v>1.25776207447052</v>
       </c>
       <c r="C23" s="1">
         <v>318</v>
@@ -2773,7 +2773,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="2">
-        <v>1.247963070869446</v>
+        <v>1.241941213607788</v>
       </c>
       <c r="C24" s="1">
         <v>314</v>
@@ -2799,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="2">
-        <v>1.208219051361084</v>
+        <v>1.202389001846314</v>
       </c>
       <c r="C25" s="1">
         <v>304</v>
@@ -2825,7 +2825,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="2">
-        <v>1.096935749053955</v>
+        <v>1.091642618179321</v>
       </c>
       <c r="C26" s="1">
         <v>276</v>
@@ -2851,7 +2851,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="2">
-        <v>1.06514048576355</v>
+        <v>1.060000777244568</v>
       </c>
       <c r="C27" s="1">
         <v>268</v>
@@ -2877,7 +2877,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="2">
-        <v>1.001549959182739</v>
+        <v>0.9967171549797058</v>
       </c>
       <c r="C28" s="1">
         <v>252</v>
@@ -2903,7 +2903,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="2">
-        <v>0.9856523871421814</v>
+        <v>0.9808962345123291</v>
       </c>
       <c r="C29" s="1">
         <v>248</v>
@@ -2929,7 +2929,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8187273740768433</v>
+        <v>0.8147767186164856</v>
       </c>
       <c r="C30" s="1">
         <v>206</v>
@@ -2955,7 +2955,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7710345387458801</v>
+        <v>0.7673140168190002</v>
       </c>
       <c r="C31" s="1">
         <v>194</v>
@@ -2981,7 +2981,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7312904596328735</v>
+        <v>0.7277617454528809</v>
       </c>
       <c r="C32" s="1">
         <v>184</v>
@@ -3007,7 +3007,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6518024206161499</v>
+        <v>0.6486572027206421</v>
       </c>
       <c r="C33" s="1">
         <v>164</v>
@@ -3033,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6359047889709473</v>
+        <v>0.6328362822532654</v>
       </c>
       <c r="C34" s="1">
         <v>160</v>
@@ -3059,7 +3059,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6200071573257446</v>
+        <v>0.6170153617858887</v>
       </c>
       <c r="C35" s="1">
         <v>156</v>
@@ -3085,7 +3085,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6200071573257446</v>
+        <v>0.6170153617858887</v>
       </c>
       <c r="C36" s="1">
         <v>156</v>
@@ -3111,7 +3111,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="2">
-        <v>0.604109525680542</v>
+        <v>0.6011945009231567</v>
       </c>
       <c r="C37" s="1">
         <v>152</v>
@@ -3137,7 +3137,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="2">
-        <v>0.604109525680542</v>
+        <v>0.6011945009231567</v>
       </c>
       <c r="C38" s="1">
         <v>152</v>
@@ -3163,7 +3163,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="2">
-        <v>0.580263078212738</v>
+        <v>0.5774630904197693</v>
       </c>
       <c r="C39" s="1">
         <v>146</v>
@@ -3189,7 +3189,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5405190587043762</v>
+        <v>0.5379108786582947</v>
       </c>
       <c r="C40" s="1">
         <v>136</v>
@@ -3215,7 +3215,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5325702428817749</v>
+        <v>0.5300003886222839</v>
       </c>
       <c r="C41" s="1">
         <v>134</v>
@@ -3241,7 +3241,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4928261935710907</v>
+        <v>0.4904481172561646</v>
       </c>
       <c r="C42" s="1">
         <v>124</v>
@@ -3267,7 +3267,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4610309600830078</v>
+        <v>0.4588063061237335</v>
       </c>
       <c r="C43" s="1">
         <v>116</v>
@@ -3293,7 +3293,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4133380949497223</v>
+        <v>0.4113436043262482</v>
       </c>
       <c r="C44" s="1">
         <v>104</v>
@@ -3319,7 +3319,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3894916772842407</v>
+        <v>0.3876122236251831</v>
       </c>
       <c r="C45" s="1">
         <v>98</v>
@@ -3345,7 +3345,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3894916772842407</v>
+        <v>0.3876122236251831</v>
       </c>
       <c r="C46" s="1">
         <v>98</v>
@@ -3371,7 +3371,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3735940456390381</v>
+        <v>0.3717913329601288</v>
       </c>
       <c r="C47" s="1">
         <v>94</v>
@@ -3397,7 +3397,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3576964437961578</v>
+        <v>0.3559704124927521</v>
       </c>
       <c r="C48" s="1">
         <v>90</v>
@@ -3423,7 +3423,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3576964437961578</v>
+        <v>0.3559704124927521</v>
       </c>
       <c r="C49" s="1">
         <v>90</v>
@@ -3449,7 +3449,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3497476279735565</v>
+        <v>0.3480599522590637</v>
       </c>
       <c r="C50" s="1">
         <v>88</v>
@@ -3475,7 +3475,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3497476279735565</v>
+        <v>0.3480599522590637</v>
       </c>
       <c r="C51" s="1">
         <v>88</v>
@@ -3501,7 +3501,7 @@
         <v>18</v>
       </c>
       <c r="B52" s="2">
-        <v>0.3417988121509552</v>
+        <v>0.3401495218276978</v>
       </c>
       <c r="C52" s="1">
         <v>86</v>
@@ -3527,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3338499963283539</v>
+        <v>0.3322390615940094</v>
       </c>
       <c r="C53" s="1">
         <v>84</v>
@@ -3553,7 +3553,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="2">
-        <v>0.3100035786628723</v>
+        <v>0.3085076808929443</v>
       </c>
       <c r="C54" s="1">
         <v>78</v>
@@ -3579,7 +3579,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="2">
-        <v>0.3100035786628723</v>
+        <v>0.3085076808929443</v>
       </c>
       <c r="C55" s="1">
         <v>78</v>
@@ -3605,7 +3605,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2941059470176697</v>
+        <v>0.29268679022789</v>
       </c>
       <c r="C56" s="1">
         <v>74</v>
@@ -3631,7 +3631,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2941059470176697</v>
+        <v>0.29268679022789</v>
       </c>
       <c r="C57" s="1">
         <v>74</v>
@@ -3654,25 +3654,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2861571609973908</v>
+        <v>0.29268679022789</v>
       </c>
       <c r="C58" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -3680,19 +3680,19 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2702595293521881</v>
+        <v>0.2847763299942017</v>
       </c>
       <c r="C59" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3706,19 +3706,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2543618977069855</v>
+        <v>0.2689554393291473</v>
       </c>
       <c r="C60" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3732,19 +3732,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.2531345188617706</v>
+      </c>
+      <c r="C61" s="1">
         <v>64</v>
       </c>
-      <c r="B61" s="2">
-        <v>0.2305154800415039</v>
-      </c>
-      <c r="C61" s="1">
-        <v>58</v>
-      </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3758,54 +3758,54 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>0.2305154800415039</v>
+        <v>0.2294031530618668</v>
       </c>
       <c r="C62" s="1">
         <v>58</v>
       </c>
       <c r="D62" s="1">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B63" s="2">
-        <v>0.2225666642189026</v>
+        <v>0.2294031530618668</v>
       </c>
       <c r="C63" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D63" s="1">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="E63" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H63" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3813,7 +3813,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>0.198720246553421</v>
+        <v>0.1977613419294357</v>
       </c>
       <c r="C64" s="1">
         <v>50</v>
@@ -3839,7 +3839,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1828226149082184</v>
+        <v>0.1819404363632202</v>
       </c>
       <c r="C65" s="1">
         <v>46</v>
@@ -3865,7 +3865,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1828226149082184</v>
+        <v>0.1819404363632202</v>
       </c>
       <c r="C66" s="1">
         <v>46</v>
@@ -3891,7 +3891,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1589761972427368</v>
+        <v>0.1582090705633164</v>
       </c>
       <c r="C67" s="1">
         <v>40</v>
@@ -3917,7 +3917,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1589761972427368</v>
+        <v>0.1582090705633164</v>
       </c>
       <c r="C68" s="1">
         <v>40</v>
@@ -3943,7 +3943,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1589761972427368</v>
+        <v>0.1582090705633164</v>
       </c>
       <c r="C69" s="1">
         <v>40</v>
@@ -3969,7 +3969,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1510273814201355</v>
+        <v>0.1502986252307892</v>
       </c>
       <c r="C70" s="1">
         <v>38</v>
@@ -3995,7 +3995,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1510273814201355</v>
+        <v>0.1502986252307892</v>
       </c>
       <c r="C71" s="1">
         <v>38</v>
@@ -4021,7 +4021,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1192321479320526</v>
+        <v>0.1186568066477776</v>
       </c>
       <c r="C72" s="1">
         <v>30</v>
@@ -4047,7 +4047,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1112833321094513</v>
+        <v>0.1107463538646698</v>
       </c>
       <c r="C73" s="1">
         <v>28</v>
@@ -4073,7 +4073,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1033345237374306</v>
+        <v>0.102835901081562</v>
       </c>
       <c r="C74" s="1">
         <v>26</v>
@@ -4099,7 +4099,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1033345237374306</v>
+        <v>0.102835901081562</v>
       </c>
       <c r="C75" s="1">
         <v>26</v>
@@ -4125,7 +4125,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1033345237374306</v>
+        <v>0.102835901081562</v>
       </c>
       <c r="C76" s="1">
         <v>26</v>
@@ -4151,7 +4151,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09538571536540985</v>
+        <v>0.09492544084787369</v>
       </c>
       <c r="C77" s="1">
         <v>24</v>
@@ -4177,7 +4177,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09538571536540985</v>
+        <v>0.09492544084787369</v>
       </c>
       <c r="C78" s="1">
         <v>24</v>
@@ -4203,7 +4203,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.07153929024934769</v>
+        <v>0.07119408249855042</v>
       </c>
       <c r="C79" s="1">
         <v>18</v>
@@ -4229,7 +4229,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.06359047442674637</v>
+        <v>0.06328362971544266</v>
       </c>
       <c r="C80" s="1">
         <v>16</v>
@@ -4255,7 +4255,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.05564166605472565</v>
+        <v>0.0553731769323349</v>
       </c>
       <c r="C81" s="1">
         <v>14</v>
@@ -4281,7 +4281,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.04769285768270493</v>
+        <v>0.04746272042393684</v>
       </c>
       <c r="C82" s="1">
         <v>12</v>
@@ -4307,7 +4307,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.04769285768270493</v>
+        <v>0.04746272042393684</v>
       </c>
       <c r="C83" s="1">
         <v>12</v>
@@ -4333,7 +4333,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.04769285768270493</v>
+        <v>0.04746272042393684</v>
       </c>
       <c r="C84" s="1">
         <v>12</v>
@@ -4359,7 +4359,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.0397440493106842</v>
+        <v>0.03955226764082909</v>
       </c>
       <c r="C85" s="1">
         <v>10</v>
@@ -4385,7 +4385,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.0397440493106842</v>
+        <v>0.03955226764082909</v>
       </c>
       <c r="C86" s="1">
         <v>10</v>
@@ -4411,7 +4411,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="2">
-        <v>0.03179523721337318</v>
+        <v>0.03164181485772133</v>
       </c>
       <c r="C87" s="1">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>0.03179523721337318</v>
+        <v>0.03164181485772133</v>
       </c>
       <c r="C88" s="1">
         <v>8</v>
@@ -4463,7 +4463,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>0.02384642884135246</v>
+        <v>0.02373136021196842</v>
       </c>
       <c r="C89" s="1">
         <v>6</v>
@@ -4489,7 +4489,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>0.02384642884135246</v>
+        <v>0.02373136021196842</v>
       </c>
       <c r="C90" s="1">
         <v>6</v>
@@ -4515,7 +4515,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>0.02384642884135246</v>
+        <v>0.02373136021196842</v>
       </c>
       <c r="C91" s="1">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>0.02384642884135246</v>
+        <v>0.02373136021196842</v>
       </c>
       <c r="C92" s="1">
         <v>6</v>
@@ -4567,7 +4567,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>0.01589761860668659</v>
+        <v>0.01582090742886066</v>
       </c>
       <c r="C93" s="1">
         <v>4</v>
@@ -4593,7 +4593,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>0.007948809303343296</v>
+        <v>0.007910453714430332</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
@@ -4619,7 +4619,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>0.007948809303343296</v>
+        <v>0.007910453714430332</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
@@ -4645,7 +4645,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>0.007948809303343296</v>
+        <v>0.007910453714430332</v>
       </c>
       <c r="C96" s="1">
         <v>2</v>
@@ -4671,7 +4671,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>0.007948809303343296</v>
+        <v>0.007910453714430332</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
@@ -4697,7 +4697,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>0.007948809303343296</v>
+        <v>0.007910453714430332</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t>Software</t>
   </si>
@@ -50,6 +50,9 @@
     <t>tx_initialize_high_level.o</t>
   </si>
   <si>
+    <t>buzzer_callout.o</t>
+  </si>
+  <si>
     <t>appobj.o</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>htu21d.o</t>
   </si>
   <si>
+    <t>buzzer.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal.o</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
     <t>txe_thread_create.o</t>
   </si>
   <si>
+    <t>txe_timer_create.o</t>
+  </si>
+  <si>
     <t>tx_thread_system_suspend.o</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t>tx_thread_system_resume.o</t>
   </si>
   <si>
+    <t>tx_timer_deactivate.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_cortex.o</t>
   </si>
   <si>
@@ -155,10 +167,13 @@
     <t>stm32l4xx_hal_i2c_ex.o</t>
   </si>
   <si>
+    <t>gpio.o</t>
+  </si>
+  <si>
     <t>tx_byte_pool_create.o</t>
   </si>
   <si>
-    <t>gpio.o</t>
+    <t>tx_timer_create.o</t>
   </si>
   <si>
     <t>tx_thread_sleep.o</t>
@@ -212,6 +227,9 @@
     <t>tx_timer_system_deactivate.o</t>
   </si>
   <si>
+    <t>tx_timer_activate.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_msp.o</t>
   </si>
   <si>
@@ -243,6 +261,12 @@
   </si>
   <si>
     <t>tx_time_set.o</t>
+  </si>
+  <si>
+    <t>txe_timer_deactivate.o</t>
+  </si>
+  <si>
+    <t>txe_timer_activate.o</t>
   </si>
   <si>
     <t>tx_time_get.o</t>
@@ -425,9 +449,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$99</c:f>
+              <c:f>ram_percent!$A$3:$A$107</c:f>
               <c:strCache>
-                <c:ptCount val="97"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>appmain.o</c:v>
                 </c:pt>
@@ -459,30 +483,36 @@
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>buzzer_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>appobj.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>applowpowermgr.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>htu21d.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>buzzer.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>rx8900.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>appirqcallout.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="104">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -490,65 +520,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$99</c:f>
+              <c:f>ram_percent!$B$3:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
-                  <c:v>39.96356582641602</c:v>
+                  <c:v>39.5963249206543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.43888664245606</c:v>
+                  <c:v>25.20512008666992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.37562084197998</c:v>
+                  <c:v>14.24351787567139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.340841293334961</c:v>
+                  <c:v>9.2550048828125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.848625421524048</c:v>
+                  <c:v>2.822448253631592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.589930415153503</c:v>
+                  <c:v>1.57532000541687</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.589930415153503</c:v>
+                  <c:v>1.57532000541687</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.391189098358154</c:v>
+                  <c:v>1.378404974937439</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9274594187736511</c:v>
+                  <c:v>0.9189366698265076</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8612123131752014</c:v>
+                  <c:v>0.8532983064651489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5962238907814026</c:v>
+                  <c:v>0.7220216393470764</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2815501689910889</c:v>
+                  <c:v>0.5907449722290039</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2649883925914764</c:v>
+                  <c:v>0.2789629101753235</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1324941962957382</c:v>
+                  <c:v>0.262553334236145</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1324941962957382</c:v>
+                  <c:v>0.1969150006771088</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1324941962957382</c:v>
+                  <c:v>0.1312766671180725</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.06624709814786911</c:v>
+                  <c:v>0.1312766671180725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.06624709814786911</c:v>
-                </c:pt>
-                <c:pt idx="96">
+                  <c:v>0.1312766671180725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.06563833355903626</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.06563833355903626</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -616,9 +652,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$99</c:f>
+              <c:f>flash_percent!$A$3:$A$107</c:f>
               <c:strCache>
-                <c:ptCount val="97"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>stm32l4xx_hal_i2c.o</c:v>
                 </c:pt>
@@ -668,246 +704,270 @@
                   <c:v>txe_thread_create.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>txe_timer_create.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>tx_thread_system_suspend.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>txe_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>dmul.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>tx_timer_thread_entry.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>tx_thread_create.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>txe_event_flags_create.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>tx_event_flags_get.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>tx_thread_schedule.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>tx_thread_system_resume.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>lptim.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
+                  <c:v>tx_timer_deactivate.o</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>tx_timer_interrupt.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>txe_event_flags_get.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>tx_timer_initialize.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>dnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>tx_event_flags_cleanup.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>tx_initialize_low_level.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
+                  <c:v>buzzer_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
+                  <c:v>gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>tx_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>tx_timer_create.o</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>tx_thread_sleep.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
+                  <c:v>buzzer.o</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>tx_thread_time_slice.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>htu21d_callout.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>appirqcallout.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>tx_timer_system_activate.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>rx8900_callout.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>tx_thread_shell_entry.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>tx_event_flags_create.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>app_azure_rtos.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>tx_initialize_kernel_enter.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>stm32l4xx_hal_pwr.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>tx_thread_timeout.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>tx_thread_stack_build.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>tx_timer_system_deactivate.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>tx_thread_initialize.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
+                  <c:v>tx_timer_activate.o</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
                   <c:v>app_threadx.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="70">
                   <c:v>txe_event_flags_set.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>tx_timer_expiration_process.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>appobj.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>dflt_clz.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>tx_thread_system_return.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>stm32l4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>__scatter_copy.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
                   <c:v>tx_time_set.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="80">
+                  <c:v>txe_timer_deactivate.o</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>txe_timer_activate.o</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>tx_time_get.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="83">
                   <c:v>appmodectrl.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="84">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="85">
                   <c:v>aeabi_memset.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="86">
                   <c:v>tx_thread_interrupt_disable.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="87">
                   <c:v>dretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="88">
                   <c:v>sys_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="89">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="90">
                   <c:v>fretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="91">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="92">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="93">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="94">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="95">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="96">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="97">
                   <c:v>tx_thread_interrupt_restore.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="98">
                   <c:v>rx8900_lcfg.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="99">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="100">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="101">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="102">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="103">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="104">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -915,299 +975,323 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$99</c:f>
+              <c:f>flash_percent!$B$3:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
-                  <c:v>12.84657669067383</c:v>
+                  <c:v>12.30070018768311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.29612827301025</c:v>
+                  <c:v>10.81613349914551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.901198387145996</c:v>
+                  <c:v>5.650444984436035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.284183025360107</c:v>
+                  <c:v>5.059647560119629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.05015230178833</c:v>
+                  <c:v>3.878053426742554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.852391004562378</c:v>
+                  <c:v>3.688695430755615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.389629364013672</c:v>
+                  <c:v>3.245597362518311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.385674238204956</c:v>
+                  <c:v>3.241810321807861</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.211644172668457</c:v>
+                  <c:v>3.075175046920776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.037614107131958</c:v>
+                  <c:v>2.969134569168091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.657912492752075</c:v>
+                  <c:v>2.544972658157349</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.412688255310059</c:v>
+                  <c:v>2.401060342788696</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.301942110061646</c:v>
+                  <c:v>2.20412802696228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.898508906364441</c:v>
+                  <c:v>1.817837476730347</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.819404363632202</c:v>
+                  <c:v>1.742094278335571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.558359384536743</c:v>
+                  <c:v>1.492141604423523</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.502986192703247</c:v>
+                  <c:v>1.43912136554718</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.392239809036255</c:v>
+                  <c:v>1.43912136554718</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.34477710723877</c:v>
+                  <c:v>1.333080887794495</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.313135266304016</c:v>
+                  <c:v>1.287634968757629</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.25776207447052</c:v>
+                  <c:v>1.25733757019043</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.241941213607788</c:v>
+                  <c:v>1.204317331314087</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.202389001846314</c:v>
+                  <c:v>1.189168691635132</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.091642618179321</c:v>
+                  <c:v>1.151297092437744</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.060000777244568</c:v>
+                  <c:v>1.045256614685059</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9967171549797058</c:v>
+                  <c:v>1.014959335327148</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9808962345123291</c:v>
+                  <c:v>0.9543647170066834</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8147767186164856</c:v>
+                  <c:v>0.9392160773277283</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7673140168190002</c:v>
+                  <c:v>0.7801553010940552</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7277617454528809</c:v>
+                  <c:v>0.7422836422920227</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6486572027206421</c:v>
+                  <c:v>0.7347093224525452</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6328362822532654</c:v>
+                  <c:v>0.6968377232551575</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6170153617858887</c:v>
+                  <c:v>0.6210944652557373</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6170153617858887</c:v>
+                  <c:v>0.6059458255767822</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6011945009231567</c:v>
+                  <c:v>0.5907971858978272</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6011945009231567</c:v>
+                  <c:v>0.5907971858978272</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5774630904197693</c:v>
+                  <c:v>0.5756485462188721</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5379108786582947</c:v>
+                  <c:v>0.5756485462188721</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5300003886222839</c:v>
+                  <c:v>0.5680742263793945</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4904481172561646</c:v>
+                  <c:v>0.5529255867004395</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4588063061237335</c:v>
+                  <c:v>0.5226283073425293</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4113436043262482</c:v>
+                  <c:v>0.5150539875030518</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3876122236251831</c:v>
+                  <c:v>0.4771823585033417</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3876122236251831</c:v>
+                  <c:v>0.4696080386638641</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3717913329601288</c:v>
+                  <c:v>0.4696080386638641</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3559704124927521</c:v>
+                  <c:v>0.4393107295036316</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3559704124927521</c:v>
+                  <c:v>0.3938648104667664</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3480599522590637</c:v>
+                  <c:v>0.3711418211460114</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3480599522590637</c:v>
+                  <c:v>0.3711418211460114</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3401495218276978</c:v>
+                  <c:v>0.3559931814670563</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3322390615940094</c:v>
+                  <c:v>0.3408445417881012</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3085076808929443</c:v>
+                  <c:v>0.3408445417881012</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.3085076808929443</c:v>
+                  <c:v>0.3332702219486237</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.29268679022789</c:v>
+                  <c:v>0.3332702219486237</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.29268679022789</c:v>
+                  <c:v>0.3256959021091461</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.29268679022789</c:v>
+                  <c:v>0.3181215822696686</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2847763299942017</c:v>
+                  <c:v>0.2953985929489136</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2689554393291473</c:v>
+                  <c:v>0.2953985929489136</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2531345188617706</c:v>
+                  <c:v>0.2802499532699585</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2294031530618668</c:v>
+                  <c:v>0.2802499532699585</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2294031530618668</c:v>
+                  <c:v>0.2802499532699585</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1977613419294357</c:v>
+                  <c:v>0.272675633430481</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1819404363632202</c:v>
+                  <c:v>0.2575269937515259</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1819404363632202</c:v>
+                  <c:v>0.2423783391714096</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1582090705633164</c:v>
+                  <c:v>0.2196553647518158</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1582090705633164</c:v>
+                  <c:v>0.2196553647518158</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1582090705633164</c:v>
+                  <c:v>0.2045067250728607</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1502986252307892</c:v>
+                  <c:v>0.1893580704927445</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1502986252307892</c:v>
+                  <c:v>0.1742094308137894</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1186568066477776</c:v>
+                  <c:v>0.1742094308137894</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1107463538646698</c:v>
+                  <c:v>0.1514864563941956</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.102835901081562</c:v>
+                  <c:v>0.1514864563941956</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.102835901081562</c:v>
+                  <c:v>0.1514864563941956</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.102835901081562</c:v>
+                  <c:v>0.143912136554718</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09492544084787369</c:v>
+                  <c:v>0.143912136554718</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09492544084787369</c:v>
+                  <c:v>0.1136148422956467</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.07119408249855042</c:v>
+                  <c:v>0.1060405224561691</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.06328362971544266</c:v>
+                  <c:v>0.09846620261669159</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0553731769323349</c:v>
+                  <c:v>0.09846620261669159</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.04746272042393684</c:v>
+                  <c:v>0.09846620261669159</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.04746272042393684</c:v>
+                  <c:v>0.09089187532663345</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.04746272042393684</c:v>
+                  <c:v>0.09089187532663345</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.03955226764082909</c:v>
+                  <c:v>0.09089187532663345</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.03955226764082909</c:v>
+                  <c:v>0.09089187532663345</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.03164181485772133</c:v>
+                  <c:v>0.06816890835762024</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.03164181485772133</c:v>
+                  <c:v>0.0605945847928524</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.02373136021196842</c:v>
+                  <c:v>0.05302026122808456</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.02373136021196842</c:v>
+                  <c:v>0.04544593766331673</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.02373136021196842</c:v>
+                  <c:v>0.04544593766331673</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.02373136021196842</c:v>
+                  <c:v>0.04544593766331673</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.01582090742886066</c:v>
+                  <c:v>0.03787161409854889</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.007910453714430332</c:v>
+                  <c:v>0.03787161409854889</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.007910453714430332</c:v>
+                  <c:v>0.0302972923964262</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.007910453714430332</c:v>
+                  <c:v>0.0302972923964262</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.007910453714430332</c:v>
+                  <c:v>0.02272296883165836</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.007910453714430332</c:v>
+                  <c:v>0.02272296883165836</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>0.02272296883165836</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.02272296883165836</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0151486461982131</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.00757432309910655</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.00757432309910655</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.00757432309910655</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.00757432309910655</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.00757432309910655</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1312,8 +1396,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H99" totalsRowCount="1">
-  <autoFilter ref="A2:H98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H107" totalsRowCount="1">
+  <autoFilter ref="A2:H106"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1329,8 +1413,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H99" totalsRowCount="1">
-  <autoFilter ref="A2:H98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H107" totalsRowCount="1">
+  <autoFilter ref="A2:H106"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1630,7 +1714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1646,28 +1730,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1675,16 +1759,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>39.96356582641602</v>
+        <v>39.5963249206543</v>
       </c>
       <c r="C3" s="1">
         <v>2413</v>
       </c>
       <c r="D3" s="1">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="E3" s="1">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1701,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.43888664245606</v>
+        <v>25.20512008666992</v>
       </c>
       <c r="C4" s="1">
         <v>1536</v>
@@ -1727,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>14.37562084197998</v>
+        <v>14.24351787567139</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
@@ -1753,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.340841293334961</v>
+        <v>9.2550048828125</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
@@ -1779,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>2.848625421524048</v>
+        <v>2.822448253631592</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
@@ -1805,7 +1889,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.589930415153503</v>
+        <v>1.57532000541687</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1831,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.589930415153503</v>
+        <v>1.57532000541687</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1857,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.391189098358154</v>
+        <v>1.378404974937439</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
@@ -1883,7 +1967,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.9274594187736511</v>
+        <v>0.9189366698265076</v>
       </c>
       <c r="C11" s="1">
         <v>56</v>
@@ -1909,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.8612123131752014</v>
+        <v>0.8532983064651489</v>
       </c>
       <c r="C12" s="1">
         <v>52</v>
@@ -1935,16 +2019,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.5962238907814026</v>
+        <v>0.7220216393470764</v>
       </c>
       <c r="C13" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="E13" s="1">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1953,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1961,25 +2045,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.2815501689910889</v>
+        <v>0.5907449722290039</v>
       </c>
       <c r="C14" s="1">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1">
-        <v>857</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>856</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1987,22 +2071,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.2649883925914764</v>
+        <v>0.2789629101753235</v>
       </c>
       <c r="C15" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
-        <v>672</v>
+        <v>857</v>
       </c>
       <c r="E15" s="1">
-        <v>672</v>
+        <v>856</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>16</v>
@@ -2013,25 +2097,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.1324941962957382</v>
+        <v>0.262553334236145</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>74</v>
+        <v>672</v>
       </c>
       <c r="E16" s="1">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2039,25 +2123,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1324941962957382</v>
+        <v>0.1969150006771088</v>
       </c>
       <c r="C17" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
-        <v>1024</v>
+        <v>124</v>
       </c>
       <c r="E17" s="1">
-        <v>1024</v>
+        <v>112</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2065,25 +2149,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.1324941962957382</v>
+        <v>0.1312766671180725</v>
       </c>
       <c r="C18" s="1">
         <v>8</v>
       </c>
       <c r="D18" s="1">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H18" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2091,16 +2175,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.06624709814786911</v>
+        <v>0.1312766671180725</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1">
-        <v>856</v>
+        <v>1024</v>
       </c>
       <c r="E19" s="1">
-        <v>856</v>
+        <v>1024</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2109,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2117,56 +2201,108 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.06624709814786911</v>
+        <v>0.1312766671180725</v>
       </c>
       <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>98</v>
+      </c>
+      <c r="E20" s="1">
+        <v>98</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.06563833355903626</v>
+      </c>
+      <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
+        <v>856</v>
+      </c>
+      <c r="E21" s="1">
+        <v>856</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.06563833355903626</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
         <v>86</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E22" s="1">
         <v>18</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F22" s="1">
         <v>64</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="1">
         <v>4</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C99">
+      <c r="C107">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D99">
+      <c r="D107">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E99">
+      <c r="E107">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F99">
+      <c r="F107">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G99">
+      <c r="G107">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H99">
+      <c r="H107">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2182,7 +2318,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2198,36 +2334,36 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>12.84657669067383</v>
+        <v>12.30070018768311</v>
       </c>
       <c r="C3" s="1">
         <v>3248</v>
@@ -2250,10 +2386,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>11.29612827301025</v>
+        <v>10.81613349914551</v>
       </c>
       <c r="C4" s="1">
         <v>2856</v>
@@ -2276,10 +2412,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>5.901198387145996</v>
+        <v>5.650444984436035</v>
       </c>
       <c r="C5" s="1">
         <v>1492</v>
@@ -2302,10 +2438,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>5.284183025360107</v>
+        <v>5.059647560119629</v>
       </c>
       <c r="C6" s="1">
         <v>1336</v>
@@ -2328,10 +2464,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>4.05015230178833</v>
+        <v>3.878053426742554</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -2354,10 +2490,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
-        <v>3.852391004562378</v>
+        <v>3.688695430755615</v>
       </c>
       <c r="C8" s="1">
         <v>974</v>
@@ -2380,10 +2516,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>3.389629364013672</v>
+        <v>3.245597362518311</v>
       </c>
       <c r="C9" s="1">
         <v>857</v>
@@ -2406,10 +2542,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>3.385674238204956</v>
+        <v>3.241810321807861</v>
       </c>
       <c r="C10" s="1">
         <v>856</v>
@@ -2432,10 +2568,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
-        <v>3.211644172668457</v>
+        <v>3.075175046920776</v>
       </c>
       <c r="C11" s="1">
         <v>812</v>
@@ -2458,19 +2594,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>3.037614107131958</v>
+        <v>2.969134569168091</v>
       </c>
       <c r="C12" s="1">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2484,10 +2620,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>2.657912492752075</v>
+        <v>2.544972658157349</v>
       </c>
       <c r="C13" s="1">
         <v>672</v>
@@ -2513,16 +2649,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>2.412688255310059</v>
+        <v>2.401060342788696</v>
       </c>
       <c r="C14" s="1">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="D14" s="1">
         <v>2413</v>
       </c>
       <c r="E14" s="1">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2536,10 +2672,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
-        <v>2.301942110061646</v>
+        <v>2.20412802696228</v>
       </c>
       <c r="C15" s="1">
         <v>582</v>
@@ -2565,7 +2701,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>1.898508906364441</v>
+        <v>1.817837476730347</v>
       </c>
       <c r="C16" s="1">
         <v>480</v>
@@ -2591,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>1.819404363632202</v>
+        <v>1.742094278335571</v>
       </c>
       <c r="C17" s="1">
         <v>460</v>
@@ -2614,10 +2750,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>1.558359384536743</v>
+        <v>1.492141604423523</v>
       </c>
       <c r="C18" s="1">
         <v>394</v>
@@ -2640,10 +2776,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>1.502986192703247</v>
+        <v>1.43912136554718</v>
       </c>
       <c r="C19" s="1">
         <v>380</v>
@@ -2666,19 +2802,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>1.392239809036255</v>
+        <v>1.43912136554718</v>
       </c>
       <c r="C20" s="1">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2692,19 +2828,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>1.34477710723877</v>
+        <v>1.333080887794495</v>
       </c>
       <c r="C21" s="1">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2718,19 +2854,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2">
-        <v>1.313135266304016</v>
+        <v>1.287634968757629</v>
       </c>
       <c r="C22" s="1">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2744,19 +2880,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>1.25776207447052</v>
+        <v>1.25733757019043</v>
       </c>
       <c r="C23" s="1">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2770,19 +2906,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
-        <v>1.241941213607788</v>
+        <v>1.204317331314087</v>
       </c>
       <c r="C24" s="1">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2796,19 +2932,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>1.202389001846314</v>
+        <v>1.189168691635132</v>
       </c>
       <c r="C25" s="1">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D25" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2817,24 +2953,24 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2">
-        <v>1.091642618179321</v>
+        <v>1.151297092437744</v>
       </c>
       <c r="C26" s="1">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2843,24 +2979,24 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>1.060000777244568</v>
+        <v>1.045256614685059</v>
       </c>
       <c r="C27" s="1">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2874,19 +3010,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>0.9967171549797058</v>
+        <v>1.014959335327148</v>
       </c>
       <c r="C28" s="1">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2900,19 +3036,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>0.9808962345123291</v>
+        <v>0.9543647170066834</v>
       </c>
       <c r="C29" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2926,19 +3062,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8147767186164856</v>
+        <v>0.9392160773277283</v>
       </c>
       <c r="C30" s="1">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D30" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2947,24 +3083,24 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7673140168190002</v>
+        <v>0.7801553010940552</v>
       </c>
       <c r="C31" s="1">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E31" s="1">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2973,24 +3109,24 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7277617454528809</v>
+        <v>0.7422836422920227</v>
       </c>
       <c r="C32" s="1">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3004,19 +3140,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6486572027206421</v>
+        <v>0.7347093224525452</v>
       </c>
       <c r="C33" s="1">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -3030,19 +3166,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6328362822532654</v>
+        <v>0.6968377232551575</v>
       </c>
       <c r="C34" s="1">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D34" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3051,24 +3187,24 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6170153617858887</v>
+        <v>0.6210944652557373</v>
       </c>
       <c r="C35" s="1">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3082,19 +3218,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6170153617858887</v>
+        <v>0.6059458255767822</v>
       </c>
       <c r="C36" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="E36" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3103,24 +3239,24 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6011945009231567</v>
+        <v>0.5907971858978272</v>
       </c>
       <c r="C37" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3134,19 +3270,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2">
-        <v>0.6011945009231567</v>
+        <v>0.5907971858978272</v>
       </c>
       <c r="C38" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3160,19 +3296,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5774630904197693</v>
+        <v>0.5756485462188721</v>
       </c>
       <c r="C39" s="1">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3186,19 +3322,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5379108786582947</v>
+        <v>0.5756485462188721</v>
       </c>
       <c r="C40" s="1">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3212,19 +3348,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5300003886222839</v>
+        <v>0.5680742263793945</v>
       </c>
       <c r="C41" s="1">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E41" s="1">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -3233,24 +3369,24 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4904481172561646</v>
+        <v>0.5529255867004395</v>
       </c>
       <c r="C42" s="1">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3264,19 +3400,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4588063061237335</v>
+        <v>0.5226283073425293</v>
       </c>
       <c r="C43" s="1">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3290,19 +3426,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4113436043262482</v>
+        <v>0.5150539875030518</v>
       </c>
       <c r="C44" s="1">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3316,19 +3452,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3876122236251831</v>
+        <v>0.4771823585033417</v>
       </c>
       <c r="C45" s="1">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3342,19 +3478,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3876122236251831</v>
+        <v>0.4696080386638641</v>
       </c>
       <c r="C46" s="1">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D46" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3363,30 +3499,30 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3717913329601288</v>
+        <v>0.4696080386638641</v>
       </c>
       <c r="C47" s="1">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3394,19 +3530,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3559704124927521</v>
+        <v>0.4393107295036316</v>
       </c>
       <c r="C48" s="1">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3420,19 +3556,19 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3559704124927521</v>
+        <v>0.3938648104667664</v>
       </c>
       <c r="C49" s="1">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3446,19 +3582,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3480599522590637</v>
+        <v>0.3711418211460114</v>
       </c>
       <c r="C50" s="1">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3472,19 +3608,19 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3480599522590637</v>
+        <v>0.3711418211460114</v>
       </c>
       <c r="C51" s="1">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3493,30 +3629,30 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>0.3401495218276978</v>
+        <v>0.3559931814670563</v>
       </c>
       <c r="C52" s="1">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D52" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="F52" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -3524,19 +3660,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3322390615940094</v>
+        <v>0.3408445417881012</v>
       </c>
       <c r="C53" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D53" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3545,24 +3681,24 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2">
-        <v>0.3085076808929443</v>
+        <v>0.3408445417881012</v>
       </c>
       <c r="C54" s="1">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3576,19 +3712,19 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2">
-        <v>0.3085076808929443</v>
+        <v>0.3332702219486237</v>
       </c>
       <c r="C55" s="1">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3602,19 +3738,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2">
-        <v>0.29268679022789</v>
+        <v>0.3332702219486237</v>
       </c>
       <c r="C56" s="1">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3628,25 +3764,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B57" s="2">
-        <v>0.29268679022789</v>
+        <v>0.3256959021091461</v>
       </c>
       <c r="C57" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -3654,45 +3790,45 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>0.29268679022789</v>
+        <v>0.3181215822696686</v>
       </c>
       <c r="C58" s="1">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D58" s="1">
-        <v>8</v>
+        <v>564</v>
       </c>
       <c r="E58" s="1">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2847763299942017</v>
+        <v>0.2953985929489136</v>
       </c>
       <c r="C59" s="1">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3706,19 +3842,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2689554393291473</v>
+        <v>0.2953985929489136</v>
       </c>
       <c r="C60" s="1">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3732,19 +3868,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2">
-        <v>0.2531345188617706</v>
+        <v>0.2802499532699585</v>
       </c>
       <c r="C61" s="1">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3758,19 +3894,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" s="2">
-        <v>0.2294031530618668</v>
+        <v>0.2802499532699585</v>
       </c>
       <c r="C62" s="1">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3784,45 +3920,45 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B63" s="2">
-        <v>0.2294031530618668</v>
+        <v>0.2802499532699585</v>
       </c>
       <c r="C63" s="1">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D63" s="1">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="E63" s="1">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H63" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1977613419294357</v>
+        <v>0.272675633430481</v>
       </c>
       <c r="C64" s="1">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3836,19 +3972,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1819404363632202</v>
+        <v>0.2575269937515259</v>
       </c>
       <c r="C65" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D65" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3857,24 +3993,24 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1819404363632202</v>
+        <v>0.2423783391714096</v>
       </c>
       <c r="C66" s="1">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3888,19 +4024,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1582090705633164</v>
+        <v>0.2196553647518158</v>
       </c>
       <c r="C67" s="1">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -3914,45 +4050,45 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1582090705633164</v>
+        <v>0.2196553647518158</v>
       </c>
       <c r="C68" s="1">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E68" s="1">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H68" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1582090705633164</v>
+        <v>0.2045067250728607</v>
       </c>
       <c r="C69" s="1">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D69" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3961,24 +4097,24 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1502986252307892</v>
+        <v>0.1893580704927445</v>
       </c>
       <c r="C70" s="1">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -3992,19 +4128,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1502986252307892</v>
+        <v>0.1742094308137894</v>
       </c>
       <c r="C71" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E71" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4013,24 +4149,24 @@
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1186568066477776</v>
+        <v>0.1742094308137894</v>
       </c>
       <c r="C72" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4044,19 +4180,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1107463538646698</v>
+        <v>0.1514864563941956</v>
       </c>
       <c r="C73" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4070,19 +4206,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.102835901081562</v>
+        <v>0.1514864563941956</v>
       </c>
       <c r="C74" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4096,19 +4232,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B75" s="2">
-        <v>0.102835901081562</v>
+        <v>0.1514864563941956</v>
       </c>
       <c r="C75" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E75" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4117,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4125,16 +4261,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.102835901081562</v>
+        <v>0.143912136554718</v>
       </c>
       <c r="C76" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4151,16 +4287,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09492544084787369</v>
+        <v>0.143912136554718</v>
       </c>
       <c r="C77" s="1">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4177,16 +4313,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09492544084787369</v>
+        <v>0.1136148422956467</v>
       </c>
       <c r="C78" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4203,16 +4339,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.07119408249855042</v>
+        <v>0.1060405224561691</v>
       </c>
       <c r="C79" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4229,16 +4365,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.06328362971544266</v>
+        <v>0.09846620261669159</v>
       </c>
       <c r="C80" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4255,16 +4391,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.0553731769323349</v>
+        <v>0.09846620261669159</v>
       </c>
       <c r="C81" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4281,16 +4417,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.04746272042393684</v>
+        <v>0.09846620261669159</v>
       </c>
       <c r="C82" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4307,16 +4443,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.04746272042393684</v>
+        <v>0.09089187532663345</v>
       </c>
       <c r="C83" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4333,16 +4469,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.04746272042393684</v>
+        <v>0.09089187532663345</v>
       </c>
       <c r="C84" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4359,16 +4495,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.03955226764082909</v>
+        <v>0.09089187532663345</v>
       </c>
       <c r="C85" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4385,16 +4521,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.03955226764082909</v>
+        <v>0.09089187532663345</v>
       </c>
       <c r="C86" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4408,19 +4544,19 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.03164181485772133</v>
+        <v>0.06816890835762024</v>
       </c>
       <c r="C87" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D87" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -4429,24 +4565,24 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.03164181485772133</v>
+        <v>0.0605945847928524</v>
       </c>
       <c r="C88" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -4460,19 +4596,19 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.02373136021196842</v>
+        <v>0.05302026122808456</v>
       </c>
       <c r="C89" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -4486,19 +4622,19 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.02373136021196842</v>
+        <v>0.04544593766331673</v>
       </c>
       <c r="C90" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -4512,19 +4648,19 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.02373136021196842</v>
+        <v>0.04544593766331673</v>
       </c>
       <c r="C91" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -4538,19 +4674,19 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.02373136021196842</v>
+        <v>0.04544593766331673</v>
       </c>
       <c r="C92" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -4564,22 +4700,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.01582090742886066</v>
+        <v>0.03787161409854889</v>
       </c>
       <c r="C93" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F93" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G93" s="1">
         <v>0</v>
@@ -4590,19 +4726,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.007910453714430332</v>
+        <v>0.03787161409854889</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -4616,19 +4752,19 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="B95" s="2">
-        <v>0.007910453714430332</v>
+        <v>0.0302972923964262</v>
       </c>
       <c r="C95" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E95" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -4637,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4645,16 +4781,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>0.007910453714430332</v>
+        <v>0.0302972923964262</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -4671,16 +4807,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>0.007910453714430332</v>
+        <v>0.02272296883165836</v>
       </c>
       <c r="C97" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -4697,56 +4833,264 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>0.007910453714430332</v>
+        <v>0.02272296883165836</v>
       </c>
       <c r="C98" s="1">
+        <v>6</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>6</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.02272296883165836</v>
+      </c>
+      <c r="C99" s="1">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>6</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.02272296883165836</v>
+      </c>
+      <c r="C100" s="1">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>6</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.0151486461982131</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>4</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.00757432309910655</v>
+      </c>
+      <c r="C102" s="1">
         <v>2</v>
       </c>
-      <c r="D98" s="1">
-        <v>0</v>
-      </c>
-      <c r="E98" s="1">
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
         <v>2</v>
       </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.00757432309910655</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.00757432309910655</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.00757432309910655</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.00757432309910655</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C99">
+      <c r="C107">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D99">
+      <c r="D107">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E99">
+      <c r="E107">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F99">
+      <c r="F107">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G99">
+      <c r="G107">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H99">
+      <c r="H107">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -776,19 +776,19 @@
                   <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>buzzer.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>tx_byte_pool_create.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>tx_timer_create.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>tx_thread_sleep.o</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>buzzer.o</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>tx_thread_time_slice.o</c:v>
@@ -980,316 +980,316 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="105"/>
                 <c:pt idx="0">
-                  <c:v>12.30070018768311</c:v>
+                  <c:v>12.28767108917236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.81613349914551</c:v>
+                  <c:v>10.8046760559082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.650444984436035</c:v>
+                  <c:v>5.64445972442627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.059647560119629</c:v>
+                  <c:v>5.054288387298584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.878053426742554</c:v>
+                  <c:v>3.873945474624634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.688695430755615</c:v>
+                  <c:v>3.68478798866272</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.245597362518311</c:v>
+                  <c:v>3.242159366607666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.241810321807861</c:v>
+                  <c:v>3.238376379013062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.075175046920776</c:v>
+                  <c:v>3.071917772293091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.969134569168091</c:v>
+                  <c:v>2.965989589691162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.544972658157349</c:v>
+                  <c:v>2.542276620864868</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.401060342788696</c:v>
+                  <c:v>2.43634843826294</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.20412802696228</c:v>
+                  <c:v>2.201793193817139</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.817837476730347</c:v>
+                  <c:v>1.815911889076233</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.742094278335571</c:v>
+                  <c:v>1.740248918533325</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.492141604423523</c:v>
+                  <c:v>1.490561008453369</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.43912136554718</c:v>
+                  <c:v>1.437596917152405</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.43912136554718</c:v>
+                  <c:v>1.437596917152405</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.333080887794495</c:v>
+                  <c:v>1.331668734550476</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.287634968757629</c:v>
+                  <c:v>1.286270976066589</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.25733757019043</c:v>
+                  <c:v>1.256005764007568</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.204317331314087</c:v>
+                  <c:v>1.203041672706604</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.189168691635132</c:v>
+                  <c:v>1.187909007072449</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.151297092437744</c:v>
+                  <c:v>1.15007758140564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.045256614685059</c:v>
+                  <c:v>1.044149398803711</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.014959335327148</c:v>
+                  <c:v>1.01388418674469</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9543647170066834</c:v>
+                  <c:v>0.953353762626648</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9392160773277283</c:v>
+                  <c:v>0.9382211565971375</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7801553010940552</c:v>
+                  <c:v>0.7793288826942444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7422836422920227</c:v>
+                  <c:v>0.7414973974227905</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7347093224525452</c:v>
+                  <c:v>0.7339310646057129</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6968377232551575</c:v>
+                  <c:v>0.696099579334259</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6210944652557373</c:v>
+                  <c:v>0.6204365491867065</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6059458255767822</c:v>
+                  <c:v>0.6053040027618408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5907971858978272</c:v>
+                  <c:v>0.5901713967323303</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5907971858978272</c:v>
+                  <c:v>0.5901713967323303</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5756485462188721</c:v>
+                  <c:v>0.5750387907028198</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5756485462188721</c:v>
+                  <c:v>0.5750387907028198</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5680742263793945</c:v>
+                  <c:v>0.5674724578857422</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5529255867004395</c:v>
+                  <c:v>0.5523398518562317</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.5226283073425293</c:v>
+                  <c:v>0.537207305431366</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5150539875030518</c:v>
+                  <c:v>0.5220746994018555</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.4771823585033417</c:v>
+                  <c:v>0.5145083665847778</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.4696080386638641</c:v>
+                  <c:v>0.476676881313324</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.4696080386638641</c:v>
+                  <c:v>0.4691105782985687</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.4393107295036316</c:v>
+                  <c:v>0.4388453960418701</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3938648104667664</c:v>
+                  <c:v>0.3934475779533386</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3711418211460114</c:v>
+                  <c:v>0.3707486987113953</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3711418211460114</c:v>
+                  <c:v>0.3707486987113953</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3559931814670563</c:v>
+                  <c:v>0.3556160926818848</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3408445417881012</c:v>
+                  <c:v>0.3404834866523743</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3408445417881012</c:v>
+                  <c:v>0.3404834866523743</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.3332702219486237</c:v>
+                  <c:v>0.332917183637619</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.3332702219486237</c:v>
+                  <c:v>0.332917183637619</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.3256959021091461</c:v>
+                  <c:v>0.3253508806228638</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.3181215822696686</c:v>
+                  <c:v>0.3177845776081085</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2953985929489136</c:v>
+                  <c:v>0.2950856983661652</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2953985929489136</c:v>
+                  <c:v>0.2950856983661652</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2802499532699585</c:v>
+                  <c:v>0.2799530923366547</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2802499532699585</c:v>
+                  <c:v>0.2799530923366547</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2802499532699585</c:v>
+                  <c:v>0.2799530923366547</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.272675633430481</c:v>
+                  <c:v>0.2723867893218994</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.2575269937515259</c:v>
+                  <c:v>0.2572541832923889</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.2423783391714096</c:v>
+                  <c:v>0.2421215921640396</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.2196553647518158</c:v>
+                  <c:v>0.2194226980209351</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.2196553647518158</c:v>
+                  <c:v>0.2194226980209351</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.2045067250728607</c:v>
+                  <c:v>0.2042900919914246</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1893580704927445</c:v>
+                  <c:v>0.1891574859619141</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1742094308137894</c:v>
+                  <c:v>0.1740248948335648</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1742094308137894</c:v>
+                  <c:v>0.1740248948335648</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1514864563941956</c:v>
+                  <c:v>0.1513260006904602</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1514864563941956</c:v>
+                  <c:v>0.1513260006904602</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1514864563941956</c:v>
+                  <c:v>0.1513260006904602</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.143912136554718</c:v>
+                  <c:v>0.143759697675705</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.143912136554718</c:v>
+                  <c:v>0.143759697675705</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1136148422956467</c:v>
+                  <c:v>0.1134944930672646</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1060405224561691</c:v>
+                  <c:v>0.1059281975030899</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.09846620261669159</c:v>
+                  <c:v>0.09836189448833466</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.09846620261669159</c:v>
+                  <c:v>0.09836189448833466</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.09846620261669159</c:v>
+                  <c:v>0.09836189448833466</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.09089187532663345</c:v>
+                  <c:v>0.09079559892416</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.09089187532663345</c:v>
+                  <c:v>0.09079559892416</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.09089187532663345</c:v>
+                  <c:v>0.09079559892416</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.09089187532663345</c:v>
+                  <c:v>0.09079559892416</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.06816890835762024</c:v>
+                  <c:v>0.06809669733047485</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0605945847928524</c:v>
+                  <c:v>0.0605303980410099</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.05302026122808456</c:v>
+                  <c:v>0.05296409875154495</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.04544593766331673</c:v>
+                  <c:v>0.04539779946208</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.04544593766331673</c:v>
+                  <c:v>0.04539779946208</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.04544593766331673</c:v>
+                  <c:v>0.04539779946208</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03787161409854889</c:v>
+                  <c:v>0.03783150017261505</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.03787161409854889</c:v>
+                  <c:v>0.03783150017261505</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0302972923964262</c:v>
+                  <c:v>0.03026519902050495</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0302972923964262</c:v>
+                  <c:v>0.03026519902050495</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.02272296883165836</c:v>
+                  <c:v>0.02269889973104</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.02272296883165836</c:v>
+                  <c:v>0.02269889973104</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.02272296883165836</c:v>
+                  <c:v>0.02269889973104</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.02272296883165836</c:v>
+                  <c:v>0.02269889973104</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0151486461982131</c:v>
+                  <c:v>0.01513259951025248</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.00757432309910655</c:v>
+                  <c:v>0.007566299755126238</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.00757432309910655</c:v>
+                  <c:v>0.007566299755126238</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.00757432309910655</c:v>
+                  <c:v>0.007566299755126238</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.00757432309910655</c:v>
+                  <c:v>0.007566299755126238</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.00757432309910655</c:v>
+                  <c:v>0.007566299755126238</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>0</c:v>
@@ -1765,10 +1765,10 @@
         <v>2413</v>
       </c>
       <c r="D3" s="1">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="E3" s="1">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="1">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E17" s="1">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>12.30070018768311</v>
+        <v>12.28767108917236</v>
       </c>
       <c r="C3" s="1">
         <v>3248</v>
@@ -2389,7 +2389,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>10.81613349914551</v>
+        <v>10.8046760559082</v>
       </c>
       <c r="C4" s="1">
         <v>2856</v>
@@ -2415,7 +2415,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>5.650444984436035</v>
+        <v>5.64445972442627</v>
       </c>
       <c r="C5" s="1">
         <v>1492</v>
@@ -2441,7 +2441,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>5.059647560119629</v>
+        <v>5.054288387298584</v>
       </c>
       <c r="C6" s="1">
         <v>1336</v>
@@ -2467,7 +2467,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>3.878053426742554</v>
+        <v>3.873945474624634</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -2493,7 +2493,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="2">
-        <v>3.688695430755615</v>
+        <v>3.68478798866272</v>
       </c>
       <c r="C8" s="1">
         <v>974</v>
@@ -2519,7 +2519,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>3.245597362518311</v>
+        <v>3.242159366607666</v>
       </c>
       <c r="C9" s="1">
         <v>857</v>
@@ -2545,7 +2545,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>3.241810321807861</v>
+        <v>3.238376379013062</v>
       </c>
       <c r="C10" s="1">
         <v>856</v>
@@ -2571,7 +2571,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="2">
-        <v>3.075175046920776</v>
+        <v>3.071917772293091</v>
       </c>
       <c r="C11" s="1">
         <v>812</v>
@@ -2597,7 +2597,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>2.969134569168091</v>
+        <v>2.965989589691162</v>
       </c>
       <c r="C12" s="1">
         <v>784</v>
@@ -2623,7 +2623,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>2.544972658157349</v>
+        <v>2.542276620864868</v>
       </c>
       <c r="C13" s="1">
         <v>672</v>
@@ -2649,16 +2649,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>2.401060342788696</v>
+        <v>2.43634843826294</v>
       </c>
       <c r="C14" s="1">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="D14" s="1">
         <v>2413</v>
       </c>
       <c r="E14" s="1">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2">
-        <v>2.20412802696228</v>
+        <v>2.201793193817139</v>
       </c>
       <c r="C15" s="1">
         <v>582</v>
@@ -2701,7 +2701,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>1.817837476730347</v>
+        <v>1.815911889076233</v>
       </c>
       <c r="C16" s="1">
         <v>480</v>
@@ -2727,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>1.742094278335571</v>
+        <v>1.740248918533325</v>
       </c>
       <c r="C17" s="1">
         <v>460</v>
@@ -2753,7 +2753,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>1.492141604423523</v>
+        <v>1.490561008453369</v>
       </c>
       <c r="C18" s="1">
         <v>394</v>
@@ -2779,7 +2779,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>1.43912136554718</v>
+        <v>1.437596917152405</v>
       </c>
       <c r="C19" s="1">
         <v>380</v>
@@ -2805,7 +2805,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>1.43912136554718</v>
+        <v>1.437596917152405</v>
       </c>
       <c r="C20" s="1">
         <v>380</v>
@@ -2831,7 +2831,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>1.333080887794495</v>
+        <v>1.331668734550476</v>
       </c>
       <c r="C21" s="1">
         <v>352</v>
@@ -2857,7 +2857,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="2">
-        <v>1.287634968757629</v>
+        <v>1.286270976066589</v>
       </c>
       <c r="C22" s="1">
         <v>340</v>
@@ -2883,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>1.25733757019043</v>
+        <v>1.256005764007568</v>
       </c>
       <c r="C23" s="1">
         <v>332</v>
@@ -2909,7 +2909,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="2">
-        <v>1.204317331314087</v>
+        <v>1.203041672706604</v>
       </c>
       <c r="C24" s="1">
         <v>318</v>
@@ -2935,7 +2935,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>1.189168691635132</v>
+        <v>1.187909007072449</v>
       </c>
       <c r="C25" s="1">
         <v>314</v>
@@ -2961,7 +2961,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="2">
-        <v>1.151297092437744</v>
+        <v>1.15007758140564</v>
       </c>
       <c r="C26" s="1">
         <v>304</v>
@@ -2987,7 +2987,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>1.045256614685059</v>
+        <v>1.044149398803711</v>
       </c>
       <c r="C27" s="1">
         <v>276</v>
@@ -3013,7 +3013,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>1.014959335327148</v>
+        <v>1.01388418674469</v>
       </c>
       <c r="C28" s="1">
         <v>268</v>
@@ -3039,7 +3039,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>0.9543647170066834</v>
+        <v>0.953353762626648</v>
       </c>
       <c r="C29" s="1">
         <v>252</v>
@@ -3065,7 +3065,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>0.9392160773277283</v>
+        <v>0.9382211565971375</v>
       </c>
       <c r="C30" s="1">
         <v>248</v>
@@ -3091,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7801553010940552</v>
+        <v>0.7793288826942444</v>
       </c>
       <c r="C31" s="1">
         <v>206</v>
@@ -3117,7 +3117,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7422836422920227</v>
+        <v>0.7414973974227905</v>
       </c>
       <c r="C32" s="1">
         <v>196</v>
@@ -3143,7 +3143,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7347093224525452</v>
+        <v>0.7339310646057129</v>
       </c>
       <c r="C33" s="1">
         <v>194</v>
@@ -3169,7 +3169,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6968377232551575</v>
+        <v>0.696099579334259</v>
       </c>
       <c r="C34" s="1">
         <v>184</v>
@@ -3195,7 +3195,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6210944652557373</v>
+        <v>0.6204365491867065</v>
       </c>
       <c r="C35" s="1">
         <v>164</v>
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6059458255767822</v>
+        <v>0.6053040027618408</v>
       </c>
       <c r="C36" s="1">
         <v>160</v>
@@ -3247,7 +3247,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5907971858978272</v>
+        <v>0.5901713967323303</v>
       </c>
       <c r="C37" s="1">
         <v>156</v>
@@ -3273,7 +3273,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5907971858978272</v>
+        <v>0.5901713967323303</v>
       </c>
       <c r="C38" s="1">
         <v>156</v>
@@ -3299,7 +3299,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5756485462188721</v>
+        <v>0.5750387907028198</v>
       </c>
       <c r="C39" s="1">
         <v>152</v>
@@ -3325,7 +3325,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5756485462188721</v>
+        <v>0.5750387907028198</v>
       </c>
       <c r="C40" s="1">
         <v>152</v>
@@ -3351,7 +3351,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5680742263793945</v>
+        <v>0.5674724578857422</v>
       </c>
       <c r="C41" s="1">
         <v>150</v>
@@ -3377,7 +3377,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="2">
-        <v>0.5529255867004395</v>
+        <v>0.5523398518562317</v>
       </c>
       <c r="C42" s="1">
         <v>146</v>
@@ -3400,25 +3400,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2">
-        <v>0.5226283073425293</v>
+        <v>0.537207305431366</v>
       </c>
       <c r="C43" s="1">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -3426,19 +3426,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>0.5150539875030518</v>
+        <v>0.5220746994018555</v>
       </c>
       <c r="C44" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3452,19 +3452,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
-        <v>0.4771823585033417</v>
+        <v>0.5145083665847778</v>
       </c>
       <c r="C45" s="1">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3478,19 +3478,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
-        <v>0.4696080386638641</v>
+        <v>0.476676881313324</v>
       </c>
       <c r="C46" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3504,25 +3504,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2">
-        <v>0.4696080386638641</v>
+        <v>0.4691105782985687</v>
       </c>
       <c r="C47" s="1">
         <v>124</v>
       </c>
       <c r="D47" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="2">
-        <v>0.4393107295036316</v>
+        <v>0.4388453960418701</v>
       </c>
       <c r="C48" s="1">
         <v>116</v>
@@ -3559,7 +3559,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3938648104667664</v>
+        <v>0.3934475779533386</v>
       </c>
       <c r="C49" s="1">
         <v>104</v>
@@ -3585,7 +3585,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3711418211460114</v>
+        <v>0.3707486987113953</v>
       </c>
       <c r="C50" s="1">
         <v>98</v>
@@ -3611,7 +3611,7 @@
         <v>18</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3711418211460114</v>
+        <v>0.3707486987113953</v>
       </c>
       <c r="C51" s="1">
         <v>98</v>
@@ -3637,7 +3637,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>0.3559931814670563</v>
+        <v>0.3556160926818848</v>
       </c>
       <c r="C52" s="1">
         <v>94</v>
@@ -3663,7 +3663,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3408445417881012</v>
+        <v>0.3404834866523743</v>
       </c>
       <c r="C53" s="1">
         <v>90</v>
@@ -3689,7 +3689,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="2">
-        <v>0.3408445417881012</v>
+        <v>0.3404834866523743</v>
       </c>
       <c r="C54" s="1">
         <v>90</v>
@@ -3715,7 +3715,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="2">
-        <v>0.3332702219486237</v>
+        <v>0.332917183637619</v>
       </c>
       <c r="C55" s="1">
         <v>88</v>
@@ -3741,7 +3741,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="2">
-        <v>0.3332702219486237</v>
+        <v>0.332917183637619</v>
       </c>
       <c r="C56" s="1">
         <v>88</v>
@@ -3767,7 +3767,7 @@
         <v>20</v>
       </c>
       <c r="B57" s="2">
-        <v>0.3256959021091461</v>
+        <v>0.3253508806228638</v>
       </c>
       <c r="C57" s="1">
         <v>86</v>
@@ -3793,7 +3793,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>0.3181215822696686</v>
+        <v>0.3177845776081085</v>
       </c>
       <c r="C58" s="1">
         <v>84</v>
@@ -3819,7 +3819,7 @@
         <v>62</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2953985929489136</v>
+        <v>0.2950856983661652</v>
       </c>
       <c r="C59" s="1">
         <v>78</v>
@@ -3845,7 +3845,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2953985929489136</v>
+        <v>0.2950856983661652</v>
       </c>
       <c r="C60" s="1">
         <v>78</v>
@@ -3871,7 +3871,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="2">
-        <v>0.2802499532699585</v>
+        <v>0.2799530923366547</v>
       </c>
       <c r="C61" s="1">
         <v>74</v>
@@ -3897,7 +3897,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="2">
-        <v>0.2802499532699585</v>
+        <v>0.2799530923366547</v>
       </c>
       <c r="C62" s="1">
         <v>74</v>
@@ -3923,7 +3923,7 @@
         <v>16</v>
       </c>
       <c r="B63" s="2">
-        <v>0.2802499532699585</v>
+        <v>0.2799530923366547</v>
       </c>
       <c r="C63" s="1">
         <v>74</v>
@@ -3949,7 +3949,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>0.272675633430481</v>
+        <v>0.2723867893218994</v>
       </c>
       <c r="C64" s="1">
         <v>72</v>
@@ -3975,7 +3975,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>0.2575269937515259</v>
+        <v>0.2572541832923889</v>
       </c>
       <c r="C65" s="1">
         <v>68</v>
@@ -4001,7 +4001,7 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>0.2423783391714096</v>
+        <v>0.2421215921640396</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
@@ -4027,7 +4027,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>0.2196553647518158</v>
+        <v>0.2194226980209351</v>
       </c>
       <c r="C67" s="1">
         <v>58</v>
@@ -4053,7 +4053,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="2">
-        <v>0.2196553647518158</v>
+        <v>0.2194226980209351</v>
       </c>
       <c r="C68" s="1">
         <v>58</v>
@@ -4079,7 +4079,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="2">
-        <v>0.2045067250728607</v>
+        <v>0.2042900919914246</v>
       </c>
       <c r="C69" s="1">
         <v>54</v>
@@ -4105,7 +4105,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1893580704927445</v>
+        <v>0.1891574859619141</v>
       </c>
       <c r="C70" s="1">
         <v>50</v>
@@ -4131,7 +4131,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1742094308137894</v>
+        <v>0.1740248948335648</v>
       </c>
       <c r="C71" s="1">
         <v>46</v>
@@ -4157,7 +4157,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1742094308137894</v>
+        <v>0.1740248948335648</v>
       </c>
       <c r="C72" s="1">
         <v>46</v>
@@ -4183,7 +4183,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1514864563941956</v>
+        <v>0.1513260006904602</v>
       </c>
       <c r="C73" s="1">
         <v>40</v>
@@ -4209,7 +4209,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1514864563941956</v>
+        <v>0.1513260006904602</v>
       </c>
       <c r="C74" s="1">
         <v>40</v>
@@ -4235,7 +4235,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1514864563941956</v>
+        <v>0.1513260006904602</v>
       </c>
       <c r="C75" s="1">
         <v>40</v>
@@ -4261,7 +4261,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.143912136554718</v>
+        <v>0.143759697675705</v>
       </c>
       <c r="C76" s="1">
         <v>38</v>
@@ -4287,7 +4287,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.143912136554718</v>
+        <v>0.143759697675705</v>
       </c>
       <c r="C77" s="1">
         <v>38</v>
@@ -4313,7 +4313,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1136148422956467</v>
+        <v>0.1134944930672646</v>
       </c>
       <c r="C78" s="1">
         <v>30</v>
@@ -4339,7 +4339,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1060405224561691</v>
+        <v>0.1059281975030899</v>
       </c>
       <c r="C79" s="1">
         <v>28</v>
@@ -4365,7 +4365,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.09846620261669159</v>
+        <v>0.09836189448833466</v>
       </c>
       <c r="C80" s="1">
         <v>26</v>
@@ -4391,7 +4391,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.09846620261669159</v>
+        <v>0.09836189448833466</v>
       </c>
       <c r="C81" s="1">
         <v>26</v>
@@ -4417,7 +4417,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.09846620261669159</v>
+        <v>0.09836189448833466</v>
       </c>
       <c r="C82" s="1">
         <v>26</v>
@@ -4443,7 +4443,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.09089187532663345</v>
+        <v>0.09079559892416</v>
       </c>
       <c r="C83" s="1">
         <v>24</v>
@@ -4469,7 +4469,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.09089187532663345</v>
+        <v>0.09079559892416</v>
       </c>
       <c r="C84" s="1">
         <v>24</v>
@@ -4495,7 +4495,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.09089187532663345</v>
+        <v>0.09079559892416</v>
       </c>
       <c r="C85" s="1">
         <v>24</v>
@@ -4521,7 +4521,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.09089187532663345</v>
+        <v>0.09079559892416</v>
       </c>
       <c r="C86" s="1">
         <v>24</v>
@@ -4547,7 +4547,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.06816890835762024</v>
+        <v>0.06809669733047485</v>
       </c>
       <c r="C87" s="1">
         <v>18</v>
@@ -4573,7 +4573,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.0605945847928524</v>
+        <v>0.0605303980410099</v>
       </c>
       <c r="C88" s="1">
         <v>16</v>
@@ -4599,7 +4599,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.05302026122808456</v>
+        <v>0.05296409875154495</v>
       </c>
       <c r="C89" s="1">
         <v>14</v>
@@ -4625,7 +4625,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.04544593766331673</v>
+        <v>0.04539779946208</v>
       </c>
       <c r="C90" s="1">
         <v>12</v>
@@ -4651,7 +4651,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.04544593766331673</v>
+        <v>0.04539779946208</v>
       </c>
       <c r="C91" s="1">
         <v>12</v>
@@ -4677,7 +4677,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.04544593766331673</v>
+        <v>0.04539779946208</v>
       </c>
       <c r="C92" s="1">
         <v>12</v>
@@ -4703,7 +4703,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.03787161409854889</v>
+        <v>0.03783150017261505</v>
       </c>
       <c r="C93" s="1">
         <v>10</v>
@@ -4729,7 +4729,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.03787161409854889</v>
+        <v>0.03783150017261505</v>
       </c>
       <c r="C94" s="1">
         <v>10</v>
@@ -4755,7 +4755,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="2">
-        <v>0.0302972923964262</v>
+        <v>0.03026519902050495</v>
       </c>
       <c r="C95" s="1">
         <v>8</v>
@@ -4781,7 +4781,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>0.0302972923964262</v>
+        <v>0.03026519902050495</v>
       </c>
       <c r="C96" s="1">
         <v>8</v>
@@ -4807,7 +4807,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>0.02272296883165836</v>
+        <v>0.02269889973104</v>
       </c>
       <c r="C97" s="1">
         <v>6</v>
@@ -4833,7 +4833,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>0.02272296883165836</v>
+        <v>0.02269889973104</v>
       </c>
       <c r="C98" s="1">
         <v>6</v>
@@ -4859,7 +4859,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>0.02272296883165836</v>
+        <v>0.02269889973104</v>
       </c>
       <c r="C99" s="1">
         <v>6</v>
@@ -4885,7 +4885,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>0.02272296883165836</v>
+        <v>0.02269889973104</v>
       </c>
       <c r="C100" s="1">
         <v>6</v>
@@ -4911,7 +4911,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>0.0151486461982131</v>
+        <v>0.01513259951025248</v>
       </c>
       <c r="C101" s="1">
         <v>4</v>
@@ -4937,7 +4937,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>0.00757432309910655</v>
+        <v>0.007566299755126238</v>
       </c>
       <c r="C102" s="1">
         <v>2</v>
@@ -4963,7 +4963,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>0.00757432309910655</v>
+        <v>0.007566299755126238</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
@@ -4989,7 +4989,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>0.00757432309910655</v>
+        <v>0.007566299755126238</v>
       </c>
       <c r="C104" s="1">
         <v>2</v>
@@ -5015,7 +5015,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>0.00757432309910655</v>
+        <v>0.007566299755126238</v>
       </c>
       <c r="C105" s="1">
         <v>2</v>
@@ -5041,7 +5041,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>0.00757432309910655</v>
+        <v>0.007566299755126238</v>
       </c>
       <c r="C106" s="1">
         <v>2</v>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
   <si>
     <t>Software</t>
   </si>
@@ -62,15 +62,18 @@
     <t>htu21d.o</t>
   </si>
   <si>
+    <t>bh1750fvi.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal.o</t>
+  </si>
+  <si>
+    <t>rx8900.o</t>
+  </si>
+  <si>
     <t>buzzer.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal.o</t>
-  </si>
-  <si>
-    <t>rx8900.o</t>
-  </si>
-  <si>
     <t>appirqcallout.o</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
     <t>tx_thread_sleep.o</t>
   </si>
   <si>
+    <t>bh1750fvi_callout.o</t>
+  </si>
+  <si>
     <t>tx_thread_time_slice.o</t>
   </si>
   <si>
@@ -227,9 +233,6 @@
     <t>tx_timer_system_deactivate.o</t>
   </si>
   <si>
-    <t>tx_timer_activate.o</t>
-  </si>
-  <si>
     <t>stm32l4xx_hal_msp.o</t>
   </si>
   <si>
@@ -264,9 +267,6 @@
   </si>
   <si>
     <t>txe_timer_deactivate.o</t>
-  </si>
-  <si>
-    <t>txe_timer_activate.o</t>
   </si>
   <si>
     <t>tx_time_get.o</t>
@@ -495,7 +495,7 @@
                   <c:v>htu21d.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>buzzer.o</c:v>
+                  <c:v>bh1750fvi.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>stm32l4xx_hal.o</c:v>
@@ -504,12 +504,15 @@
                   <c:v>rx8900.o</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>buzzer.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>appirqcallout.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
                 <c:pt idx="104">
@@ -525,64 +528,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="105"/>
                 <c:pt idx="0">
-                  <c:v>39.5963249206543</c:v>
+                  <c:v>39.54441070556641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.20512008666992</c:v>
+                  <c:v>25.17207527160645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.24351787567139</c:v>
+                  <c:v>14.22484397888184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2550048828125</c:v>
+                  <c:v>9.242871284484863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.822448253631592</c:v>
+                  <c:v>2.818747997283936</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.57532000541687</c:v>
+                  <c:v>1.573254704475403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.57532000541687</c:v>
+                  <c:v>1.573254704475403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.378404974937439</c:v>
+                  <c:v>1.376597881317139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9189366698265076</c:v>
+                  <c:v>0.9177318811416626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8532983064651489</c:v>
+                  <c:v>0.8521795868873596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7220216393470764</c:v>
+                  <c:v>0.7210750579833984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5907449722290039</c:v>
+                  <c:v>0.5899705290794373</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2789629101753235</c:v>
+                  <c:v>0.2785971760749817</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.262553334236145</c:v>
+                  <c:v>0.2622091174125671</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1969150006771088</c:v>
+                  <c:v>0.1966568380594254</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1312766671180725</c:v>
+                  <c:v>0.1311045587062836</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1312766671180725</c:v>
+                  <c:v>0.1311045587062836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1312766671180725</c:v>
+                  <c:v>0.1311045587062836</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.06563833355903626</c:v>
+                  <c:v>0.1311045587062836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.06563833355903626</c:v>
+                  <c:v>0.06555227935314179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.06555227935314179</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>0</c:v>
@@ -734,172 +740,172 @@
                   <c:v>tx_event_flags_get.o</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>bh1750fvi.o</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>tx_thread_schedule.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>tx_thread_system_resume.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>lptim.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>tx_timer_deactivate.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>tx_timer_interrupt.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>txe_event_flags_get.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>tx_timer_initialize.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>dnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>tx_event_flags_cleanup.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>tx_initialize_low_level.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>buzzer_callout.o</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>tx_byte_pool_create.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>tx_timer_create.o</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>tx_thread_sleep.o</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>bh1750fvi_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>buzzer_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>tx_thread_time_slice.o</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>htu21d_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>d2f.o</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>appirqcallout.o</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>stm32l4xx_hal.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>__scatter.o</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>tx_timer_system_activate.o</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>rx8900_callout.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>tx_thread_shell_entry.o</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>tx_event_flags_create.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>system_stm32l4xx.o</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>app_azure_rtos.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>rt_memclr_w.o</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>tx_initialize_kernel_enter.o</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>sys_stackheap_outer.o</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>stm32l4xx_hal_pwr.o</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>tx_thread_timeout.o</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>rt_memclr.o</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>buzzer.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>tx_byte_pool_create.o</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>tx_timer_create.o</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>tx_thread_sleep.o</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>tx_thread_time_slice.o</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>htu21d_callout.o</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>d2f.o</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>appirqcallout.o</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>__scatter.o</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>tx_timer_system_activate.o</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>rx8900_callout.o</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>tx_thread_shell_entry.o</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>tx_event_flags_create.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>system_stm32l4xx.o</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>app_azure_rtos.o</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>rt_memclr_w.o</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>tx_initialize_kernel_enter.o</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>sys_stackheap_outer.o</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>stm32l4xx_hal_pwr.o</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>stm32l4xx_hal.o</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>tx_thread_timeout.o</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>rt_memclr.o</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>tx_thread_stack_build.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>tx_timer_system_deactivate.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>tx_thread_initialize.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>tx_timer_activate.o</c:v>
-                </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>app_threadx.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>txe_event_flags_set.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>tx_timer_expiration_process.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>appobj.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>dflt_clz.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>tx_thread_system_return.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>stm32l4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>__scatter_copy.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>tx_time_set.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>txe_timer_deactivate.o</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>txe_timer_activate.o</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>tx_time_get.o</c:v>
@@ -980,316 +986,316 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="105"/>
                 <c:pt idx="0">
-                  <c:v>12.28767108917236</c:v>
+                  <c:v>12.18533134460449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.8046760559082</c:v>
+                  <c:v>10.71468734741211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.64445972442627</c:v>
+                  <c:v>5.597448825836182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.054288387298584</c:v>
+                  <c:v>5.012192726135254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.873945474624634</c:v>
+                  <c:v>3.841680765151978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.68478798866272</c:v>
+                  <c:v>3.654098749160767</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.242159366607666</c:v>
+                  <c:v>3.215156555175781</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.238376379013062</c:v>
+                  <c:v>3.211405038833618</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.071917772293091</c:v>
+                  <c:v>3.046332836151123</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.965989589691162</c:v>
+                  <c:v>2.94128680229187</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.542276620864868</c:v>
+                  <c:v>2.521102905273438</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.43634843826294</c:v>
+                  <c:v>2.408553838729858</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.201793193817139</c:v>
+                  <c:v>2.183455228805542</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.815911889076233</c:v>
+                  <c:v>1.800787806510925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.740248918533325</c:v>
+                  <c:v>1.725754976272583</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.490561008453369</c:v>
+                  <c:v>1.47814667224884</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.437596917152405</c:v>
+                  <c:v>1.425623655319214</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.437596917152405</c:v>
+                  <c:v>1.425623655319214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.331668734550476</c:v>
+                  <c:v>1.320577740669251</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.286270976066589</c:v>
+                  <c:v>1.275558114051819</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.256005764007568</c:v>
+                  <c:v>1.245544910430908</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.203041672706604</c:v>
+                  <c:v>1.193021893501282</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.187909007072449</c:v>
+                  <c:v>1.178015351295471</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.15007758140564</c:v>
+                  <c:v>1.140498995780945</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.044149398803711</c:v>
+                  <c:v>1.035452961921692</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.01388418674469</c:v>
+                  <c:v>1.005439877510071</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.953353762626648</c:v>
+                  <c:v>0.9904333353042603</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9382211565971375</c:v>
+                  <c:v>0.9454135894775391</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7793288826942444</c:v>
+                  <c:v>0.9304070472717285</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7414973974227905</c:v>
+                  <c:v>0.7728381156921387</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7339310646057129</c:v>
+                  <c:v>0.7353217005729675</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.696099579334259</c:v>
+                  <c:v>0.7278184294700623</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6204365491867065</c:v>
+                  <c:v>0.6903020143508911</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6053040027618408</c:v>
+                  <c:v>0.6152691841125488</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5901713967323303</c:v>
+                  <c:v>0.6002626419067383</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5901713967323303</c:v>
+                  <c:v>0.585256040096283</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5750387907028198</c:v>
+                  <c:v>0.585256040096283</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5750387907028198</c:v>
+                  <c:v>0.5702494978904724</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5674724578857422</c:v>
+                  <c:v>0.5702494978904724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5523398518562317</c:v>
+                  <c:v>0.5477396249771118</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.537207305431366</c:v>
+                  <c:v>0.517726480960846</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5220746994018555</c:v>
+                  <c:v>0.5102232098579407</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5145083665847778</c:v>
+                  <c:v>0.4727067947387695</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.476676881313324</c:v>
+                  <c:v>0.4652035236358643</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.4691105782985687</c:v>
+                  <c:v>0.457700252532959</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.4388453960418701</c:v>
+                  <c:v>0.4501969516277313</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3934475779533386</c:v>
+                  <c:v>0.4351904094219208</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3707486987113953</c:v>
+                  <c:v>0.390170693397522</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3707486987113953</c:v>
+                  <c:v>0.3676608502864838</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3556160926818848</c:v>
+                  <c:v>0.3676608502864838</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3404834866523743</c:v>
+                  <c:v>0.3601575791835785</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3404834866523743</c:v>
+                  <c:v>0.3526542782783508</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.332917183637619</c:v>
+                  <c:v>0.3376477062702179</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.332917183637619</c:v>
+                  <c:v>0.3376477062702179</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.3253508806228638</c:v>
+                  <c:v>0.3301444351673126</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.3177845776081085</c:v>
+                  <c:v>0.3301444351673126</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2950856983661652</c:v>
+                  <c:v>0.3226411640644074</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2950856983661652</c:v>
+                  <c:v>0.3151378631591797</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2799530923366547</c:v>
+                  <c:v>0.2926280200481415</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2799530923366547</c:v>
+                  <c:v>0.2926280200481415</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2799530923366547</c:v>
+                  <c:v>0.2776214480400085</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.2723867893218994</c:v>
+                  <c:v>0.2776214480400085</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.2572541832923889</c:v>
+                  <c:v>0.2701181769371033</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.2421215921640396</c:v>
+                  <c:v>0.2551116049289703</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.2194226980209351</c:v>
+                  <c:v>0.2476083338260651</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.2194226980209351</c:v>
+                  <c:v>0.2401050478219986</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.2042900919914246</c:v>
+                  <c:v>0.2175952047109604</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1891574859619141</c:v>
+                  <c:v>0.2175952047109604</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1740248948335648</c:v>
+                  <c:v>0.1875820606946945</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1740248948335648</c:v>
+                  <c:v>0.1725755035877228</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1513260006904602</c:v>
+                  <c:v>0.1725755035877228</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1513260006904602</c:v>
+                  <c:v>0.1500656604766846</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1513260006904602</c:v>
+                  <c:v>0.1500656604766846</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.143759697675705</c:v>
+                  <c:v>0.1500656604766846</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.143759697675705</c:v>
+                  <c:v>0.1425623744726181</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1134944930672646</c:v>
+                  <c:v>0.1425623744726181</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1059281975030899</c:v>
+                  <c:v>0.1125492379069328</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.09836189448833466</c:v>
+                  <c:v>0.105045959353447</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.09836189448833466</c:v>
+                  <c:v>0.09754267334938049</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.09836189448833466</c:v>
+                  <c:v>0.09754267334938049</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.09079559892416</c:v>
+                  <c:v>0.09754267334938049</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.09079559892416</c:v>
+                  <c:v>0.09003939479589462</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.09079559892416</c:v>
+                  <c:v>0.09003939479589462</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.09079559892416</c:v>
+                  <c:v>0.09003939479589462</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.06809669733047485</c:v>
+                  <c:v>0.06752954423427582</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0605303980410099</c:v>
+                  <c:v>0.06002626195549965</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.05296409875154495</c:v>
+                  <c:v>0.05252297967672348</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.04539779946208</c:v>
+                  <c:v>0.04501969739794731</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.04539779946208</c:v>
+                  <c:v>0.04501969739794731</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.04539779946208</c:v>
+                  <c:v>0.04501969739794731</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03783150017261505</c:v>
+                  <c:v>0.03751641511917114</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.03783150017261505</c:v>
+                  <c:v>0.03751641511917114</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.03026519902050495</c:v>
+                  <c:v>0.03001313097774983</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.03026519902050495</c:v>
+                  <c:v>0.03001313097774983</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.02269889973104</c:v>
+                  <c:v>0.02250984869897366</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.02269889973104</c:v>
+                  <c:v>0.02250984869897366</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.02269889973104</c:v>
+                  <c:v>0.02250984869897366</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.02269889973104</c:v>
+                  <c:v>0.02250984869897366</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.01513259951025248</c:v>
+                  <c:v>0.01500656548887491</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.007566299755126238</c:v>
+                  <c:v>0.007503282744437456</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.007566299755126238</c:v>
+                  <c:v>0.007503282744437456</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.007566299755126238</c:v>
+                  <c:v>0.007503282744437456</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.007566299755126238</c:v>
+                  <c:v>0.007503282744437456</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.007566299755126238</c:v>
+                  <c:v>0.007503282744437456</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>0</c:v>
@@ -1759,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>39.5963249206543</v>
+        <v>39.54441070556641</v>
       </c>
       <c r="C3" s="1">
         <v>2413</v>
       </c>
       <c r="D3" s="1">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E3" s="1">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1785,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.20512008666992</v>
+        <v>25.17207527160645</v>
       </c>
       <c r="C4" s="1">
         <v>1536</v>
@@ -1811,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>14.24351787567139</v>
+        <v>14.22484397888184</v>
       </c>
       <c r="C5" s="1">
         <v>868</v>
@@ -1837,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.2550048828125</v>
+        <v>9.242871284484863</v>
       </c>
       <c r="C6" s="1">
         <v>564</v>
@@ -1863,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>2.822448253631592</v>
+        <v>2.818747997283936</v>
       </c>
       <c r="C7" s="1">
         <v>172</v>
@@ -1889,7 +1895,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.57532000541687</v>
+        <v>1.573254704475403</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
@@ -1915,7 +1921,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.57532000541687</v>
+        <v>1.573254704475403</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1941,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.378404974937439</v>
+        <v>1.376597881317139</v>
       </c>
       <c r="C10" s="1">
         <v>84</v>
@@ -1967,7 +1973,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.9189366698265076</v>
+        <v>0.9177318811416626</v>
       </c>
       <c r="C11" s="1">
         <v>56</v>
@@ -1993,7 +1999,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.8532983064651489</v>
+        <v>0.8521795868873596</v>
       </c>
       <c r="C12" s="1">
         <v>52</v>
@@ -2019,16 +2025,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.7220216393470764</v>
+        <v>0.7210750579833984</v>
       </c>
       <c r="C13" s="1">
         <v>44</v>
       </c>
       <c r="D13" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2045,7 +2051,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.5907449722290039</v>
+        <v>0.5899705290794373</v>
       </c>
       <c r="C14" s="1">
         <v>36</v>
@@ -2071,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.2789629101753235</v>
+        <v>0.2785971760749817</v>
       </c>
       <c r="C15" s="1">
         <v>17</v>
@@ -2097,7 +2103,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.262553334236145</v>
+        <v>0.2622091174125671</v>
       </c>
       <c r="C16" s="1">
         <v>16</v>
@@ -2123,25 +2129,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1969150006771088</v>
+        <v>0.1966568380594254</v>
       </c>
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="E17" s="1">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>12</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2149,16 +2155,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.1312766671180725</v>
+        <v>0.1311045587062836</v>
       </c>
       <c r="C18" s="1">
         <v>8</v>
       </c>
       <c r="D18" s="1">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2175,7 +2181,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.1312766671180725</v>
+        <v>0.1311045587062836</v>
       </c>
       <c r="C19" s="1">
         <v>8</v>
@@ -2201,16 +2207,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.1312766671180725</v>
+        <v>0.1311045587062836</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
       </c>
       <c r="D20" s="1">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2227,16 +2233,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.06563833355903626</v>
+        <v>0.1311045587062836</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1">
-        <v>856</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1">
-        <v>856</v>
+        <v>98</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2245,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2253,24 +2259,50 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.06563833355903626</v>
+        <v>0.06555227935314179</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
       </c>
       <c r="D22" s="1">
+        <v>856</v>
+      </c>
+      <c r="E22" s="1">
+        <v>856</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.06555227935314179</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
         <v>86</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>18</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>64</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <v>4</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2360,10 +2392,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>12.28767108917236</v>
+        <v>12.18533134460449</v>
       </c>
       <c r="C3" s="1">
         <v>3248</v>
@@ -2386,10 +2418,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>10.8046760559082</v>
+        <v>10.71468734741211</v>
       </c>
       <c r="C4" s="1">
         <v>2856</v>
@@ -2412,10 +2444,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2">
-        <v>5.64445972442627</v>
+        <v>5.597448825836182</v>
       </c>
       <c r="C5" s="1">
         <v>1492</v>
@@ -2438,10 +2470,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>5.054288387298584</v>
+        <v>5.012192726135254</v>
       </c>
       <c r="C6" s="1">
         <v>1336</v>
@@ -2467,7 +2499,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>3.873945474624634</v>
+        <v>3.841680765151978</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -2490,10 +2522,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
-        <v>3.68478798866272</v>
+        <v>3.654098749160767</v>
       </c>
       <c r="C8" s="1">
         <v>974</v>
@@ -2519,7 +2551,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>3.242159366607666</v>
+        <v>3.215156555175781</v>
       </c>
       <c r="C9" s="1">
         <v>857</v>
@@ -2542,10 +2574,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>3.238376379013062</v>
+        <v>3.211405038833618</v>
       </c>
       <c r="C10" s="1">
         <v>856</v>
@@ -2568,10 +2600,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>3.071917772293091</v>
+        <v>3.046332836151123</v>
       </c>
       <c r="C11" s="1">
         <v>812</v>
@@ -2594,10 +2626,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>2.965989589691162</v>
+        <v>2.94128680229187</v>
       </c>
       <c r="C12" s="1">
         <v>784</v>
@@ -2623,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>2.542276620864868</v>
+        <v>2.521102905273438</v>
       </c>
       <c r="C13" s="1">
         <v>672</v>
@@ -2649,16 +2681,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>2.43634843826294</v>
+        <v>2.408553838729858</v>
       </c>
       <c r="C14" s="1">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D14" s="1">
         <v>2413</v>
       </c>
       <c r="E14" s="1">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2672,10 +2704,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
-        <v>2.201793193817139</v>
+        <v>2.183455228805542</v>
       </c>
       <c r="C15" s="1">
         <v>582</v>
@@ -2701,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>1.815911889076233</v>
+        <v>1.800787806510925</v>
       </c>
       <c r="C16" s="1">
         <v>480</v>
@@ -2727,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>1.740248918533325</v>
+        <v>1.725754976272583</v>
       </c>
       <c r="C17" s="1">
         <v>460</v>
@@ -2750,10 +2782,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>1.490561008453369</v>
+        <v>1.47814667224884</v>
       </c>
       <c r="C18" s="1">
         <v>394</v>
@@ -2776,10 +2808,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>1.437596917152405</v>
+        <v>1.425623655319214</v>
       </c>
       <c r="C19" s="1">
         <v>380</v>
@@ -2802,10 +2834,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>1.437596917152405</v>
+        <v>1.425623655319214</v>
       </c>
       <c r="C20" s="1">
         <v>380</v>
@@ -2828,10 +2860,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2">
-        <v>1.331668734550476</v>
+        <v>1.320577740669251</v>
       </c>
       <c r="C21" s="1">
         <v>352</v>
@@ -2854,10 +2886,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>1.286270976066589</v>
+        <v>1.275558114051819</v>
       </c>
       <c r="C22" s="1">
         <v>340</v>
@@ -2880,10 +2912,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>1.256005764007568</v>
+        <v>1.245544910430908</v>
       </c>
       <c r="C23" s="1">
         <v>332</v>
@@ -2906,10 +2938,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>1.203041672706604</v>
+        <v>1.193021893501282</v>
       </c>
       <c r="C24" s="1">
         <v>318</v>
@@ -2932,10 +2964,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>1.187909007072449</v>
+        <v>1.178015351295471</v>
       </c>
       <c r="C25" s="1">
         <v>314</v>
@@ -2961,7 +2993,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="2">
-        <v>1.15007758140564</v>
+        <v>1.140498995780945</v>
       </c>
       <c r="C26" s="1">
         <v>304</v>
@@ -2984,10 +3016,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2">
-        <v>1.044149398803711</v>
+        <v>1.035452961921692</v>
       </c>
       <c r="C27" s="1">
         <v>276</v>
@@ -3010,10 +3042,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2">
-        <v>1.01388418674469</v>
+        <v>1.005439877510071</v>
       </c>
       <c r="C28" s="1">
         <v>268</v>
@@ -3036,19 +3068,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2">
-        <v>0.953353762626648</v>
+        <v>0.9904333353042603</v>
       </c>
       <c r="C29" s="1">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -3057,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3065,16 +3097,16 @@
         <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>0.9382211565971375</v>
+        <v>0.9454135894775391</v>
       </c>
       <c r="C30" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -3088,19 +3120,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7793288826942444</v>
+        <v>0.9304070472717285</v>
       </c>
       <c r="C31" s="1">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D31" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -3109,24 +3141,24 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7414973974227905</v>
+        <v>0.7728381156921387</v>
       </c>
       <c r="C32" s="1">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3135,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3143,16 +3175,16 @@
         <v>42</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7339310646057129</v>
+        <v>0.7353217005729675</v>
       </c>
       <c r="C33" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -3169,16 +3201,16 @@
         <v>43</v>
       </c>
       <c r="B34" s="2">
-        <v>0.696099579334259</v>
+        <v>0.7278184294700623</v>
       </c>
       <c r="C34" s="1">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3195,16 +3227,16 @@
         <v>44</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6204365491867065</v>
+        <v>0.6903020143508911</v>
       </c>
       <c r="C35" s="1">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3218,19 +3250,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6053040027618408</v>
+        <v>0.6152691841125488</v>
       </c>
       <c r="C36" s="1">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D36" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3239,24 +3271,24 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5901713967323303</v>
+        <v>0.6002626419067383</v>
       </c>
       <c r="C37" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="E37" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3265,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3273,7 +3305,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5901713967323303</v>
+        <v>0.585256040096283</v>
       </c>
       <c r="C38" s="1">
         <v>156</v>
@@ -3299,16 +3331,16 @@
         <v>47</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5750387907028198</v>
+        <v>0.585256040096283</v>
       </c>
       <c r="C39" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3325,7 +3357,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5750387907028198</v>
+        <v>0.5702494978904724</v>
       </c>
       <c r="C40" s="1">
         <v>152</v>
@@ -3348,19 +3380,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5674724578857422</v>
+        <v>0.5702494978904724</v>
       </c>
       <c r="C41" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D41" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -3369,15 +3401,15 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
-        <v>0.5523398518562317</v>
+        <v>0.5477396249771118</v>
       </c>
       <c r="C42" s="1">
         <v>146</v>
@@ -3400,25 +3432,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2">
-        <v>0.537207305431366</v>
+        <v>0.517726480960846</v>
       </c>
       <c r="C43" s="1">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D43" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -3426,19 +3458,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2">
-        <v>0.5220746994018555</v>
+        <v>0.5102232098579407</v>
       </c>
       <c r="C44" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3452,19 +3484,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2">
-        <v>0.5145083665847778</v>
+        <v>0.4727067947387695</v>
       </c>
       <c r="C45" s="1">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3478,19 +3510,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2">
-        <v>0.476676881313324</v>
+        <v>0.4652035236358643</v>
       </c>
       <c r="C46" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3504,19 +3536,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2">
-        <v>0.4691105782985687</v>
+        <v>0.457700252532959</v>
       </c>
       <c r="C47" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3530,19 +3562,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2">
-        <v>0.4388453960418701</v>
+        <v>0.4501969516277313</v>
       </c>
       <c r="C48" s="1">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E48" s="1">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3551,24 +3583,24 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3934475779533386</v>
+        <v>0.4351904094219208</v>
       </c>
       <c r="C49" s="1">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3582,19 +3614,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3707486987113953</v>
+        <v>0.390170693397522</v>
       </c>
       <c r="C50" s="1">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3608,16 +3640,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3707486987113953</v>
+        <v>0.3676608502864838</v>
       </c>
       <c r="C51" s="1">
         <v>98</v>
       </c>
       <c r="D51" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>98</v>
@@ -3629,24 +3661,24 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B52" s="2">
-        <v>0.3556160926818848</v>
+        <v>0.3676608502864838</v>
       </c>
       <c r="C52" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3655,30 +3687,30 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3404834866523743</v>
+        <v>0.3601575791835785</v>
       </c>
       <c r="C53" s="1">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E53" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -3689,16 +3721,16 @@
         <v>59</v>
       </c>
       <c r="B54" s="2">
-        <v>0.3404834866523743</v>
+        <v>0.3526542782783508</v>
       </c>
       <c r="C54" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3715,16 +3747,16 @@
         <v>60</v>
       </c>
       <c r="B55" s="2">
-        <v>0.332917183637619</v>
+        <v>0.3376477062702179</v>
       </c>
       <c r="C55" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3741,16 +3773,16 @@
         <v>61</v>
       </c>
       <c r="B56" s="2">
-        <v>0.332917183637619</v>
+        <v>0.3376477062702179</v>
       </c>
       <c r="C56" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3764,25 +3796,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2">
-        <v>0.3253508806228638</v>
+        <v>0.3301444351673126</v>
       </c>
       <c r="C57" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="F57" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -3790,19 +3822,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2">
-        <v>0.3177845776081085</v>
+        <v>0.3301444351673126</v>
       </c>
       <c r="C58" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D58" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3811,30 +3843,30 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2950856983661652</v>
+        <v>0.3226411640644074</v>
       </c>
       <c r="C59" s="1">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -3842,19 +3874,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2950856983661652</v>
+        <v>0.3151378631591797</v>
       </c>
       <c r="C60" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E60" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3863,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3871,16 +3903,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="2">
-        <v>0.2799530923366547</v>
+        <v>0.2926280200481415</v>
       </c>
       <c r="C61" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3897,16 +3929,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="2">
-        <v>0.2799530923366547</v>
+        <v>0.2926280200481415</v>
       </c>
       <c r="C62" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3920,25 +3952,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B63" s="2">
-        <v>0.2799530923366547</v>
+        <v>0.2776214480400085</v>
       </c>
       <c r="C63" s="1">
         <v>74</v>
       </c>
       <c r="D63" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -3946,19 +3978,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2">
-        <v>0.2723867893218994</v>
+        <v>0.2776214480400085</v>
       </c>
       <c r="C64" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3972,19 +4004,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2">
-        <v>0.2572541832923889</v>
+        <v>0.2701181769371033</v>
       </c>
       <c r="C65" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3998,19 +4030,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.2551116049289703</v>
+      </c>
+      <c r="C66" s="1">
         <v>68</v>
       </c>
-      <c r="B66" s="2">
-        <v>0.2421215921640396</v>
-      </c>
-      <c r="C66" s="1">
-        <v>64</v>
-      </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4024,19 +4056,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B67" s="2">
-        <v>0.2194226980209351</v>
+        <v>0.2476083338260651</v>
       </c>
       <c r="C67" s="1">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E67" s="1">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4045,50 +4077,50 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>0.2194226980209351</v>
+        <v>0.2401050478219986</v>
       </c>
       <c r="C68" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D68" s="1">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>0.2042900919914246</v>
+        <v>0.2175952047109604</v>
       </c>
       <c r="C69" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4102,45 +4134,45 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1891574859619141</v>
+        <v>0.2175952047109604</v>
       </c>
       <c r="C70" s="1">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E70" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H70" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1740248948335648</v>
+        <v>0.1875820606946945</v>
       </c>
       <c r="C71" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D71" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4149,21 +4181,21 @@
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1740248948335648</v>
+        <v>0.1725755035877228</v>
       </c>
       <c r="C72" s="1">
         <v>46</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E72" s="1">
         <v>46</v>
@@ -4175,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4183,16 +4215,16 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1513260006904602</v>
+        <v>0.1725755035877228</v>
       </c>
       <c r="C73" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4209,7 +4241,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1513260006904602</v>
+        <v>0.1500656604766846</v>
       </c>
       <c r="C74" s="1">
         <v>40</v>
@@ -4232,16 +4264,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1513260006904602</v>
+        <v>0.1500656604766846</v>
       </c>
       <c r="C75" s="1">
         <v>40</v>
       </c>
       <c r="D75" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
         <v>40</v>
@@ -4253,24 +4285,24 @@
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B76" s="2">
-        <v>0.143759697675705</v>
+        <v>0.1500656604766846</v>
       </c>
       <c r="C76" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E76" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4279,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4287,7 +4319,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.143759697675705</v>
+        <v>0.1425623744726181</v>
       </c>
       <c r="C77" s="1">
         <v>38</v>
@@ -4313,16 +4345,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1134944930672646</v>
+        <v>0.1425623744726181</v>
       </c>
       <c r="C78" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4339,16 +4371,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1059281975030899</v>
+        <v>0.1125492379069328</v>
       </c>
       <c r="C79" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4365,16 +4397,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.09836189448833466</v>
+        <v>0.105045959353447</v>
       </c>
       <c r="C80" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4391,7 +4423,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.09836189448833466</v>
+        <v>0.09754267334938049</v>
       </c>
       <c r="C81" s="1">
         <v>26</v>
@@ -4417,7 +4449,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.09836189448833466</v>
+        <v>0.09754267334938049</v>
       </c>
       <c r="C82" s="1">
         <v>26</v>
@@ -4443,16 +4475,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.09079559892416</v>
+        <v>0.09754267334938049</v>
       </c>
       <c r="C83" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4469,7 +4501,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.09079559892416</v>
+        <v>0.09003939479589462</v>
       </c>
       <c r="C84" s="1">
         <v>24</v>
@@ -4495,7 +4527,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.09079559892416</v>
+        <v>0.09003939479589462</v>
       </c>
       <c r="C85" s="1">
         <v>24</v>
@@ -4521,7 +4553,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.09079559892416</v>
+        <v>0.09003939479589462</v>
       </c>
       <c r="C86" s="1">
         <v>24</v>
@@ -4547,7 +4579,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.06809669733047485</v>
+        <v>0.06752954423427582</v>
       </c>
       <c r="C87" s="1">
         <v>18</v>
@@ -4573,7 +4605,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.0605303980410099</v>
+        <v>0.06002626195549965</v>
       </c>
       <c r="C88" s="1">
         <v>16</v>
@@ -4599,7 +4631,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.05296409875154495</v>
+        <v>0.05252297967672348</v>
       </c>
       <c r="C89" s="1">
         <v>14</v>
@@ -4625,7 +4657,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.04539779946208</v>
+        <v>0.04501969739794731</v>
       </c>
       <c r="C90" s="1">
         <v>12</v>
@@ -4651,7 +4683,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.04539779946208</v>
+        <v>0.04501969739794731</v>
       </c>
       <c r="C91" s="1">
         <v>12</v>
@@ -4677,7 +4709,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.04539779946208</v>
+        <v>0.04501969739794731</v>
       </c>
       <c r="C92" s="1">
         <v>12</v>
@@ -4703,7 +4735,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.03783150017261505</v>
+        <v>0.03751641511917114</v>
       </c>
       <c r="C93" s="1">
         <v>10</v>
@@ -4729,7 +4761,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.03783150017261505</v>
+        <v>0.03751641511917114</v>
       </c>
       <c r="C94" s="1">
         <v>10</v>
@@ -4755,7 +4787,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="2">
-        <v>0.03026519902050495</v>
+        <v>0.03001313097774983</v>
       </c>
       <c r="C95" s="1">
         <v>8</v>
@@ -4781,7 +4813,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>0.03026519902050495</v>
+        <v>0.03001313097774983</v>
       </c>
       <c r="C96" s="1">
         <v>8</v>
@@ -4807,7 +4839,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>0.02269889973104</v>
+        <v>0.02250984869897366</v>
       </c>
       <c r="C97" s="1">
         <v>6</v>
@@ -4833,7 +4865,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>0.02269889973104</v>
+        <v>0.02250984869897366</v>
       </c>
       <c r="C98" s="1">
         <v>6</v>
@@ -4859,7 +4891,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>0.02269889973104</v>
+        <v>0.02250984869897366</v>
       </c>
       <c r="C99" s="1">
         <v>6</v>
@@ -4885,7 +4917,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>0.02269889973104</v>
+        <v>0.02250984869897366</v>
       </c>
       <c r="C100" s="1">
         <v>6</v>
@@ -4911,7 +4943,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>0.01513259951025248</v>
+        <v>0.01500656548887491</v>
       </c>
       <c r="C101" s="1">
         <v>4</v>
@@ -4937,7 +4969,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>0.007566299755126238</v>
+        <v>0.007503282744437456</v>
       </c>
       <c r="C102" s="1">
         <v>2</v>
@@ -4963,7 +4995,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>0.007566299755126238</v>
+        <v>0.007503282744437456</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
@@ -4989,7 +5021,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>0.007566299755126238</v>
+        <v>0.007503282744437456</v>
       </c>
       <c r="C104" s="1">
         <v>2</v>
@@ -5015,7 +5047,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>0.007566299755126238</v>
+        <v>0.007503282744437456</v>
       </c>
       <c r="C105" s="1">
         <v>2</v>
@@ -5041,7 +5073,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>0.007566299755126238</v>
+        <v>0.007503282744437456</v>
       </c>
       <c r="C106" s="1">
         <v>2</v>

--- a/Software/MDK-ARM/Software_analysis.xlsx
+++ b/Software/MDK-ARM/Software_analysis.xlsx
@@ -15,54 +15,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>Software</t>
   </si>
   <si>
+    <t>startup_stm32l432xx.o</t>
+  </si>
+  <si>
+    <t>tx_timer_initialize.o</t>
+  </si>
+  <si>
+    <t>app_azure_rtos.o</t>
+  </si>
+  <si>
+    <t>tx_thread_initialize.o</t>
+  </si>
+  <si>
+    <t>c_w.l</t>
+  </si>
+  <si>
+    <t>libspace.o</t>
+  </si>
+  <si>
+    <t>i2c.o</t>
+  </si>
+  <si>
+    <t>lptim.o</t>
+  </si>
+  <si>
+    <t>tx_initialize_high_level.o</t>
+  </si>
+  <si>
+    <t>appobj.o</t>
+  </si>
+  <si>
+    <t>applowpowermgr.o</t>
+  </si>
+  <si>
+    <t>appirqcallout.o</t>
+  </si>
+  <si>
     <t>appmain.o</t>
   </si>
   <si>
-    <t>startup_stm32l432xx.o</t>
-  </si>
-  <si>
-    <t>tx_timer_initialize.o</t>
-  </si>
-  <si>
-    <t>app_azure_rtos.o</t>
-  </si>
-  <si>
-    <t>tx_thread_initialize.o</t>
-  </si>
-  <si>
-    <t>c_w.l</t>
-  </si>
-  <si>
-    <t>libspace.o</t>
-  </si>
-  <si>
-    <t>i2c.o</t>
-  </si>
-  <si>
-    <t>lptim.o</t>
-  </si>
-  <si>
-    <t>tx_initialize_high_level.o</t>
-  </si>
-  <si>
-    <t>buzzer_callout.o</t>
-  </si>
-  <si>
-    <t>appobj.o</t>
-  </si>
-  <si>
-    <t>applowpowermgr.o</t>
-  </si>
-  <si>
-    <t>htu21d.o</t>
-  </si>
-  <si>
-    <t>bh1750fvi.o</t>
+    <t>tx_low_power.o</t>
+  </si>
+  <si>
+    <t>system_stm32l4xx.o</t>
   </si>
   <si>
     <t>stm32l4xx_hal.o</t>
@@ -71,210 +71,141 @@
     <t>rx8900.o</t>
   </si>
   <si>
-    <t>buzzer.o</t>
-  </si>
-  <si>
-    <t>appirqcallout.o</t>
-  </si>
-  <si>
-    <t>tx_low_power.o</t>
-  </si>
-  <si>
-    <t>system_stm32l4xx.o</t>
+    <t>stm32l4xx_hal_rcc.o</t>
   </si>
   <si>
     <t>stm32l4xx_hal_i2c.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_rcc.o</t>
+    <t>stm32l4xx_hal_lptim.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_rcc_ex.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_gpio.o</t>
+  </si>
+  <si>
+    <t>tx_event_flags_set.o</t>
+  </si>
+  <si>
+    <t>tx_thread_system_suspend.o</t>
+  </si>
+  <si>
+    <t>tx_thread_create.o</t>
+  </si>
+  <si>
+    <t>tx_timer_thread_entry.o</t>
+  </si>
+  <si>
+    <t>tx_thread_system_resume.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_cortex.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_pwr_ex.o</t>
+  </si>
+  <si>
+    <t>txe_byte_pool_create.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_i2c_ex.o</t>
+  </si>
+  <si>
+    <t>tx_byte_pool_create.o</t>
+  </si>
+  <si>
+    <t>tx_thread_schedule.o</t>
+  </si>
+  <si>
+    <t>tx_timer_system_activate.o</t>
+  </si>
+  <si>
+    <t>gpio.o</t>
+  </si>
+  <si>
+    <t>tx_timer_interrupt.o</t>
+  </si>
+  <si>
+    <t>main.o</t>
+  </si>
+  <si>
+    <t>rx8900_callout.o</t>
+  </si>
+  <si>
+    <t>tx_initialize_low_level.o</t>
+  </si>
+  <si>
+    <t>tx_thread_time_slice.o</t>
+  </si>
+  <si>
+    <t>tx_thread_shell_entry.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_pwr.o</t>
+  </si>
+  <si>
+    <t>tx_timer_system_deactivate.o</t>
+  </si>
+  <si>
+    <t>tx_initialize_kernel_enter.o</t>
+  </si>
+  <si>
+    <t>txe_event_flags_set.o</t>
+  </si>
+  <si>
+    <t>tx_thread_timeout.o</t>
+  </si>
+  <si>
+    <t>__scatter.o</t>
+  </si>
+  <si>
+    <t>rt_memclr_w.o</t>
+  </si>
+  <si>
+    <t>app_threadx.o</t>
+  </si>
+  <si>
+    <t>sys_stackheap_outer.o</t>
+  </si>
+  <si>
+    <t>rt_memclr.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_msp.o</t>
+  </si>
+  <si>
+    <t>tx_thread_stack_build.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_it.o</t>
+  </si>
+  <si>
+    <t>tx_timer_expiration_process.o</t>
+  </si>
+  <si>
+    <t>tx_thread_system_return.o</t>
+  </si>
+  <si>
+    <t>tx_time_get.o</t>
+  </si>
+  <si>
+    <t>appmodectrl.o</t>
+  </si>
+  <si>
+    <t>__scatter_zi.o</t>
   </si>
   <si>
     <t>fz_wm.l</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_lptim.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_rcc_ex.o</t>
-  </si>
-  <si>
-    <t>daddsub_clz.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_gpio.o</t>
-  </si>
-  <si>
-    <t>tx_event_flags_set.o</t>
-  </si>
-  <si>
-    <t>txe_thread_create.o</t>
-  </si>
-  <si>
-    <t>txe_timer_create.o</t>
-  </si>
-  <si>
-    <t>tx_thread_system_suspend.o</t>
-  </si>
-  <si>
-    <t>txe_byte_pool_create.o</t>
-  </si>
-  <si>
-    <t>dmul.o</t>
-  </si>
-  <si>
-    <t>tx_timer_thread_entry.o</t>
-  </si>
-  <si>
-    <t>tx_thread_create.o</t>
-  </si>
-  <si>
-    <t>txe_event_flags_create.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_pwr_ex.o</t>
-  </si>
-  <si>
-    <t>tx_event_flags_get.o</t>
-  </si>
-  <si>
-    <t>tx_thread_schedule.o</t>
-  </si>
-  <si>
-    <t>tx_thread_system_resume.o</t>
-  </si>
-  <si>
-    <t>tx_timer_deactivate.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_cortex.o</t>
-  </si>
-  <si>
-    <t>tx_timer_interrupt.o</t>
-  </si>
-  <si>
-    <t>txe_event_flags_get.o</t>
-  </si>
-  <si>
-    <t>dnaninf.o</t>
-  </si>
-  <si>
-    <t>tx_event_flags_cleanup.o</t>
-  </si>
-  <si>
-    <t>tx_initialize_low_level.o</t>
-  </si>
-  <si>
-    <t>main.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_i2c_ex.o</t>
-  </si>
-  <si>
-    <t>gpio.o</t>
-  </si>
-  <si>
-    <t>tx_byte_pool_create.o</t>
-  </si>
-  <si>
-    <t>tx_timer_create.o</t>
-  </si>
-  <si>
-    <t>tx_thread_sleep.o</t>
-  </si>
-  <si>
-    <t>bh1750fvi_callout.o</t>
-  </si>
-  <si>
-    <t>tx_thread_time_slice.o</t>
-  </si>
-  <si>
-    <t>htu21d_callout.o</t>
-  </si>
-  <si>
-    <t>d2f.o</t>
-  </si>
-  <si>
-    <t>__scatter.o</t>
-  </si>
-  <si>
-    <t>tx_timer_system_activate.o</t>
-  </si>
-  <si>
-    <t>rx8900_callout.o</t>
-  </si>
-  <si>
-    <t>tx_thread_shell_entry.o</t>
-  </si>
-  <si>
-    <t>tx_event_flags_create.o</t>
-  </si>
-  <si>
-    <t>rt_memclr_w.o</t>
-  </si>
-  <si>
-    <t>tx_initialize_kernel_enter.o</t>
-  </si>
-  <si>
-    <t>sys_stackheap_outer.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_pwr.o</t>
-  </si>
-  <si>
-    <t>tx_thread_timeout.o</t>
-  </si>
-  <si>
-    <t>rt_memclr.o</t>
-  </si>
-  <si>
-    <t>tx_thread_stack_build.o</t>
-  </si>
-  <si>
-    <t>tx_timer_system_deactivate.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_msp.o</t>
-  </si>
-  <si>
-    <t>app_threadx.o</t>
-  </si>
-  <si>
-    <t>txe_event_flags_set.o</t>
-  </si>
-  <si>
-    <t>tx_timer_expiration_process.o</t>
-  </si>
-  <si>
-    <t>dflt_clz.o</t>
-  </si>
-  <si>
-    <t>tx_thread_system_return.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_it.o</t>
-  </si>
-  <si>
-    <t>__scatter_zi.o</t>
-  </si>
-  <si>
     <t>fpinit.o</t>
   </si>
   <si>
     <t>__scatter_copy.o</t>
   </si>
   <si>
-    <t>tx_time_set.o</t>
-  </si>
-  <si>
-    <t>txe_timer_deactivate.o</t>
-  </si>
-  <si>
-    <t>tx_time_get.o</t>
-  </si>
-  <si>
-    <t>appmodectrl.o</t>
-  </si>
-  <si>
     <t>exit.o</t>
   </si>
   <si>
@@ -284,18 +215,12 @@
     <t>tx_thread_interrupt_disable.o</t>
   </si>
   <si>
-    <t>dretinf.o</t>
-  </si>
-  <si>
     <t>sys_exit.o</t>
   </si>
   <si>
     <t>__rtentry2.o</t>
   </si>
   <si>
-    <t>fretinf.o</t>
-  </si>
-  <si>
     <t>rtexit2.o</t>
   </si>
   <si>
@@ -312,9 +237,6 @@
   </si>
   <si>
     <t>tx_thread_interrupt_restore.o</t>
-  </si>
-  <si>
-    <t>rx8900_lcfg.o</t>
   </si>
   <si>
     <t>use_no_semi.o</t>
@@ -449,53 +371,53 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$107</c:f>
+              <c:f>ram_percent!$A$3:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="105"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
+                  <c:v>startup_stm32l432xx.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tx_timer_initialize.o</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>app_azure_rtos.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tx_thread_initialize.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>c_w.l</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>libspace.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lptim.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>tx_initialize_high_level.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>appobj.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>applowpowermgr.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>appirqcallout.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>appmain.o</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>startup_stm32l432xx.o</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tx_timer_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>app_azure_rtos.o</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tx_thread_initialize.o</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>c_w.l</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>libspace.o</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>i2c.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>lptim.o</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>tx_initialize_high_level.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>buzzer_callout.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>appobj.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>applowpowermgr.o</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>htu21d.o</c:v>
+                  <c:v>tx_low_power.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>bh1750fvi.o</c:v>
+                  <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>stm32l4xx_hal.o</c:v>
@@ -503,19 +425,7 @@
                 <c:pt idx="16">
                   <c:v>rx8900.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>buzzer.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>appirqcallout.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>tx_low_power.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>system_stm32l4xx.o</c:v>
-                </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="77">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -523,74 +433,62 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$107</c:f>
+              <c:f>ram_percent!$B$3:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>39.54441070556641</c:v>
+                  <c:v>42.66666793823242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.17207527160645</c:v>
+                  <c:v>24.11111068725586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.22484397888184</c:v>
+                  <c:v>15.66666698455811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.242871284484863</c:v>
+                  <c:v>4.777777671813965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.818747997283936</c:v>
+                  <c:v>2.666666746139526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.573254704475403</c:v>
+                  <c:v>2.666666746139526</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.573254704475403</c:v>
+                  <c:v>2.333333253860474</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.376597881317139</c:v>
+                  <c:v>1.555555582046509</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9177318811416626</c:v>
+                  <c:v>1.444444417953491</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8521795868873596</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7210750579833984</c:v>
+                  <c:v>0.3888888955116272</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5899705290794373</c:v>
+                  <c:v>0.2222222238779068</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2785971760749817</c:v>
+                  <c:v>0.1388888955116272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2622091174125671</c:v>
+                  <c:v>0.1111111119389534</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1966568380594254</c:v>
+                  <c:v>0.1111111119389534</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1311045587062836</c:v>
+                  <c:v>0.1111111119389534</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1311045587062836</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1311045587062836</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1311045587062836</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.06555227935314179</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.06555227935314179</c:v>
-                </c:pt>
-                <c:pt idx="104">
+                  <c:v>0.02777777798473835</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -658,322 +556,241 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$107</c:f>
+              <c:f>flash_percent!$A$3:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="105"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
+                  <c:v>stm32l4xx_hal_rcc.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>stm32l4xx_hal_i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>stm32l4xx_hal_rcc.o</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>fz_wm.l</c:v>
+                  <c:v>stm32l4xx_hal_lptim.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>stm32l4xx_hal_lptim.o</c:v>
+                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>rx8900.o</c:v>
+                  <c:v>applowpowermgr.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
+                  <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>applowpowermgr.o</c:v>
+                  <c:v>tx_event_flags_set.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>tx_thread_system_suspend.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>tx_low_power.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>daddsub_clz.o</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>stm32l4xx_hal_gpio.o</c:v>
+                  <c:v>tx_thread_create.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>htu21d.o</c:v>
+                  <c:v>c_w.l</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>appmain.o</c:v>
+                  <c:v>tx_timer_thread_entry.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>tx_event_flags_set.o</c:v>
+                  <c:v>tx_thread_system_resume.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>c_w.l</c:v>
+                  <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>txe_thread_create.o</c:v>
+                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>txe_timer_create.o</c:v>
+                  <c:v>i2c.o</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>tx_thread_system_suspend.o</c:v>
+                  <c:v>txe_byte_pool_create.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>txe_byte_pool_create.o</c:v>
+                  <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>dmul.o</c:v>
+                  <c:v>tx_timer_initialize.o</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>tx_timer_thread_entry.o</c:v>
+                  <c:v>tx_byte_pool_create.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>tx_thread_create.o</c:v>
+                  <c:v>tx_thread_schedule.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>txe_event_flags_create.o</c:v>
+                  <c:v>rx8900.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>i2c.o</c:v>
+                  <c:v>lptim.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
+                  <c:v>tx_timer_system_activate.o</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>tx_event_flags_get.o</c:v>
+                  <c:v>gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>bh1750fvi.o</c:v>
+                  <c:v>tx_timer_interrupt.o</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>tx_thread_schedule.o</c:v>
+                  <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>tx_thread_system_resume.o</c:v>
+                  <c:v>rx8900_callout.o</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>lptim.o</c:v>
+                  <c:v>appmain.o</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>tx_timer_deactivate.o</c:v>
+                  <c:v>tx_initialize_low_level.o</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>stm32l4xx_hal_cortex.o</c:v>
+                  <c:v>tx_thread_time_slice.o</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>tx_timer_interrupt.o</c:v>
+                  <c:v>tx_thread_shell_entry.o</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>txe_event_flags_get.o</c:v>
+                  <c:v>tx_initialize_high_level.o</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>tx_timer_initialize.o</c:v>
+                  <c:v>tx_thread_initialize.o</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>dnaninf.o</c:v>
+                  <c:v>appirqcallout.o</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>tx_event_flags_cleanup.o</c:v>
+                  <c:v>stm32l4xx_hal_pwr.o</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>tx_initialize_low_level.o</c:v>
+                  <c:v>tx_timer_system_deactivate.o</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>main.o</c:v>
+                  <c:v>app_azure_rtos.o</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>stm32l4xx_hal_i2c_ex.o</c:v>
+                  <c:v>tx_initialize_kernel_enter.o</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>gpio.o</c:v>
+                  <c:v>txe_event_flags_set.o</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>tx_byte_pool_create.o</c:v>
+                  <c:v>tx_thread_timeout.o</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>tx_timer_create.o</c:v>
+                  <c:v>__scatter.o</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>tx_thread_sleep.o</c:v>
+                  <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>bh1750fvi_callout.o</c:v>
+                  <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>buzzer_callout.o</c:v>
+                  <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>tx_thread_time_slice.o</c:v>
+                  <c:v>app_threadx.o</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>htu21d_callout.o</c:v>
+                  <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>d2f.o</c:v>
+                  <c:v>rt_memclr.o</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>appirqcallout.o</c:v>
+                  <c:v>stm32l4xx_hal_msp.o</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>stm32l4xx_hal.o</c:v>
+                  <c:v>tx_thread_stack_build.o</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>__scatter.o</c:v>
+                  <c:v>stm32l4xx_it.o</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>tx_timer_system_activate.o</c:v>
+                  <c:v>tx_timer_expiration_process.o</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>rx8900_callout.o</c:v>
+                  <c:v>tx_thread_system_return.o</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>tx_thread_shell_entry.o</c:v>
+                  <c:v>tx_time_get.o</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>tx_event_flags_create.o</c:v>
+                  <c:v>appmodectrl.o</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>system_stm32l4xx.o</c:v>
+                  <c:v>__scatter_zi.o</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>app_azure_rtos.o</c:v>
+                  <c:v>fz_wm.l</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>rt_memclr_w.o</c:v>
+                  <c:v>fpinit.o</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>tx_initialize_kernel_enter.o</c:v>
+                  <c:v>__scatter_copy.o</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>sys_stackheap_outer.o</c:v>
+                  <c:v>exit.o</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>stm32l4xx_hal_pwr.o</c:v>
+                  <c:v>aeabi_memset.o</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>tx_thread_timeout.o</c:v>
+                  <c:v>tx_thread_interrupt_disable.o</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>rt_memclr.o</c:v>
+                  <c:v>sys_exit.o</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>buzzer.o</c:v>
+                  <c:v>__rtentry2.o</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>tx_thread_stack_build.o</c:v>
+                  <c:v>rtexit2.o</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>tx_timer_system_deactivate.o</c:v>
+                  <c:v>libspace.o</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>tx_thread_initialize.o</c:v>
+                  <c:v>__main.o</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>stm32l4xx_hal_msp.o</c:v>
+                  <c:v>libinit2.o</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>tx_initialize_high_level.o</c:v>
+                  <c:v>heapauxi.o</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>app_threadx.o</c:v>
+                  <c:v>__rtentry4.o</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>txe_event_flags_set.o</c:v>
+                  <c:v>tx_thread_interrupt_restore.o</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>tx_timer_expiration_process.o</c:v>
+                  <c:v>use_no_semi.o</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>appobj.o</c:v>
+                  <c:v>rtexit.o</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>dflt_clz.o</c:v>
+                  <c:v>libshutdown2.o</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>tx_thread_system_return.o</c:v>
+                  <c:v>libshutdown.o</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>stm32l4xx_it.o</c:v>
+                  <c:v>libinit.o</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>__scatter_zi.o</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>fpinit.o</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>__scatter_copy.o</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>tx_time_set.o</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>txe_timer_deactivate.o</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>tx_time_get.o</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>appmodectrl.o</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>exit.o</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>aeabi_memset.o</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>tx_thread_interrupt_disable.o</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>dretinf.o</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>sys_exit.o</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>__rtentry2.o</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>fretinf.o</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>rtexit2.o</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>libspace.o</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>__main.o</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>libinit2.o</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>heapauxi.o</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>__rtentry4.o</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>tx_thread_interrupt_restore.o</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>rx8900_lcfg.o</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>use_no_semi.o</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>rtexit.o</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>libshutdown2.o</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>libshutdown.o</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>libinit.o</c:v>
-                </c:pt>
-                <c:pt idx="104">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -981,323 +798,242 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$107</c:f>
+              <c:f>flash_percent!$B$3:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>12.18533134460449</c:v>
+                  <c:v>15.51081848144531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.71468734741211</c:v>
+                  <c:v>12.67337703704834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.597448825836182</c:v>
+                  <c:v>8.131885528564453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.012192726135254</c:v>
+                  <c:v>6.990568161010742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.841680765151978</c:v>
+                  <c:v>5.266703605651856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.654098749160767</c:v>
+                  <c:v>5.207260131835938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.215156555175781</c:v>
+                  <c:v>3.51906156539917</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.211405038833618</c:v>
+                  <c:v>2.948402881622315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.046332836151123</c:v>
+                  <c:v>2.916699647903442</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.94128680229187</c:v>
+                  <c:v>2.005231142044067</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.521102905273438</c:v>
+                  <c:v>1.902195453643799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.408553838729858</c:v>
+                  <c:v>1.87841796875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.183455228805542</c:v>
+                  <c:v>1.870492219924927</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.800787806510925</c:v>
+                  <c:v>1.822937250137329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.725754976272583</c:v>
+                  <c:v>1.822937250137329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.47814667224884</c:v>
+                  <c:v>1.616866111755371</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.425623655319214</c:v>
+                  <c:v>1.40286910533905</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.425623655319214</c:v>
+                  <c:v>1.363240122795105</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.320577740669251</c:v>
+                  <c:v>1.2443528175354</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.275558114051819</c:v>
+                  <c:v>1.212649583816528</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.245544910430908</c:v>
+                  <c:v>1.149243116378784</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.193021893501282</c:v>
+                  <c:v>0.9986526370048523</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.178015351295471</c:v>
+                  <c:v>0.9352461099624634</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.140498995780945</c:v>
+                  <c:v>0.9352461099624634</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.035452961921692</c:v>
+                  <c:v>0.8401363492012024</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.005439877510071</c:v>
+                  <c:v>0.7688040137290955</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9904333353042603</c:v>
+                  <c:v>0.7291749119758606</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9454135894775391</c:v>
+                  <c:v>0.7133232951164246</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9304070472717285</c:v>
+                  <c:v>0.6499167680740356</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7728381156921387</c:v>
+                  <c:v>0.6419909596443176</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7353217005729675</c:v>
+                  <c:v>0.6023619174957275</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7278184294700623</c:v>
+                  <c:v>0.5944360494613648</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6903020143508911</c:v>
+                  <c:v>0.5310295820236206</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6152691841125488</c:v>
+                  <c:v>0.5310295820236206</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6002626419067383</c:v>
+                  <c:v>0.5151779055595398</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.585256040096283</c:v>
+                  <c:v>0.5151779055595398</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.585256040096283</c:v>
+                  <c:v>0.4834746718406677</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5702494978904724</c:v>
+                  <c:v>0.4438455998897553</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5702494978904724</c:v>
+                  <c:v>0.4240310788154602</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5477396249771118</c:v>
+                  <c:v>0.4121423363685608</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.517726480960846</c:v>
+                  <c:v>0.4042165279388428</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5102232098579407</c:v>
+                  <c:v>0.3804391026496887</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.4727067947387695</c:v>
+                  <c:v>0.3725132644176483</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.4652035236358643</c:v>
+                  <c:v>0.3566616475582123</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.457700252532959</c:v>
+                  <c:v>0.3408100306987763</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.4501969516277313</c:v>
+                  <c:v>0.3091067671775818</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.4351904094219208</c:v>
+                  <c:v>0.3011809587478638</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.390170693397522</c:v>
+                  <c:v>0.2932551205158234</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3676608502864838</c:v>
+                  <c:v>0.2694776952266693</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3676608502864838</c:v>
+                  <c:v>0.2615518867969513</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3601575791835785</c:v>
+                  <c:v>0.2536260485649109</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3526542782783508</c:v>
+                  <c:v>0.1902195513248444</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.3376477062702179</c:v>
+                  <c:v>0.1822937279939652</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.3376477062702179</c:v>
+                  <c:v>0.1505904793739319</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.3301444351673126</c:v>
+                  <c:v>0.1347388476133347</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.3301444351673126</c:v>
+                  <c:v>0.1347388476133347</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.3226411640644074</c:v>
+                  <c:v>0.1109613999724388</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.3151378631591797</c:v>
+                  <c:v>0.1030355840921402</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2926280200481415</c:v>
+                  <c:v>0.1030355840921402</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2926280200481415</c:v>
+                  <c:v>0.1030355840921402</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2776214480400085</c:v>
+                  <c:v>0.07133232802152634</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.2776214480400085</c:v>
+                  <c:v>0.06340651214122772</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.2701181769371033</c:v>
+                  <c:v>0.05548069998621941</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.2551116049289703</c:v>
+                  <c:v>0.04755488783121109</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.2476083338260651</c:v>
+                  <c:v>0.04755488783121109</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.2401050478219986</c:v>
+                  <c:v>0.03962907195091248</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.2175952047109604</c:v>
+                  <c:v>0.03170325607061386</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.2175952047109604</c:v>
+                  <c:v>0.03170325607061386</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1875820606946945</c:v>
+                  <c:v>0.02377744391560555</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1725755035877228</c:v>
+                  <c:v>0.02377744391560555</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1725755035877228</c:v>
+                  <c:v>0.02377744391560555</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1500656604766846</c:v>
+                  <c:v>0.02377744391560555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1500656604766846</c:v>
+                  <c:v>0.007925814017653465</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1500656604766846</c:v>
+                  <c:v>0.007925814017653465</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1425623744726181</c:v>
+                  <c:v>0.007925814017653465</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1425623744726181</c:v>
+                  <c:v>0.007925814017653465</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1125492379069328</c:v>
+                  <c:v>0.007925814017653465</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.105045959353447</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.09754267334938049</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.09754267334938049</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.09754267334938049</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.09003939479589462</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.09003939479589462</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.09003939479589462</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.06752954423427582</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.06002626195549965</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.05252297967672348</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.04501969739794731</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.04501969739794731</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.04501969739794731</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.03751641511917114</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.03751641511917114</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.03001313097774983</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.03001313097774983</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.02250984869897366</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.02250984869897366</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.02250984869897366</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.02250984869897366</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.01500656548887491</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.007503282744437456</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.007503282744437456</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.007503282744437456</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.007503282744437456</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.007503282744437456</c:v>
-                </c:pt>
-                <c:pt idx="104">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1402,8 +1138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H107" totalsRowCount="1">
-  <autoFilter ref="A2:H106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H80" totalsRowCount="1">
+  <autoFilter ref="A2:H79"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1419,8 +1155,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H107" totalsRowCount="1">
-  <autoFilter ref="A2:H106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H80" totalsRowCount="1">
+  <autoFilter ref="A2:H79"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1720,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1736,28 +1472,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1765,25 +1501,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>39.54441070556641</v>
+        <v>42.66666793823242</v>
       </c>
       <c r="C3" s="1">
-        <v>2413</v>
+        <v>1536</v>
       </c>
       <c r="D3" s="1">
-        <v>642</v>
+        <v>460</v>
       </c>
       <c r="E3" s="1">
-        <v>642</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>2413</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1791,25 +1527,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>25.17207527160645</v>
+        <v>24.11111068725586</v>
       </c>
       <c r="C4" s="1">
-        <v>1536</v>
+        <v>868</v>
       </c>
       <c r="D4" s="1">
-        <v>460</v>
+        <v>306</v>
       </c>
       <c r="E4" s="1">
-        <v>64</v>
+        <v>286</v>
       </c>
       <c r="F4" s="1">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1536</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1817,25 +1553,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>14.22484397888184</v>
+        <v>15.66666698455811</v>
       </c>
       <c r="C5" s="1">
-        <v>868</v>
+        <v>564</v>
       </c>
       <c r="D5" s="1">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>868</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1843,25 +1579,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.242871284484863</v>
+        <v>4.777777671813965</v>
       </c>
       <c r="C6" s="1">
-        <v>564</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>564</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1869,25 +1605,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>2.818747997283936</v>
+        <v>2.666666746139526</v>
       </c>
       <c r="C7" s="1">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
-        <v>58</v>
+        <v>480</v>
       </c>
       <c r="E7" s="1">
-        <v>54</v>
+        <v>480</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1895,16 +1631,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.573254704475403</v>
+        <v>2.666666746139526</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
       </c>
       <c r="D8" s="1">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1921,16 +1657,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.573254704475403</v>
+        <v>2.333333253860474</v>
       </c>
       <c r="C9" s="1">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>354</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>354</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1939,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1947,16 +1683,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.376597881317139</v>
+        <v>1.555555582046509</v>
       </c>
       <c r="C10" s="1">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="E10" s="1">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1965,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1973,16 +1709,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.9177318811416626</v>
+        <v>1.444444417953491</v>
       </c>
       <c r="C11" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1991,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1999,16 +1735,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.8521795868873596</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2017,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2025,25 +1761,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.7210750579833984</v>
+        <v>0.3888888955116272</v>
       </c>
       <c r="C13" s="1">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>120</v>
+        <v>1329</v>
       </c>
       <c r="E13" s="1">
-        <v>120</v>
+        <v>1328</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2051,16 +1787,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.5899705290794373</v>
+        <v>0.2222222238779068</v>
       </c>
       <c r="C14" s="1">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2069,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2077,25 +1813,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.2785971760749817</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="C15" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>857</v>
+        <v>162</v>
       </c>
       <c r="E15" s="1">
-        <v>856</v>
+        <v>162</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2103,16 +1839,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.2622091174125671</v>
+        <v>0.1111111119389534</v>
       </c>
       <c r="C16" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>672</v>
+        <v>736</v>
       </c>
       <c r="E16" s="1">
-        <v>672</v>
+        <v>736</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2121,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2129,25 +1865,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1966568380594254</v>
+        <v>0.1111111119389534</v>
       </c>
       <c r="C17" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2155,22 +1891,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.1311045587062836</v>
+        <v>0.1111111119389534</v>
       </c>
       <c r="C18" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -2181,16 +1917,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.1311045587062836</v>
+        <v>0.02777777798473835</v>
       </c>
       <c r="C19" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1024</v>
+        <v>236</v>
       </c>
       <c r="E19" s="1">
-        <v>1024</v>
+        <v>236</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2199,142 +1935,38 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.1311045587062836</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1">
-        <v>66</v>
-      </c>
-      <c r="E20" s="1">
-        <v>66</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.1311045587062836</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1">
-        <v>98</v>
-      </c>
-      <c r="E21" s="1">
-        <v>98</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.06555227935314179</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>856</v>
-      </c>
-      <c r="E22" s="1">
-        <v>856</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.06555227935314179</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>86</v>
-      </c>
-      <c r="E23" s="1">
-        <v>18</v>
-      </c>
-      <c r="F23" s="1">
-        <v>64</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C107">
+      <c r="C80">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D107">
+      <c r="D80">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E107">
+      <c r="E80">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F107">
+      <c r="F80">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G107">
+      <c r="G80">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H107">
+      <c r="H80">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2350,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2366,45 +1998,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>12.18533134460449</v>
+        <v>15.51081848144531</v>
       </c>
       <c r="C3" s="1">
-        <v>3248</v>
+        <v>3914</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>3248</v>
+        <v>3914</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2418,19 +2050,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>10.71468734741211</v>
+        <v>12.67337703704834</v>
       </c>
       <c r="C4" s="1">
-        <v>2856</v>
+        <v>3198</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>2856</v>
+        <v>3198</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2444,19 +2076,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>5.597448825836182</v>
+        <v>8.131885528564453</v>
       </c>
       <c r="C5" s="1">
-        <v>1492</v>
+        <v>2052</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1492</v>
+        <v>2052</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2470,19 +2102,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>5.012192726135254</v>
+        <v>6.990568161010742</v>
       </c>
       <c r="C6" s="1">
-        <v>1336</v>
+        <v>1764</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1336</v>
+        <v>1764</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2496,45 +2128,45 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>3.841680765151978</v>
+        <v>5.266703605651856</v>
       </c>
       <c r="C7" s="1">
-        <v>1024</v>
+        <v>1329</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
-        <v>1024</v>
+        <v>1328</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>3.654098749160767</v>
+        <v>5.207260131835938</v>
       </c>
       <c r="C8" s="1">
-        <v>974</v>
+        <v>1314</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>974</v>
+        <v>1314</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2548,45 +2180,45 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>3.215156555175781</v>
+        <v>3.51906156539917</v>
       </c>
       <c r="C9" s="1">
-        <v>857</v>
+        <v>888</v>
       </c>
       <c r="D9" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>856</v>
+        <v>888</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>3.211405038833618</v>
+        <v>2.948402881622315</v>
       </c>
       <c r="C10" s="1">
-        <v>856</v>
+        <v>744</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>856</v>
+        <v>744</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2595,24 +2227,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>3.046332836151123</v>
+        <v>2.916699647903442</v>
       </c>
       <c r="C11" s="1">
-        <v>812</v>
+        <v>736</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>812</v>
+        <v>736</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2621,24 +2253,24 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
-        <v>2.94128680229187</v>
+        <v>2.005231142044067</v>
       </c>
       <c r="C12" s="1">
-        <v>784</v>
+        <v>506</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>784</v>
+        <v>506</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2652,19 +2284,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>2.521102905273438</v>
+        <v>1.902195453643799</v>
       </c>
       <c r="C13" s="1">
-        <v>672</v>
+        <v>480</v>
       </c>
       <c r="D13" s="1">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1">
-        <v>672</v>
+        <v>480</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2673,24 +2305,24 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>2.408553838729858</v>
+        <v>1.87841796875</v>
       </c>
       <c r="C14" s="1">
-        <v>642</v>
+        <v>474</v>
       </c>
       <c r="D14" s="1">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>642</v>
+        <v>474</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2699,24 +2331,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>2413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>2.183455228805542</v>
+        <v>1.870492219924927</v>
       </c>
       <c r="C15" s="1">
-        <v>582</v>
+        <v>472</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>582</v>
+        <v>472</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2730,19 +2362,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>1.800787806510925</v>
+        <v>1.822937250137329</v>
       </c>
       <c r="C16" s="1">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="D16" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2751,15 +2383,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>1.725754976272583</v>
+        <v>1.822937250137329</v>
       </c>
       <c r="C17" s="1">
         <v>460</v>
@@ -2782,19 +2414,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>1.47814667224884</v>
+        <v>1.616866111755371</v>
       </c>
       <c r="C18" s="1">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2808,19 +2440,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
-        <v>1.425623655319214</v>
+        <v>1.40286910533905</v>
       </c>
       <c r="C19" s="1">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2829,24 +2461,24 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>1.425623655319214</v>
+        <v>1.363240122795105</v>
       </c>
       <c r="C20" s="1">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2860,19 +2492,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>1.320577740669251</v>
+        <v>1.2443528175354</v>
       </c>
       <c r="C21" s="1">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2886,45 +2518,45 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2">
-        <v>1.275558114051819</v>
+        <v>1.212649583816528</v>
       </c>
       <c r="C22" s="1">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="E22" s="1">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
-        <v>1.245544910430908</v>
+        <v>1.149243116378784</v>
       </c>
       <c r="C23" s="1">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2938,19 +2570,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
-        <v>1.193021893501282</v>
+        <v>0.9986526370048523</v>
       </c>
       <c r="C24" s="1">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2964,19 +2596,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>1.178015351295471</v>
+        <v>0.9352461099624634</v>
       </c>
       <c r="C25" s="1">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2985,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2993,16 +2625,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="2">
-        <v>1.140498995780945</v>
+        <v>0.9352461099624634</v>
       </c>
       <c r="C26" s="1">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="D26" s="1">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3011,24 +2643,24 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
-        <v>1.035452961921692</v>
+        <v>0.8401363492012024</v>
       </c>
       <c r="C27" s="1">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -3042,19 +2674,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
-        <v>1.005439877510071</v>
+        <v>0.7688040137290955</v>
       </c>
       <c r="C28" s="1">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -3068,19 +2700,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
-        <v>0.9904333353042603</v>
+        <v>0.7291749119758606</v>
       </c>
       <c r="C29" s="1">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="D29" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -3089,24 +2721,24 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
-        <v>0.9454135894775391</v>
+        <v>0.7133232951164246</v>
       </c>
       <c r="C30" s="1">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -3120,19 +2752,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
-        <v>0.9304070472717285</v>
+        <v>0.6499167680740356</v>
       </c>
       <c r="C31" s="1">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -3146,19 +2778,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7728381156921387</v>
+        <v>0.6419909596443176</v>
       </c>
       <c r="C32" s="1">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3167,24 +2799,24 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7353217005729675</v>
+        <v>0.6023619174957275</v>
       </c>
       <c r="C33" s="1">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -3198,19 +2830,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7278184294700623</v>
+        <v>0.5944360494613648</v>
       </c>
       <c r="C34" s="1">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3224,19 +2856,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6903020143508911</v>
+        <v>0.5310295820236206</v>
       </c>
       <c r="C35" s="1">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3250,19 +2882,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6152691841125488</v>
+        <v>0.5310295820236206</v>
       </c>
       <c r="C36" s="1">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E36" s="1">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3271,50 +2903,50 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6002626419067383</v>
+        <v>0.5151779055595398</v>
       </c>
       <c r="C37" s="1">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D37" s="1">
-        <v>868</v>
+        <v>172</v>
       </c>
       <c r="E37" s="1">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H37" s="1">
-        <v>868</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2">
-        <v>0.585256040096283</v>
+        <v>0.5151779055595398</v>
       </c>
       <c r="C38" s="1">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3323,24 +2955,24 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.585256040096283</v>
+        <v>0.4834746718406677</v>
       </c>
       <c r="C39" s="1">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3354,19 +2986,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5702494978904724</v>
+        <v>0.4438455998897553</v>
       </c>
       <c r="C40" s="1">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3380,45 +3012,45 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5702494978904724</v>
+        <v>0.4240310788154602</v>
       </c>
       <c r="C41" s="1">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E41" s="1">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>0.5477396249771118</v>
+        <v>0.4121423363685608</v>
       </c>
       <c r="C42" s="1">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3432,19 +3064,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>0.517726480960846</v>
+        <v>0.4042165279388428</v>
       </c>
       <c r="C43" s="1">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3458,19 +3090,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>0.5102232098579407</v>
+        <v>0.3804391026496887</v>
       </c>
       <c r="C44" s="1">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3484,19 +3116,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>0.4727067947387695</v>
+        <v>0.3725132644176483</v>
       </c>
       <c r="C45" s="1">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3510,25 +3142,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B46" s="2">
-        <v>0.4652035236358643</v>
+        <v>0.3566616475582123</v>
       </c>
       <c r="C46" s="1">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -3536,25 +3168,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B47" s="2">
-        <v>0.457700252532959</v>
+        <v>0.3408100306987763</v>
       </c>
       <c r="C47" s="1">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3562,19 +3194,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.4501969516277313</v>
+        <v>0.3091067671775818</v>
       </c>
       <c r="C48" s="1">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D48" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3583,24 +3215,24 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.4351904094219208</v>
+        <v>0.3011809587478638</v>
       </c>
       <c r="C49" s="1">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3614,19 +3246,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.390170693397522</v>
+        <v>0.2932551205158234</v>
       </c>
       <c r="C50" s="1">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3640,19 +3272,19 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3676608502864838</v>
+        <v>0.2694776952266693</v>
       </c>
       <c r="C51" s="1">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3666,19 +3298,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.3676608502864838</v>
+        <v>0.2615518867969513</v>
       </c>
       <c r="C52" s="1">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D52" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3687,30 +3319,30 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3601575791835785</v>
+        <v>0.2536260485649109</v>
       </c>
       <c r="C53" s="1">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D53" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -3718,19 +3350,19 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.3526542782783508</v>
+        <v>0.1902195513248444</v>
       </c>
       <c r="C54" s="1">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3744,19 +3376,19 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.3376477062702179</v>
+        <v>0.1822937279939652</v>
       </c>
       <c r="C55" s="1">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3770,19 +3402,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.3376477062702179</v>
+        <v>0.1505904793739319</v>
       </c>
       <c r="C56" s="1">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3796,19 +3428,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.3301444351673126</v>
+        <v>0.1347388476133347</v>
       </c>
       <c r="C57" s="1">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3822,19 +3454,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.3301444351673126</v>
+        <v>0.1347388476133347</v>
       </c>
       <c r="C58" s="1">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3848,25 +3480,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.3226411640644074</v>
+        <v>0.1109613999724388</v>
       </c>
       <c r="C59" s="1">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F59" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -3874,19 +3506,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.3151378631591797</v>
+        <v>0.1030355840921402</v>
       </c>
       <c r="C60" s="1">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D60" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3895,24 +3527,24 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.2926280200481415</v>
+        <v>0.1030355840921402</v>
       </c>
       <c r="C61" s="1">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3926,19 +3558,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.2926280200481415</v>
+        <v>0.1030355840921402</v>
       </c>
       <c r="C62" s="1">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3952,19 +3584,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.2776214480400085</v>
+        <v>0.07133232802152634</v>
       </c>
       <c r="C63" s="1">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -3978,19 +3610,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.2776214480400085</v>
+        <v>0.06340651214122772</v>
       </c>
       <c r="C64" s="1">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4004,19 +3636,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.2701181769371033</v>
+        <v>0.05548069998621941</v>
       </c>
       <c r="C65" s="1">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4030,19 +3662,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.2551116049289703</v>
+        <v>0.04755488783121109</v>
       </c>
       <c r="C66" s="1">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4056,19 +3688,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.2476083338260651</v>
+        <v>0.04755488783121109</v>
       </c>
       <c r="C67" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4077,24 +3709,24 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.2401050478219986</v>
+        <v>0.03962907195091248</v>
       </c>
       <c r="C68" s="1">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4108,19 +3740,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B69" s="2">
-        <v>0.2175952047109604</v>
+        <v>0.03170325607061386</v>
       </c>
       <c r="C69" s="1">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E69" s="1">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4129,50 +3761,50 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.2175952047109604</v>
+        <v>0.03170325607061386</v>
       </c>
       <c r="C70" s="1">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1875820606946945</v>
+        <v>0.02377744391560555</v>
       </c>
       <c r="C71" s="1">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4186,19 +3818,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1725755035877228</v>
+        <v>0.02377744391560555</v>
       </c>
       <c r="C72" s="1">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D72" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4207,24 +3839,24 @@
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1725755035877228</v>
+        <v>0.02377744391560555</v>
       </c>
       <c r="C73" s="1">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4238,19 +3870,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1500656604766846</v>
+        <v>0.02377744391560555</v>
       </c>
       <c r="C74" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4264,19 +3896,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1500656604766846</v>
+        <v>0.007925814017653465</v>
       </c>
       <c r="C75" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4290,19 +3922,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1500656604766846</v>
+        <v>0.007925814017653465</v>
       </c>
       <c r="C76" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4311,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4319,16 +3951,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1425623744726181</v>
+        <v>0.007925814017653465</v>
       </c>
       <c r="C77" s="1">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4345,16 +3977,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1425623744726181</v>
+        <v>0.007925814017653465</v>
       </c>
       <c r="C78" s="1">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4371,16 +4003,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1125492379069328</v>
+        <v>0.007925814017653465</v>
       </c>
       <c r="C79" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4393,736 +4025,34 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2">
-        <v>0.105045959353447</v>
-      </c>
-      <c r="C80" s="1">
-        <v>28</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1">
-        <v>28</v>
-      </c>
-      <c r="F80" s="1">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0</v>
-      </c>
-      <c r="H80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1" t="s">
+      <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
-        <v>0.09754267334938049</v>
-      </c>
-      <c r="C81" s="1">
-        <v>26</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1">
-        <v>26</v>
-      </c>
-      <c r="F81" s="1">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0</v>
-      </c>
-      <c r="H81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2">
-        <v>0.09754267334938049</v>
-      </c>
-      <c r="C82" s="1">
-        <v>26</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1">
-        <v>26</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2">
-        <v>0.09754267334938049</v>
-      </c>
-      <c r="C83" s="1">
-        <v>26</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1">
-        <v>26</v>
-      </c>
-      <c r="F83" s="1">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2">
-        <v>0.09003939479589462</v>
-      </c>
-      <c r="C84" s="1">
-        <v>24</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1">
-        <v>24</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2">
-        <v>0.09003939479589462</v>
-      </c>
-      <c r="C85" s="1">
-        <v>24</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1">
-        <v>24</v>
-      </c>
-      <c r="F85" s="1">
-        <v>0</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="2">
-        <v>0.09003939479589462</v>
-      </c>
-      <c r="C86" s="1">
-        <v>24</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0</v>
-      </c>
-      <c r="E86" s="1">
-        <v>24</v>
-      </c>
-      <c r="F86" s="1">
-        <v>0</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2">
-        <v>0.06752954423427582</v>
-      </c>
-      <c r="C87" s="1">
-        <v>18</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0</v>
-      </c>
-      <c r="E87" s="1">
-        <v>18</v>
-      </c>
-      <c r="F87" s="1">
-        <v>0</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2">
-        <v>0.06002626195549965</v>
-      </c>
-      <c r="C88" s="1">
-        <v>16</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1">
-        <v>16</v>
-      </c>
-      <c r="F88" s="1">
-        <v>0</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0</v>
-      </c>
-      <c r="H88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="2">
-        <v>0.05252297967672348</v>
-      </c>
-      <c r="C89" s="1">
-        <v>14</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1">
-        <v>14</v>
-      </c>
-      <c r="F89" s="1">
-        <v>0</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0</v>
-      </c>
-      <c r="H89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="2">
-        <v>0.04501969739794731</v>
-      </c>
-      <c r="C90" s="1">
-        <v>12</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0</v>
-      </c>
-      <c r="E90" s="1">
-        <v>12</v>
-      </c>
-      <c r="F90" s="1">
-        <v>0</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="2">
-        <v>0.04501969739794731</v>
-      </c>
-      <c r="C91" s="1">
-        <v>12</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0</v>
-      </c>
-      <c r="E91" s="1">
-        <v>12</v>
-      </c>
-      <c r="F91" s="1">
-        <v>0</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="2">
-        <v>0.04501969739794731</v>
-      </c>
-      <c r="C92" s="1">
-        <v>12</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1">
-        <v>12</v>
-      </c>
-      <c r="F92" s="1">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="2">
-        <v>0.03751641511917114</v>
-      </c>
-      <c r="C93" s="1">
-        <v>10</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1">
-        <v>10</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0.03751641511917114</v>
-      </c>
-      <c r="C94" s="1">
-        <v>10</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0</v>
-      </c>
-      <c r="E94" s="1">
-        <v>10</v>
-      </c>
-      <c r="F94" s="1">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="2">
-        <v>0.03001313097774983</v>
-      </c>
-      <c r="C95" s="1">
-        <v>8</v>
-      </c>
-      <c r="D95" s="1">
-        <v>96</v>
-      </c>
-      <c r="E95" s="1">
-        <v>8</v>
-      </c>
-      <c r="F95" s="1">
-        <v>0</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0</v>
-      </c>
-      <c r="H95" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
-        <v>0.03001313097774983</v>
-      </c>
-      <c r="C96" s="1">
-        <v>8</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1">
-        <v>8</v>
-      </c>
-      <c r="F96" s="1">
-        <v>0</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2">
-        <v>0.02250984869897366</v>
-      </c>
-      <c r="C97" s="1">
-        <v>6</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0</v>
-      </c>
-      <c r="E97" s="1">
-        <v>6</v>
-      </c>
-      <c r="F97" s="1">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2">
-        <v>0.02250984869897366</v>
-      </c>
-      <c r="C98" s="1">
-        <v>6</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0</v>
-      </c>
-      <c r="E98" s="1">
-        <v>6</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2">
-        <v>0.02250984869897366</v>
-      </c>
-      <c r="C99" s="1">
-        <v>6</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0</v>
-      </c>
-      <c r="E99" s="1">
-        <v>6</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2">
-        <v>0.02250984869897366</v>
-      </c>
-      <c r="C100" s="1">
-        <v>6</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1">
-        <v>6</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2">
-        <v>0.01500656548887491</v>
-      </c>
-      <c r="C101" s="1">
-        <v>4</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>4</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="2">
-        <v>0.007503282744437456</v>
-      </c>
-      <c r="C102" s="1">
-        <v>2</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1">
-        <v>2</v>
-      </c>
-      <c r="F102" s="1">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0</v>
-      </c>
-      <c r="H102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="2">
-        <v>0.007503282744437456</v>
-      </c>
-      <c r="C103" s="1">
-        <v>2</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1">
-        <v>2</v>
-      </c>
-      <c r="F103" s="1">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="2">
-        <v>0.007503282744437456</v>
-      </c>
-      <c r="C104" s="1">
-        <v>2</v>
-      </c>
-      <c r="D104" s="1">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1">
-        <v>2</v>
-      </c>
-      <c r="F104" s="1">
-        <v>0</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="2">
-        <v>0.007503282744437456</v>
-      </c>
-      <c r="C105" s="1">
-        <v>2</v>
-      </c>
-      <c r="D105" s="1">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1">
-        <v>2</v>
-      </c>
-      <c r="F105" s="1">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2">
-        <v>0.007503282744437456</v>
-      </c>
-      <c r="C106" s="1">
-        <v>2</v>
-      </c>
-      <c r="D106" s="1">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1">
-        <v>2</v>
-      </c>
-      <c r="F106" s="1">
-        <v>0</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
+      <c r="B80">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C107">
+      <c r="C80">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D107">
+      <c r="D80">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E107">
+      <c r="E80">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F107">
+      <c r="F80">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G107">
+      <c r="G80">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H107">
+      <c r="H80">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
